--- a/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201909\その他払出\集計画面\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543E710-64E5-4142-B161-DA368C581708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C28B12D-4FEA-40DE-BCEE-0878F9C4626D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2034,6 +2034,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2176,9 +2179,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3111,23 +3111,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>188118</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>84584</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 12">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D5E7C8-D88A-4781-80E1-77044AF143B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAD731A-61FD-45B9-A6AA-1EF2786DF791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,49 +3136,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="1107281"/>
-          <a:ext cx="3076575" cy="3629025"/>
+          <a:off x="371475" y="1095375"/>
+          <a:ext cx="9123809" cy="5380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3870,108 +3840,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="103"/>
-      <c r="AG32" s="103"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="103"/>
-      <c r="AJ32" s="103"/>
-      <c r="AK32" s="103"/>
-      <c r="AL32" s="103"/>
-      <c r="AM32" s="103"/>
-      <c r="AN32" s="103"/>
-      <c r="AO32" s="103"/>
-      <c r="AP32" s="103"/>
-      <c r="AQ32" s="103"/>
-      <c r="AR32" s="103"/>
-      <c r="AS32" s="103"/>
-      <c r="AT32" s="103"/>
-      <c r="AU32" s="103"/>
-      <c r="AV32" s="103"/>
-      <c r="AW32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="104"/>
+      <c r="AF32" s="104"/>
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="104"/>
+      <c r="AI32" s="104"/>
+      <c r="AJ32" s="104"/>
+      <c r="AK32" s="104"/>
+      <c r="AL32" s="104"/>
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="104"/>
+      <c r="AP32" s="104"/>
+      <c r="AQ32" s="104"/>
+      <c r="AR32" s="104"/>
+      <c r="AS32" s="104"/>
+      <c r="AT32" s="104"/>
+      <c r="AU32" s="104"/>
+      <c r="AV32" s="104"/>
+      <c r="AW32" s="104"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="104"/>
-      <c r="AF33" s="104"/>
-      <c r="AG33" s="104"/>
-      <c r="AH33" s="104"/>
-      <c r="AI33" s="104"/>
-      <c r="AJ33" s="104"/>
-      <c r="AK33" s="104"/>
-      <c r="AL33" s="104"/>
-      <c r="AM33" s="104"/>
-      <c r="AN33" s="104"/>
-      <c r="AO33" s="104"/>
-      <c r="AP33" s="104"/>
-      <c r="AQ33" s="104"/>
-      <c r="AR33" s="104"/>
-      <c r="AS33" s="104"/>
-      <c r="AT33" s="104"/>
-      <c r="AU33" s="104"/>
-      <c r="AV33" s="104"/>
-      <c r="AW33" s="104"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="105"/>
+      <c r="AB33" s="105"/>
+      <c r="AC33" s="105"/>
+      <c r="AD33" s="105"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="105"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="105"/>
+      <c r="AJ33" s="105"/>
+      <c r="AK33" s="105"/>
+      <c r="AL33" s="105"/>
+      <c r="AM33" s="105"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="105"/>
+      <c r="AT33" s="105"/>
+      <c r="AU33" s="105"/>
+      <c r="AV33" s="105"/>
+      <c r="AW33" s="105"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4009,55 +3979,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
-      <c r="U35" s="105"/>
-      <c r="V35" s="105"/>
-      <c r="W35" s="105"/>
-      <c r="X35" s="105"/>
-      <c r="Y35" s="105"/>
-      <c r="Z35" s="105"/>
-      <c r="AA35" s="105"/>
-      <c r="AB35" s="105"/>
-      <c r="AC35" s="105"/>
-      <c r="AD35" s="105"/>
-      <c r="AE35" s="105"/>
-      <c r="AF35" s="105"/>
-      <c r="AG35" s="105"/>
-      <c r="AH35" s="105"/>
-      <c r="AI35" s="105"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="105"/>
-      <c r="AL35" s="105"/>
-      <c r="AM35" s="105"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="105"/>
-      <c r="AP35" s="105"/>
-      <c r="AQ35" s="105"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="105"/>
-      <c r="AT35" s="105"/>
-      <c r="AU35" s="105"/>
-      <c r="AV35" s="105"/>
-      <c r="AW35" s="105"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
+      <c r="U35" s="106"/>
+      <c r="V35" s="106"/>
+      <c r="W35" s="106"/>
+      <c r="X35" s="106"/>
+      <c r="Y35" s="106"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="106"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="106"/>
+      <c r="AD35" s="106"/>
+      <c r="AE35" s="106"/>
+      <c r="AF35" s="106"/>
+      <c r="AG35" s="106"/>
+      <c r="AH35" s="106"/>
+      <c r="AI35" s="106"/>
+      <c r="AJ35" s="106"/>
+      <c r="AK35" s="106"/>
+      <c r="AL35" s="106"/>
+      <c r="AM35" s="106"/>
+      <c r="AN35" s="106"/>
+      <c r="AO35" s="106"/>
+      <c r="AP35" s="106"/>
+      <c r="AQ35" s="106"/>
+      <c r="AR35" s="106"/>
+      <c r="AS35" s="106"/>
+      <c r="AT35" s="106"/>
+      <c r="AU35" s="106"/>
+      <c r="AV35" s="106"/>
+      <c r="AW35" s="106"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4092,1767 +4062,1767 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
-      <c r="AL1" s="121"/>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="121"/>
-      <c r="AO1" s="121"/>
-      <c r="AP1" s="121"/>
-      <c r="AQ1" s="121"/>
-      <c r="AR1" s="121"/>
-      <c r="AS1" s="121"/>
-      <c r="AT1" s="121"/>
-      <c r="AU1" s="121"/>
-      <c r="AV1" s="121"/>
-      <c r="AW1" s="121"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122"/>
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="122"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123" t="s">
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="125" t="s">
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="125" t="s">
+      <c r="K3" s="127"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="123" t="s">
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123" t="s">
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="123" t="s">
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="123" t="s">
+      <c r="AO3" s="124"/>
+      <c r="AP3" s="124"/>
+      <c r="AQ3" s="124"/>
+      <c r="AR3" s="124"/>
+      <c r="AS3" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="123"/>
+      <c r="AT3" s="124"/>
+      <c r="AU3" s="124"/>
+      <c r="AV3" s="124"/>
+      <c r="AW3" s="124"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="125"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="125"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="125"/>
+      <c r="AM4" s="125"/>
+      <c r="AN4" s="125"/>
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="125"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="125"/>
+      <c r="AS4" s="125"/>
+      <c r="AT4" s="125"/>
+      <c r="AU4" s="125"/>
+      <c r="AV4" s="125"/>
+      <c r="AW4" s="125"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="107">
+      <c r="B5" s="108">
         <v>1</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109">
         <v>43725</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109" t="s">
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="106" t="s">
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="118" t="s">
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="118"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="118"/>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="118"/>
-      <c r="AF5" s="118"/>
-      <c r="AG5" s="118"/>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="118"/>
-      <c r="AJ5" s="118"/>
-      <c r="AK5" s="118"/>
-      <c r="AL5" s="118"/>
-      <c r="AM5" s="118"/>
-      <c r="AN5" s="106" t="s">
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="118"/>
-      <c r="AB7" s="118"/>
-      <c r="AC7" s="118"/>
-      <c r="AD7" s="118"/>
-      <c r="AE7" s="118"/>
-      <c r="AF7" s="118"/>
-      <c r="AG7" s="118"/>
-      <c r="AH7" s="118"/>
-      <c r="AI7" s="118"/>
-      <c r="AJ7" s="118"/>
-      <c r="AK7" s="118"/>
-      <c r="AL7" s="118"/>
-      <c r="AM7" s="118"/>
-      <c r="AN7" s="106"/>
-      <c r="AO7" s="106"/>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="106"/>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="106"/>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="106"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="118"/>
-      <c r="AD8" s="118"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="118"/>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="118"/>
-      <c r="AJ8" s="118"/>
-      <c r="AK8" s="118"/>
-      <c r="AL8" s="118"/>
-      <c r="AM8" s="118"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="119"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="107"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="118"/>
-      <c r="AB9" s="118"/>
-      <c r="AC9" s="118"/>
-      <c r="AD9" s="118"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="118"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="118"/>
-      <c r="AM9" s="118"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="106"/>
-      <c r="AT9" s="106"/>
-      <c r="AU9" s="106"/>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="119"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="118"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AM10" s="118"/>
-      <c r="AN10" s="106"/>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="106"/>
-      <c r="AR10" s="106"/>
-      <c r="AS10" s="106"/>
-      <c r="AT10" s="106"/>
-      <c r="AU10" s="106"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="106"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="119"/>
+      <c r="AL10" s="119"/>
+      <c r="AM10" s="119"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="107"/>
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="107"/>
+      <c r="AR10" s="107"/>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="107"/>
+      <c r="AV10" s="107"/>
+      <c r="AW10" s="107"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="119"/>
-      <c r="AG11" s="119"/>
-      <c r="AH11" s="119"/>
-      <c r="AI11" s="119"/>
-      <c r="AJ11" s="119"/>
-      <c r="AK11" s="119"/>
-      <c r="AL11" s="119"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="120"/>
+      <c r="AG11" s="120"/>
+      <c r="AH11" s="120"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="120"/>
+      <c r="AM11" s="120"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="107"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="112"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="112"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="112"/>
-      <c r="AH12" s="112"/>
-      <c r="AI12" s="112"/>
-      <c r="AJ12" s="112"/>
-      <c r="AK12" s="112"/>
-      <c r="AL12" s="112"/>
-      <c r="AM12" s="112"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="106"/>
-      <c r="AP12" s="106"/>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="106"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="106"/>
-      <c r="AU12" s="106"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="107"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="107"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="112"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="112"/>
-      <c r="AG13" s="112"/>
-      <c r="AH13" s="112"/>
-      <c r="AI13" s="112"/>
-      <c r="AJ13" s="112"/>
-      <c r="AK13" s="112"/>
-      <c r="AL13" s="112"/>
-      <c r="AM13" s="112"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
+      <c r="AR13" s="107"/>
+      <c r="AS13" s="107"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="107"/>
+      <c r="AW13" s="107"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="118"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="106"/>
-      <c r="AO14" s="106"/>
-      <c r="AP14" s="106"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="106"/>
-      <c r="AS14" s="106"/>
-      <c r="AT14" s="106"/>
-      <c r="AU14" s="106"/>
-      <c r="AV14" s="106"/>
-      <c r="AW14" s="106"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="107"/>
+      <c r="AP14" s="107"/>
+      <c r="AQ14" s="107"/>
+      <c r="AR14" s="107"/>
+      <c r="AS14" s="107"/>
+      <c r="AT14" s="107"/>
+      <c r="AU14" s="107"/>
+      <c r="AV14" s="107"/>
+      <c r="AW14" s="107"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="112"/>
-      <c r="W15" s="112"/>
-      <c r="X15" s="112"/>
-      <c r="Y15" s="112"/>
-      <c r="Z15" s="112"/>
-      <c r="AA15" s="112"/>
-      <c r="AB15" s="112"/>
-      <c r="AC15" s="112"/>
-      <c r="AD15" s="112"/>
-      <c r="AE15" s="112"/>
-      <c r="AF15" s="112"/>
-      <c r="AG15" s="112"/>
-      <c r="AH15" s="112"/>
-      <c r="AI15" s="112"/>
-      <c r="AJ15" s="112"/>
-      <c r="AK15" s="112"/>
-      <c r="AL15" s="112"/>
-      <c r="AM15" s="112"/>
-      <c r="AN15" s="106"/>
-      <c r="AO15" s="106"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="106"/>
-      <c r="AR15" s="106"/>
-      <c r="AS15" s="106"/>
-      <c r="AT15" s="106"/>
-      <c r="AU15" s="106"/>
-      <c r="AV15" s="106"/>
-      <c r="AW15" s="106"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="112"/>
-      <c r="W16" s="112"/>
-      <c r="X16" s="112"/>
-      <c r="Y16" s="112"/>
-      <c r="Z16" s="112"/>
-      <c r="AA16" s="112"/>
-      <c r="AB16" s="112"/>
-      <c r="AC16" s="112"/>
-      <c r="AD16" s="112"/>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="112"/>
-      <c r="AI16" s="112"/>
-      <c r="AJ16" s="112"/>
-      <c r="AK16" s="112"/>
-      <c r="AL16" s="112"/>
-      <c r="AM16" s="112"/>
-      <c r="AN16" s="106"/>
-      <c r="AO16" s="106"/>
-      <c r="AP16" s="106"/>
-      <c r="AQ16" s="106"/>
-      <c r="AR16" s="106"/>
-      <c r="AS16" s="106"/>
-      <c r="AT16" s="106"/>
-      <c r="AU16" s="106"/>
-      <c r="AV16" s="106"/>
-      <c r="AW16" s="106"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="107"/>
+      <c r="AP16" s="107"/>
+      <c r="AQ16" s="107"/>
+      <c r="AR16" s="107"/>
+      <c r="AS16" s="107"/>
+      <c r="AT16" s="107"/>
+      <c r="AU16" s="107"/>
+      <c r="AV16" s="107"/>
+      <c r="AW16" s="107"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="112"/>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="112"/>
-      <c r="Z17" s="112"/>
-      <c r="AA17" s="112"/>
-      <c r="AB17" s="112"/>
-      <c r="AC17" s="112"/>
-      <c r="AD17" s="112"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="112"/>
-      <c r="AI17" s="112"/>
-      <c r="AJ17" s="112"/>
-      <c r="AK17" s="112"/>
-      <c r="AL17" s="112"/>
-      <c r="AM17" s="112"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="106"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="106"/>
-      <c r="AU17" s="106"/>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="106"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="107"/>
+      <c r="AP17" s="107"/>
+      <c r="AQ17" s="107"/>
+      <c r="AR17" s="107"/>
+      <c r="AS17" s="107"/>
+      <c r="AT17" s="107"/>
+      <c r="AU17" s="107"/>
+      <c r="AV17" s="107"/>
+      <c r="AW17" s="107"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="112"/>
-      <c r="Z18" s="112"/>
-      <c r="AA18" s="112"/>
-      <c r="AB18" s="112"/>
-      <c r="AC18" s="112"/>
-      <c r="AD18" s="112"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
-      <c r="AJ18" s="112"/>
-      <c r="AK18" s="112"/>
-      <c r="AL18" s="112"/>
-      <c r="AM18" s="112"/>
-      <c r="AN18" s="106"/>
-      <c r="AO18" s="106"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="106"/>
-      <c r="AR18" s="106"/>
-      <c r="AS18" s="106"/>
-      <c r="AT18" s="106"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="107"/>
+      <c r="AQ18" s="107"/>
+      <c r="AR18" s="107"/>
+      <c r="AS18" s="107"/>
+      <c r="AT18" s="107"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="107"/>
+      <c r="AW18" s="107"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="112"/>
-      <c r="Y19" s="112"/>
-      <c r="Z19" s="112"/>
-      <c r="AA19" s="112"/>
-      <c r="AB19" s="112"/>
-      <c r="AC19" s="112"/>
-      <c r="AD19" s="112"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="112"/>
-      <c r="AG19" s="112"/>
-      <c r="AH19" s="112"/>
-      <c r="AI19" s="112"/>
-      <c r="AJ19" s="112"/>
-      <c r="AK19" s="112"/>
-      <c r="AL19" s="112"/>
-      <c r="AM19" s="112"/>
-      <c r="AN19" s="106"/>
-      <c r="AO19" s="106"/>
-      <c r="AP19" s="106"/>
-      <c r="AQ19" s="106"/>
-      <c r="AR19" s="106"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="106"/>
-      <c r="AU19" s="106"/>
-      <c r="AV19" s="106"/>
-      <c r="AW19" s="106"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="107"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="107"/>
+      <c r="AR19" s="107"/>
+      <c r="AS19" s="107"/>
+      <c r="AT19" s="107"/>
+      <c r="AU19" s="107"/>
+      <c r="AV19" s="107"/>
+      <c r="AW19" s="107"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="112"/>
-      <c r="Y20" s="112"/>
-      <c r="Z20" s="112"/>
-      <c r="AA20" s="112"/>
-      <c r="AB20" s="112"/>
-      <c r="AC20" s="112"/>
-      <c r="AD20" s="112"/>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="112"/>
-      <c r="AG20" s="112"/>
-      <c r="AH20" s="112"/>
-      <c r="AI20" s="112"/>
-      <c r="AJ20" s="112"/>
-      <c r="AK20" s="112"/>
-      <c r="AL20" s="112"/>
-      <c r="AM20" s="112"/>
-      <c r="AN20" s="106"/>
-      <c r="AO20" s="106"/>
-      <c r="AP20" s="106"/>
-      <c r="AQ20" s="106"/>
-      <c r="AR20" s="106"/>
-      <c r="AS20" s="106"/>
-      <c r="AT20" s="106"/>
-      <c r="AU20" s="106"/>
-      <c r="AV20" s="106"/>
-      <c r="AW20" s="106"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="107"/>
+      <c r="AP20" s="107"/>
+      <c r="AQ20" s="107"/>
+      <c r="AR20" s="107"/>
+      <c r="AS20" s="107"/>
+      <c r="AT20" s="107"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="107"/>
+      <c r="AW20" s="107"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="112"/>
-      <c r="AB21" s="112"/>
-      <c r="AC21" s="112"/>
-      <c r="AD21" s="112"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="112"/>
-      <c r="AG21" s="112"/>
-      <c r="AH21" s="112"/>
-      <c r="AI21" s="112"/>
-      <c r="AJ21" s="112"/>
-      <c r="AK21" s="112"/>
-      <c r="AL21" s="112"/>
-      <c r="AM21" s="112"/>
-      <c r="AN21" s="106"/>
-      <c r="AO21" s="106"/>
-      <c r="AP21" s="106"/>
-      <c r="AQ21" s="106"/>
-      <c r="AR21" s="106"/>
-      <c r="AS21" s="106"/>
-      <c r="AT21" s="106"/>
-      <c r="AU21" s="106"/>
-      <c r="AV21" s="106"/>
-      <c r="AW21" s="106"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="107"/>
+      <c r="AP21" s="107"/>
+      <c r="AQ21" s="107"/>
+      <c r="AR21" s="107"/>
+      <c r="AS21" s="107"/>
+      <c r="AT21" s="107"/>
+      <c r="AU21" s="107"/>
+      <c r="AV21" s="107"/>
+      <c r="AW21" s="107"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="112"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="112"/>
-      <c r="Z22" s="112"/>
-      <c r="AA22" s="112"/>
-      <c r="AB22" s="112"/>
-      <c r="AC22" s="112"/>
-      <c r="AD22" s="112"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="112"/>
-      <c r="AG22" s="112"/>
-      <c r="AH22" s="112"/>
-      <c r="AI22" s="112"/>
-      <c r="AJ22" s="112"/>
-      <c r="AK22" s="112"/>
-      <c r="AL22" s="112"/>
-      <c r="AM22" s="112"/>
-      <c r="AN22" s="106"/>
-      <c r="AO22" s="106"/>
-      <c r="AP22" s="106"/>
-      <c r="AQ22" s="106"/>
-      <c r="AR22" s="106"/>
-      <c r="AS22" s="106"/>
-      <c r="AT22" s="106"/>
-      <c r="AU22" s="106"/>
-      <c r="AV22" s="106"/>
-      <c r="AW22" s="106"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="107"/>
+      <c r="AP22" s="107"/>
+      <c r="AQ22" s="107"/>
+      <c r="AR22" s="107"/>
+      <c r="AS22" s="107"/>
+      <c r="AT22" s="107"/>
+      <c r="AU22" s="107"/>
+      <c r="AV22" s="107"/>
+      <c r="AW22" s="107"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="112"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="112"/>
-      <c r="AB23" s="112"/>
-      <c r="AC23" s="112"/>
-      <c r="AD23" s="112"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="112"/>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="112"/>
-      <c r="AI23" s="112"/>
-      <c r="AJ23" s="112"/>
-      <c r="AK23" s="112"/>
-      <c r="AL23" s="112"/>
-      <c r="AM23" s="112"/>
-      <c r="AN23" s="106"/>
-      <c r="AO23" s="106"/>
-      <c r="AP23" s="106"/>
-      <c r="AQ23" s="106"/>
-      <c r="AR23" s="106"/>
-      <c r="AS23" s="106"/>
-      <c r="AT23" s="106"/>
-      <c r="AU23" s="106"/>
-      <c r="AV23" s="106"/>
-      <c r="AW23" s="106"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="107"/>
+      <c r="AO23" s="107"/>
+      <c r="AP23" s="107"/>
+      <c r="AQ23" s="107"/>
+      <c r="AR23" s="107"/>
+      <c r="AS23" s="107"/>
+      <c r="AT23" s="107"/>
+      <c r="AU23" s="107"/>
+      <c r="AV23" s="107"/>
+      <c r="AW23" s="107"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="114"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="112"/>
-      <c r="AB24" s="112"/>
-      <c r="AC24" s="112"/>
-      <c r="AD24" s="112"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="112"/>
-      <c r="AI24" s="112"/>
-      <c r="AJ24" s="112"/>
-      <c r="AK24" s="112"/>
-      <c r="AL24" s="112"/>
-      <c r="AM24" s="112"/>
-      <c r="AN24" s="106"/>
-      <c r="AO24" s="106"/>
-      <c r="AP24" s="106"/>
-      <c r="AQ24" s="106"/>
-      <c r="AR24" s="106"/>
-      <c r="AS24" s="106"/>
-      <c r="AT24" s="106"/>
-      <c r="AU24" s="106"/>
-      <c r="AV24" s="106"/>
-      <c r="AW24" s="106"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="115"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="113"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="113"/>
+      <c r="AF24" s="113"/>
+      <c r="AG24" s="113"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="113"/>
+      <c r="AJ24" s="113"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="113"/>
+      <c r="AM24" s="113"/>
+      <c r="AN24" s="107"/>
+      <c r="AO24" s="107"/>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="107"/>
+      <c r="AR24" s="107"/>
+      <c r="AS24" s="107"/>
+      <c r="AT24" s="107"/>
+      <c r="AU24" s="107"/>
+      <c r="AV24" s="107"/>
+      <c r="AW24" s="107"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="112"/>
-      <c r="AD25" s="112"/>
-      <c r="AE25" s="112"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="112"/>
-      <c r="AI25" s="112"/>
-      <c r="AJ25" s="112"/>
-      <c r="AK25" s="112"/>
-      <c r="AL25" s="112"/>
-      <c r="AM25" s="112"/>
-      <c r="AN25" s="106"/>
-      <c r="AO25" s="106"/>
-      <c r="AP25" s="106"/>
-      <c r="AQ25" s="106"/>
-      <c r="AR25" s="106"/>
-      <c r="AS25" s="106"/>
-      <c r="AT25" s="106"/>
-      <c r="AU25" s="106"/>
-      <c r="AV25" s="106"/>
-      <c r="AW25" s="106"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="113"/>
+      <c r="AF25" s="113"/>
+      <c r="AG25" s="113"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="113"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="107"/>
+      <c r="AP25" s="107"/>
+      <c r="AQ25" s="107"/>
+      <c r="AR25" s="107"/>
+      <c r="AS25" s="107"/>
+      <c r="AT25" s="107"/>
+      <c r="AU25" s="107"/>
+      <c r="AV25" s="107"/>
+      <c r="AW25" s="107"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="112"/>
-      <c r="AI26" s="112"/>
-      <c r="AJ26" s="112"/>
-      <c r="AK26" s="112"/>
-      <c r="AL26" s="112"/>
-      <c r="AM26" s="112"/>
-      <c r="AN26" s="106"/>
-      <c r="AO26" s="106"/>
-      <c r="AP26" s="106"/>
-      <c r="AQ26" s="106"/>
-      <c r="AR26" s="106"/>
-      <c r="AS26" s="106"/>
-      <c r="AT26" s="106"/>
-      <c r="AU26" s="106"/>
-      <c r="AV26" s="106"/>
-      <c r="AW26" s="106"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="113"/>
+      <c r="AF26" s="113"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="113"/>
+      <c r="AJ26" s="113"/>
+      <c r="AK26" s="113"/>
+      <c r="AL26" s="113"/>
+      <c r="AM26" s="113"/>
+      <c r="AN26" s="107"/>
+      <c r="AO26" s="107"/>
+      <c r="AP26" s="107"/>
+      <c r="AQ26" s="107"/>
+      <c r="AR26" s="107"/>
+      <c r="AS26" s="107"/>
+      <c r="AT26" s="107"/>
+      <c r="AU26" s="107"/>
+      <c r="AV26" s="107"/>
+      <c r="AW26" s="107"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="112"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="112"/>
-      <c r="AI27" s="112"/>
-      <c r="AJ27" s="112"/>
-      <c r="AK27" s="112"/>
-      <c r="AL27" s="112"/>
-      <c r="AM27" s="112"/>
-      <c r="AN27" s="106"/>
-      <c r="AO27" s="106"/>
-      <c r="AP27" s="106"/>
-      <c r="AQ27" s="106"/>
-      <c r="AR27" s="106"/>
-      <c r="AS27" s="106"/>
-      <c r="AT27" s="106"/>
-      <c r="AU27" s="106"/>
-      <c r="AV27" s="106"/>
-      <c r="AW27" s="106"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="113"/>
+      <c r="AF27" s="113"/>
+      <c r="AG27" s="113"/>
+      <c r="AH27" s="113"/>
+      <c r="AI27" s="113"/>
+      <c r="AJ27" s="113"/>
+      <c r="AK27" s="113"/>
+      <c r="AL27" s="113"/>
+      <c r="AM27" s="113"/>
+      <c r="AN27" s="107"/>
+      <c r="AO27" s="107"/>
+      <c r="AP27" s="107"/>
+      <c r="AQ27" s="107"/>
+      <c r="AR27" s="107"/>
+      <c r="AS27" s="107"/>
+      <c r="AT27" s="107"/>
+      <c r="AU27" s="107"/>
+      <c r="AV27" s="107"/>
+      <c r="AW27" s="107"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="112"/>
-      <c r="AI28" s="112"/>
-      <c r="AJ28" s="112"/>
-      <c r="AK28" s="112"/>
-      <c r="AL28" s="112"/>
-      <c r="AM28" s="112"/>
-      <c r="AN28" s="106"/>
-      <c r="AO28" s="106"/>
-      <c r="AP28" s="106"/>
-      <c r="AQ28" s="106"/>
-      <c r="AR28" s="106"/>
-      <c r="AS28" s="106"/>
-      <c r="AT28" s="106"/>
-      <c r="AU28" s="106"/>
-      <c r="AV28" s="106"/>
-      <c r="AW28" s="106"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="113"/>
+      <c r="AE28" s="113"/>
+      <c r="AF28" s="113"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="113"/>
+      <c r="AJ28" s="113"/>
+      <c r="AK28" s="113"/>
+      <c r="AL28" s="113"/>
+      <c r="AM28" s="113"/>
+      <c r="AN28" s="107"/>
+      <c r="AO28" s="107"/>
+      <c r="AP28" s="107"/>
+      <c r="AQ28" s="107"/>
+      <c r="AR28" s="107"/>
+      <c r="AS28" s="107"/>
+      <c r="AT28" s="107"/>
+      <c r="AU28" s="107"/>
+      <c r="AV28" s="107"/>
+      <c r="AW28" s="107"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="112"/>
-      <c r="AB29" s="112"/>
-      <c r="AC29" s="112"/>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="112"/>
-      <c r="AI29" s="112"/>
-      <c r="AJ29" s="112"/>
-      <c r="AK29" s="112"/>
-      <c r="AL29" s="112"/>
-      <c r="AM29" s="112"/>
-      <c r="AN29" s="106"/>
-      <c r="AO29" s="106"/>
-      <c r="AP29" s="106"/>
-      <c r="AQ29" s="106"/>
-      <c r="AR29" s="106"/>
-      <c r="AS29" s="106"/>
-      <c r="AT29" s="106"/>
-      <c r="AU29" s="106"/>
-      <c r="AV29" s="106"/>
-      <c r="AW29" s="106"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="115"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="113"/>
+      <c r="AJ29" s="113"/>
+      <c r="AK29" s="113"/>
+      <c r="AL29" s="113"/>
+      <c r="AM29" s="113"/>
+      <c r="AN29" s="107"/>
+      <c r="AO29" s="107"/>
+      <c r="AP29" s="107"/>
+      <c r="AQ29" s="107"/>
+      <c r="AR29" s="107"/>
+      <c r="AS29" s="107"/>
+      <c r="AT29" s="107"/>
+      <c r="AU29" s="107"/>
+      <c r="AV29" s="107"/>
+      <c r="AW29" s="107"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="112"/>
-      <c r="AI30" s="112"/>
-      <c r="AJ30" s="112"/>
-      <c r="AK30" s="112"/>
-      <c r="AL30" s="112"/>
-      <c r="AM30" s="112"/>
-      <c r="AN30" s="106"/>
-      <c r="AO30" s="106"/>
-      <c r="AP30" s="106"/>
-      <c r="AQ30" s="106"/>
-      <c r="AR30" s="106"/>
-      <c r="AS30" s="106"/>
-      <c r="AT30" s="106"/>
-      <c r="AU30" s="106"/>
-      <c r="AV30" s="106"/>
-      <c r="AW30" s="106"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="115"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="113"/>
+      <c r="AJ30" s="113"/>
+      <c r="AK30" s="113"/>
+      <c r="AL30" s="113"/>
+      <c r="AM30" s="113"/>
+      <c r="AN30" s="107"/>
+      <c r="AO30" s="107"/>
+      <c r="AP30" s="107"/>
+      <c r="AQ30" s="107"/>
+      <c r="AR30" s="107"/>
+      <c r="AS30" s="107"/>
+      <c r="AT30" s="107"/>
+      <c r="AU30" s="107"/>
+      <c r="AV30" s="107"/>
+      <c r="AW30" s="107"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="112"/>
-      <c r="AI31" s="112"/>
-      <c r="AJ31" s="112"/>
-      <c r="AK31" s="112"/>
-      <c r="AL31" s="112"/>
-      <c r="AM31" s="112"/>
-      <c r="AN31" s="106"/>
-      <c r="AO31" s="106"/>
-      <c r="AP31" s="106"/>
-      <c r="AQ31" s="106"/>
-      <c r="AR31" s="106"/>
-      <c r="AS31" s="106"/>
-      <c r="AT31" s="106"/>
-      <c r="AU31" s="106"/>
-      <c r="AV31" s="106"/>
-      <c r="AW31" s="106"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+      <c r="AK31" s="113"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="113"/>
+      <c r="AN31" s="107"/>
+      <c r="AO31" s="107"/>
+      <c r="AP31" s="107"/>
+      <c r="AQ31" s="107"/>
+      <c r="AR31" s="107"/>
+      <c r="AS31" s="107"/>
+      <c r="AT31" s="107"/>
+      <c r="AU31" s="107"/>
+      <c r="AV31" s="107"/>
+      <c r="AW31" s="107"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="112"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="112"/>
-      <c r="AI32" s="112"/>
-      <c r="AJ32" s="112"/>
-      <c r="AK32" s="112"/>
-      <c r="AL32" s="112"/>
-      <c r="AM32" s="112"/>
-      <c r="AN32" s="106"/>
-      <c r="AO32" s="106"/>
-      <c r="AP32" s="106"/>
-      <c r="AQ32" s="106"/>
-      <c r="AR32" s="106"/>
-      <c r="AS32" s="106"/>
-      <c r="AT32" s="106"/>
-      <c r="AU32" s="106"/>
-      <c r="AV32" s="106"/>
-      <c r="AW32" s="106"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="113"/>
+      <c r="AJ32" s="113"/>
+      <c r="AK32" s="113"/>
+      <c r="AL32" s="113"/>
+      <c r="AM32" s="113"/>
+      <c r="AN32" s="107"/>
+      <c r="AO32" s="107"/>
+      <c r="AP32" s="107"/>
+      <c r="AQ32" s="107"/>
+      <c r="AR32" s="107"/>
+      <c r="AS32" s="107"/>
+      <c r="AT32" s="107"/>
+      <c r="AU32" s="107"/>
+      <c r="AV32" s="107"/>
+      <c r="AW32" s="107"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="112"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="112"/>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="112"/>
-      <c r="AB33" s="112"/>
-      <c r="AC33" s="112"/>
-      <c r="AD33" s="112"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="112"/>
-      <c r="AG33" s="112"/>
-      <c r="AH33" s="112"/>
-      <c r="AI33" s="112"/>
-      <c r="AJ33" s="112"/>
-      <c r="AK33" s="112"/>
-      <c r="AL33" s="112"/>
-      <c r="AM33" s="112"/>
-      <c r="AN33" s="106"/>
-      <c r="AO33" s="106"/>
-      <c r="AP33" s="106"/>
-      <c r="AQ33" s="106"/>
-      <c r="AR33" s="106"/>
-      <c r="AS33" s="106"/>
-      <c r="AT33" s="106"/>
-      <c r="AU33" s="106"/>
-      <c r="AV33" s="106"/>
-      <c r="AW33" s="106"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="115"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="113"/>
+      <c r="AJ33" s="113"/>
+      <c r="AK33" s="113"/>
+      <c r="AL33" s="113"/>
+      <c r="AM33" s="113"/>
+      <c r="AN33" s="107"/>
+      <c r="AO33" s="107"/>
+      <c r="AP33" s="107"/>
+      <c r="AQ33" s="107"/>
+      <c r="AR33" s="107"/>
+      <c r="AS33" s="107"/>
+      <c r="AT33" s="107"/>
+      <c r="AU33" s="107"/>
+      <c r="AV33" s="107"/>
+      <c r="AW33" s="107"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="112"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="112"/>
-      <c r="AB34" s="112"/>
-      <c r="AC34" s="112"/>
-      <c r="AD34" s="112"/>
-      <c r="AE34" s="112"/>
-      <c r="AF34" s="112"/>
-      <c r="AG34" s="112"/>
-      <c r="AH34" s="112"/>
-      <c r="AI34" s="112"/>
-      <c r="AJ34" s="112"/>
-      <c r="AK34" s="112"/>
-      <c r="AL34" s="112"/>
-      <c r="AM34" s="112"/>
-      <c r="AN34" s="106"/>
-      <c r="AO34" s="106"/>
-      <c r="AP34" s="106"/>
-      <c r="AQ34" s="106"/>
-      <c r="AR34" s="106"/>
-      <c r="AS34" s="106"/>
-      <c r="AT34" s="106"/>
-      <c r="AU34" s="106"/>
-      <c r="AV34" s="106"/>
-      <c r="AW34" s="106"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="113"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="113"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="113"/>
+      <c r="AG34" s="113"/>
+      <c r="AH34" s="113"/>
+      <c r="AI34" s="113"/>
+      <c r="AJ34" s="113"/>
+      <c r="AK34" s="113"/>
+      <c r="AL34" s="113"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="107"/>
+      <c r="AO34" s="107"/>
+      <c r="AP34" s="107"/>
+      <c r="AQ34" s="107"/>
+      <c r="AR34" s="107"/>
+      <c r="AS34" s="107"/>
+      <c r="AT34" s="107"/>
+      <c r="AU34" s="107"/>
+      <c r="AV34" s="107"/>
+      <c r="AW34" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="249">
@@ -6114,7 +6084,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BN46"/>
@@ -6185,14 +6155,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="138">
+      <c r="AO1" s="139">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="140"/>
+      <c r="AP1" s="140"/>
+      <c r="AQ1" s="140"/>
+      <c r="AR1" s="140"/>
+      <c r="AS1" s="141"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6201,17 +6171,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="131" t="str">
+      <c r="AZ1" s="132" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="132"/>
-      <c r="BB1" s="132"/>
-      <c r="BC1" s="132"/>
-      <c r="BD1" s="132"/>
-      <c r="BE1" s="132"/>
-      <c r="BF1" s="132"/>
-      <c r="BG1" s="133"/>
+      <c r="BA1" s="133"/>
+      <c r="BB1" s="133"/>
+      <c r="BC1" s="133"/>
+      <c r="BD1" s="133"/>
+      <c r="BE1" s="133"/>
+      <c r="BF1" s="133"/>
+      <c r="BG1" s="134"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6264,11 +6234,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="140"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="141"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6277,14 +6247,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="131"/>
-      <c r="BA2" s="132"/>
-      <c r="BB2" s="132"/>
-      <c r="BC2" s="132"/>
-      <c r="BD2" s="132"/>
-      <c r="BE2" s="132"/>
-      <c r="BF2" s="132"/>
-      <c r="BG2" s="133"/>
+      <c r="AZ2" s="132"/>
+      <c r="BA2" s="133"/>
+      <c r="BB2" s="133"/>
+      <c r="BC2" s="133"/>
+      <c r="BD2" s="133"/>
+      <c r="BE2" s="133"/>
+      <c r="BF2" s="133"/>
+      <c r="BG2" s="134"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7507,10 +7477,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="142"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7593,10 +7563,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="136">
+      <c r="B42" s="137">
         <v>1</v>
       </c>
-      <c r="C42" s="137"/>
+      <c r="C42" s="138"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7628,16 +7598,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="134" t="s">
+      <c r="AE42" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="135"/>
-      <c r="AG42" s="134"/>
-      <c r="AH42" s="135"/>
-      <c r="AI42" s="134"/>
-      <c r="AJ42" s="135"/>
-      <c r="AK42" s="134"/>
-      <c r="AL42" s="135"/>
+      <c r="AF42" s="136"/>
+      <c r="AG42" s="135"/>
+      <c r="AH42" s="136"/>
+      <c r="AI42" s="135"/>
+      <c r="AJ42" s="136"/>
+      <c r="AK42" s="135"/>
+      <c r="AL42" s="136"/>
       <c r="AM42" s="83" t="s">
         <v>111</v>
       </c>
@@ -7671,10 +7641,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="136">
+      <c r="B43" s="137">
         <v>1</v>
       </c>
-      <c r="C43" s="137"/>
+      <c r="C43" s="138"/>
       <c r="D43" s="101" t="s">
         <v>94</v>
       </c>
@@ -7706,16 +7676,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="102"/>
-      <c r="AE43" s="134" t="s">
+      <c r="AE43" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="135"/>
-      <c r="AG43" s="134"/>
-      <c r="AH43" s="135"/>
-      <c r="AI43" s="134"/>
-      <c r="AJ43" s="135"/>
-      <c r="AK43" s="134"/>
-      <c r="AL43" s="135"/>
+      <c r="AF43" s="136"/>
+      <c r="AG43" s="135"/>
+      <c r="AH43" s="136"/>
+      <c r="AI43" s="135"/>
+      <c r="AJ43" s="136"/>
+      <c r="AK43" s="135"/>
+      <c r="AL43" s="136"/>
       <c r="AM43" s="83" t="s">
         <v>153</v>
       </c>
@@ -7749,10 +7719,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="136">
+      <c r="B44" s="137">
         <v>1</v>
       </c>
-      <c r="C44" s="137"/>
+      <c r="C44" s="138"/>
       <c r="D44" s="93" t="s">
         <v>94</v>
       </c>
@@ -7784,16 +7754,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="134" t="s">
+      <c r="AE44" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="135"/>
-      <c r="AG44" s="134"/>
-      <c r="AH44" s="135"/>
-      <c r="AI44" s="134"/>
-      <c r="AJ44" s="135"/>
-      <c r="AK44" s="134"/>
-      <c r="AL44" s="135"/>
+      <c r="AF44" s="136"/>
+      <c r="AG44" s="135"/>
+      <c r="AH44" s="136"/>
+      <c r="AI44" s="135"/>
+      <c r="AJ44" s="136"/>
+      <c r="AK44" s="135"/>
+      <c r="AL44" s="136"/>
       <c r="AM44" s="83" t="s">
         <v>152</v>
       </c>
@@ -7827,10 +7797,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="136">
+      <c r="B45" s="137">
         <v>2</v>
       </c>
-      <c r="C45" s="137"/>
+      <c r="C45" s="138"/>
       <c r="D45" s="82" t="s">
         <v>109</v>
       </c>
@@ -7862,16 +7832,16 @@
       <c r="AB45" s="86"/>
       <c r="AC45" s="86"/>
       <c r="AD45" s="87"/>
-      <c r="AE45" s="134" t="s">
+      <c r="AE45" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF45" s="135"/>
-      <c r="AG45" s="134"/>
-      <c r="AH45" s="135"/>
-      <c r="AI45" s="134"/>
-      <c r="AJ45" s="135"/>
-      <c r="AK45" s="134"/>
-      <c r="AL45" s="135"/>
+      <c r="AF45" s="136"/>
+      <c r="AG45" s="135"/>
+      <c r="AH45" s="136"/>
+      <c r="AI45" s="135"/>
+      <c r="AJ45" s="136"/>
+      <c r="AK45" s="135"/>
+      <c r="AL45" s="136"/>
       <c r="AM45" s="83" t="s">
         <v>110</v>
       </c>
@@ -7955,7 +7925,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DI5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="bottomLeft"/>
@@ -8058,20 +8028,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="138">
+      <c r="CD1" s="139">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="CE1" s="145"/>
-      <c r="CF1" s="145"/>
-      <c r="CG1" s="145"/>
-      <c r="CH1" s="145"/>
-      <c r="CI1" s="145"/>
-      <c r="CJ1" s="145"/>
-      <c r="CK1" s="145"/>
-      <c r="CL1" s="145"/>
-      <c r="CM1" s="145"/>
-      <c r="CN1" s="146"/>
+      <c r="CE1" s="146"/>
+      <c r="CF1" s="146"/>
+      <c r="CG1" s="146"/>
+      <c r="CH1" s="146"/>
+      <c r="CI1" s="146"/>
+      <c r="CJ1" s="146"/>
+      <c r="CK1" s="146"/>
+      <c r="CL1" s="146"/>
+      <c r="CM1" s="146"/>
+      <c r="CN1" s="147"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8080,23 +8050,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="131" t="str">
+      <c r="CU1" s="132" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="143"/>
-      <c r="CW1" s="143"/>
-      <c r="CX1" s="143"/>
-      <c r="CY1" s="143"/>
-      <c r="CZ1" s="143"/>
-      <c r="DA1" s="143"/>
-      <c r="DB1" s="143"/>
-      <c r="DC1" s="143"/>
-      <c r="DD1" s="143"/>
-      <c r="DE1" s="143"/>
-      <c r="DF1" s="143"/>
-      <c r="DG1" s="143"/>
-      <c r="DH1" s="144"/>
+      <c r="CV1" s="144"/>
+      <c r="CW1" s="144"/>
+      <c r="CX1" s="144"/>
+      <c r="CY1" s="144"/>
+      <c r="CZ1" s="144"/>
+      <c r="DA1" s="144"/>
+      <c r="DB1" s="144"/>
+      <c r="DC1" s="144"/>
+      <c r="DD1" s="144"/>
+      <c r="DE1" s="144"/>
+      <c r="DF1" s="144"/>
+      <c r="DG1" s="144"/>
+      <c r="DH1" s="145"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8151,39 +8121,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="148" t="str">
+      <c r="AT2" s="149" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="AU2" s="145"/>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="145"/>
-      <c r="AX2" s="145"/>
-      <c r="AY2" s="145"/>
-      <c r="AZ2" s="145"/>
-      <c r="BA2" s="145"/>
-      <c r="BB2" s="145"/>
-      <c r="BC2" s="145"/>
-      <c r="BD2" s="145"/>
-      <c r="BE2" s="145"/>
-      <c r="BF2" s="145"/>
-      <c r="BG2" s="145"/>
-      <c r="BH2" s="145"/>
-      <c r="BI2" s="145"/>
-      <c r="BJ2" s="145"/>
-      <c r="BK2" s="145"/>
-      <c r="BL2" s="145"/>
-      <c r="BM2" s="145"/>
-      <c r="BN2" s="145"/>
-      <c r="BO2" s="145"/>
-      <c r="BP2" s="145"/>
-      <c r="BQ2" s="145"/>
-      <c r="BR2" s="145"/>
-      <c r="BS2" s="145"/>
-      <c r="BT2" s="145"/>
-      <c r="BU2" s="145"/>
-      <c r="BV2" s="145"/>
-      <c r="BW2" s="146"/>
+      <c r="AU2" s="146"/>
+      <c r="AV2" s="146"/>
+      <c r="AW2" s="146"/>
+      <c r="AX2" s="146"/>
+      <c r="AY2" s="146"/>
+      <c r="AZ2" s="146"/>
+      <c r="BA2" s="146"/>
+      <c r="BB2" s="146"/>
+      <c r="BC2" s="146"/>
+      <c r="BD2" s="146"/>
+      <c r="BE2" s="146"/>
+      <c r="BF2" s="146"/>
+      <c r="BG2" s="146"/>
+      <c r="BH2" s="146"/>
+      <c r="BI2" s="146"/>
+      <c r="BJ2" s="146"/>
+      <c r="BK2" s="146"/>
+      <c r="BL2" s="146"/>
+      <c r="BM2" s="146"/>
+      <c r="BN2" s="146"/>
+      <c r="BO2" s="146"/>
+      <c r="BP2" s="146"/>
+      <c r="BQ2" s="146"/>
+      <c r="BR2" s="146"/>
+      <c r="BS2" s="146"/>
+      <c r="BT2" s="146"/>
+      <c r="BU2" s="146"/>
+      <c r="BV2" s="146"/>
+      <c r="BW2" s="147"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -8192,17 +8162,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="147"/>
-      <c r="CE2" s="143"/>
-      <c r="CF2" s="143"/>
-      <c r="CG2" s="143"/>
-      <c r="CH2" s="143"/>
-      <c r="CI2" s="143"/>
-      <c r="CJ2" s="143"/>
-      <c r="CK2" s="143"/>
-      <c r="CL2" s="143"/>
-      <c r="CM2" s="143"/>
-      <c r="CN2" s="144"/>
+      <c r="CD2" s="148"/>
+      <c r="CE2" s="144"/>
+      <c r="CF2" s="144"/>
+      <c r="CG2" s="144"/>
+      <c r="CH2" s="144"/>
+      <c r="CI2" s="144"/>
+      <c r="CJ2" s="144"/>
+      <c r="CK2" s="144"/>
+      <c r="CL2" s="144"/>
+      <c r="CM2" s="144"/>
+      <c r="CN2" s="145"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8211,20 +8181,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="131"/>
-      <c r="CV2" s="143"/>
-      <c r="CW2" s="143"/>
-      <c r="CX2" s="143"/>
-      <c r="CY2" s="143"/>
-      <c r="CZ2" s="143"/>
-      <c r="DA2" s="143"/>
-      <c r="DB2" s="143"/>
-      <c r="DC2" s="143"/>
-      <c r="DD2" s="143"/>
-      <c r="DE2" s="143"/>
-      <c r="DF2" s="143"/>
-      <c r="DG2" s="143"/>
-      <c r="DH2" s="144"/>
+      <c r="CU2" s="132"/>
+      <c r="CV2" s="144"/>
+      <c r="CW2" s="144"/>
+      <c r="CX2" s="144"/>
+      <c r="CY2" s="144"/>
+      <c r="CZ2" s="144"/>
+      <c r="DA2" s="144"/>
+      <c r="DB2" s="144"/>
+      <c r="DC2" s="144"/>
+      <c r="DD2" s="144"/>
+      <c r="DE2" s="144"/>
+      <c r="DF2" s="144"/>
+      <c r="DG2" s="144"/>
+      <c r="DH2" s="145"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -8307,7 +8277,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A1:XFD4"/>
@@ -8427,37 +8397,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="151" t="s">
+      <c r="I6" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="151" t="s">
+      <c r="J6" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="124" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8465,24 +8435,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="151" t="s">
+      <c r="Q6" s="152" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8492,7 +8462,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="151"/>
+      <c r="Q7" s="152"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8554,37 +8524,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F11" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="123" t="s">
+      <c r="H11" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="151" t="s">
+      <c r="J11" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="123" t="s">
+      <c r="K11" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="123" t="s">
+      <c r="L11" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="123" t="s">
+      <c r="M11" s="124" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8592,24 +8562,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="149" t="s">
+      <c r="Q11" s="150" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8619,7 +8589,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="150"/>
+      <c r="Q12" s="151"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -8743,37 +8713,37 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="123" t="s">
+      <c r="E19" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="123" t="s">
+      <c r="F19" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="123" t="s">
+      <c r="G19" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="123" t="s">
+      <c r="H19" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="151" t="s">
+      <c r="I19" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="151" t="s">
+      <c r="J19" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="123" t="s">
+      <c r="K19" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="123" t="s">
+      <c r="L19" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="123" t="s">
+      <c r="M19" s="124" t="s">
         <v>32</v>
       </c>
       <c r="N19" s="68" t="s">
@@ -8781,24 +8751,24 @@
       </c>
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
-      <c r="Q19" s="151" t="s">
+      <c r="Q19" s="152" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
       <c r="N20" s="42" t="s">
         <v>64</v>
       </c>
@@ -8808,7 +8778,7 @@
       <c r="P20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="151"/>
+      <c r="Q20" s="152"/>
     </row>
     <row r="21" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="55"/>
@@ -9154,7 +9124,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ184"/>
@@ -9215,14 +9185,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="139">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="146"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="146"/>
+      <c r="AL1" s="146"/>
+      <c r="AM1" s="147"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -9231,16 +9201,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="131" t="str">
+      <c r="AT1" s="132" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
-      <c r="AX1" s="143"/>
-      <c r="AY1" s="143"/>
-      <c r="AZ1" s="144"/>
+      <c r="AU1" s="144"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="144"/>
+      <c r="AX1" s="144"/>
+      <c r="AY1" s="144"/>
+      <c r="AZ1" s="145"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -9268,32 +9238,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="148" t="str">
+      <c r="S2" s="149" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="147"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="144"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="145"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -9302,13 +9272,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="131"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="143"/>
-      <c r="AZ2" s="144"/>
+      <c r="AT2" s="132"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="144"/>
+      <c r="AY2" s="144"/>
+      <c r="AZ2" s="145"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -9647,7 +9617,7 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="K11" s="72"/>
-      <c r="M11" s="152" t="s">
+      <c r="M11" s="103" t="s">
         <v>158</v>
       </c>
       <c r="N11" s="94"/>
@@ -18238,7 +18208,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ84"/>
@@ -18299,14 +18269,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="139">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="146"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="146"/>
+      <c r="AL1" s="146"/>
+      <c r="AM1" s="147"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -18315,16 +18285,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="131" t="str">
+      <c r="AT1" s="132" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
-      <c r="AX1" s="143"/>
-      <c r="AY1" s="143"/>
-      <c r="AZ1" s="144"/>
+      <c r="AU1" s="144"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="144"/>
+      <c r="AX1" s="144"/>
+      <c r="AY1" s="144"/>
+      <c r="AZ1" s="145"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -18352,32 +18322,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="148" t="str">
+      <c r="S2" s="149" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="147"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="144"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="145"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -18386,13 +18356,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="131"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="143"/>
-      <c r="AZ2" s="144"/>
+      <c r="AT2" s="132"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="144"/>
+      <c r="AY2" s="144"/>
+      <c r="AZ2" s="145"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -22849,7 +22819,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ208"/>
@@ -22910,14 +22880,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="139">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145"/>
-      <c r="AM1" s="146"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="146"/>
+      <c r="AL1" s="146"/>
+      <c r="AM1" s="147"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -22926,16 +22896,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="131" t="str">
+      <c r="AT1" s="132" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
-      <c r="AX1" s="143"/>
-      <c r="AY1" s="143"/>
-      <c r="AZ1" s="144"/>
+      <c r="AU1" s="144"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="144"/>
+      <c r="AX1" s="144"/>
+      <c r="AY1" s="144"/>
+      <c r="AZ1" s="145"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -22963,32 +22933,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="148" t="str">
+      <c r="S2" s="149" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="147"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="144"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="145"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -22997,13 +22967,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="131"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="143"/>
-      <c r="AZ2" s="144"/>
+      <c r="AT2" s="132"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="144"/>
+      <c r="AY2" s="144"/>
+      <c r="AZ2" s="145"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -34117,6 +34087,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -34274,22 +34253,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34307,19 +34285,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C28B12D-4FEA-40DE-BCEE-0878F9C4626D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D07F59-F3BD-4776-8733-28A9615FA351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2046,47 +2046,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2117,26 +2076,52 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2152,6 +2137,21 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2171,13 +2171,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3111,23 +3111,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>84584</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>103632</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>180302</xdr:rowOff>
+      <xdr:rowOff>189826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAD731A-61FD-45B9-A6AA-1EF2786DF791}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA8227A-AD3D-42C0-9E14-B604A7799303}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,8 +3143,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="1095375"/>
-          <a:ext cx="9123809" cy="5380952"/>
+          <a:off x="247650" y="1095375"/>
+          <a:ext cx="9142857" cy="5390476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4062,1779 +4062,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="122"/>
-      <c r="AK1" s="122"/>
-      <c r="AL1" s="122"/>
-      <c r="AM1" s="122"/>
-      <c r="AN1" s="122"/>
-      <c r="AO1" s="122"/>
-      <c r="AP1" s="122"/>
-      <c r="AQ1" s="122"/>
-      <c r="AR1" s="122"/>
-      <c r="AS1" s="122"/>
-      <c r="AT1" s="122"/>
-      <c r="AU1" s="122"/>
-      <c r="AV1" s="122"/>
-      <c r="AW1" s="122"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="123"/>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
-      <c r="AR2" s="123"/>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123"/>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="123"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="108"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="126" t="s">
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="127"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="126" t="s">
+      <c r="K3" s="112"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="124" t="s">
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124" t="s">
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="124" t="s">
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="124"/>
-      <c r="AP3" s="124"/>
-      <c r="AQ3" s="124"/>
-      <c r="AR3" s="124"/>
-      <c r="AS3" s="124" t="s">
+      <c r="AO3" s="109"/>
+      <c r="AP3" s="109"/>
+      <c r="AQ3" s="109"/>
+      <c r="AR3" s="109"/>
+      <c r="AS3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="124"/>
-      <c r="AU3" s="124"/>
-      <c r="AV3" s="124"/>
-      <c r="AW3" s="124"/>
+      <c r="AT3" s="109"/>
+      <c r="AU3" s="109"/>
+      <c r="AV3" s="109"/>
+      <c r="AW3" s="109"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="125"/>
-      <c r="AJ4" s="125"/>
-      <c r="AK4" s="125"/>
-      <c r="AL4" s="125"/>
-      <c r="AM4" s="125"/>
-      <c r="AN4" s="125"/>
-      <c r="AO4" s="125"/>
-      <c r="AP4" s="125"/>
-      <c r="AQ4" s="125"/>
-      <c r="AR4" s="125"/>
-      <c r="AS4" s="125"/>
-      <c r="AT4" s="125"/>
-      <c r="AU4" s="125"/>
-      <c r="AV4" s="125"/>
-      <c r="AW4" s="125"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="108">
+      <c r="B5" s="118">
         <v>1</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109">
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119">
         <v>43725</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110" t="s">
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110" t="s">
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="107" t="s">
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="119" t="s">
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="107" t="s">
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
+      <c r="AR5" s="117"/>
+      <c r="AS5" s="117"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="117"/>
+      <c r="AW5" s="117"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
       <c r="M6" s="121"/>
       <c r="N6" s="121"/>
       <c r="O6" s="121"/>
       <c r="P6" s="121"/>
       <c r="Q6" s="121"/>
       <c r="R6" s="121"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="119"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="119"/>
-      <c r="AJ6" s="119"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="119"/>
-      <c r="AM6" s="119"/>
-      <c r="AN6" s="107"/>
-      <c r="AO6" s="107"/>
-      <c r="AP6" s="107"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="107"/>
-      <c r="AW6" s="107"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="117"/>
+      <c r="AO6" s="117"/>
+      <c r="AP6" s="117"/>
+      <c r="AQ6" s="117"/>
+      <c r="AR6" s="117"/>
+      <c r="AS6" s="117"/>
+      <c r="AT6" s="117"/>
+      <c r="AU6" s="117"/>
+      <c r="AV6" s="117"/>
+      <c r="AW6" s="117"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
       <c r="M7" s="121"/>
       <c r="N7" s="121"/>
       <c r="O7" s="121"/>
       <c r="P7" s="121"/>
       <c r="Q7" s="121"/>
       <c r="R7" s="121"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="107"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="117"/>
+      <c r="AP7" s="117"/>
+      <c r="AQ7" s="117"/>
+      <c r="AR7" s="117"/>
+      <c r="AS7" s="117"/>
+      <c r="AT7" s="117"/>
+      <c r="AU7" s="117"/>
+      <c r="AV7" s="117"/>
+      <c r="AW7" s="117"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="121"/>
       <c r="N8" s="121"/>
       <c r="O8" s="121"/>
       <c r="P8" s="121"/>
       <c r="Q8" s="121"/>
       <c r="R8" s="121"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="119"/>
-      <c r="AF8" s="119"/>
-      <c r="AG8" s="119"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="119"/>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="119"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="107"/>
-      <c r="AO8" s="107"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="107"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="117"/>
+      <c r="AO8" s="117"/>
+      <c r="AP8" s="117"/>
+      <c r="AQ8" s="117"/>
+      <c r="AR8" s="117"/>
+      <c r="AS8" s="117"/>
+      <c r="AT8" s="117"/>
+      <c r="AU8" s="117"/>
+      <c r="AV8" s="117"/>
+      <c r="AW8" s="117"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
       <c r="M9" s="121"/>
       <c r="N9" s="121"/>
       <c r="O9" s="121"/>
       <c r="P9" s="121"/>
       <c r="Q9" s="121"/>
       <c r="R9" s="121"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="119"/>
-      <c r="Y9" s="119"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="119"/>
-      <c r="AC9" s="119"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="119"/>
-      <c r="AF9" s="119"/>
-      <c r="AG9" s="119"/>
-      <c r="AH9" s="119"/>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="107"/>
-      <c r="AW9" s="107"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="117"/>
+      <c r="AO9" s="117"/>
+      <c r="AP9" s="117"/>
+      <c r="AQ9" s="117"/>
+      <c r="AR9" s="117"/>
+      <c r="AS9" s="117"/>
+      <c r="AT9" s="117"/>
+      <c r="AU9" s="117"/>
+      <c r="AV9" s="117"/>
+      <c r="AW9" s="117"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="121"/>
       <c r="N10" s="121"/>
       <c r="O10" s="121"/>
       <c r="P10" s="121"/>
       <c r="Q10" s="121"/>
       <c r="R10" s="121"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="119"/>
-      <c r="AG10" s="119"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="119"/>
-      <c r="AJ10" s="119"/>
-      <c r="AK10" s="119"/>
-      <c r="AL10" s="119"/>
-      <c r="AM10" s="119"/>
-      <c r="AN10" s="107"/>
-      <c r="AO10" s="107"/>
-      <c r="AP10" s="107"/>
-      <c r="AQ10" s="107"/>
-      <c r="AR10" s="107"/>
-      <c r="AS10" s="107"/>
-      <c r="AT10" s="107"/>
-      <c r="AU10" s="107"/>
-      <c r="AV10" s="107"/>
-      <c r="AW10" s="107"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="117"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="117"/>
+      <c r="AR10" s="117"/>
+      <c r="AS10" s="117"/>
+      <c r="AT10" s="117"/>
+      <c r="AU10" s="117"/>
+      <c r="AV10" s="117"/>
+      <c r="AW10" s="117"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="120"/>
-      <c r="AH11" s="120"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="120"/>
-      <c r="AK11" s="120"/>
-      <c r="AL11" s="120"/>
-      <c r="AM11" s="120"/>
-      <c r="AN11" s="107"/>
-      <c r="AO11" s="107"/>
-      <c r="AP11" s="107"/>
-      <c r="AQ11" s="107"/>
-      <c r="AR11" s="107"/>
-      <c r="AS11" s="107"/>
-      <c r="AT11" s="107"/>
-      <c r="AU11" s="107"/>
-      <c r="AV11" s="107"/>
-      <c r="AW11" s="107"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="125"/>
+      <c r="AJ11" s="125"/>
+      <c r="AK11" s="125"/>
+      <c r="AL11" s="125"/>
+      <c r="AM11" s="125"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="117"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="117"/>
+      <c r="AR11" s="117"/>
+      <c r="AS11" s="117"/>
+      <c r="AT11" s="117"/>
+      <c r="AU11" s="117"/>
+      <c r="AV11" s="117"/>
+      <c r="AW11" s="117"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="113"/>
-      <c r="AH12" s="113"/>
-      <c r="AI12" s="113"/>
-      <c r="AJ12" s="113"/>
-      <c r="AK12" s="113"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="107"/>
-      <c r="AO12" s="107"/>
-      <c r="AP12" s="107"/>
-      <c r="AQ12" s="107"/>
-      <c r="AR12" s="107"/>
-      <c r="AS12" s="107"/>
-      <c r="AT12" s="107"/>
-      <c r="AU12" s="107"/>
-      <c r="AV12" s="107"/>
-      <c r="AW12" s="107"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="124"/>
+      <c r="AK12" s="124"/>
+      <c r="AL12" s="124"/>
+      <c r="AM12" s="124"/>
+      <c r="AN12" s="117"/>
+      <c r="AO12" s="117"/>
+      <c r="AP12" s="117"/>
+      <c r="AQ12" s="117"/>
+      <c r="AR12" s="117"/>
+      <c r="AS12" s="117"/>
+      <c r="AT12" s="117"/>
+      <c r="AU12" s="117"/>
+      <c r="AV12" s="117"/>
+      <c r="AW12" s="117"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="113"/>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="107"/>
-      <c r="AO13" s="107"/>
-      <c r="AP13" s="107"/>
-      <c r="AQ13" s="107"/>
-      <c r="AR13" s="107"/>
-      <c r="AS13" s="107"/>
-      <c r="AT13" s="107"/>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="107"/>
-      <c r="AW13" s="107"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="124"/>
+      <c r="AL13" s="124"/>
+      <c r="AM13" s="124"/>
+      <c r="AN13" s="117"/>
+      <c r="AO13" s="117"/>
+      <c r="AP13" s="117"/>
+      <c r="AQ13" s="117"/>
+      <c r="AR13" s="117"/>
+      <c r="AS13" s="117"/>
+      <c r="AT13" s="117"/>
+      <c r="AU13" s="117"/>
+      <c r="AV13" s="117"/>
+      <c r="AW13" s="117"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="119"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="119"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="119"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="119"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="107"/>
-      <c r="AO14" s="107"/>
-      <c r="AP14" s="107"/>
-      <c r="AQ14" s="107"/>
-      <c r="AR14" s="107"/>
-      <c r="AS14" s="107"/>
-      <c r="AT14" s="107"/>
-      <c r="AU14" s="107"/>
-      <c r="AV14" s="107"/>
-      <c r="AW14" s="107"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="122"/>
+      <c r="AK14" s="122"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="117"/>
+      <c r="AP14" s="117"/>
+      <c r="AQ14" s="117"/>
+      <c r="AR14" s="117"/>
+      <c r="AS14" s="117"/>
+      <c r="AT14" s="117"/>
+      <c r="AU14" s="117"/>
+      <c r="AV14" s="117"/>
+      <c r="AW14" s="117"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="113"/>
-      <c r="AI15" s="113"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="107"/>
-      <c r="AO15" s="107"/>
-      <c r="AP15" s="107"/>
-      <c r="AQ15" s="107"/>
-      <c r="AR15" s="107"/>
-      <c r="AS15" s="107"/>
-      <c r="AT15" s="107"/>
-      <c r="AU15" s="107"/>
-      <c r="AV15" s="107"/>
-      <c r="AW15" s="107"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="124"/>
+      <c r="AL15" s="124"/>
+      <c r="AM15" s="124"/>
+      <c r="AN15" s="117"/>
+      <c r="AO15" s="117"/>
+      <c r="AP15" s="117"/>
+      <c r="AQ15" s="117"/>
+      <c r="AR15" s="117"/>
+      <c r="AS15" s="117"/>
+      <c r="AT15" s="117"/>
+      <c r="AU15" s="117"/>
+      <c r="AV15" s="117"/>
+      <c r="AW15" s="117"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="113"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="107"/>
-      <c r="AO16" s="107"/>
-      <c r="AP16" s="107"/>
-      <c r="AQ16" s="107"/>
-      <c r="AR16" s="107"/>
-      <c r="AS16" s="107"/>
-      <c r="AT16" s="107"/>
-      <c r="AU16" s="107"/>
-      <c r="AV16" s="107"/>
-      <c r="AW16" s="107"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="124"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="124"/>
+      <c r="AJ16" s="124"/>
+      <c r="AK16" s="124"/>
+      <c r="AL16" s="124"/>
+      <c r="AM16" s="124"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="117"/>
+      <c r="AQ16" s="117"/>
+      <c r="AR16" s="117"/>
+      <c r="AS16" s="117"/>
+      <c r="AT16" s="117"/>
+      <c r="AU16" s="117"/>
+      <c r="AV16" s="117"/>
+      <c r="AW16" s="117"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="113"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="107"/>
-      <c r="AO17" s="107"/>
-      <c r="AP17" s="107"/>
-      <c r="AQ17" s="107"/>
-      <c r="AR17" s="107"/>
-      <c r="AS17" s="107"/>
-      <c r="AT17" s="107"/>
-      <c r="AU17" s="107"/>
-      <c r="AV17" s="107"/>
-      <c r="AW17" s="107"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="124"/>
+      <c r="AJ17" s="124"/>
+      <c r="AK17" s="124"/>
+      <c r="AL17" s="124"/>
+      <c r="AM17" s="124"/>
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="117"/>
+      <c r="AP17" s="117"/>
+      <c r="AQ17" s="117"/>
+      <c r="AR17" s="117"/>
+      <c r="AS17" s="117"/>
+      <c r="AT17" s="117"/>
+      <c r="AU17" s="117"/>
+      <c r="AV17" s="117"/>
+      <c r="AW17" s="117"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="115"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="113"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="113"/>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="113"/>
-      <c r="AI18" s="113"/>
-      <c r="AJ18" s="113"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="107"/>
-      <c r="AO18" s="107"/>
-      <c r="AP18" s="107"/>
-      <c r="AQ18" s="107"/>
-      <c r="AR18" s="107"/>
-      <c r="AS18" s="107"/>
-      <c r="AT18" s="107"/>
-      <c r="AU18" s="107"/>
-      <c r="AV18" s="107"/>
-      <c r="AW18" s="107"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="124"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="124"/>
+      <c r="AJ18" s="124"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="124"/>
+      <c r="AM18" s="124"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="117"/>
+      <c r="AP18" s="117"/>
+      <c r="AQ18" s="117"/>
+      <c r="AR18" s="117"/>
+      <c r="AS18" s="117"/>
+      <c r="AT18" s="117"/>
+      <c r="AU18" s="117"/>
+      <c r="AV18" s="117"/>
+      <c r="AW18" s="117"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="113"/>
-      <c r="AG19" s="113"/>
-      <c r="AH19" s="113"/>
-      <c r="AI19" s="113"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="113"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="107"/>
-      <c r="AO19" s="107"/>
-      <c r="AP19" s="107"/>
-      <c r="AQ19" s="107"/>
-      <c r="AR19" s="107"/>
-      <c r="AS19" s="107"/>
-      <c r="AT19" s="107"/>
-      <c r="AU19" s="107"/>
-      <c r="AV19" s="107"/>
-      <c r="AW19" s="107"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
+      <c r="AK19" s="124"/>
+      <c r="AL19" s="124"/>
+      <c r="AM19" s="124"/>
+      <c r="AN19" s="117"/>
+      <c r="AO19" s="117"/>
+      <c r="AP19" s="117"/>
+      <c r="AQ19" s="117"/>
+      <c r="AR19" s="117"/>
+      <c r="AS19" s="117"/>
+      <c r="AT19" s="117"/>
+      <c r="AU19" s="117"/>
+      <c r="AV19" s="117"/>
+      <c r="AW19" s="117"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113"/>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="113"/>
-      <c r="AJ20" s="113"/>
-      <c r="AK20" s="113"/>
-      <c r="AL20" s="113"/>
-      <c r="AM20" s="113"/>
-      <c r="AN20" s="107"/>
-      <c r="AO20" s="107"/>
-      <c r="AP20" s="107"/>
-      <c r="AQ20" s="107"/>
-      <c r="AR20" s="107"/>
-      <c r="AS20" s="107"/>
-      <c r="AT20" s="107"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="107"/>
-      <c r="AW20" s="107"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="124"/>
+      <c r="AA20" s="124"/>
+      <c r="AB20" s="124"/>
+      <c r="AC20" s="124"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="124"/>
+      <c r="AF20" s="124"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="124"/>
+      <c r="AJ20" s="124"/>
+      <c r="AK20" s="124"/>
+      <c r="AL20" s="124"/>
+      <c r="AM20" s="124"/>
+      <c r="AN20" s="117"/>
+      <c r="AO20" s="117"/>
+      <c r="AP20" s="117"/>
+      <c r="AQ20" s="117"/>
+      <c r="AR20" s="117"/>
+      <c r="AS20" s="117"/>
+      <c r="AT20" s="117"/>
+      <c r="AU20" s="117"/>
+      <c r="AV20" s="117"/>
+      <c r="AW20" s="117"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="113"/>
-      <c r="AD21" s="113"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="113"/>
-      <c r="AH21" s="113"/>
-      <c r="AI21" s="113"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="113"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="107"/>
-      <c r="AO21" s="107"/>
-      <c r="AP21" s="107"/>
-      <c r="AQ21" s="107"/>
-      <c r="AR21" s="107"/>
-      <c r="AS21" s="107"/>
-      <c r="AT21" s="107"/>
-      <c r="AU21" s="107"/>
-      <c r="AV21" s="107"/>
-      <c r="AW21" s="107"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="124"/>
+      <c r="AL21" s="124"/>
+      <c r="AM21" s="124"/>
+      <c r="AN21" s="117"/>
+      <c r="AO21" s="117"/>
+      <c r="AP21" s="117"/>
+      <c r="AQ21" s="117"/>
+      <c r="AR21" s="117"/>
+      <c r="AS21" s="117"/>
+      <c r="AT21" s="117"/>
+      <c r="AU21" s="117"/>
+      <c r="AV21" s="117"/>
+      <c r="AW21" s="117"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="113"/>
-      <c r="AH22" s="113"/>
-      <c r="AI22" s="113"/>
-      <c r="AJ22" s="113"/>
-      <c r="AK22" s="113"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="107"/>
-      <c r="AO22" s="107"/>
-      <c r="AP22" s="107"/>
-      <c r="AQ22" s="107"/>
-      <c r="AR22" s="107"/>
-      <c r="AS22" s="107"/>
-      <c r="AT22" s="107"/>
-      <c r="AU22" s="107"/>
-      <c r="AV22" s="107"/>
-      <c r="AW22" s="107"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="124"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="124"/>
+      <c r="AJ22" s="124"/>
+      <c r="AK22" s="124"/>
+      <c r="AL22" s="124"/>
+      <c r="AM22" s="124"/>
+      <c r="AN22" s="117"/>
+      <c r="AO22" s="117"/>
+      <c r="AP22" s="117"/>
+      <c r="AQ22" s="117"/>
+      <c r="AR22" s="117"/>
+      <c r="AS22" s="117"/>
+      <c r="AT22" s="117"/>
+      <c r="AU22" s="117"/>
+      <c r="AV22" s="117"/>
+      <c r="AW22" s="117"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="115"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="113"/>
-      <c r="AI23" s="113"/>
-      <c r="AJ23" s="113"/>
-      <c r="AK23" s="113"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="107"/>
-      <c r="AO23" s="107"/>
-      <c r="AP23" s="107"/>
-      <c r="AQ23" s="107"/>
-      <c r="AR23" s="107"/>
-      <c r="AS23" s="107"/>
-      <c r="AT23" s="107"/>
-      <c r="AU23" s="107"/>
-      <c r="AV23" s="107"/>
-      <c r="AW23" s="107"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="124"/>
+      <c r="AK23" s="124"/>
+      <c r="AL23" s="124"/>
+      <c r="AM23" s="124"/>
+      <c r="AN23" s="117"/>
+      <c r="AO23" s="117"/>
+      <c r="AP23" s="117"/>
+      <c r="AQ23" s="117"/>
+      <c r="AR23" s="117"/>
+      <c r="AS23" s="117"/>
+      <c r="AT23" s="117"/>
+      <c r="AU23" s="117"/>
+      <c r="AV23" s="117"/>
+      <c r="AW23" s="117"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="115"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="113"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="113"/>
-      <c r="AH24" s="113"/>
-      <c r="AI24" s="113"/>
-      <c r="AJ24" s="113"/>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="113"/>
-      <c r="AN24" s="107"/>
-      <c r="AO24" s="107"/>
-      <c r="AP24" s="107"/>
-      <c r="AQ24" s="107"/>
-      <c r="AR24" s="107"/>
-      <c r="AS24" s="107"/>
-      <c r="AT24" s="107"/>
-      <c r="AU24" s="107"/>
-      <c r="AV24" s="107"/>
-      <c r="AW24" s="107"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="124"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="124"/>
+      <c r="AJ24" s="124"/>
+      <c r="AK24" s="124"/>
+      <c r="AL24" s="124"/>
+      <c r="AM24" s="124"/>
+      <c r="AN24" s="117"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="117"/>
+      <c r="AR24" s="117"/>
+      <c r="AS24" s="117"/>
+      <c r="AT24" s="117"/>
+      <c r="AU24" s="117"/>
+      <c r="AV24" s="117"/>
+      <c r="AW24" s="117"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="113"/>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="113"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="113"/>
-      <c r="AG25" s="113"/>
-      <c r="AH25" s="113"/>
-      <c r="AI25" s="113"/>
-      <c r="AJ25" s="113"/>
-      <c r="AK25" s="113"/>
-      <c r="AL25" s="113"/>
-      <c r="AM25" s="113"/>
-      <c r="AN25" s="107"/>
-      <c r="AO25" s="107"/>
-      <c r="AP25" s="107"/>
-      <c r="AQ25" s="107"/>
-      <c r="AR25" s="107"/>
-      <c r="AS25" s="107"/>
-      <c r="AT25" s="107"/>
-      <c r="AU25" s="107"/>
-      <c r="AV25" s="107"/>
-      <c r="AW25" s="107"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="124"/>
+      <c r="AM25" s="124"/>
+      <c r="AN25" s="117"/>
+      <c r="AO25" s="117"/>
+      <c r="AP25" s="117"/>
+      <c r="AQ25" s="117"/>
+      <c r="AR25" s="117"/>
+      <c r="AS25" s="117"/>
+      <c r="AT25" s="117"/>
+      <c r="AU25" s="117"/>
+      <c r="AV25" s="117"/>
+      <c r="AW25" s="117"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="113"/>
-      <c r="AC26" s="113"/>
-      <c r="AD26" s="113"/>
-      <c r="AE26" s="113"/>
-      <c r="AF26" s="113"/>
-      <c r="AG26" s="113"/>
-      <c r="AH26" s="113"/>
-      <c r="AI26" s="113"/>
-      <c r="AJ26" s="113"/>
-      <c r="AK26" s="113"/>
-      <c r="AL26" s="113"/>
-      <c r="AM26" s="113"/>
-      <c r="AN26" s="107"/>
-      <c r="AO26" s="107"/>
-      <c r="AP26" s="107"/>
-      <c r="AQ26" s="107"/>
-      <c r="AR26" s="107"/>
-      <c r="AS26" s="107"/>
-      <c r="AT26" s="107"/>
-      <c r="AU26" s="107"/>
-      <c r="AV26" s="107"/>
-      <c r="AW26" s="107"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="124"/>
+      <c r="Z26" s="124"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="124"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="124"/>
+      <c r="AE26" s="124"/>
+      <c r="AF26" s="124"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="124"/>
+      <c r="AK26" s="124"/>
+      <c r="AL26" s="124"/>
+      <c r="AM26" s="124"/>
+      <c r="AN26" s="117"/>
+      <c r="AO26" s="117"/>
+      <c r="AP26" s="117"/>
+      <c r="AQ26" s="117"/>
+      <c r="AR26" s="117"/>
+      <c r="AS26" s="117"/>
+      <c r="AT26" s="117"/>
+      <c r="AU26" s="117"/>
+      <c r="AV26" s="117"/>
+      <c r="AW26" s="117"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="113"/>
-      <c r="W27" s="113"/>
-      <c r="X27" s="113"/>
-      <c r="Y27" s="113"/>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="113"/>
-      <c r="AB27" s="113"/>
-      <c r="AC27" s="113"/>
-      <c r="AD27" s="113"/>
-      <c r="AE27" s="113"/>
-      <c r="AF27" s="113"/>
-      <c r="AG27" s="113"/>
-      <c r="AH27" s="113"/>
-      <c r="AI27" s="113"/>
-      <c r="AJ27" s="113"/>
-      <c r="AK27" s="113"/>
-      <c r="AL27" s="113"/>
-      <c r="AM27" s="113"/>
-      <c r="AN27" s="107"/>
-      <c r="AO27" s="107"/>
-      <c r="AP27" s="107"/>
-      <c r="AQ27" s="107"/>
-      <c r="AR27" s="107"/>
-      <c r="AS27" s="107"/>
-      <c r="AT27" s="107"/>
-      <c r="AU27" s="107"/>
-      <c r="AV27" s="107"/>
-      <c r="AW27" s="107"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="124"/>
+      <c r="AE27" s="124"/>
+      <c r="AF27" s="124"/>
+      <c r="AG27" s="124"/>
+      <c r="AH27" s="124"/>
+      <c r="AI27" s="124"/>
+      <c r="AJ27" s="124"/>
+      <c r="AK27" s="124"/>
+      <c r="AL27" s="124"/>
+      <c r="AM27" s="124"/>
+      <c r="AN27" s="117"/>
+      <c r="AO27" s="117"/>
+      <c r="AP27" s="117"/>
+      <c r="AQ27" s="117"/>
+      <c r="AR27" s="117"/>
+      <c r="AS27" s="117"/>
+      <c r="AT27" s="117"/>
+      <c r="AU27" s="117"/>
+      <c r="AV27" s="117"/>
+      <c r="AW27" s="117"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="113"/>
-      <c r="W28" s="113"/>
-      <c r="X28" s="113"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="113"/>
-      <c r="AA28" s="113"/>
-      <c r="AB28" s="113"/>
-      <c r="AC28" s="113"/>
-      <c r="AD28" s="113"/>
-      <c r="AE28" s="113"/>
-      <c r="AF28" s="113"/>
-      <c r="AG28" s="113"/>
-      <c r="AH28" s="113"/>
-      <c r="AI28" s="113"/>
-      <c r="AJ28" s="113"/>
-      <c r="AK28" s="113"/>
-      <c r="AL28" s="113"/>
-      <c r="AM28" s="113"/>
-      <c r="AN28" s="107"/>
-      <c r="AO28" s="107"/>
-      <c r="AP28" s="107"/>
-      <c r="AQ28" s="107"/>
-      <c r="AR28" s="107"/>
-      <c r="AS28" s="107"/>
-      <c r="AT28" s="107"/>
-      <c r="AU28" s="107"/>
-      <c r="AV28" s="107"/>
-      <c r="AW28" s="107"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="124"/>
+      <c r="AE28" s="124"/>
+      <c r="AF28" s="124"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="124"/>
+      <c r="AJ28" s="124"/>
+      <c r="AK28" s="124"/>
+      <c r="AL28" s="124"/>
+      <c r="AM28" s="124"/>
+      <c r="AN28" s="117"/>
+      <c r="AO28" s="117"/>
+      <c r="AP28" s="117"/>
+      <c r="AQ28" s="117"/>
+      <c r="AR28" s="117"/>
+      <c r="AS28" s="117"/>
+      <c r="AT28" s="117"/>
+      <c r="AU28" s="117"/>
+      <c r="AV28" s="117"/>
+      <c r="AW28" s="117"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="115"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="113"/>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="113"/>
-      <c r="AN29" s="107"/>
-      <c r="AO29" s="107"/>
-      <c r="AP29" s="107"/>
-      <c r="AQ29" s="107"/>
-      <c r="AR29" s="107"/>
-      <c r="AS29" s="107"/>
-      <c r="AT29" s="107"/>
-      <c r="AU29" s="107"/>
-      <c r="AV29" s="107"/>
-      <c r="AW29" s="107"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="124"/>
+      <c r="AE29" s="124"/>
+      <c r="AF29" s="124"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="124"/>
+      <c r="AJ29" s="124"/>
+      <c r="AK29" s="124"/>
+      <c r="AL29" s="124"/>
+      <c r="AM29" s="124"/>
+      <c r="AN29" s="117"/>
+      <c r="AO29" s="117"/>
+      <c r="AP29" s="117"/>
+      <c r="AQ29" s="117"/>
+      <c r="AR29" s="117"/>
+      <c r="AS29" s="117"/>
+      <c r="AT29" s="117"/>
+      <c r="AU29" s="117"/>
+      <c r="AV29" s="117"/>
+      <c r="AW29" s="117"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="115"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="113"/>
-      <c r="AB30" s="113"/>
-      <c r="AC30" s="113"/>
-      <c r="AD30" s="113"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="113"/>
-      <c r="AG30" s="113"/>
-      <c r="AH30" s="113"/>
-      <c r="AI30" s="113"/>
-      <c r="AJ30" s="113"/>
-      <c r="AK30" s="113"/>
-      <c r="AL30" s="113"/>
-      <c r="AM30" s="113"/>
-      <c r="AN30" s="107"/>
-      <c r="AO30" s="107"/>
-      <c r="AP30" s="107"/>
-      <c r="AQ30" s="107"/>
-      <c r="AR30" s="107"/>
-      <c r="AS30" s="107"/>
-      <c r="AT30" s="107"/>
-      <c r="AU30" s="107"/>
-      <c r="AV30" s="107"/>
-      <c r="AW30" s="107"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="124"/>
+      <c r="AE30" s="124"/>
+      <c r="AF30" s="124"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="124"/>
+      <c r="AJ30" s="124"/>
+      <c r="AK30" s="124"/>
+      <c r="AL30" s="124"/>
+      <c r="AM30" s="124"/>
+      <c r="AN30" s="117"/>
+      <c r="AO30" s="117"/>
+      <c r="AP30" s="117"/>
+      <c r="AQ30" s="117"/>
+      <c r="AR30" s="117"/>
+      <c r="AS30" s="117"/>
+      <c r="AT30" s="117"/>
+      <c r="AU30" s="117"/>
+      <c r="AV30" s="117"/>
+      <c r="AW30" s="117"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="115"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="113"/>
-      <c r="AB31" s="113"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="113"/>
-      <c r="AJ31" s="113"/>
-      <c r="AK31" s="113"/>
-      <c r="AL31" s="113"/>
-      <c r="AM31" s="113"/>
-      <c r="AN31" s="107"/>
-      <c r="AO31" s="107"/>
-      <c r="AP31" s="107"/>
-      <c r="AQ31" s="107"/>
-      <c r="AR31" s="107"/>
-      <c r="AS31" s="107"/>
-      <c r="AT31" s="107"/>
-      <c r="AU31" s="107"/>
-      <c r="AV31" s="107"/>
-      <c r="AW31" s="107"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="124"/>
+      <c r="W31" s="124"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124"/>
+      <c r="Z31" s="124"/>
+      <c r="AA31" s="124"/>
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="124"/>
+      <c r="AE31" s="124"/>
+      <c r="AF31" s="124"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="124"/>
+      <c r="AJ31" s="124"/>
+      <c r="AK31" s="124"/>
+      <c r="AL31" s="124"/>
+      <c r="AM31" s="124"/>
+      <c r="AN31" s="117"/>
+      <c r="AO31" s="117"/>
+      <c r="AP31" s="117"/>
+      <c r="AQ31" s="117"/>
+      <c r="AR31" s="117"/>
+      <c r="AS31" s="117"/>
+      <c r="AT31" s="117"/>
+      <c r="AU31" s="117"/>
+      <c r="AV31" s="117"/>
+      <c r="AW31" s="117"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="115"/>
-      <c r="R32" s="115"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="113"/>
-      <c r="AA32" s="113"/>
-      <c r="AB32" s="113"/>
-      <c r="AC32" s="113"/>
-      <c r="AD32" s="113"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="113"/>
-      <c r="AH32" s="113"/>
-      <c r="AI32" s="113"/>
-      <c r="AJ32" s="113"/>
-      <c r="AK32" s="113"/>
-      <c r="AL32" s="113"/>
-      <c r="AM32" s="113"/>
-      <c r="AN32" s="107"/>
-      <c r="AO32" s="107"/>
-      <c r="AP32" s="107"/>
-      <c r="AQ32" s="107"/>
-      <c r="AR32" s="107"/>
-      <c r="AS32" s="107"/>
-      <c r="AT32" s="107"/>
-      <c r="AU32" s="107"/>
-      <c r="AV32" s="107"/>
-      <c r="AW32" s="107"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="124"/>
+      <c r="W32" s="124"/>
+      <c r="X32" s="124"/>
+      <c r="Y32" s="124"/>
+      <c r="Z32" s="124"/>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="124"/>
+      <c r="AE32" s="124"/>
+      <c r="AF32" s="124"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="124"/>
+      <c r="AJ32" s="124"/>
+      <c r="AK32" s="124"/>
+      <c r="AL32" s="124"/>
+      <c r="AM32" s="124"/>
+      <c r="AN32" s="117"/>
+      <c r="AO32" s="117"/>
+      <c r="AP32" s="117"/>
+      <c r="AQ32" s="117"/>
+      <c r="AR32" s="117"/>
+      <c r="AS32" s="117"/>
+      <c r="AT32" s="117"/>
+      <c r="AU32" s="117"/>
+      <c r="AV32" s="117"/>
+      <c r="AW32" s="117"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="115"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="113"/>
-      <c r="AH33" s="113"/>
-      <c r="AI33" s="113"/>
-      <c r="AJ33" s="113"/>
-      <c r="AK33" s="113"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="113"/>
-      <c r="AN33" s="107"/>
-      <c r="AO33" s="107"/>
-      <c r="AP33" s="107"/>
-      <c r="AQ33" s="107"/>
-      <c r="AR33" s="107"/>
-      <c r="AS33" s="107"/>
-      <c r="AT33" s="107"/>
-      <c r="AU33" s="107"/>
-      <c r="AV33" s="107"/>
-      <c r="AW33" s="107"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="124"/>
+      <c r="W33" s="124"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="124"/>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="124"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="124"/>
+      <c r="AE33" s="124"/>
+      <c r="AF33" s="124"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="124"/>
+      <c r="AI33" s="124"/>
+      <c r="AJ33" s="124"/>
+      <c r="AK33" s="124"/>
+      <c r="AL33" s="124"/>
+      <c r="AM33" s="124"/>
+      <c r="AN33" s="117"/>
+      <c r="AO33" s="117"/>
+      <c r="AP33" s="117"/>
+      <c r="AQ33" s="117"/>
+      <c r="AR33" s="117"/>
+      <c r="AS33" s="117"/>
+      <c r="AT33" s="117"/>
+      <c r="AU33" s="117"/>
+      <c r="AV33" s="117"/>
+      <c r="AW33" s="117"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="113"/>
-      <c r="AB34" s="113"/>
-      <c r="AC34" s="113"/>
-      <c r="AD34" s="113"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="113"/>
-      <c r="AG34" s="113"/>
-      <c r="AH34" s="113"/>
-      <c r="AI34" s="113"/>
-      <c r="AJ34" s="113"/>
-      <c r="AK34" s="113"/>
-      <c r="AL34" s="113"/>
-      <c r="AM34" s="113"/>
-      <c r="AN34" s="107"/>
-      <c r="AO34" s="107"/>
-      <c r="AP34" s="107"/>
-      <c r="AQ34" s="107"/>
-      <c r="AR34" s="107"/>
-      <c r="AS34" s="107"/>
-      <c r="AT34" s="107"/>
-      <c r="AU34" s="107"/>
-      <c r="AV34" s="107"/>
-      <c r="AW34" s="107"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="131"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="124"/>
+      <c r="W34" s="124"/>
+      <c r="X34" s="124"/>
+      <c r="Y34" s="124"/>
+      <c r="Z34" s="124"/>
+      <c r="AA34" s="124"/>
+      <c r="AB34" s="124"/>
+      <c r="AC34" s="124"/>
+      <c r="AD34" s="124"/>
+      <c r="AE34" s="124"/>
+      <c r="AF34" s="124"/>
+      <c r="AG34" s="124"/>
+      <c r="AH34" s="124"/>
+      <c r="AI34" s="124"/>
+      <c r="AJ34" s="124"/>
+      <c r="AK34" s="124"/>
+      <c r="AL34" s="124"/>
+      <c r="AM34" s="124"/>
+      <c r="AN34" s="117"/>
+      <c r="AO34" s="117"/>
+      <c r="AP34" s="117"/>
+      <c r="AQ34" s="117"/>
+      <c r="AR34" s="117"/>
+      <c r="AS34" s="117"/>
+      <c r="AT34" s="117"/>
+      <c r="AU34" s="117"/>
+      <c r="AV34" s="117"/>
+      <c r="AW34" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -5851,230 +6066,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6155,14 +6155,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="139">
+      <c r="AO1" s="134">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="140"/>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="140"/>
-      <c r="AS1" s="141"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="136"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6171,17 +6171,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="132" t="str">
+      <c r="AZ1" s="141" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="133"/>
-      <c r="BB1" s="133"/>
-      <c r="BC1" s="133"/>
-      <c r="BD1" s="133"/>
-      <c r="BE1" s="133"/>
-      <c r="BF1" s="133"/>
-      <c r="BG1" s="134"/>
+      <c r="BA1" s="142"/>
+      <c r="BB1" s="142"/>
+      <c r="BC1" s="142"/>
+      <c r="BD1" s="142"/>
+      <c r="BE1" s="142"/>
+      <c r="BF1" s="142"/>
+      <c r="BG1" s="143"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6234,11 +6234,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="141"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="136"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6247,14 +6247,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="132"/>
-      <c r="BA2" s="133"/>
-      <c r="BB2" s="133"/>
-      <c r="BC2" s="133"/>
-      <c r="BD2" s="133"/>
-      <c r="BE2" s="133"/>
-      <c r="BF2" s="133"/>
-      <c r="BG2" s="134"/>
+      <c r="AZ2" s="141"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="142"/>
+      <c r="BE2" s="142"/>
+      <c r="BF2" s="142"/>
+      <c r="BG2" s="143"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7477,10 +7477,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="142" t="s">
+      <c r="B41" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="143"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7563,10 +7563,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="137">
+      <c r="B42" s="139">
         <v>1</v>
       </c>
-      <c r="C42" s="138"/>
+      <c r="C42" s="140"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7598,16 +7598,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="135" t="s">
+      <c r="AE42" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="136"/>
-      <c r="AG42" s="135"/>
-      <c r="AH42" s="136"/>
-      <c r="AI42" s="135"/>
-      <c r="AJ42" s="136"/>
-      <c r="AK42" s="135"/>
-      <c r="AL42" s="136"/>
+      <c r="AF42" s="133"/>
+      <c r="AG42" s="132"/>
+      <c r="AH42" s="133"/>
+      <c r="AI42" s="132"/>
+      <c r="AJ42" s="133"/>
+      <c r="AK42" s="132"/>
+      <c r="AL42" s="133"/>
       <c r="AM42" s="83" t="s">
         <v>111</v>
       </c>
@@ -7641,10 +7641,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="137">
+      <c r="B43" s="139">
         <v>1</v>
       </c>
-      <c r="C43" s="138"/>
+      <c r="C43" s="140"/>
       <c r="D43" s="101" t="s">
         <v>94</v>
       </c>
@@ -7676,16 +7676,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="102"/>
-      <c r="AE43" s="135" t="s">
+      <c r="AE43" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="136"/>
-      <c r="AG43" s="135"/>
-      <c r="AH43" s="136"/>
-      <c r="AI43" s="135"/>
-      <c r="AJ43" s="136"/>
-      <c r="AK43" s="135"/>
-      <c r="AL43" s="136"/>
+      <c r="AF43" s="133"/>
+      <c r="AG43" s="132"/>
+      <c r="AH43" s="133"/>
+      <c r="AI43" s="132"/>
+      <c r="AJ43" s="133"/>
+      <c r="AK43" s="132"/>
+      <c r="AL43" s="133"/>
       <c r="AM43" s="83" t="s">
         <v>153</v>
       </c>
@@ -7719,10 +7719,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="137">
+      <c r="B44" s="139">
         <v>1</v>
       </c>
-      <c r="C44" s="138"/>
+      <c r="C44" s="140"/>
       <c r="D44" s="93" t="s">
         <v>94</v>
       </c>
@@ -7754,16 +7754,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="135" t="s">
+      <c r="AE44" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="136"/>
-      <c r="AG44" s="135"/>
-      <c r="AH44" s="136"/>
-      <c r="AI44" s="135"/>
-      <c r="AJ44" s="136"/>
-      <c r="AK44" s="135"/>
-      <c r="AL44" s="136"/>
+      <c r="AF44" s="133"/>
+      <c r="AG44" s="132"/>
+      <c r="AH44" s="133"/>
+      <c r="AI44" s="132"/>
+      <c r="AJ44" s="133"/>
+      <c r="AK44" s="132"/>
+      <c r="AL44" s="133"/>
       <c r="AM44" s="83" t="s">
         <v>152</v>
       </c>
@@ -7797,10 +7797,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="137">
+      <c r="B45" s="139">
         <v>2</v>
       </c>
-      <c r="C45" s="138"/>
+      <c r="C45" s="140"/>
       <c r="D45" s="82" t="s">
         <v>109</v>
       </c>
@@ -7832,16 +7832,16 @@
       <c r="AB45" s="86"/>
       <c r="AC45" s="86"/>
       <c r="AD45" s="87"/>
-      <c r="AE45" s="135" t="s">
+      <c r="AE45" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF45" s="136"/>
-      <c r="AG45" s="135"/>
-      <c r="AH45" s="136"/>
-      <c r="AI45" s="135"/>
-      <c r="AJ45" s="136"/>
-      <c r="AK45" s="135"/>
-      <c r="AL45" s="136"/>
+      <c r="AF45" s="133"/>
+      <c r="AG45" s="132"/>
+      <c r="AH45" s="133"/>
+      <c r="AI45" s="132"/>
+      <c r="AJ45" s="133"/>
+      <c r="AK45" s="132"/>
+      <c r="AL45" s="133"/>
       <c r="AM45" s="83" t="s">
         <v>110</v>
       </c>
@@ -7880,15 +7880,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK45:AL45"/>
@@ -7905,6 +7896,15 @@
     <mergeCell ref="AK42:AL42"/>
     <mergeCell ref="AG45:AH45"/>
     <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8028,7 +8028,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="139">
+      <c r="CD1" s="134">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -8050,7 +8050,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="132" t="str">
+      <c r="CU1" s="141" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="132"/>
+      <c r="CU2" s="141"/>
       <c r="CV2" s="144"/>
       <c r="CW2" s="144"/>
       <c r="CX2" s="144"/>
@@ -8397,37 +8397,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="124" t="s">
+      <c r="H6" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="152" t="s">
+      <c r="I6" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="152" t="s">
+      <c r="J6" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="124" t="s">
+      <c r="K6" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="124" t="s">
+      <c r="L6" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="124" t="s">
+      <c r="M6" s="109" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8435,24 +8435,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="152" t="s">
+      <c r="Q6" s="150" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8462,7 +8462,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="152"/>
+      <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8524,37 +8524,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="124" t="s">
+      <c r="H11" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="150" t="s">
+      <c r="I11" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="152" t="s">
+      <c r="J11" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="124" t="s">
+      <c r="K11" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="124" t="s">
+      <c r="L11" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="124" t="s">
+      <c r="M11" s="109" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8562,24 +8562,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="150" t="s">
+      <c r="Q11" s="151" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8589,7 +8589,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="151"/>
+      <c r="Q12" s="152"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -8713,37 +8713,37 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="124" t="s">
+      <c r="F19" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="124" t="s">
+      <c r="G19" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="152" t="s">
+      <c r="I19" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="152" t="s">
+      <c r="J19" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="124" t="s">
+      <c r="K19" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="124" t="s">
+      <c r="L19" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="124" t="s">
+      <c r="M19" s="109" t="s">
         <v>32</v>
       </c>
       <c r="N19" s="68" t="s">
@@ -8751,24 +8751,24 @@
       </c>
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
-      <c r="Q19" s="152" t="s">
+      <c r="Q19" s="150" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
       <c r="N20" s="42" t="s">
         <v>64</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="P20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="152"/>
+      <c r="Q20" s="150"/>
     </row>
     <row r="21" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="55"/>
@@ -9073,26 +9073,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I19:I20"/>
@@ -9109,6 +9089,26 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9185,7 +9185,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="139">
+      <c r="AI1" s="134">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -9201,7 +9201,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="132" t="str">
+      <c r="AT1" s="141" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="132"/>
+      <c r="AT2" s="141"/>
       <c r="AU2" s="144"/>
       <c r="AV2" s="144"/>
       <c r="AW2" s="144"/>
@@ -18269,7 +18269,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="139">
+      <c r="AI1" s="134">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -18285,7 +18285,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="132" t="str">
+      <c r="AT1" s="141" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -18356,7 +18356,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="132"/>
+      <c r="AT2" s="141"/>
       <c r="AU2" s="144"/>
       <c r="AV2" s="144"/>
       <c r="AW2" s="144"/>
@@ -22880,7 +22880,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="139">
+      <c r="AI1" s="134">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -22896,7 +22896,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="132" t="str">
+      <c r="AT1" s="141" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -22967,7 +22967,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="132"/>
+      <c r="AT2" s="141"/>
       <c r="AU2" s="144"/>
       <c r="AV2" s="144"/>
       <c r="AW2" s="144"/>
@@ -34087,15 +34087,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -34253,6 +34244,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -34260,14 +34260,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34285,6 +34277,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555ED365-DE7C-4B61-B785-76F1381F45D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF6F31-8118-4514-9A7A-823405FED553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="225" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="206">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1056,20 +1056,8 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>・受払データ.大工程コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・品種マスタ.品種名</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・COUNT(受払データ.品名コード)　AS 数量</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・LEFT JOIN 工程マスタ</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>・LEFT JOIN 生産製品マスタ</t>
@@ -1090,34 +1078,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>・受払データ.事業所コード</t>
-    <rPh sb="1" eb="3">
-      <t>ウケハライ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.受払年月日の年月</t>
-    <rPh sb="13" eb="15">
-      <t>ネンゲツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.受払区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.払出区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>＜集計条件＞</t>
     <rPh sb="1" eb="3">
       <t>シュウケイ</t>
@@ -1132,10 +1092,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>・受払データ.大工程コード(昇順)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>受払データの大工程コード</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1173,47 +1129,23 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ON 受払データ.大工程コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>工程マスタ.大工程コード</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ON  受払データ.品名事業所コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>生産製品マスタ.品名事業所コード</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>AND 受払データ.パック品名略称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>生産製品マスタ.パック品名略称</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>AND 受払データ.納入先コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>生産製品マスタ.納入先コード</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>AND 受払データ.納入区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>生産製品マスタ.納入区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 受払データ.製品半製品区分</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1316,6 +1248,150 @@
   </si>
   <si>
     <t>Issues quantity total</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>※1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最新受払データ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・RANK() OVER (PARTITION BY 事業所コード,個体NO ORDER BY シーケンス DESC) AS RANKNO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払年月日</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・払出区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>＜利用テーブル＞</t>
+    <rPh sb="1" eb="3">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>受払データ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>検索結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ(※1)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・LEFT JOIN 工程マスタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON 最新受払データ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON  最新受払データ.品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 最新受払データ.パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 最新受払データ.納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 最新受払データ.納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND 最新受払データ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.RANKNO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.受払区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.受払年月日の年月</t>
+    <rPh sb="15" eb="17">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.払出区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・COUNT(生産製品マスタ.品種コード)　AS 数量</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.大工程コード(昇順)</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1805,7 +1881,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2119,6 +2195,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2149,46 +2266,14 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2196,6 +2281,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2211,21 +2302,6 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2244,14 +2320,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4135,1770 +4217,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="111"/>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="112"/>
-      <c r="AT2" s="112"/>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="112"/>
-      <c r="AW2" s="112"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113" t="s">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="115" t="s">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="115" t="s">
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="113" t="s">
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113" t="s">
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113" t="s">
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113" t="s">
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="114"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="122">
+      <c r="B5" s="112">
         <v>1</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113">
         <v>43725</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124" t="s">
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124" t="s">
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="121" t="s">
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="126" t="s">
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="126"/>
-      <c r="AN5" s="121" t="s">
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="123"/>
+      <c r="AE5" s="123"/>
+      <c r="AF5" s="123"/>
+      <c r="AG5" s="123"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="123"/>
+      <c r="AJ5" s="123"/>
+      <c r="AK5" s="123"/>
+      <c r="AL5" s="123"/>
+      <c r="AM5" s="123"/>
+      <c r="AN5" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="121"/>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="121"/>
-      <c r="AR5" s="121"/>
-      <c r="AS5" s="121"/>
-      <c r="AT5" s="121"/>
-      <c r="AU5" s="121"/>
-      <c r="AV5" s="121"/>
-      <c r="AW5" s="121"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
       <c r="M6" s="125"/>
       <c r="N6" s="125"/>
       <c r="O6" s="125"/>
       <c r="P6" s="125"/>
       <c r="Q6" s="125"/>
       <c r="R6" s="125"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="121"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="121"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="121"/>
-      <c r="AS6" s="121"/>
-      <c r="AT6" s="121"/>
-      <c r="AU6" s="121"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="121"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
       <c r="M7" s="125"/>
       <c r="N7" s="125"/>
       <c r="O7" s="125"/>
       <c r="P7" s="125"/>
       <c r="Q7" s="125"/>
       <c r="R7" s="125"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="126"/>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="121"/>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="123"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="125"/>
       <c r="N8" s="125"/>
       <c r="O8" s="125"/>
       <c r="P8" s="125"/>
       <c r="Q8" s="125"/>
       <c r="R8" s="125"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="126"/>
-      <c r="AN8" s="121"/>
-      <c r="AO8" s="121"/>
-      <c r="AP8" s="121"/>
-      <c r="AQ8" s="121"/>
-      <c r="AR8" s="121"/>
-      <c r="AS8" s="121"/>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="121"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="121"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="123"/>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="123"/>
+      <c r="AF8" s="123"/>
+      <c r="AG8" s="123"/>
+      <c r="AH8" s="123"/>
+      <c r="AI8" s="123"/>
+      <c r="AJ8" s="123"/>
+      <c r="AK8" s="123"/>
+      <c r="AL8" s="123"/>
+      <c r="AM8" s="123"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
       <c r="M9" s="125"/>
       <c r="N9" s="125"/>
       <c r="O9" s="125"/>
       <c r="P9" s="125"/>
       <c r="Q9" s="125"/>
       <c r="R9" s="125"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="126"/>
-      <c r="AM9" s="126"/>
-      <c r="AN9" s="121"/>
-      <c r="AO9" s="121"/>
-      <c r="AP9" s="121"/>
-      <c r="AQ9" s="121"/>
-      <c r="AR9" s="121"/>
-      <c r="AS9" s="121"/>
-      <c r="AT9" s="121"/>
-      <c r="AU9" s="121"/>
-      <c r="AV9" s="121"/>
-      <c r="AW9" s="121"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="123"/>
+      <c r="AJ9" s="123"/>
+      <c r="AK9" s="123"/>
+      <c r="AL9" s="123"/>
+      <c r="AM9" s="123"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
       <c r="M10" s="125"/>
       <c r="N10" s="125"/>
       <c r="O10" s="125"/>
       <c r="P10" s="125"/>
       <c r="Q10" s="125"/>
       <c r="R10" s="125"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="126"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="121"/>
-      <c r="AO10" s="121"/>
-      <c r="AP10" s="121"/>
-      <c r="AQ10" s="121"/>
-      <c r="AR10" s="121"/>
-      <c r="AS10" s="121"/>
-      <c r="AT10" s="121"/>
-      <c r="AU10" s="121"/>
-      <c r="AV10" s="121"/>
-      <c r="AW10" s="121"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="123"/>
+      <c r="AE10" s="123"/>
+      <c r="AF10" s="123"/>
+      <c r="AG10" s="123"/>
+      <c r="AH10" s="123"/>
+      <c r="AI10" s="123"/>
+      <c r="AJ10" s="123"/>
+      <c r="AK10" s="123"/>
+      <c r="AL10" s="123"/>
+      <c r="AM10" s="123"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="111"/>
+      <c r="AP10" s="111"/>
+      <c r="AQ10" s="111"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="111"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="129"/>
-      <c r="AJ11" s="129"/>
-      <c r="AK11" s="129"/>
-      <c r="AL11" s="129"/>
-      <c r="AM11" s="129"/>
-      <c r="AN11" s="121"/>
-      <c r="AO11" s="121"/>
-      <c r="AP11" s="121"/>
-      <c r="AQ11" s="121"/>
-      <c r="AR11" s="121"/>
-      <c r="AS11" s="121"/>
-      <c r="AT11" s="121"/>
-      <c r="AU11" s="121"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="121"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="124"/>
+      <c r="AK11" s="124"/>
+      <c r="AL11" s="124"/>
+      <c r="AM11" s="124"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="128"/>
-      <c r="AI12" s="128"/>
-      <c r="AJ12" s="128"/>
-      <c r="AK12" s="128"/>
-      <c r="AL12" s="128"/>
-      <c r="AM12" s="128"/>
-      <c r="AN12" s="121"/>
-      <c r="AO12" s="121"/>
-      <c r="AP12" s="121"/>
-      <c r="AQ12" s="121"/>
-      <c r="AR12" s="121"/>
-      <c r="AS12" s="121"/>
-      <c r="AT12" s="121"/>
-      <c r="AU12" s="121"/>
-      <c r="AV12" s="121"/>
-      <c r="AW12" s="121"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="117"/>
+      <c r="AG12" s="117"/>
+      <c r="AH12" s="117"/>
+      <c r="AI12" s="117"/>
+      <c r="AJ12" s="117"/>
+      <c r="AK12" s="117"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="111"/>
+      <c r="AO12" s="111"/>
+      <c r="AP12" s="111"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="111"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="111"/>
+      <c r="AV12" s="111"/>
+      <c r="AW12" s="111"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="128"/>
-      <c r="AI13" s="128"/>
-      <c r="AJ13" s="128"/>
-      <c r="AK13" s="128"/>
-      <c r="AL13" s="128"/>
-      <c r="AM13" s="128"/>
-      <c r="AN13" s="121"/>
-      <c r="AO13" s="121"/>
-      <c r="AP13" s="121"/>
-      <c r="AQ13" s="121"/>
-      <c r="AR13" s="121"/>
-      <c r="AS13" s="121"/>
-      <c r="AT13" s="121"/>
-      <c r="AU13" s="121"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="117"/>
+      <c r="AG13" s="117"/>
+      <c r="AH13" s="117"/>
+      <c r="AI13" s="117"/>
+      <c r="AJ13" s="117"/>
+      <c r="AK13" s="117"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="111"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="121"/>
-      <c r="AO14" s="121"/>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="121"/>
-      <c r="AR14" s="121"/>
-      <c r="AS14" s="121"/>
-      <c r="AT14" s="121"/>
-      <c r="AU14" s="121"/>
-      <c r="AV14" s="121"/>
-      <c r="AW14" s="121"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="123"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="123"/>
+      <c r="AM14" s="123"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="111"/>
+      <c r="AP14" s="111"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="111"/>
+      <c r="AT14" s="111"/>
+      <c r="AU14" s="111"/>
+      <c r="AV14" s="111"/>
+      <c r="AW14" s="111"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="128"/>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="128"/>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="128"/>
-      <c r="AM15" s="128"/>
-      <c r="AN15" s="121"/>
-      <c r="AO15" s="121"/>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="121"/>
-      <c r="AR15" s="121"/>
-      <c r="AS15" s="121"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="121"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="117"/>
+      <c r="AG15" s="117"/>
+      <c r="AH15" s="117"/>
+      <c r="AI15" s="117"/>
+      <c r="AJ15" s="117"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="111"/>
+      <c r="AP15" s="111"/>
+      <c r="AQ15" s="111"/>
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="111"/>
+      <c r="AT15" s="111"/>
+      <c r="AU15" s="111"/>
+      <c r="AV15" s="111"/>
+      <c r="AW15" s="111"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="128"/>
-      <c r="AI16" s="128"/>
-      <c r="AJ16" s="128"/>
-      <c r="AK16" s="128"/>
-      <c r="AL16" s="128"/>
-      <c r="AM16" s="128"/>
-      <c r="AN16" s="121"/>
-      <c r="AO16" s="121"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="121"/>
-      <c r="AR16" s="121"/>
-      <c r="AS16" s="121"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="121"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="117"/>
+      <c r="AD16" s="117"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="117"/>
+      <c r="AG16" s="117"/>
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="111"/>
+      <c r="AO16" s="111"/>
+      <c r="AP16" s="111"/>
+      <c r="AQ16" s="111"/>
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="111"/>
+      <c r="AT16" s="111"/>
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="111"/>
+      <c r="AW16" s="111"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="128"/>
-      <c r="AJ17" s="128"/>
-      <c r="AK17" s="128"/>
-      <c r="AL17" s="128"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="121"/>
-      <c r="AO17" s="121"/>
-      <c r="AP17" s="121"/>
-      <c r="AQ17" s="121"/>
-      <c r="AR17" s="121"/>
-      <c r="AS17" s="121"/>
-      <c r="AT17" s="121"/>
-      <c r="AU17" s="121"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="117"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="111"/>
+      <c r="AP17" s="111"/>
+      <c r="AQ17" s="111"/>
+      <c r="AR17" s="111"/>
+      <c r="AS17" s="111"/>
+      <c r="AT17" s="111"/>
+      <c r="AU17" s="111"/>
+      <c r="AV17" s="111"/>
+      <c r="AW17" s="111"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="128"/>
-      <c r="AJ18" s="128"/>
-      <c r="AK18" s="128"/>
-      <c r="AL18" s="128"/>
-      <c r="AM18" s="128"/>
-      <c r="AN18" s="121"/>
-      <c r="AO18" s="121"/>
-      <c r="AP18" s="121"/>
-      <c r="AQ18" s="121"/>
-      <c r="AR18" s="121"/>
-      <c r="AS18" s="121"/>
-      <c r="AT18" s="121"/>
-      <c r="AU18" s="121"/>
-      <c r="AV18" s="121"/>
-      <c r="AW18" s="121"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="117"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="117"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="117"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="111"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="111"/>
+      <c r="AR18" s="111"/>
+      <c r="AS18" s="111"/>
+      <c r="AT18" s="111"/>
+      <c r="AU18" s="111"/>
+      <c r="AV18" s="111"/>
+      <c r="AW18" s="111"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="128"/>
-      <c r="AJ19" s="128"/>
-      <c r="AK19" s="128"/>
-      <c r="AL19" s="128"/>
-      <c r="AM19" s="128"/>
-      <c r="AN19" s="121"/>
-      <c r="AO19" s="121"/>
-      <c r="AP19" s="121"/>
-      <c r="AQ19" s="121"/>
-      <c r="AR19" s="121"/>
-      <c r="AS19" s="121"/>
-      <c r="AT19" s="121"/>
-      <c r="AU19" s="121"/>
-      <c r="AV19" s="121"/>
-      <c r="AW19" s="121"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="111"/>
+      <c r="AO19" s="111"/>
+      <c r="AP19" s="111"/>
+      <c r="AQ19" s="111"/>
+      <c r="AR19" s="111"/>
+      <c r="AS19" s="111"/>
+      <c r="AT19" s="111"/>
+      <c r="AU19" s="111"/>
+      <c r="AV19" s="111"/>
+      <c r="AW19" s="111"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="128"/>
-      <c r="AI20" s="128"/>
-      <c r="AJ20" s="128"/>
-      <c r="AK20" s="128"/>
-      <c r="AL20" s="128"/>
-      <c r="AM20" s="128"/>
-      <c r="AN20" s="121"/>
-      <c r="AO20" s="121"/>
-      <c r="AP20" s="121"/>
-      <c r="AQ20" s="121"/>
-      <c r="AR20" s="121"/>
-      <c r="AS20" s="121"/>
-      <c r="AT20" s="121"/>
-      <c r="AU20" s="121"/>
-      <c r="AV20" s="121"/>
-      <c r="AW20" s="121"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="111"/>
+      <c r="AO20" s="111"/>
+      <c r="AP20" s="111"/>
+      <c r="AQ20" s="111"/>
+      <c r="AR20" s="111"/>
+      <c r="AS20" s="111"/>
+      <c r="AT20" s="111"/>
+      <c r="AU20" s="111"/>
+      <c r="AV20" s="111"/>
+      <c r="AW20" s="111"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
-      <c r="AI21" s="128"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="128"/>
-      <c r="AL21" s="128"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="121"/>
-      <c r="AO21" s="121"/>
-      <c r="AP21" s="121"/>
-      <c r="AQ21" s="121"/>
-      <c r="AR21" s="121"/>
-      <c r="AS21" s="121"/>
-      <c r="AT21" s="121"/>
-      <c r="AU21" s="121"/>
-      <c r="AV21" s="121"/>
-      <c r="AW21" s="121"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="117"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="117"/>
+      <c r="AG21" s="117"/>
+      <c r="AH21" s="117"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="117"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="111"/>
+      <c r="AO21" s="111"/>
+      <c r="AP21" s="111"/>
+      <c r="AQ21" s="111"/>
+      <c r="AR21" s="111"/>
+      <c r="AS21" s="111"/>
+      <c r="AT21" s="111"/>
+      <c r="AU21" s="111"/>
+      <c r="AV21" s="111"/>
+      <c r="AW21" s="111"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="128"/>
-      <c r="AJ22" s="128"/>
-      <c r="AK22" s="128"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="121"/>
-      <c r="AO22" s="121"/>
-      <c r="AP22" s="121"/>
-      <c r="AQ22" s="121"/>
-      <c r="AR22" s="121"/>
-      <c r="AS22" s="121"/>
-      <c r="AT22" s="121"/>
-      <c r="AU22" s="121"/>
-      <c r="AV22" s="121"/>
-      <c r="AW22" s="121"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="117"/>
+      <c r="AG22" s="117"/>
+      <c r="AH22" s="117"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="117"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="111"/>
+      <c r="AO22" s="111"/>
+      <c r="AP22" s="111"/>
+      <c r="AQ22" s="111"/>
+      <c r="AR22" s="111"/>
+      <c r="AS22" s="111"/>
+      <c r="AT22" s="111"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="111"/>
+      <c r="AW22" s="111"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="128"/>
-      <c r="AJ23" s="128"/>
-      <c r="AK23" s="128"/>
-      <c r="AL23" s="128"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="121"/>
-      <c r="AO23" s="121"/>
-      <c r="AP23" s="121"/>
-      <c r="AQ23" s="121"/>
-      <c r="AR23" s="121"/>
-      <c r="AS23" s="121"/>
-      <c r="AT23" s="121"/>
-      <c r="AU23" s="121"/>
-      <c r="AV23" s="121"/>
-      <c r="AW23" s="121"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="117"/>
+      <c r="AD23" s="117"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="117"/>
+      <c r="AG23" s="117"/>
+      <c r="AH23" s="117"/>
+      <c r="AI23" s="117"/>
+      <c r="AJ23" s="117"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="117"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="111"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="111"/>
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="111"/>
+      <c r="AS23" s="111"/>
+      <c r="AT23" s="111"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="111"/>
+      <c r="AW23" s="111"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="128"/>
-      <c r="AI24" s="128"/>
-      <c r="AJ24" s="128"/>
-      <c r="AK24" s="128"/>
-      <c r="AL24" s="128"/>
-      <c r="AM24" s="128"/>
-      <c r="AN24" s="121"/>
-      <c r="AO24" s="121"/>
-      <c r="AP24" s="121"/>
-      <c r="AQ24" s="121"/>
-      <c r="AR24" s="121"/>
-      <c r="AS24" s="121"/>
-      <c r="AT24" s="121"/>
-      <c r="AU24" s="121"/>
-      <c r="AV24" s="121"/>
-      <c r="AW24" s="121"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="117"/>
+      <c r="AG24" s="117"/>
+      <c r="AH24" s="117"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="128"/>
-      <c r="AJ25" s="128"/>
-      <c r="AK25" s="128"/>
-      <c r="AL25" s="128"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="121"/>
-      <c r="AO25" s="121"/>
-      <c r="AP25" s="121"/>
-      <c r="AQ25" s="121"/>
-      <c r="AR25" s="121"/>
-      <c r="AS25" s="121"/>
-      <c r="AT25" s="121"/>
-      <c r="AU25" s="121"/>
-      <c r="AV25" s="121"/>
-      <c r="AW25" s="121"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="117"/>
+      <c r="AG25" s="117"/>
+      <c r="AH25" s="117"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="117"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="117"/>
+      <c r="AM25" s="117"/>
+      <c r="AN25" s="111"/>
+      <c r="AO25" s="111"/>
+      <c r="AP25" s="111"/>
+      <c r="AQ25" s="111"/>
+      <c r="AR25" s="111"/>
+      <c r="AS25" s="111"/>
+      <c r="AT25" s="111"/>
+      <c r="AU25" s="111"/>
+      <c r="AV25" s="111"/>
+      <c r="AW25" s="111"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="128"/>
-      <c r="AI26" s="128"/>
-      <c r="AJ26" s="128"/>
-      <c r="AK26" s="128"/>
-      <c r="AL26" s="128"/>
-      <c r="AM26" s="128"/>
-      <c r="AN26" s="121"/>
-      <c r="AO26" s="121"/>
-      <c r="AP26" s="121"/>
-      <c r="AQ26" s="121"/>
-      <c r="AR26" s="121"/>
-      <c r="AS26" s="121"/>
-      <c r="AT26" s="121"/>
-      <c r="AU26" s="121"/>
-      <c r="AV26" s="121"/>
-      <c r="AW26" s="121"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="117"/>
+      <c r="AG26" s="117"/>
+      <c r="AH26" s="117"/>
+      <c r="AI26" s="117"/>
+      <c r="AJ26" s="117"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="117"/>
+      <c r="AM26" s="117"/>
+      <c r="AN26" s="111"/>
+      <c r="AO26" s="111"/>
+      <c r="AP26" s="111"/>
+      <c r="AQ26" s="111"/>
+      <c r="AR26" s="111"/>
+      <c r="AS26" s="111"/>
+      <c r="AT26" s="111"/>
+      <c r="AU26" s="111"/>
+      <c r="AV26" s="111"/>
+      <c r="AW26" s="111"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="128"/>
-      <c r="AJ27" s="128"/>
-      <c r="AK27" s="128"/>
-      <c r="AL27" s="128"/>
-      <c r="AM27" s="128"/>
-      <c r="AN27" s="121"/>
-      <c r="AO27" s="121"/>
-      <c r="AP27" s="121"/>
-      <c r="AQ27" s="121"/>
-      <c r="AR27" s="121"/>
-      <c r="AS27" s="121"/>
-      <c r="AT27" s="121"/>
-      <c r="AU27" s="121"/>
-      <c r="AV27" s="121"/>
-      <c r="AW27" s="121"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="117"/>
+      <c r="AG27" s="117"/>
+      <c r="AH27" s="117"/>
+      <c r="AI27" s="117"/>
+      <c r="AJ27" s="117"/>
+      <c r="AK27" s="117"/>
+      <c r="AL27" s="117"/>
+      <c r="AM27" s="117"/>
+      <c r="AN27" s="111"/>
+      <c r="AO27" s="111"/>
+      <c r="AP27" s="111"/>
+      <c r="AQ27" s="111"/>
+      <c r="AR27" s="111"/>
+      <c r="AS27" s="111"/>
+      <c r="AT27" s="111"/>
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="111"/>
+      <c r="AW27" s="111"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="128"/>
-      <c r="AI28" s="128"/>
-      <c r="AJ28" s="128"/>
-      <c r="AK28" s="128"/>
-      <c r="AL28" s="128"/>
-      <c r="AM28" s="128"/>
-      <c r="AN28" s="121"/>
-      <c r="AO28" s="121"/>
-      <c r="AP28" s="121"/>
-      <c r="AQ28" s="121"/>
-      <c r="AR28" s="121"/>
-      <c r="AS28" s="121"/>
-      <c r="AT28" s="121"/>
-      <c r="AU28" s="121"/>
-      <c r="AV28" s="121"/>
-      <c r="AW28" s="121"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="117"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="117"/>
+      <c r="AG28" s="117"/>
+      <c r="AH28" s="117"/>
+      <c r="AI28" s="117"/>
+      <c r="AJ28" s="117"/>
+      <c r="AK28" s="117"/>
+      <c r="AL28" s="117"/>
+      <c r="AM28" s="117"/>
+      <c r="AN28" s="111"/>
+      <c r="AO28" s="111"/>
+      <c r="AP28" s="111"/>
+      <c r="AQ28" s="111"/>
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="111"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="111"/>
+      <c r="AW28" s="111"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="128"/>
-      <c r="AH29" s="128"/>
-      <c r="AI29" s="128"/>
-      <c r="AJ29" s="128"/>
-      <c r="AK29" s="128"/>
-      <c r="AL29" s="128"/>
-      <c r="AM29" s="128"/>
-      <c r="AN29" s="121"/>
-      <c r="AO29" s="121"/>
-      <c r="AP29" s="121"/>
-      <c r="AQ29" s="121"/>
-      <c r="AR29" s="121"/>
-      <c r="AS29" s="121"/>
-      <c r="AT29" s="121"/>
-      <c r="AU29" s="121"/>
-      <c r="AV29" s="121"/>
-      <c r="AW29" s="121"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="117"/>
+      <c r="AG29" s="117"/>
+      <c r="AH29" s="117"/>
+      <c r="AI29" s="117"/>
+      <c r="AJ29" s="117"/>
+      <c r="AK29" s="117"/>
+      <c r="AL29" s="117"/>
+      <c r="AM29" s="117"/>
+      <c r="AN29" s="111"/>
+      <c r="AO29" s="111"/>
+      <c r="AP29" s="111"/>
+      <c r="AQ29" s="111"/>
+      <c r="AR29" s="111"/>
+      <c r="AS29" s="111"/>
+      <c r="AT29" s="111"/>
+      <c r="AU29" s="111"/>
+      <c r="AV29" s="111"/>
+      <c r="AW29" s="111"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="128"/>
-      <c r="AI30" s="128"/>
-      <c r="AJ30" s="128"/>
-      <c r="AK30" s="128"/>
-      <c r="AL30" s="128"/>
-      <c r="AM30" s="128"/>
-      <c r="AN30" s="121"/>
-      <c r="AO30" s="121"/>
-      <c r="AP30" s="121"/>
-      <c r="AQ30" s="121"/>
-      <c r="AR30" s="121"/>
-      <c r="AS30" s="121"/>
-      <c r="AT30" s="121"/>
-      <c r="AU30" s="121"/>
-      <c r="AV30" s="121"/>
-      <c r="AW30" s="121"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="117"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="117"/>
+      <c r="AG30" s="117"/>
+      <c r="AH30" s="117"/>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="117"/>
+      <c r="AK30" s="117"/>
+      <c r="AL30" s="117"/>
+      <c r="AM30" s="117"/>
+      <c r="AN30" s="111"/>
+      <c r="AO30" s="111"/>
+      <c r="AP30" s="111"/>
+      <c r="AQ30" s="111"/>
+      <c r="AR30" s="111"/>
+      <c r="AS30" s="111"/>
+      <c r="AT30" s="111"/>
+      <c r="AU30" s="111"/>
+      <c r="AV30" s="111"/>
+      <c r="AW30" s="111"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="128"/>
-      <c r="AJ31" s="128"/>
-      <c r="AK31" s="128"/>
-      <c r="AL31" s="128"/>
-      <c r="AM31" s="128"/>
-      <c r="AN31" s="121"/>
-      <c r="AO31" s="121"/>
-      <c r="AP31" s="121"/>
-      <c r="AQ31" s="121"/>
-      <c r="AR31" s="121"/>
-      <c r="AS31" s="121"/>
-      <c r="AT31" s="121"/>
-      <c r="AU31" s="121"/>
-      <c r="AV31" s="121"/>
-      <c r="AW31" s="121"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="117"/>
+      <c r="AG31" s="117"/>
+      <c r="AH31" s="117"/>
+      <c r="AI31" s="117"/>
+      <c r="AJ31" s="117"/>
+      <c r="AK31" s="117"/>
+      <c r="AL31" s="117"/>
+      <c r="AM31" s="117"/>
+      <c r="AN31" s="111"/>
+      <c r="AO31" s="111"/>
+      <c r="AP31" s="111"/>
+      <c r="AQ31" s="111"/>
+      <c r="AR31" s="111"/>
+      <c r="AS31" s="111"/>
+      <c r="AT31" s="111"/>
+      <c r="AU31" s="111"/>
+      <c r="AV31" s="111"/>
+      <c r="AW31" s="111"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="128"/>
-      <c r="AJ32" s="128"/>
-      <c r="AK32" s="128"/>
-      <c r="AL32" s="128"/>
-      <c r="AM32" s="128"/>
-      <c r="AN32" s="121"/>
-      <c r="AO32" s="121"/>
-      <c r="AP32" s="121"/>
-      <c r="AQ32" s="121"/>
-      <c r="AR32" s="121"/>
-      <c r="AS32" s="121"/>
-      <c r="AT32" s="121"/>
-      <c r="AU32" s="121"/>
-      <c r="AV32" s="121"/>
-      <c r="AW32" s="121"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="117"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="117"/>
+      <c r="AG32" s="117"/>
+      <c r="AH32" s="117"/>
+      <c r="AI32" s="117"/>
+      <c r="AJ32" s="117"/>
+      <c r="AK32" s="117"/>
+      <c r="AL32" s="117"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="111"/>
+      <c r="AO32" s="111"/>
+      <c r="AP32" s="111"/>
+      <c r="AQ32" s="111"/>
+      <c r="AR32" s="111"/>
+      <c r="AS32" s="111"/>
+      <c r="AT32" s="111"/>
+      <c r="AU32" s="111"/>
+      <c r="AV32" s="111"/>
+      <c r="AW32" s="111"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="128"/>
-      <c r="AJ33" s="128"/>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="128"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="121"/>
-      <c r="AO33" s="121"/>
-      <c r="AP33" s="121"/>
-      <c r="AQ33" s="121"/>
-      <c r="AR33" s="121"/>
-      <c r="AS33" s="121"/>
-      <c r="AT33" s="121"/>
-      <c r="AU33" s="121"/>
-      <c r="AV33" s="121"/>
-      <c r="AW33" s="121"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="117"/>
+      <c r="AG33" s="117"/>
+      <c r="AH33" s="117"/>
+      <c r="AI33" s="117"/>
+      <c r="AJ33" s="117"/>
+      <c r="AK33" s="117"/>
+      <c r="AL33" s="117"/>
+      <c r="AM33" s="117"/>
+      <c r="AN33" s="111"/>
+      <c r="AO33" s="111"/>
+      <c r="AP33" s="111"/>
+      <c r="AQ33" s="111"/>
+      <c r="AR33" s="111"/>
+      <c r="AS33" s="111"/>
+      <c r="AT33" s="111"/>
+      <c r="AU33" s="111"/>
+      <c r="AV33" s="111"/>
+      <c r="AW33" s="111"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="134"/>
-      <c r="N34" s="135"/>
-      <c r="O34" s="135"/>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="135"/>
-      <c r="R34" s="135"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="128"/>
-      <c r="Y34" s="128"/>
-      <c r="Z34" s="128"/>
-      <c r="AA34" s="128"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="128"/>
-      <c r="AD34" s="128"/>
-      <c r="AE34" s="128"/>
-      <c r="AF34" s="128"/>
-      <c r="AG34" s="128"/>
-      <c r="AH34" s="128"/>
-      <c r="AI34" s="128"/>
-      <c r="AJ34" s="128"/>
-      <c r="AK34" s="128"/>
-      <c r="AL34" s="128"/>
-      <c r="AM34" s="128"/>
-      <c r="AN34" s="121"/>
-      <c r="AO34" s="121"/>
-      <c r="AP34" s="121"/>
-      <c r="AQ34" s="121"/>
-      <c r="AR34" s="121"/>
-      <c r="AS34" s="121"/>
-      <c r="AT34" s="121"/>
-      <c r="AU34" s="121"/>
-      <c r="AV34" s="121"/>
-      <c r="AW34" s="121"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="117"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="117"/>
+      <c r="AF34" s="117"/>
+      <c r="AG34" s="117"/>
+      <c r="AH34" s="117"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="117"/>
+      <c r="AK34" s="117"/>
+      <c r="AL34" s="117"/>
+      <c r="AM34" s="117"/>
+      <c r="AN34" s="111"/>
+      <c r="AO34" s="111"/>
+      <c r="AP34" s="111"/>
+      <c r="AQ34" s="111"/>
+      <c r="AR34" s="111"/>
+      <c r="AS34" s="111"/>
+      <c r="AT34" s="111"/>
+      <c r="AU34" s="111"/>
+      <c r="AV34" s="111"/>
+      <c r="AW34" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -5915,239 +6230,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6228,14 +6310,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="138">
+      <c r="AO1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="140"/>
+      <c r="AP1" s="144"/>
+      <c r="AQ1" s="144"/>
+      <c r="AR1" s="144"/>
+      <c r="AS1" s="145"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6244,17 +6326,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="145" t="str">
+      <c r="AZ1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="146"/>
-      <c r="BB1" s="146"/>
-      <c r="BC1" s="146"/>
-      <c r="BD1" s="146"/>
-      <c r="BE1" s="146"/>
-      <c r="BF1" s="146"/>
-      <c r="BG1" s="147"/>
+      <c r="BA1" s="137"/>
+      <c r="BB1" s="137"/>
+      <c r="BC1" s="137"/>
+      <c r="BD1" s="137"/>
+      <c r="BE1" s="137"/>
+      <c r="BF1" s="137"/>
+      <c r="BG1" s="138"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6307,11 +6389,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="140"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="144"/>
+      <c r="AR2" s="144"/>
+      <c r="AS2" s="145"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6320,14 +6402,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="145"/>
-      <c r="BA2" s="146"/>
-      <c r="BB2" s="146"/>
-      <c r="BC2" s="146"/>
-      <c r="BD2" s="146"/>
-      <c r="BE2" s="146"/>
-      <c r="BF2" s="146"/>
-      <c r="BG2" s="147"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="137"/>
+      <c r="BB2" s="137"/>
+      <c r="BC2" s="137"/>
+      <c r="BD2" s="137"/>
+      <c r="BE2" s="137"/>
+      <c r="BF2" s="137"/>
+      <c r="BG2" s="138"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7350,7 +7432,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
@@ -7372,7 +7454,7 @@
     </row>
     <row r="37" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L37" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -7549,10 +7631,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="142"/>
+      <c r="C41" s="147"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7635,10 +7717,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="143">
+      <c r="B42" s="141">
         <v>1</v>
       </c>
-      <c r="C42" s="144"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7670,16 +7752,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="136" t="s">
+      <c r="AE42" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="137"/>
-      <c r="AG42" s="136"/>
-      <c r="AH42" s="137"/>
-      <c r="AI42" s="136"/>
-      <c r="AJ42" s="137"/>
-      <c r="AK42" s="136"/>
-      <c r="AL42" s="137"/>
+      <c r="AF42" s="140"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="140"/>
+      <c r="AI42" s="139"/>
+      <c r="AJ42" s="140"/>
+      <c r="AK42" s="139"/>
+      <c r="AL42" s="140"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7713,10 +7795,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="143">
+      <c r="B43" s="141">
         <v>2</v>
       </c>
-      <c r="C43" s="144"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="104" t="s">
         <v>94</v>
       </c>
@@ -7727,7 +7809,7 @@
       <c r="I43" s="86"/>
       <c r="J43" s="105"/>
       <c r="K43" s="104" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L43" s="86"/>
       <c r="M43" s="86"/>
@@ -7748,18 +7830,18 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="105"/>
-      <c r="AE43" s="136" t="s">
+      <c r="AE43" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="137"/>
-      <c r="AG43" s="136"/>
-      <c r="AH43" s="137"/>
-      <c r="AI43" s="136"/>
-      <c r="AJ43" s="137"/>
-      <c r="AK43" s="136"/>
-      <c r="AL43" s="137"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="139"/>
+      <c r="AH43" s="140"/>
+      <c r="AI43" s="139"/>
+      <c r="AJ43" s="140"/>
+      <c r="AK43" s="139"/>
+      <c r="AL43" s="140"/>
       <c r="AM43" s="83" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AN43" s="84"/>
       <c r="AO43" s="84"/>
@@ -7791,10 +7873,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="143">
+      <c r="B44" s="141">
         <v>3</v>
       </c>
-      <c r="C44" s="144"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="93" t="s">
         <v>94</v>
       </c>
@@ -7805,7 +7887,7 @@
       <c r="I44" s="86"/>
       <c r="J44" s="87"/>
       <c r="K44" s="82" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L44" s="86"/>
       <c r="M44" s="86"/>
@@ -7826,16 +7908,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="136" t="s">
+      <c r="AE44" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="137"/>
-      <c r="AG44" s="136"/>
-      <c r="AH44" s="137"/>
-      <c r="AI44" s="136"/>
-      <c r="AJ44" s="137"/>
-      <c r="AK44" s="136"/>
-      <c r="AL44" s="137"/>
+      <c r="AF44" s="140"/>
+      <c r="AG44" s="139"/>
+      <c r="AH44" s="140"/>
+      <c r="AI44" s="139"/>
+      <c r="AJ44" s="140"/>
+      <c r="AK44" s="139"/>
+      <c r="AL44" s="140"/>
       <c r="AM44" s="83" t="s">
         <v>128</v>
       </c>
@@ -7869,10 +7951,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="143">
+      <c r="B45" s="141">
         <v>4</v>
       </c>
-      <c r="C45" s="144"/>
+      <c r="C45" s="142"/>
       <c r="D45" s="82" t="s">
         <v>103</v>
       </c>
@@ -7904,16 +7986,16 @@
       <c r="AB45" s="86"/>
       <c r="AC45" s="86"/>
       <c r="AD45" s="87"/>
-      <c r="AE45" s="136" t="s">
+      <c r="AE45" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF45" s="137"/>
-      <c r="AG45" s="136"/>
-      <c r="AH45" s="137"/>
-      <c r="AI45" s="136"/>
-      <c r="AJ45" s="137"/>
-      <c r="AK45" s="136"/>
-      <c r="AL45" s="137"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="139"/>
+      <c r="AH45" s="140"/>
+      <c r="AI45" s="139"/>
+      <c r="AJ45" s="140"/>
+      <c r="AK45" s="139"/>
+      <c r="AL45" s="140"/>
       <c r="AM45" s="83" t="s">
         <v>104</v>
       </c>
@@ -7952,6 +8034,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK45:AL45"/>
@@ -7968,15 +8059,6 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8100,7 +8182,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="138">
+      <c r="CD1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -8122,7 +8204,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="145" t="str">
+      <c r="CU1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8253,7 +8335,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="145"/>
+      <c r="CU2" s="136"/>
       <c r="CV2" s="148"/>
       <c r="CW2" s="148"/>
       <c r="CX2" s="148"/>
@@ -8469,37 +8551,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="154" t="s">
+      <c r="I6" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="154" t="s">
+      <c r="J6" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="K6" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="113" t="s">
+      <c r="L6" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="113" t="s">
+      <c r="M6" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8507,24 +8589,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="154" t="s">
+      <c r="Q6" s="156" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8534,7 +8616,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="154"/>
+      <c r="Q7" s="156"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8549,7 +8631,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8596,37 +8678,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="113" t="s">
+      <c r="G11" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="113" t="s">
+      <c r="H11" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="154" t="s">
+      <c r="J11" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="113" t="s">
+      <c r="K11" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="113" t="s">
+      <c r="L11" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="113" t="s">
+      <c r="M11" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8634,24 +8716,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="155" t="s">
+      <c r="Q11" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8661,7 +8743,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="156"/>
+      <c r="Q12" s="155"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
@@ -8677,10 +8759,10 @@
         <v>115</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>34</v>
@@ -8689,7 +8771,7 @@
         <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>34</v>
@@ -8704,7 +8786,7 @@
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>33</v>
@@ -8721,13 +8803,13 @@
         <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>34</v>
@@ -8751,7 +8833,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>33</v>
@@ -8776,37 +8858,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="113" t="s">
+      <c r="G18" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="113" t="s">
+      <c r="H18" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="154" t="s">
+      <c r="I18" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="154" t="s">
+      <c r="J18" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="113" t="s">
+      <c r="K18" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="113" t="s">
+      <c r="L18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8814,24 +8896,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="154" t="s">
+      <c r="Q18" s="156" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8841,7 +8923,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="154"/>
+      <c r="Q19" s="156"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -8956,7 +9038,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -9054,7 +9136,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
@@ -9073,7 +9155,7 @@
         <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G25" s="43" t="s">
         <v>42</v>
@@ -9136,6 +9218,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -9152,26 +9254,6 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9190,7 +9272,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ48"/>
+  <dimension ref="A1:AZ67"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -9248,7 +9330,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -9264,7 +9346,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="145" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9335,7 +9417,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="145"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -9679,9 +9761,11 @@
       <c r="C11" s="71"/>
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
-      <c r="K11" s="72"/>
+      <c r="L11" s="71" t="s">
+        <v>173</v>
+      </c>
       <c r="M11" s="94" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
@@ -9693,6 +9777,25 @@
       <c r="U11" s="94"/>
       <c r="V11" s="94"/>
       <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
       <c r="AV11" s="72"/>
     </row>
     <row r="12" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9700,10 +9803,11 @@
       <c r="C12" s="71"/>
       <c r="F12" s="72"/>
       <c r="G12" s="71"/>
-      <c r="K12" s="72"/>
-      <c r="N12" s="94" t="s">
-        <v>138</v>
-      </c>
+      <c r="L12" s="71"/>
+      <c r="M12" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="N12" s="94"/>
       <c r="O12" s="94"/>
       <c r="P12" s="94"/>
       <c r="Q12" s="94"/>
@@ -9713,6 +9817,24 @@
       <c r="U12" s="94"/>
       <c r="V12" s="94"/>
       <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
       <c r="AV12" s="72"/>
     </row>
     <row r="13" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9720,19 +9842,15 @@
       <c r="C13" s="71"/>
       <c r="F13" s="72"/>
       <c r="G13" s="71"/>
-      <c r="K13" s="72"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="94"/>
       <c r="N13" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
+        <v>175</v>
+      </c>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="94"/>
       <c r="AV13" s="72"/>
     </row>
     <row r="14" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9740,19 +9858,15 @@
       <c r="C14" s="71"/>
       <c r="F14" s="72"/>
       <c r="G14" s="71"/>
-      <c r="K14" s="72"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
+        <v>176</v>
+      </c>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
       <c r="AV14" s="72"/>
     </row>
     <row r="15" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9760,19 +9874,15 @@
       <c r="C15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="71"/>
-      <c r="K15" s="72"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
+        <v>177</v>
+      </c>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
       <c r="AV15" s="72"/>
     </row>
     <row r="16" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9780,368 +9890,138 @@
       <c r="C16" s="71"/>
       <c r="F16" s="72"/>
       <c r="G16" s="71"/>
-      <c r="K16" s="72"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
       <c r="AV16" s="72"/>
     </row>
     <row r="17" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
       <c r="F17" s="72"/>
       <c r="G17" s="71"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="23"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="23"/>
-      <c r="AP17" s="23"/>
-      <c r="AQ17" s="23"/>
-      <c r="AR17" s="23"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="23"/>
-      <c r="AU17" s="23"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AO17" s="94"/>
+      <c r="AP17" s="94"/>
       <c r="AV17" s="72"/>
     </row>
     <row r="18" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
       <c r="F18" s="72"/>
       <c r="G18" s="71"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="94"/>
       <c r="N18" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="23"/>
-      <c r="AP18" s="23"/>
-      <c r="AQ18" s="23"/>
-      <c r="AR18" s="23"/>
-      <c r="AS18" s="23"/>
-      <c r="AT18" s="23"/>
-      <c r="AU18" s="23"/>
+        <v>180</v>
+      </c>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
       <c r="AV18" s="72"/>
     </row>
     <row r="19" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="71"/>
       <c r="C19" s="71"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
       <c r="F19" s="72"/>
       <c r="G19" s="71"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="94"/>
       <c r="N19" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
-      <c r="AQ19" s="23"/>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="23"/>
+        <v>181</v>
+      </c>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AO19" s="94"/>
+      <c r="AP19" s="94"/>
       <c r="AV19" s="72"/>
     </row>
     <row r="20" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
       <c r="F20" s="72"/>
       <c r="G20" s="71"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="23"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="Y20" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z20" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="23"/>
-      <c r="AN20" s="23"/>
-      <c r="AO20" s="23"/>
-      <c r="AP20" s="23"/>
-      <c r="AQ20" s="23"/>
-      <c r="AR20" s="23"/>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="23"/>
-      <c r="AU20" s="23"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
       <c r="AV20" s="72"/>
     </row>
     <row r="21" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
       <c r="F21" s="72"/>
       <c r="G21" s="71"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="94"/>
       <c r="N21" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
-      <c r="AQ21" s="23"/>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
-      <c r="AU21" s="23"/>
+        <v>183</v>
+      </c>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AO21" s="94"/>
+      <c r="AP21" s="94"/>
       <c r="AV21" s="72"/>
     </row>
     <row r="22" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
       <c r="F22" s="72"/>
       <c r="G22" s="71"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="23"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="Y22" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
-      <c r="AQ22" s="23"/>
-      <c r="AR22" s="23"/>
-      <c r="AS22" s="23"/>
-      <c r="AT22" s="23"/>
-      <c r="AU22" s="23"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL22" s="94"/>
+      <c r="AM22" s="94"/>
+      <c r="AO22" s="94"/>
+      <c r="AP22" s="94"/>
       <c r="AV22" s="72"/>
     </row>
     <row r="23" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="71"/>
       <c r="C23" s="71"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
       <c r="F23" s="72"/>
       <c r="G23" s="71"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="71"/>
       <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z23" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="23"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="23"/>
-      <c r="AQ23" s="23"/>
-      <c r="AR23" s="23"/>
-      <c r="AS23" s="23"/>
-      <c r="AT23" s="23"/>
-      <c r="AU23" s="23"/>
+      <c r="N23" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="94"/>
+      <c r="AO23" s="94"/>
+      <c r="AP23" s="94"/>
       <c r="AV23" s="72"/>
     </row>
     <row r="24" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="71"/>
       <c r="C24" s="71"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
       <c r="F24" s="72"/>
       <c r="G24" s="71"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="23"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="94"/>
       <c r="N24" s="94"/>
-      <c r="O24" s="94" t="s">
-        <v>165</v>
-      </c>
+      <c r="O24" s="94"/>
       <c r="P24" s="94"/>
       <c r="Q24" s="94"/>
       <c r="R24" s="94"/>
@@ -10151,52 +10031,36 @@
       <c r="V24" s="94"/>
       <c r="W24" s="94"/>
       <c r="X24" s="94"/>
-      <c r="Y24" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z24" s="94" t="s">
-        <v>166</v>
-      </c>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
       <c r="AA24" s="94"/>
       <c r="AB24" s="94"/>
       <c r="AC24" s="94"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="23"/>
-      <c r="AN24" s="23"/>
-      <c r="AO24" s="23"/>
-      <c r="AP24" s="23"/>
-      <c r="AQ24" s="23"/>
-      <c r="AR24" s="23"/>
-      <c r="AS24" s="23"/>
-      <c r="AT24" s="23"/>
-      <c r="AU24" s="23"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="94"/>
+      <c r="AO24" s="94"/>
+      <c r="AP24" s="94"/>
       <c r="AV24" s="72"/>
     </row>
     <row r="25" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
       <c r="F25" s="72"/>
       <c r="G25" s="71"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="94"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="94" t="s">
+        <v>186</v>
+      </c>
       <c r="N25" s="94"/>
-      <c r="O25" s="94" t="s">
-        <v>167</v>
-      </c>
+      <c r="O25" s="94"/>
       <c r="P25" s="94"/>
       <c r="Q25" s="94"/>
       <c r="R25" s="94"/>
@@ -10206,52 +10070,35 @@
       <c r="V25" s="94"/>
       <c r="W25" s="94"/>
       <c r="X25" s="94"/>
-      <c r="Y25" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z25" s="94" t="s">
-        <v>168</v>
-      </c>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
       <c r="AA25" s="94"/>
       <c r="AB25" s="94"/>
       <c r="AC25" s="94"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="94"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="94"/>
+      <c r="AH25" s="94"/>
+      <c r="AI25" s="94"/>
+      <c r="AJ25" s="94"/>
+      <c r="AK25" s="94"/>
+      <c r="AL25" s="94"/>
+      <c r="AM25" s="94"/>
+      <c r="AO25" s="94"/>
+      <c r="AP25" s="94"/>
       <c r="AV25" s="72"/>
     </row>
     <row r="26" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
       <c r="F26" s="72"/>
       <c r="G26" s="71"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94" t="s">
-        <v>169</v>
-      </c>
+      <c r="L26" s="71"/>
+      <c r="N26" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" s="94"/>
       <c r="P26" s="94"/>
       <c r="Q26" s="94"/>
       <c r="R26" s="94"/>
@@ -10261,189 +10108,137 @@
       <c r="V26" s="94"/>
       <c r="W26" s="94"/>
       <c r="X26" s="94"/>
-      <c r="Y26" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z26" s="94" t="s">
-        <v>170</v>
-      </c>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
       <c r="AA26" s="94"/>
       <c r="AB26" s="94"/>
       <c r="AC26" s="94"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="23"/>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="23"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="23"/>
-      <c r="AN26" s="23"/>
-      <c r="AO26" s="23"/>
-      <c r="AP26" s="23"/>
-      <c r="AQ26" s="23"/>
-      <c r="AR26" s="23"/>
-      <c r="AS26" s="23"/>
-      <c r="AT26" s="23"/>
-      <c r="AU26" s="23"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="94"/>
+      <c r="AJ26" s="94"/>
+      <c r="AK26" s="94"/>
+      <c r="AL26" s="94"/>
+      <c r="AM26" s="94"/>
+      <c r="AO26" s="94"/>
+      <c r="AP26" s="94"/>
       <c r="AV26" s="72"/>
     </row>
     <row r="27" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
       <c r="K27" s="72"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="23"/>
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="23"/>
-      <c r="AQ27" s="23"/>
-      <c r="AR27" s="23"/>
-      <c r="AS27" s="23"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="158"/>
+      <c r="AC27" s="158"/>
+      <c r="AD27" s="158"/>
+      <c r="AE27" s="158"/>
+      <c r="AF27" s="158"/>
+      <c r="AG27" s="158"/>
+      <c r="AH27" s="158"/>
+      <c r="AI27" s="158"/>
+      <c r="AJ27" s="158"/>
+      <c r="AK27" s="158"/>
+      <c r="AL27" s="158"/>
+      <c r="AM27" s="158"/>
+      <c r="AN27" s="158"/>
+      <c r="AO27" s="158"/>
+      <c r="AP27" s="158"/>
+      <c r="AQ27" s="158"/>
       <c r="AV27" s="72"/>
     </row>
     <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
       <c r="F28" s="72"/>
       <c r="G28" s="71"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
       <c r="K28" s="72"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z28" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="23"/>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="23"/>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="23"/>
-      <c r="AU28" s="23"/>
+      <c r="L28" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="M28" s="158"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="158"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="158"/>
+      <c r="AJ28" s="158"/>
+      <c r="AK28" s="158"/>
+      <c r="AL28" s="158"/>
+      <c r="AM28" s="158"/>
+      <c r="AN28" s="158"/>
+      <c r="AO28" s="158"/>
+      <c r="AP28" s="158"/>
+      <c r="AQ28" s="158"/>
       <c r="AV28" s="72"/>
     </row>
     <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
       <c r="F29" s="72"/>
       <c r="G29" s="71"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
       <c r="K29" s="72"/>
-      <c r="L29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="23"/>
-      <c r="AQ29" s="23"/>
-      <c r="AR29" s="23"/>
-      <c r="AS29" s="23"/>
-      <c r="AT29" s="23"/>
-      <c r="AU29" s="23"/>
+      <c r="M29" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
       <c r="AV29" s="72"/>
     </row>
     <row r="30" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
       <c r="F30" s="72"/>
       <c r="G30" s="71"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
       <c r="K30" s="72"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="N30" s="94"/>
+      <c r="N30" s="94" t="s">
+        <v>203</v>
+      </c>
       <c r="O30" s="94"/>
       <c r="P30" s="94"/>
       <c r="Q30" s="94"/>
@@ -10453,30 +10248,6 @@
       <c r="U30" s="94"/>
       <c r="V30" s="94"/>
       <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="23"/>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
-      <c r="AJ30" s="23"/>
-      <c r="AK30" s="23"/>
-      <c r="AL30" s="23"/>
-      <c r="AM30" s="23"/>
-      <c r="AN30" s="23"/>
-      <c r="AO30" s="23"/>
-      <c r="AP30" s="23"/>
-      <c r="AQ30" s="23"/>
-      <c r="AR30" s="23"/>
-      <c r="AS30" s="23"/>
-      <c r="AT30" s="23"/>
-      <c r="AU30" s="23"/>
       <c r="AV30" s="72"/>
     </row>
     <row r="31" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10485,9 +10256,8 @@
       <c r="F31" s="72"/>
       <c r="G31" s="71"/>
       <c r="K31" s="72"/>
-      <c r="L31" s="103"/>
       <c r="N31" s="94" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="O31" s="94"/>
       <c r="P31" s="94"/>
@@ -10498,15 +10268,6 @@
       <c r="U31" s="94"/>
       <c r="V31" s="94"/>
       <c r="W31" s="94"/>
-      <c r="Y31" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z31" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
       <c r="AV31" s="72"/>
     </row>
     <row r="32" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10515,9 +10276,8 @@
       <c r="F32" s="72"/>
       <c r="G32" s="71"/>
       <c r="K32" s="72"/>
-      <c r="L32" s="103"/>
       <c r="N32" s="94" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O32" s="94"/>
       <c r="P32" s="94"/>
@@ -10528,19 +10288,6 @@
       <c r="U32" s="94"/>
       <c r="V32" s="94"/>
       <c r="W32" s="94"/>
-      <c r="Y32" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z32" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="94"/>
-      <c r="AK32" s="106"/>
       <c r="AV32" s="72"/>
     </row>
     <row r="33" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10549,9 +10296,8 @@
       <c r="F33" s="72"/>
       <c r="G33" s="71"/>
       <c r="K33" s="72"/>
-      <c r="L33" s="103"/>
       <c r="N33" s="94" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="O33" s="94"/>
       <c r="P33" s="94"/>
@@ -10562,18 +10308,6 @@
       <c r="U33" s="94"/>
       <c r="V33" s="94"/>
       <c r="W33" s="94"/>
-      <c r="Y33" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z33" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AJ33" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="AV33" s="72"/>
     </row>
     <row r="34" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10582,10 +10316,7 @@
       <c r="F34" s="72"/>
       <c r="G34" s="71"/>
       <c r="K34" s="72"/>
-      <c r="L34" s="103"/>
-      <c r="N34" s="94" t="s">
-        <v>148</v>
-      </c>
+      <c r="N34" s="94"/>
       <c r="O34" s="94"/>
       <c r="P34" s="94"/>
       <c r="Q34" s="94"/>
@@ -10595,18 +10326,6 @@
       <c r="U34" s="94"/>
       <c r="V34" s="94"/>
       <c r="W34" s="94"/>
-      <c r="Y34" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z34" s="94" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AJ34" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="AV34" s="72"/>
     </row>
     <row r="35" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10621,7 +10340,19 @@
       <c r="J35" s="23"/>
       <c r="K35" s="72"/>
       <c r="L35" s="23"/>
-      <c r="M35" s="94"/>
+      <c r="M35" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
       <c r="AD35" s="23"/>
       <c r="AE35" s="23"/>
       <c r="AF35" s="23"/>
@@ -10647,14 +10378,19 @@
       <c r="C36" s="71"/>
       <c r="F36" s="72"/>
       <c r="G36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="94" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM36" s="94"/>
-      <c r="AN36" s="94"/>
-      <c r="AO36" s="94"/>
-      <c r="AP36" s="94"/>
+      <c r="K36" s="72"/>
+      <c r="N36" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
       <c r="AV36" s="72"/>
     </row>
     <row r="37" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10662,14 +10398,19 @@
       <c r="C37" s="71"/>
       <c r="F37" s="72"/>
       <c r="G37" s="71"/>
-      <c r="L37" s="71"/>
+      <c r="K37" s="72"/>
       <c r="N37" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM37" s="94"/>
-      <c r="AN37" s="94"/>
-      <c r="AO37" s="94"/>
-      <c r="AP37" s="94"/>
+        <v>190</v>
+      </c>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
       <c r="AV37" s="72"/>
     </row>
     <row r="38" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10677,44 +10418,119 @@
       <c r="C38" s="71"/>
       <c r="F38" s="72"/>
       <c r="G38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="N38" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM38" s="94"/>
-      <c r="AN38" s="94"/>
-      <c r="AO38" s="94"/>
-      <c r="AP38" s="94"/>
+      <c r="K38" s="72"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="Y38" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="AV38" s="72"/>
     </row>
     <row r="39" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B39" s="71"/>
       <c r="C39" s="71"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="72"/>
       <c r="G39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="23"/>
       <c r="N39" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM39" s="94"/>
-      <c r="AN39" s="94"/>
-      <c r="AO39" s="94"/>
-      <c r="AP39" s="94"/>
+        <v>139</v>
+      </c>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23"/>
       <c r="AV39" s="72"/>
     </row>
     <row r="40" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="71"/>
       <c r="C40" s="71"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="72"/>
       <c r="G40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="N40" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM40" s="94"/>
-      <c r="AN40" s="94"/>
-      <c r="AO40" s="94"/>
-      <c r="AP40" s="94"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="23"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="Y40" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z40" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="23"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="23"/>
+      <c r="AP40" s="23"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="23"/>
+      <c r="AT40" s="23"/>
+      <c r="AU40" s="23"/>
       <c r="AV40" s="72"/>
     </row>
     <row r="41" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10730,6 +10546,28 @@
       <c r="K41" s="72"/>
       <c r="L41" s="23"/>
       <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="94"/>
+      <c r="Y41" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z41" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA41" s="94"/>
+      <c r="AB41" s="94"/>
+      <c r="AC41" s="94"/>
       <c r="AD41" s="23"/>
       <c r="AE41" s="23"/>
       <c r="AF41" s="23"/>
@@ -10762,9 +10600,29 @@
       <c r="J42" s="23"/>
       <c r="K42" s="72"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="94" t="s">
-        <v>99</v>
-      </c>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z42" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA42" s="94"/>
+      <c r="AB42" s="94"/>
+      <c r="AC42" s="94"/>
       <c r="AD42" s="23"/>
       <c r="AE42" s="23"/>
       <c r="AF42" s="23"/>
@@ -10797,9 +10655,29 @@
       <c r="J43" s="23"/>
       <c r="K43" s="72"/>
       <c r="L43" s="23"/>
-      <c r="N43" s="16" t="s">
-        <v>151</v>
-      </c>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z43" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA43" s="94"/>
+      <c r="AB43" s="94"/>
+      <c r="AC43" s="94"/>
       <c r="AD43" s="23"/>
       <c r="AE43" s="23"/>
       <c r="AF43" s="23"/>
@@ -10832,9 +10710,29 @@
       <c r="J44" s="23"/>
       <c r="K44" s="72"/>
       <c r="L44" s="23"/>
-      <c r="N44" s="16" t="s">
-        <v>178</v>
-      </c>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z44" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA44" s="94"/>
+      <c r="AB44" s="94"/>
+      <c r="AC44" s="94"/>
       <c r="AD44" s="23"/>
       <c r="AE44" s="23"/>
       <c r="AF44" s="23"/>
@@ -10856,110 +10754,110 @@
       <c r="AV44" s="72"/>
     </row>
     <row r="45" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
-      <c r="AG45" s="25"/>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="25"/>
-      <c r="AK45" s="25"/>
-      <c r="AL45" s="25"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="25"/>
-      <c r="AO45" s="25"/>
-      <c r="AP45" s="25"/>
-      <c r="AQ45" s="25"/>
-      <c r="AR45" s="25"/>
-      <c r="AS45" s="25"/>
-      <c r="AT45" s="25"/>
-      <c r="AU45" s="25"/>
-      <c r="AV45" s="26"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="94"/>
+      <c r="V45" s="94"/>
+      <c r="W45" s="94"/>
+      <c r="X45" s="94"/>
+      <c r="Y45" s="94"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="94"/>
+      <c r="AC45" s="94"/>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="23"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
+      <c r="AR45" s="23"/>
+      <c r="AS45" s="23"/>
+      <c r="AT45" s="23"/>
+      <c r="AU45" s="23"/>
+      <c r="AV45" s="72"/>
     </row>
     <row r="46" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="20">
-        <v>2</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
-      <c r="AN46" s="21"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="21"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-      <c r="AS46" s="21"/>
-      <c r="AT46" s="21"/>
-      <c r="AU46" s="21"/>
-      <c r="AV46" s="22"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="94"/>
+      <c r="W46" s="94"/>
+      <c r="X46" s="94"/>
+      <c r="Y46" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z46" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA46" s="94"/>
+      <c r="AB46" s="94"/>
+      <c r="AC46" s="94"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="23"/>
+      <c r="AU46" s="23"/>
+      <c r="AV46" s="72"/>
     </row>
     <row r="47" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B47" s="71"/>
@@ -10967,31 +10865,12 @@
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="72"/>
-      <c r="G47" s="71" t="s">
-        <v>77</v>
-      </c>
+      <c r="G47" s="71"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="72"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
+      <c r="L47" s="23"/>
       <c r="AD47" s="23"/>
       <c r="AE47" s="23"/>
       <c r="AF47" s="23"/>
@@ -11023,43 +10902,645 @@
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="72"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="25"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="25"/>
-      <c r="AP48" s="25"/>
-      <c r="AQ48" s="25"/>
-      <c r="AR48" s="25"/>
-      <c r="AS48" s="25"/>
-      <c r="AT48" s="25"/>
-      <c r="AU48" s="25"/>
-      <c r="AV48" s="26"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="94"/>
+      <c r="U48" s="94"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="94"/>
+      <c r="X48" s="94"/>
+      <c r="Y48" s="94"/>
+      <c r="Z48" s="94"/>
+      <c r="AA48" s="94"/>
+      <c r="AB48" s="94"/>
+      <c r="AC48" s="94"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23"/>
+      <c r="AJ48" s="23"/>
+      <c r="AK48" s="23"/>
+      <c r="AL48" s="23"/>
+      <c r="AM48" s="23"/>
+      <c r="AN48" s="23"/>
+      <c r="AO48" s="23"/>
+      <c r="AP48" s="23"/>
+      <c r="AQ48" s="23"/>
+      <c r="AR48" s="23"/>
+      <c r="AS48" s="23"/>
+      <c r="AT48" s="23"/>
+      <c r="AU48" s="23"/>
+      <c r="AV48" s="72"/>
+    </row>
+    <row r="49" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="71"/>
+      <c r="K49" s="72"/>
+      <c r="N49" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="94"/>
+      <c r="U49" s="94"/>
+      <c r="V49" s="94"/>
+      <c r="Y49" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z49" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA49" s="94"/>
+      <c r="AB49" s="94"/>
+      <c r="AV49" s="72"/>
+    </row>
+    <row r="50" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="71"/>
+      <c r="K50" s="72"/>
+      <c r="N50" s="94" t="s">
+        <v>199</v>
+      </c>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="94"/>
+      <c r="U50" s="94"/>
+      <c r="V50" s="94"/>
+      <c r="Y50" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z50" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA50" s="94"/>
+      <c r="AB50" s="94"/>
+      <c r="AV50" s="72"/>
+    </row>
+    <row r="51" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="71"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="103"/>
+      <c r="N51" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="94"/>
+      <c r="U51" s="94"/>
+      <c r="V51" s="94"/>
+      <c r="W51" s="94"/>
+      <c r="Y51" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z51" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA51" s="94"/>
+      <c r="AB51" s="94"/>
+      <c r="AC51" s="94"/>
+      <c r="AG51" s="94"/>
+      <c r="AH51" s="94"/>
+      <c r="AI51" s="94"/>
+      <c r="AJ51" s="106"/>
+      <c r="AV51" s="72"/>
+    </row>
+    <row r="52" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="71"/>
+      <c r="K52" s="72"/>
+      <c r="N52" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="O52" s="94"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="Y52" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z52" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA52" s="94"/>
+      <c r="AB52" s="94"/>
+      <c r="AI52" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV52" s="72"/>
+    </row>
+    <row r="53" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="71"/>
+      <c r="K53" s="72"/>
+      <c r="N53" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="O53" s="94"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="94"/>
+      <c r="T53" s="94"/>
+      <c r="U53" s="94"/>
+      <c r="V53" s="94"/>
+      <c r="Y53" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z53" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA53" s="94"/>
+      <c r="AB53" s="94"/>
+      <c r="AI53" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV53" s="72"/>
+    </row>
+    <row r="54" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="94"/>
+      <c r="AD54" s="23"/>
+      <c r="AE54" s="23"/>
+      <c r="AF54" s="23"/>
+      <c r="AG54" s="23"/>
+      <c r="AH54" s="23"/>
+      <c r="AI54" s="23"/>
+      <c r="AJ54" s="23"/>
+      <c r="AK54" s="23"/>
+      <c r="AL54" s="23"/>
+      <c r="AM54" s="23"/>
+      <c r="AN54" s="23"/>
+      <c r="AO54" s="23"/>
+      <c r="AP54" s="23"/>
+      <c r="AQ54" s="23"/>
+      <c r="AR54" s="23"/>
+      <c r="AS54" s="23"/>
+      <c r="AT54" s="23"/>
+      <c r="AU54" s="23"/>
+      <c r="AV54" s="72"/>
+    </row>
+    <row r="55" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM55" s="94"/>
+      <c r="AN55" s="94"/>
+      <c r="AO55" s="94"/>
+      <c r="AP55" s="94"/>
+      <c r="AV55" s="72"/>
+    </row>
+    <row r="56" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="N56" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM56" s="94"/>
+      <c r="AN56" s="94"/>
+      <c r="AO56" s="94"/>
+      <c r="AP56" s="94"/>
+      <c r="AV56" s="72"/>
+    </row>
+    <row r="57" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="N57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM57" s="94"/>
+      <c r="AN57" s="94"/>
+      <c r="AO57" s="94"/>
+      <c r="AP57" s="94"/>
+      <c r="AV57" s="72"/>
+    </row>
+    <row r="58" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="N58" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM58" s="94"/>
+      <c r="AN58" s="94"/>
+      <c r="AO58" s="94"/>
+      <c r="AP58" s="94"/>
+      <c r="AV58" s="72"/>
+    </row>
+    <row r="59" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="N59" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM59" s="94"/>
+      <c r="AN59" s="94"/>
+      <c r="AO59" s="94"/>
+      <c r="AP59" s="94"/>
+      <c r="AV59" s="72"/>
+    </row>
+    <row r="60" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="94"/>
+      <c r="AD60" s="23"/>
+      <c r="AE60" s="23"/>
+      <c r="AF60" s="23"/>
+      <c r="AG60" s="23"/>
+      <c r="AH60" s="23"/>
+      <c r="AI60" s="23"/>
+      <c r="AJ60" s="23"/>
+      <c r="AK60" s="23"/>
+      <c r="AL60" s="23"/>
+      <c r="AM60" s="23"/>
+      <c r="AN60" s="23"/>
+      <c r="AO60" s="23"/>
+      <c r="AP60" s="23"/>
+      <c r="AQ60" s="23"/>
+      <c r="AR60" s="23"/>
+      <c r="AS60" s="23"/>
+      <c r="AT60" s="23"/>
+      <c r="AU60" s="23"/>
+      <c r="AV60" s="72"/>
+    </row>
+    <row r="61" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD61" s="23"/>
+      <c r="AE61" s="23"/>
+      <c r="AF61" s="23"/>
+      <c r="AG61" s="23"/>
+      <c r="AH61" s="23"/>
+      <c r="AI61" s="23"/>
+      <c r="AJ61" s="23"/>
+      <c r="AK61" s="23"/>
+      <c r="AL61" s="23"/>
+      <c r="AM61" s="23"/>
+      <c r="AN61" s="23"/>
+      <c r="AO61" s="23"/>
+      <c r="AP61" s="23"/>
+      <c r="AQ61" s="23"/>
+      <c r="AR61" s="23"/>
+      <c r="AS61" s="23"/>
+      <c r="AT61" s="23"/>
+      <c r="AU61" s="23"/>
+      <c r="AV61" s="72"/>
+    </row>
+    <row r="62" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="23"/>
+      <c r="N62" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD62" s="23"/>
+      <c r="AE62" s="23"/>
+      <c r="AF62" s="23"/>
+      <c r="AG62" s="23"/>
+      <c r="AH62" s="23"/>
+      <c r="AI62" s="23"/>
+      <c r="AJ62" s="23"/>
+      <c r="AK62" s="23"/>
+      <c r="AL62" s="23"/>
+      <c r="AM62" s="23"/>
+      <c r="AN62" s="23"/>
+      <c r="AO62" s="23"/>
+      <c r="AP62" s="23"/>
+      <c r="AQ62" s="23"/>
+      <c r="AR62" s="23"/>
+      <c r="AS62" s="23"/>
+      <c r="AT62" s="23"/>
+      <c r="AU62" s="23"/>
+      <c r="AV62" s="72"/>
+    </row>
+    <row r="63" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="23"/>
+      <c r="N63" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD63" s="23"/>
+      <c r="AE63" s="23"/>
+      <c r="AF63" s="23"/>
+      <c r="AG63" s="23"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="23"/>
+      <c r="AJ63" s="23"/>
+      <c r="AK63" s="23"/>
+      <c r="AL63" s="23"/>
+      <c r="AM63" s="23"/>
+      <c r="AN63" s="23"/>
+      <c r="AO63" s="23"/>
+      <c r="AP63" s="23"/>
+      <c r="AQ63" s="23"/>
+      <c r="AR63" s="23"/>
+      <c r="AS63" s="23"/>
+      <c r="AT63" s="23"/>
+      <c r="AU63" s="23"/>
+      <c r="AV63" s="72"/>
+    </row>
+    <row r="64" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+      <c r="AF64" s="25"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="25"/>
+      <c r="AJ64" s="25"/>
+      <c r="AK64" s="25"/>
+      <c r="AL64" s="25"/>
+      <c r="AM64" s="25"/>
+      <c r="AN64" s="25"/>
+      <c r="AO64" s="25"/>
+      <c r="AP64" s="25"/>
+      <c r="AQ64" s="25"/>
+      <c r="AR64" s="25"/>
+      <c r="AS64" s="25"/>
+      <c r="AT64" s="25"/>
+      <c r="AU64" s="25"/>
+      <c r="AV64" s="26"/>
+    </row>
+    <row r="65" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B65" s="20">
+        <v>2</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="21"/>
+      <c r="AO65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AQ65" s="21"/>
+      <c r="AR65" s="21"/>
+      <c r="AS65" s="21"/>
+      <c r="AT65" s="21"/>
+      <c r="AU65" s="21"/>
+      <c r="AV65" s="22"/>
+    </row>
+    <row r="66" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="23"/>
+      <c r="AE66" s="23"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="23"/>
+      <c r="AH66" s="23"/>
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="23"/>
+      <c r="AM66" s="23"/>
+      <c r="AN66" s="23"/>
+      <c r="AO66" s="23"/>
+      <c r="AP66" s="23"/>
+      <c r="AQ66" s="23"/>
+      <c r="AR66" s="23"/>
+      <c r="AS66" s="23"/>
+      <c r="AT66" s="23"/>
+      <c r="AU66" s="23"/>
+      <c r="AV66" s="72"/>
+    </row>
+    <row r="67" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="25"/>
+      <c r="AC67" s="25"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+      <c r="AF67" s="25"/>
+      <c r="AG67" s="25"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="25"/>
+      <c r="AJ67" s="25"/>
+      <c r="AK67" s="25"/>
+      <c r="AL67" s="25"/>
+      <c r="AM67" s="25"/>
+      <c r="AN67" s="25"/>
+      <c r="AO67" s="25"/>
+      <c r="AP67" s="25"/>
+      <c r="AQ67" s="25"/>
+      <c r="AR67" s="25"/>
+      <c r="AS67" s="25"/>
+      <c r="AT67" s="25"/>
+      <c r="AU67" s="25"/>
+      <c r="AV67" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11141,7 +11622,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -11157,7 +11638,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="145" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11228,7 +11709,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="145"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -11756,7 +12237,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="143">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
@@ -11772,7 +12253,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="145" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11843,7 +12324,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="145"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -12163,21 +12644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -12335,24 +12801,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12368,4 +12832,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF6F31-8118-4514-9A7A-823405FED553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17924B6-4835-4A53-8285-F051FCAE5A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="225" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="207">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1394,6 +1394,10 @@
     <t>・最新受払データ.大工程コード(昇順)</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>###,##0</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1403,7 +1407,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1634,6 +1638,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1881,7 +1892,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2186,6 +2197,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2195,6 +2212,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2207,64 +2254,46 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2275,18 +2304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2320,19 +2337,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3995,108 +4009,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="108"/>
-      <c r="AJ32" s="108"/>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="108"/>
-      <c r="AM32" s="108"/>
-      <c r="AN32" s="108"/>
-      <c r="AO32" s="108"/>
-      <c r="AP32" s="108"/>
-      <c r="AQ32" s="108"/>
-      <c r="AR32" s="108"/>
-      <c r="AS32" s="108"/>
-      <c r="AT32" s="108"/>
-      <c r="AU32" s="108"/>
-      <c r="AV32" s="108"/>
-      <c r="AW32" s="108"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="110"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="110"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="110"/>
+      <c r="Y32" s="110"/>
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="110"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="110"/>
+      <c r="AG32" s="110"/>
+      <c r="AH32" s="110"/>
+      <c r="AI32" s="110"/>
+      <c r="AJ32" s="110"/>
+      <c r="AK32" s="110"/>
+      <c r="AL32" s="110"/>
+      <c r="AM32" s="110"/>
+      <c r="AN32" s="110"/>
+      <c r="AO32" s="110"/>
+      <c r="AP32" s="110"/>
+      <c r="AQ32" s="110"/>
+      <c r="AR32" s="110"/>
+      <c r="AS32" s="110"/>
+      <c r="AT32" s="110"/>
+      <c r="AU32" s="110"/>
+      <c r="AV32" s="110"/>
+      <c r="AW32" s="110"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="109"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109"/>
-      <c r="AJ33" s="109"/>
-      <c r="AK33" s="109"/>
-      <c r="AL33" s="109"/>
-      <c r="AM33" s="109"/>
-      <c r="AN33" s="109"/>
-      <c r="AO33" s="109"/>
-      <c r="AP33" s="109"/>
-      <c r="AQ33" s="109"/>
-      <c r="AR33" s="109"/>
-      <c r="AS33" s="109"/>
-      <c r="AT33" s="109"/>
-      <c r="AU33" s="109"/>
-      <c r="AV33" s="109"/>
-      <c r="AW33" s="109"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="111"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="111"/>
+      <c r="AH33" s="111"/>
+      <c r="AI33" s="111"/>
+      <c r="AJ33" s="111"/>
+      <c r="AK33" s="111"/>
+      <c r="AL33" s="111"/>
+      <c r="AM33" s="111"/>
+      <c r="AN33" s="111"/>
+      <c r="AO33" s="111"/>
+      <c r="AP33" s="111"/>
+      <c r="AQ33" s="111"/>
+      <c r="AR33" s="111"/>
+      <c r="AS33" s="111"/>
+      <c r="AT33" s="111"/>
+      <c r="AU33" s="111"/>
+      <c r="AV33" s="111"/>
+      <c r="AW33" s="111"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4134,55 +4148,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="110"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="110"/>
-      <c r="AF35" s="110"/>
-      <c r="AG35" s="110"/>
-      <c r="AH35" s="110"/>
-      <c r="AI35" s="110"/>
-      <c r="AJ35" s="110"/>
-      <c r="AK35" s="110"/>
-      <c r="AL35" s="110"/>
-      <c r="AM35" s="110"/>
-      <c r="AN35" s="110"/>
-      <c r="AO35" s="110"/>
-      <c r="AP35" s="110"/>
-      <c r="AQ35" s="110"/>
-      <c r="AR35" s="110"/>
-      <c r="AS35" s="110"/>
-      <c r="AT35" s="110"/>
-      <c r="AU35" s="110"/>
-      <c r="AV35" s="110"/>
-      <c r="AW35" s="110"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="112"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="112"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="112"/>
+      <c r="W35" s="112"/>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="112"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="112"/>
+      <c r="AC35" s="112"/>
+      <c r="AD35" s="112"/>
+      <c r="AE35" s="112"/>
+      <c r="AF35" s="112"/>
+      <c r="AG35" s="112"/>
+      <c r="AH35" s="112"/>
+      <c r="AI35" s="112"/>
+      <c r="AJ35" s="112"/>
+      <c r="AK35" s="112"/>
+      <c r="AL35" s="112"/>
+      <c r="AM35" s="112"/>
+      <c r="AN35" s="112"/>
+      <c r="AO35" s="112"/>
+      <c r="AP35" s="112"/>
+      <c r="AQ35" s="112"/>
+      <c r="AR35" s="112"/>
+      <c r="AS35" s="112"/>
+      <c r="AT35" s="112"/>
+      <c r="AU35" s="112"/>
+      <c r="AV35" s="112"/>
+      <c r="AW35" s="112"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4217,1779 +4231,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126"/>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="126"/>
-      <c r="AU1" s="126"/>
-      <c r="AV1" s="126"/>
-      <c r="AW1" s="126"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
+      <c r="AW1" s="113"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="114"/>
+      <c r="AN2" s="114"/>
+      <c r="AO2" s="114"/>
+      <c r="AP2" s="114"/>
+      <c r="AQ2" s="114"/>
+      <c r="AR2" s="114"/>
+      <c r="AS2" s="114"/>
+      <c r="AT2" s="114"/>
+      <c r="AU2" s="114"/>
+      <c r="AV2" s="114"/>
+      <c r="AW2" s="114"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128" t="s">
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="130" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="131"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="130" t="s">
+      <c r="K3" s="118"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="128" t="s">
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128" t="s">
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="128" t="s">
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
+      <c r="AL3" s="115"/>
+      <c r="AM3" s="115"/>
+      <c r="AN3" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="128"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="128" t="s">
+      <c r="AO3" s="115"/>
+      <c r="AP3" s="115"/>
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="128"/>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
+      <c r="AT3" s="115"/>
+      <c r="AU3" s="115"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="115"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="129"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="112">
+      <c r="B5" s="124">
         <v>1</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113">
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125">
         <v>43725</v>
       </c>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114" t="s">
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114" t="s">
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="111" t="s">
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="123" t="s">
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="111" t="s">
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="128"/>
+      <c r="AH5" s="128"/>
+      <c r="AI5" s="128"/>
+      <c r="AJ5" s="128"/>
+      <c r="AK5" s="128"/>
+      <c r="AL5" s="128"/>
+      <c r="AM5" s="128"/>
+      <c r="AN5" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
+      <c r="AO5" s="123"/>
+      <c r="AP5" s="123"/>
+      <c r="AQ5" s="123"/>
+      <c r="AR5" s="123"/>
+      <c r="AS5" s="123"/>
+      <c r="AT5" s="123"/>
+      <c r="AU5" s="123"/>
+      <c r="AV5" s="123"/>
+      <c r="AW5" s="123"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="128"/>
+      <c r="AE6" s="128"/>
+      <c r="AF6" s="128"/>
+      <c r="AG6" s="128"/>
+      <c r="AH6" s="128"/>
+      <c r="AI6" s="128"/>
+      <c r="AJ6" s="128"/>
+      <c r="AK6" s="128"/>
+      <c r="AL6" s="128"/>
+      <c r="AM6" s="128"/>
+      <c r="AN6" s="123"/>
+      <c r="AO6" s="123"/>
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123"/>
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="123"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="111"/>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="111"/>
-      <c r="AW7" s="111"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="128"/>
+      <c r="AG7" s="128"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="128"/>
+      <c r="AJ7" s="128"/>
+      <c r="AK7" s="128"/>
+      <c r="AL7" s="128"/>
+      <c r="AM7" s="128"/>
+      <c r="AN7" s="123"/>
+      <c r="AO7" s="123"/>
+      <c r="AP7" s="123"/>
+      <c r="AQ7" s="123"/>
+      <c r="AR7" s="123"/>
+      <c r="AS7" s="123"/>
+      <c r="AT7" s="123"/>
+      <c r="AU7" s="123"/>
+      <c r="AV7" s="123"/>
+      <c r="AW7" s="123"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="123"/>
-      <c r="AD8" s="123"/>
-      <c r="AE8" s="123"/>
-      <c r="AF8" s="123"/>
-      <c r="AG8" s="123"/>
-      <c r="AH8" s="123"/>
-      <c r="AI8" s="123"/>
-      <c r="AJ8" s="123"/>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="123"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="128"/>
+      <c r="AF8" s="128"/>
+      <c r="AG8" s="128"/>
+      <c r="AH8" s="128"/>
+      <c r="AI8" s="128"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
+      <c r="AL8" s="128"/>
+      <c r="AM8" s="128"/>
+      <c r="AN8" s="123"/>
+      <c r="AO8" s="123"/>
+      <c r="AP8" s="123"/>
+      <c r="AQ8" s="123"/>
+      <c r="AR8" s="123"/>
+      <c r="AS8" s="123"/>
+      <c r="AT8" s="123"/>
+      <c r="AU8" s="123"/>
+      <c r="AV8" s="123"/>
+      <c r="AW8" s="123"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="123"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="123"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="128"/>
+      <c r="AH9" s="128"/>
+      <c r="AI9" s="128"/>
+      <c r="AJ9" s="128"/>
+      <c r="AK9" s="128"/>
+      <c r="AL9" s="128"/>
+      <c r="AM9" s="128"/>
+      <c r="AN9" s="123"/>
+      <c r="AO9" s="123"/>
+      <c r="AP9" s="123"/>
+      <c r="AQ9" s="123"/>
+      <c r="AR9" s="123"/>
+      <c r="AS9" s="123"/>
+      <c r="AT9" s="123"/>
+      <c r="AU9" s="123"/>
+      <c r="AV9" s="123"/>
+      <c r="AW9" s="123"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="123"/>
-      <c r="AE10" s="123"/>
-      <c r="AF10" s="123"/>
-      <c r="AG10" s="123"/>
-      <c r="AH10" s="123"/>
-      <c r="AI10" s="123"/>
-      <c r="AJ10" s="123"/>
-      <c r="AK10" s="123"/>
-      <c r="AL10" s="123"/>
-      <c r="AM10" s="123"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="111"/>
-      <c r="AP10" s="111"/>
-      <c r="AQ10" s="111"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="111"/>
-      <c r="AU10" s="111"/>
-      <c r="AV10" s="111"/>
-      <c r="AW10" s="111"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="128"/>
+      <c r="AJ10" s="128"/>
+      <c r="AK10" s="128"/>
+      <c r="AL10" s="128"/>
+      <c r="AM10" s="128"/>
+      <c r="AN10" s="123"/>
+      <c r="AO10" s="123"/>
+      <c r="AP10" s="123"/>
+      <c r="AQ10" s="123"/>
+      <c r="AR10" s="123"/>
+      <c r="AS10" s="123"/>
+      <c r="AT10" s="123"/>
+      <c r="AU10" s="123"/>
+      <c r="AV10" s="123"/>
+      <c r="AW10" s="123"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="124"/>
-      <c r="AK11" s="124"/>
-      <c r="AL11" s="124"/>
-      <c r="AM11" s="124"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="131"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="131"/>
+      <c r="AH11" s="131"/>
+      <c r="AI11" s="131"/>
+      <c r="AJ11" s="131"/>
+      <c r="AK11" s="131"/>
+      <c r="AL11" s="131"/>
+      <c r="AM11" s="131"/>
+      <c r="AN11" s="123"/>
+      <c r="AO11" s="123"/>
+      <c r="AP11" s="123"/>
+      <c r="AQ11" s="123"/>
+      <c r="AR11" s="123"/>
+      <c r="AS11" s="123"/>
+      <c r="AT11" s="123"/>
+      <c r="AU11" s="123"/>
+      <c r="AV11" s="123"/>
+      <c r="AW11" s="123"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="117"/>
-      <c r="AH12" s="117"/>
-      <c r="AI12" s="117"/>
-      <c r="AJ12" s="117"/>
-      <c r="AK12" s="117"/>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="111"/>
-      <c r="AO12" s="111"/>
-      <c r="AP12" s="111"/>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="111"/>
-      <c r="AV12" s="111"/>
-      <c r="AW12" s="111"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="130"/>
+      <c r="AH12" s="130"/>
+      <c r="AI12" s="130"/>
+      <c r="AJ12" s="130"/>
+      <c r="AK12" s="130"/>
+      <c r="AL12" s="130"/>
+      <c r="AM12" s="130"/>
+      <c r="AN12" s="123"/>
+      <c r="AO12" s="123"/>
+      <c r="AP12" s="123"/>
+      <c r="AQ12" s="123"/>
+      <c r="AR12" s="123"/>
+      <c r="AS12" s="123"/>
+      <c r="AT12" s="123"/>
+      <c r="AU12" s="123"/>
+      <c r="AV12" s="123"/>
+      <c r="AW12" s="123"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="117"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="111"/>
-      <c r="AP13" s="111"/>
-      <c r="AQ13" s="111"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="111"/>
-      <c r="AT13" s="111"/>
-      <c r="AU13" s="111"/>
-      <c r="AV13" s="111"/>
-      <c r="AW13" s="111"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="130"/>
+      <c r="AC13" s="130"/>
+      <c r="AD13" s="130"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="130"/>
+      <c r="AH13" s="130"/>
+      <c r="AI13" s="130"/>
+      <c r="AJ13" s="130"/>
+      <c r="AK13" s="130"/>
+      <c r="AL13" s="130"/>
+      <c r="AM13" s="130"/>
+      <c r="AN13" s="123"/>
+      <c r="AO13" s="123"/>
+      <c r="AP13" s="123"/>
+      <c r="AQ13" s="123"/>
+      <c r="AR13" s="123"/>
+      <c r="AS13" s="123"/>
+      <c r="AT13" s="123"/>
+      <c r="AU13" s="123"/>
+      <c r="AV13" s="123"/>
+      <c r="AW13" s="123"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="123"/>
-      <c r="AN14" s="111"/>
-      <c r="AO14" s="111"/>
-      <c r="AP14" s="111"/>
-      <c r="AQ14" s="111"/>
-      <c r="AR14" s="111"/>
-      <c r="AS14" s="111"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="111"/>
-      <c r="AW14" s="111"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
+      <c r="AD14" s="128"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="128"/>
+      <c r="AH14" s="128"/>
+      <c r="AI14" s="128"/>
+      <c r="AJ14" s="128"/>
+      <c r="AK14" s="128"/>
+      <c r="AL14" s="128"/>
+      <c r="AM14" s="128"/>
+      <c r="AN14" s="123"/>
+      <c r="AO14" s="123"/>
+      <c r="AP14" s="123"/>
+      <c r="AQ14" s="123"/>
+      <c r="AR14" s="123"/>
+      <c r="AS14" s="123"/>
+      <c r="AT14" s="123"/>
+      <c r="AU14" s="123"/>
+      <c r="AV14" s="123"/>
+      <c r="AW14" s="123"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="117"/>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="117"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="111"/>
-      <c r="AP15" s="111"/>
-      <c r="AQ15" s="111"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="111"/>
-      <c r="AT15" s="111"/>
-      <c r="AU15" s="111"/>
-      <c r="AV15" s="111"/>
-      <c r="AW15" s="111"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="130"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="130"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="130"/>
+      <c r="AI15" s="130"/>
+      <c r="AJ15" s="130"/>
+      <c r="AK15" s="130"/>
+      <c r="AL15" s="130"/>
+      <c r="AM15" s="130"/>
+      <c r="AN15" s="123"/>
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="123"/>
+      <c r="AR15" s="123"/>
+      <c r="AS15" s="123"/>
+      <c r="AT15" s="123"/>
+      <c r="AU15" s="123"/>
+      <c r="AV15" s="123"/>
+      <c r="AW15" s="123"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="111"/>
-      <c r="AO16" s="111"/>
-      <c r="AP16" s="111"/>
-      <c r="AQ16" s="111"/>
-      <c r="AR16" s="111"/>
-      <c r="AS16" s="111"/>
-      <c r="AT16" s="111"/>
-      <c r="AU16" s="111"/>
-      <c r="AV16" s="111"/>
-      <c r="AW16" s="111"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="130"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="130"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="130"/>
+      <c r="AJ16" s="130"/>
+      <c r="AK16" s="130"/>
+      <c r="AL16" s="130"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="123"/>
+      <c r="AO16" s="123"/>
+      <c r="AP16" s="123"/>
+      <c r="AQ16" s="123"/>
+      <c r="AR16" s="123"/>
+      <c r="AS16" s="123"/>
+      <c r="AT16" s="123"/>
+      <c r="AU16" s="123"/>
+      <c r="AV16" s="123"/>
+      <c r="AW16" s="123"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="111"/>
-      <c r="AO17" s="111"/>
-      <c r="AP17" s="111"/>
-      <c r="AQ17" s="111"/>
-      <c r="AR17" s="111"/>
-      <c r="AS17" s="111"/>
-      <c r="AT17" s="111"/>
-      <c r="AU17" s="111"/>
-      <c r="AV17" s="111"/>
-      <c r="AW17" s="111"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="130"/>
+      <c r="AC17" s="130"/>
+      <c r="AD17" s="130"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="130"/>
+      <c r="AJ17" s="130"/>
+      <c r="AK17" s="130"/>
+      <c r="AL17" s="130"/>
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="123"/>
+      <c r="AO17" s="123"/>
+      <c r="AP17" s="123"/>
+      <c r="AQ17" s="123"/>
+      <c r="AR17" s="123"/>
+      <c r="AS17" s="123"/>
+      <c r="AT17" s="123"/>
+      <c r="AU17" s="123"/>
+      <c r="AV17" s="123"/>
+      <c r="AW17" s="123"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="117"/>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="117"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="111"/>
-      <c r="AO18" s="111"/>
-      <c r="AP18" s="111"/>
-      <c r="AQ18" s="111"/>
-      <c r="AR18" s="111"/>
-      <c r="AS18" s="111"/>
-      <c r="AT18" s="111"/>
-      <c r="AU18" s="111"/>
-      <c r="AV18" s="111"/>
-      <c r="AW18" s="111"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="130"/>
+      <c r="Z18" s="130"/>
+      <c r="AA18" s="130"/>
+      <c r="AB18" s="130"/>
+      <c r="AC18" s="130"/>
+      <c r="AD18" s="130"/>
+      <c r="AE18" s="130"/>
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="130"/>
+      <c r="AH18" s="130"/>
+      <c r="AI18" s="130"/>
+      <c r="AJ18" s="130"/>
+      <c r="AK18" s="130"/>
+      <c r="AL18" s="130"/>
+      <c r="AM18" s="130"/>
+      <c r="AN18" s="123"/>
+      <c r="AO18" s="123"/>
+      <c r="AP18" s="123"/>
+      <c r="AQ18" s="123"/>
+      <c r="AR18" s="123"/>
+      <c r="AS18" s="123"/>
+      <c r="AT18" s="123"/>
+      <c r="AU18" s="123"/>
+      <c r="AV18" s="123"/>
+      <c r="AW18" s="123"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="117"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="111"/>
-      <c r="AP19" s="111"/>
-      <c r="AQ19" s="111"/>
-      <c r="AR19" s="111"/>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="111"/>
-      <c r="AU19" s="111"/>
-      <c r="AV19" s="111"/>
-      <c r="AW19" s="111"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="130"/>
+      <c r="Z19" s="130"/>
+      <c r="AA19" s="130"/>
+      <c r="AB19" s="130"/>
+      <c r="AC19" s="130"/>
+      <c r="AD19" s="130"/>
+      <c r="AE19" s="130"/>
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="130"/>
+      <c r="AH19" s="130"/>
+      <c r="AI19" s="130"/>
+      <c r="AJ19" s="130"/>
+      <c r="AK19" s="130"/>
+      <c r="AL19" s="130"/>
+      <c r="AM19" s="130"/>
+      <c r="AN19" s="123"/>
+      <c r="AO19" s="123"/>
+      <c r="AP19" s="123"/>
+      <c r="AQ19" s="123"/>
+      <c r="AR19" s="123"/>
+      <c r="AS19" s="123"/>
+      <c r="AT19" s="123"/>
+      <c r="AU19" s="123"/>
+      <c r="AV19" s="123"/>
+      <c r="AW19" s="123"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="111"/>
-      <c r="AO20" s="111"/>
-      <c r="AP20" s="111"/>
-      <c r="AQ20" s="111"/>
-      <c r="AR20" s="111"/>
-      <c r="AS20" s="111"/>
-      <c r="AT20" s="111"/>
-      <c r="AU20" s="111"/>
-      <c r="AV20" s="111"/>
-      <c r="AW20" s="111"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="130"/>
+      <c r="AA20" s="130"/>
+      <c r="AB20" s="130"/>
+      <c r="AC20" s="130"/>
+      <c r="AD20" s="130"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="130"/>
+      <c r="AI20" s="130"/>
+      <c r="AJ20" s="130"/>
+      <c r="AK20" s="130"/>
+      <c r="AL20" s="130"/>
+      <c r="AM20" s="130"/>
+      <c r="AN20" s="123"/>
+      <c r="AO20" s="123"/>
+      <c r="AP20" s="123"/>
+      <c r="AQ20" s="123"/>
+      <c r="AR20" s="123"/>
+      <c r="AS20" s="123"/>
+      <c r="AT20" s="123"/>
+      <c r="AU20" s="123"/>
+      <c r="AV20" s="123"/>
+      <c r="AW20" s="123"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="111"/>
-      <c r="AO21" s="111"/>
-      <c r="AP21" s="111"/>
-      <c r="AQ21" s="111"/>
-      <c r="AR21" s="111"/>
-      <c r="AS21" s="111"/>
-      <c r="AT21" s="111"/>
-      <c r="AU21" s="111"/>
-      <c r="AV21" s="111"/>
-      <c r="AW21" s="111"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="130"/>
+      <c r="AC21" s="130"/>
+      <c r="AD21" s="130"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="130"/>
+      <c r="AJ21" s="130"/>
+      <c r="AK21" s="130"/>
+      <c r="AL21" s="130"/>
+      <c r="AM21" s="130"/>
+      <c r="AN21" s="123"/>
+      <c r="AO21" s="123"/>
+      <c r="AP21" s="123"/>
+      <c r="AQ21" s="123"/>
+      <c r="AR21" s="123"/>
+      <c r="AS21" s="123"/>
+      <c r="AT21" s="123"/>
+      <c r="AU21" s="123"/>
+      <c r="AV21" s="123"/>
+      <c r="AW21" s="123"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="111"/>
-      <c r="AO22" s="111"/>
-      <c r="AP22" s="111"/>
-      <c r="AQ22" s="111"/>
-      <c r="AR22" s="111"/>
-      <c r="AS22" s="111"/>
-      <c r="AT22" s="111"/>
-      <c r="AU22" s="111"/>
-      <c r="AV22" s="111"/>
-      <c r="AW22" s="111"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="130"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="130"/>
+      <c r="Z22" s="130"/>
+      <c r="AA22" s="130"/>
+      <c r="AB22" s="130"/>
+      <c r="AC22" s="130"/>
+      <c r="AD22" s="130"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="130"/>
+      <c r="AG22" s="130"/>
+      <c r="AH22" s="130"/>
+      <c r="AI22" s="130"/>
+      <c r="AJ22" s="130"/>
+      <c r="AK22" s="130"/>
+      <c r="AL22" s="130"/>
+      <c r="AM22" s="130"/>
+      <c r="AN22" s="123"/>
+      <c r="AO22" s="123"/>
+      <c r="AP22" s="123"/>
+      <c r="AQ22" s="123"/>
+      <c r="AR22" s="123"/>
+      <c r="AS22" s="123"/>
+      <c r="AT22" s="123"/>
+      <c r="AU22" s="123"/>
+      <c r="AV22" s="123"/>
+      <c r="AW22" s="123"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="117"/>
-      <c r="AF23" s="117"/>
-      <c r="AG23" s="117"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="117"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="111"/>
-      <c r="AO23" s="111"/>
-      <c r="AP23" s="111"/>
-      <c r="AQ23" s="111"/>
-      <c r="AR23" s="111"/>
-      <c r="AS23" s="111"/>
-      <c r="AT23" s="111"/>
-      <c r="AU23" s="111"/>
-      <c r="AV23" s="111"/>
-      <c r="AW23" s="111"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="130"/>
+      <c r="W23" s="130"/>
+      <c r="X23" s="130"/>
+      <c r="Y23" s="130"/>
+      <c r="Z23" s="130"/>
+      <c r="AA23" s="130"/>
+      <c r="AB23" s="130"/>
+      <c r="AC23" s="130"/>
+      <c r="AD23" s="130"/>
+      <c r="AE23" s="130"/>
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="130"/>
+      <c r="AH23" s="130"/>
+      <c r="AI23" s="130"/>
+      <c r="AJ23" s="130"/>
+      <c r="AK23" s="130"/>
+      <c r="AL23" s="130"/>
+      <c r="AM23" s="130"/>
+      <c r="AN23" s="123"/>
+      <c r="AO23" s="123"/>
+      <c r="AP23" s="123"/>
+      <c r="AQ23" s="123"/>
+      <c r="AR23" s="123"/>
+      <c r="AS23" s="123"/>
+      <c r="AT23" s="123"/>
+      <c r="AU23" s="123"/>
+      <c r="AV23" s="123"/>
+      <c r="AW23" s="123"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="117"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="111"/>
-      <c r="AO24" s="111"/>
-      <c r="AP24" s="111"/>
-      <c r="AQ24" s="111"/>
-      <c r="AR24" s="111"/>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="111"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="111"/>
-      <c r="AW24" s="111"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="129"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="130"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="130"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="130"/>
+      <c r="AI24" s="130"/>
+      <c r="AJ24" s="130"/>
+      <c r="AK24" s="130"/>
+      <c r="AL24" s="130"/>
+      <c r="AM24" s="130"/>
+      <c r="AN24" s="123"/>
+      <c r="AO24" s="123"/>
+      <c r="AP24" s="123"/>
+      <c r="AQ24" s="123"/>
+      <c r="AR24" s="123"/>
+      <c r="AS24" s="123"/>
+      <c r="AT24" s="123"/>
+      <c r="AU24" s="123"/>
+      <c r="AV24" s="123"/>
+      <c r="AW24" s="123"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="117"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="111"/>
-      <c r="AO25" s="111"/>
-      <c r="AP25" s="111"/>
-      <c r="AQ25" s="111"/>
-      <c r="AR25" s="111"/>
-      <c r="AS25" s="111"/>
-      <c r="AT25" s="111"/>
-      <c r="AU25" s="111"/>
-      <c r="AV25" s="111"/>
-      <c r="AW25" s="111"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="130"/>
+      <c r="W25" s="130"/>
+      <c r="X25" s="130"/>
+      <c r="Y25" s="130"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="130"/>
+      <c r="AB25" s="130"/>
+      <c r="AC25" s="130"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="130"/>
+      <c r="AH25" s="130"/>
+      <c r="AI25" s="130"/>
+      <c r="AJ25" s="130"/>
+      <c r="AK25" s="130"/>
+      <c r="AL25" s="130"/>
+      <c r="AM25" s="130"/>
+      <c r="AN25" s="123"/>
+      <c r="AO25" s="123"/>
+      <c r="AP25" s="123"/>
+      <c r="AQ25" s="123"/>
+      <c r="AR25" s="123"/>
+      <c r="AS25" s="123"/>
+      <c r="AT25" s="123"/>
+      <c r="AU25" s="123"/>
+      <c r="AV25" s="123"/>
+      <c r="AW25" s="123"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="111"/>
-      <c r="AO26" s="111"/>
-      <c r="AP26" s="111"/>
-      <c r="AQ26" s="111"/>
-      <c r="AR26" s="111"/>
-      <c r="AS26" s="111"/>
-      <c r="AT26" s="111"/>
-      <c r="AU26" s="111"/>
-      <c r="AV26" s="111"/>
-      <c r="AW26" s="111"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="123"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="130"/>
+      <c r="W26" s="130"/>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="130"/>
+      <c r="Z26" s="130"/>
+      <c r="AA26" s="130"/>
+      <c r="AB26" s="130"/>
+      <c r="AC26" s="130"/>
+      <c r="AD26" s="130"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="130"/>
+      <c r="AJ26" s="130"/>
+      <c r="AK26" s="130"/>
+      <c r="AL26" s="130"/>
+      <c r="AM26" s="130"/>
+      <c r="AN26" s="123"/>
+      <c r="AO26" s="123"/>
+      <c r="AP26" s="123"/>
+      <c r="AQ26" s="123"/>
+      <c r="AR26" s="123"/>
+      <c r="AS26" s="123"/>
+      <c r="AT26" s="123"/>
+      <c r="AU26" s="123"/>
+      <c r="AV26" s="123"/>
+      <c r="AW26" s="123"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="117"/>
-      <c r="AE27" s="117"/>
-      <c r="AF27" s="117"/>
-      <c r="AG27" s="117"/>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="117"/>
-      <c r="AK27" s="117"/>
-      <c r="AL27" s="117"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="111"/>
-      <c r="AO27" s="111"/>
-      <c r="AP27" s="111"/>
-      <c r="AQ27" s="111"/>
-      <c r="AR27" s="111"/>
-      <c r="AS27" s="111"/>
-      <c r="AT27" s="111"/>
-      <c r="AU27" s="111"/>
-      <c r="AV27" s="111"/>
-      <c r="AW27" s="111"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="123"/>
+      <c r="U27" s="123"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="130"/>
+      <c r="X27" s="130"/>
+      <c r="Y27" s="130"/>
+      <c r="Z27" s="130"/>
+      <c r="AA27" s="130"/>
+      <c r="AB27" s="130"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="130"/>
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="130"/>
+      <c r="AN27" s="123"/>
+      <c r="AO27" s="123"/>
+      <c r="AP27" s="123"/>
+      <c r="AQ27" s="123"/>
+      <c r="AR27" s="123"/>
+      <c r="AS27" s="123"/>
+      <c r="AT27" s="123"/>
+      <c r="AU27" s="123"/>
+      <c r="AV27" s="123"/>
+      <c r="AW27" s="123"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="117"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="117"/>
-      <c r="AE28" s="117"/>
-      <c r="AF28" s="117"/>
-      <c r="AG28" s="117"/>
-      <c r="AH28" s="117"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="117"/>
-      <c r="AK28" s="117"/>
-      <c r="AL28" s="117"/>
-      <c r="AM28" s="117"/>
-      <c r="AN28" s="111"/>
-      <c r="AO28" s="111"/>
-      <c r="AP28" s="111"/>
-      <c r="AQ28" s="111"/>
-      <c r="AR28" s="111"/>
-      <c r="AS28" s="111"/>
-      <c r="AT28" s="111"/>
-      <c r="AU28" s="111"/>
-      <c r="AV28" s="111"/>
-      <c r="AW28" s="111"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="130"/>
+      <c r="X28" s="130"/>
+      <c r="Y28" s="130"/>
+      <c r="Z28" s="130"/>
+      <c r="AA28" s="130"/>
+      <c r="AB28" s="130"/>
+      <c r="AC28" s="130"/>
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="130"/>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="130"/>
+      <c r="AH28" s="130"/>
+      <c r="AI28" s="130"/>
+      <c r="AJ28" s="130"/>
+      <c r="AK28" s="130"/>
+      <c r="AL28" s="130"/>
+      <c r="AM28" s="130"/>
+      <c r="AN28" s="123"/>
+      <c r="AO28" s="123"/>
+      <c r="AP28" s="123"/>
+      <c r="AQ28" s="123"/>
+      <c r="AR28" s="123"/>
+      <c r="AS28" s="123"/>
+      <c r="AT28" s="123"/>
+      <c r="AU28" s="123"/>
+      <c r="AV28" s="123"/>
+      <c r="AW28" s="123"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="117"/>
-      <c r="AF29" s="117"/>
-      <c r="AG29" s="117"/>
-      <c r="AH29" s="117"/>
-      <c r="AI29" s="117"/>
-      <c r="AJ29" s="117"/>
-      <c r="AK29" s="117"/>
-      <c r="AL29" s="117"/>
-      <c r="AM29" s="117"/>
-      <c r="AN29" s="111"/>
-      <c r="AO29" s="111"/>
-      <c r="AP29" s="111"/>
-      <c r="AQ29" s="111"/>
-      <c r="AR29" s="111"/>
-      <c r="AS29" s="111"/>
-      <c r="AT29" s="111"/>
-      <c r="AU29" s="111"/>
-      <c r="AV29" s="111"/>
-      <c r="AW29" s="111"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="130"/>
+      <c r="AI29" s="130"/>
+      <c r="AJ29" s="130"/>
+      <c r="AK29" s="130"/>
+      <c r="AL29" s="130"/>
+      <c r="AM29" s="130"/>
+      <c r="AN29" s="123"/>
+      <c r="AO29" s="123"/>
+      <c r="AP29" s="123"/>
+      <c r="AQ29" s="123"/>
+      <c r="AR29" s="123"/>
+      <c r="AS29" s="123"/>
+      <c r="AT29" s="123"/>
+      <c r="AU29" s="123"/>
+      <c r="AV29" s="123"/>
+      <c r="AW29" s="123"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="117"/>
-      <c r="AF30" s="117"/>
-      <c r="AG30" s="117"/>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="117"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="111"/>
-      <c r="AO30" s="111"/>
-      <c r="AP30" s="111"/>
-      <c r="AQ30" s="111"/>
-      <c r="AR30" s="111"/>
-      <c r="AS30" s="111"/>
-      <c r="AT30" s="111"/>
-      <c r="AU30" s="111"/>
-      <c r="AV30" s="111"/>
-      <c r="AW30" s="111"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130"/>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="130"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="130"/>
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="130"/>
+      <c r="AI30" s="130"/>
+      <c r="AJ30" s="130"/>
+      <c r="AK30" s="130"/>
+      <c r="AL30" s="130"/>
+      <c r="AM30" s="130"/>
+      <c r="AN30" s="123"/>
+      <c r="AO30" s="123"/>
+      <c r="AP30" s="123"/>
+      <c r="AQ30" s="123"/>
+      <c r="AR30" s="123"/>
+      <c r="AS30" s="123"/>
+      <c r="AT30" s="123"/>
+      <c r="AU30" s="123"/>
+      <c r="AV30" s="123"/>
+      <c r="AW30" s="123"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="117"/>
-      <c r="AF31" s="117"/>
-      <c r="AG31" s="117"/>
-      <c r="AH31" s="117"/>
-      <c r="AI31" s="117"/>
-      <c r="AJ31" s="117"/>
-      <c r="AK31" s="117"/>
-      <c r="AL31" s="117"/>
-      <c r="AM31" s="117"/>
-      <c r="AN31" s="111"/>
-      <c r="AO31" s="111"/>
-      <c r="AP31" s="111"/>
-      <c r="AQ31" s="111"/>
-      <c r="AR31" s="111"/>
-      <c r="AS31" s="111"/>
-      <c r="AT31" s="111"/>
-      <c r="AU31" s="111"/>
-      <c r="AV31" s="111"/>
-      <c r="AW31" s="111"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="130"/>
+      <c r="AI31" s="130"/>
+      <c r="AJ31" s="130"/>
+      <c r="AK31" s="130"/>
+      <c r="AL31" s="130"/>
+      <c r="AM31" s="130"/>
+      <c r="AN31" s="123"/>
+      <c r="AO31" s="123"/>
+      <c r="AP31" s="123"/>
+      <c r="AQ31" s="123"/>
+      <c r="AR31" s="123"/>
+      <c r="AS31" s="123"/>
+      <c r="AT31" s="123"/>
+      <c r="AU31" s="123"/>
+      <c r="AV31" s="123"/>
+      <c r="AW31" s="123"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="117"/>
-      <c r="AF32" s="117"/>
-      <c r="AG32" s="117"/>
-      <c r="AH32" s="117"/>
-      <c r="AI32" s="117"/>
-      <c r="AJ32" s="117"/>
-      <c r="AK32" s="117"/>
-      <c r="AL32" s="117"/>
-      <c r="AM32" s="117"/>
-      <c r="AN32" s="111"/>
-      <c r="AO32" s="111"/>
-      <c r="AP32" s="111"/>
-      <c r="AQ32" s="111"/>
-      <c r="AR32" s="111"/>
-      <c r="AS32" s="111"/>
-      <c r="AT32" s="111"/>
-      <c r="AU32" s="111"/>
-      <c r="AV32" s="111"/>
-      <c r="AW32" s="111"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="130"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="130"/>
+      <c r="Y32" s="130"/>
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="130"/>
+      <c r="AC32" s="130"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="130"/>
+      <c r="AG32" s="130"/>
+      <c r="AH32" s="130"/>
+      <c r="AI32" s="130"/>
+      <c r="AJ32" s="130"/>
+      <c r="AK32" s="130"/>
+      <c r="AL32" s="130"/>
+      <c r="AM32" s="130"/>
+      <c r="AN32" s="123"/>
+      <c r="AO32" s="123"/>
+      <c r="AP32" s="123"/>
+      <c r="AQ32" s="123"/>
+      <c r="AR32" s="123"/>
+      <c r="AS32" s="123"/>
+      <c r="AT32" s="123"/>
+      <c r="AU32" s="123"/>
+      <c r="AV32" s="123"/>
+      <c r="AW32" s="123"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="117"/>
-      <c r="AG33" s="117"/>
-      <c r="AH33" s="117"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="117"/>
-      <c r="AK33" s="117"/>
-      <c r="AL33" s="117"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="111"/>
-      <c r="AO33" s="111"/>
-      <c r="AP33" s="111"/>
-      <c r="AQ33" s="111"/>
-      <c r="AR33" s="111"/>
-      <c r="AS33" s="111"/>
-      <c r="AT33" s="111"/>
-      <c r="AU33" s="111"/>
-      <c r="AV33" s="111"/>
-      <c r="AW33" s="111"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="130"/>
+      <c r="W33" s="130"/>
+      <c r="X33" s="130"/>
+      <c r="Y33" s="130"/>
+      <c r="Z33" s="130"/>
+      <c r="AA33" s="130"/>
+      <c r="AB33" s="130"/>
+      <c r="AC33" s="130"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="130"/>
+      <c r="AH33" s="130"/>
+      <c r="AI33" s="130"/>
+      <c r="AJ33" s="130"/>
+      <c r="AK33" s="130"/>
+      <c r="AL33" s="130"/>
+      <c r="AM33" s="130"/>
+      <c r="AN33" s="123"/>
+      <c r="AO33" s="123"/>
+      <c r="AP33" s="123"/>
+      <c r="AQ33" s="123"/>
+      <c r="AR33" s="123"/>
+      <c r="AS33" s="123"/>
+      <c r="AT33" s="123"/>
+      <c r="AU33" s="123"/>
+      <c r="AV33" s="123"/>
+      <c r="AW33" s="123"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="117"/>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="117"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="111"/>
-      <c r="AO34" s="111"/>
-      <c r="AP34" s="111"/>
-      <c r="AQ34" s="111"/>
-      <c r="AR34" s="111"/>
-      <c r="AS34" s="111"/>
-      <c r="AT34" s="111"/>
-      <c r="AU34" s="111"/>
-      <c r="AV34" s="111"/>
-      <c r="AW34" s="111"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="136"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="137"/>
+      <c r="P34" s="137"/>
+      <c r="Q34" s="137"/>
+      <c r="R34" s="137"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="123"/>
+      <c r="U34" s="123"/>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="130"/>
+      <c r="Y34" s="130"/>
+      <c r="Z34" s="130"/>
+      <c r="AA34" s="130"/>
+      <c r="AB34" s="130"/>
+      <c r="AC34" s="130"/>
+      <c r="AD34" s="130"/>
+      <c r="AE34" s="130"/>
+      <c r="AF34" s="130"/>
+      <c r="AG34" s="130"/>
+      <c r="AH34" s="130"/>
+      <c r="AI34" s="130"/>
+      <c r="AJ34" s="130"/>
+      <c r="AK34" s="130"/>
+      <c r="AL34" s="130"/>
+      <c r="AM34" s="130"/>
+      <c r="AN34" s="123"/>
+      <c r="AO34" s="123"/>
+      <c r="AP34" s="123"/>
+      <c r="AQ34" s="123"/>
+      <c r="AR34" s="123"/>
+      <c r="AS34" s="123"/>
+      <c r="AT34" s="123"/>
+      <c r="AU34" s="123"/>
+      <c r="AV34" s="123"/>
+      <c r="AW34" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -6006,230 +6235,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6310,14 +6324,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="143">
+      <c r="AO1" s="145">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="144"/>
-      <c r="AQ1" s="144"/>
-      <c r="AR1" s="144"/>
-      <c r="AS1" s="145"/>
+      <c r="AP1" s="146"/>
+      <c r="AQ1" s="146"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6326,17 +6340,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="136" t="str">
+      <c r="AZ1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="137"/>
-      <c r="BB1" s="137"/>
-      <c r="BC1" s="137"/>
-      <c r="BD1" s="137"/>
-      <c r="BE1" s="137"/>
-      <c r="BF1" s="137"/>
-      <c r="BG1" s="138"/>
+      <c r="BA1" s="143"/>
+      <c r="BB1" s="143"/>
+      <c r="BC1" s="143"/>
+      <c r="BD1" s="143"/>
+      <c r="BE1" s="143"/>
+      <c r="BF1" s="143"/>
+      <c r="BG1" s="144"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6389,11 +6403,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="144"/>
-      <c r="AQ2" s="144"/>
-      <c r="AR2" s="144"/>
-      <c r="AS2" s="145"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="146"/>
+      <c r="AQ2" s="146"/>
+      <c r="AR2" s="146"/>
+      <c r="AS2" s="147"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6402,14 +6416,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="137"/>
-      <c r="BB2" s="137"/>
-      <c r="BC2" s="137"/>
-      <c r="BD2" s="137"/>
-      <c r="BE2" s="137"/>
-      <c r="BF2" s="137"/>
-      <c r="BG2" s="138"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="143"/>
+      <c r="BB2" s="143"/>
+      <c r="BC2" s="143"/>
+      <c r="BD2" s="143"/>
+      <c r="BE2" s="143"/>
+      <c r="BF2" s="143"/>
+      <c r="BG2" s="144"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7631,10 +7645,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="146" t="s">
+      <c r="B41" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="147"/>
+      <c r="C41" s="149"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7717,10 +7731,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="141">
+      <c r="B42" s="140">
         <v>1</v>
       </c>
-      <c r="C42" s="142"/>
+      <c r="C42" s="141"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7752,16 +7766,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="139" t="s">
+      <c r="AE42" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="139"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="139"/>
-      <c r="AL42" s="140"/>
+      <c r="AF42" s="139"/>
+      <c r="AG42" s="138"/>
+      <c r="AH42" s="139"/>
+      <c r="AI42" s="138"/>
+      <c r="AJ42" s="139"/>
+      <c r="AK42" s="138"/>
+      <c r="AL42" s="139"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7795,10 +7809,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="141">
+      <c r="B43" s="140">
         <v>2</v>
       </c>
-      <c r="C43" s="142"/>
+      <c r="C43" s="141"/>
       <c r="D43" s="104" t="s">
         <v>94</v>
       </c>
@@ -7830,16 +7844,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="105"/>
-      <c r="AE43" s="139" t="s">
+      <c r="AE43" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="140"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="140"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="140"/>
-      <c r="AK43" s="139"/>
-      <c r="AL43" s="140"/>
+      <c r="AF43" s="139"/>
+      <c r="AG43" s="138"/>
+      <c r="AH43" s="139"/>
+      <c r="AI43" s="138"/>
+      <c r="AJ43" s="139"/>
+      <c r="AK43" s="138"/>
+      <c r="AL43" s="139"/>
       <c r="AM43" s="83" t="s">
         <v>150</v>
       </c>
@@ -7873,10 +7887,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="141">
+      <c r="B44" s="140">
         <v>3</v>
       </c>
-      <c r="C44" s="142"/>
+      <c r="C44" s="141"/>
       <c r="D44" s="93" t="s">
         <v>94</v>
       </c>
@@ -7908,16 +7922,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="139" t="s">
+      <c r="AE44" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="139"/>
-      <c r="AH44" s="140"/>
-      <c r="AI44" s="139"/>
-      <c r="AJ44" s="140"/>
-      <c r="AK44" s="139"/>
-      <c r="AL44" s="140"/>
+      <c r="AF44" s="139"/>
+      <c r="AG44" s="138"/>
+      <c r="AH44" s="139"/>
+      <c r="AI44" s="138"/>
+      <c r="AJ44" s="139"/>
+      <c r="AK44" s="138"/>
+      <c r="AL44" s="139"/>
       <c r="AM44" s="83" t="s">
         <v>128</v>
       </c>
@@ -7951,10 +7965,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="141">
+      <c r="B45" s="140">
         <v>4</v>
       </c>
-      <c r="C45" s="142"/>
+      <c r="C45" s="141"/>
       <c r="D45" s="82" t="s">
         <v>103</v>
       </c>
@@ -7986,16 +8000,16 @@
       <c r="AB45" s="86"/>
       <c r="AC45" s="86"/>
       <c r="AD45" s="87"/>
-      <c r="AE45" s="139" t="s">
+      <c r="AE45" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="AF45" s="140"/>
-      <c r="AG45" s="139"/>
-      <c r="AH45" s="140"/>
-      <c r="AI45" s="139"/>
-      <c r="AJ45" s="140"/>
-      <c r="AK45" s="139"/>
-      <c r="AL45" s="140"/>
+      <c r="AF45" s="139"/>
+      <c r="AG45" s="138"/>
+      <c r="AH45" s="139"/>
+      <c r="AI45" s="138"/>
+      <c r="AJ45" s="139"/>
+      <c r="AK45" s="138"/>
+      <c r="AL45" s="139"/>
       <c r="AM45" s="83" t="s">
         <v>104</v>
       </c>
@@ -8034,15 +8048,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK45:AL45"/>
@@ -8059,6 +8064,15 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8182,20 +8196,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="143">
+      <c r="CD1" s="145">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="CE1" s="150"/>
-      <c r="CF1" s="150"/>
-      <c r="CG1" s="150"/>
-      <c r="CH1" s="150"/>
-      <c r="CI1" s="150"/>
-      <c r="CJ1" s="150"/>
-      <c r="CK1" s="150"/>
-      <c r="CL1" s="150"/>
-      <c r="CM1" s="150"/>
-      <c r="CN1" s="151"/>
+      <c r="CE1" s="152"/>
+      <c r="CF1" s="152"/>
+      <c r="CG1" s="152"/>
+      <c r="CH1" s="152"/>
+      <c r="CI1" s="152"/>
+      <c r="CJ1" s="152"/>
+      <c r="CK1" s="152"/>
+      <c r="CL1" s="152"/>
+      <c r="CM1" s="152"/>
+      <c r="CN1" s="153"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8204,23 +8218,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="136" t="str">
+      <c r="CU1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="148"/>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148"/>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148"/>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148"/>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="149"/>
+      <c r="CV1" s="150"/>
+      <c r="CW1" s="150"/>
+      <c r="CX1" s="150"/>
+      <c r="CY1" s="150"/>
+      <c r="CZ1" s="150"/>
+      <c r="DA1" s="150"/>
+      <c r="DB1" s="150"/>
+      <c r="DC1" s="150"/>
+      <c r="DD1" s="150"/>
+      <c r="DE1" s="150"/>
+      <c r="DF1" s="150"/>
+      <c r="DG1" s="150"/>
+      <c r="DH1" s="151"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8275,39 +8289,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="153" t="str">
+      <c r="AT2" s="155" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="AU2" s="150"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AY2" s="150"/>
-      <c r="AZ2" s="150"/>
-      <c r="BA2" s="150"/>
-      <c r="BB2" s="150"/>
-      <c r="BC2" s="150"/>
-      <c r="BD2" s="150"/>
-      <c r="BE2" s="150"/>
-      <c r="BF2" s="150"/>
-      <c r="BG2" s="150"/>
-      <c r="BH2" s="150"/>
-      <c r="BI2" s="150"/>
-      <c r="BJ2" s="150"/>
-      <c r="BK2" s="150"/>
-      <c r="BL2" s="150"/>
-      <c r="BM2" s="150"/>
-      <c r="BN2" s="150"/>
-      <c r="BO2" s="150"/>
-      <c r="BP2" s="150"/>
-      <c r="BQ2" s="150"/>
-      <c r="BR2" s="150"/>
-      <c r="BS2" s="150"/>
-      <c r="BT2" s="150"/>
-      <c r="BU2" s="150"/>
-      <c r="BV2" s="150"/>
-      <c r="BW2" s="151"/>
+      <c r="AU2" s="152"/>
+      <c r="AV2" s="152"/>
+      <c r="AW2" s="152"/>
+      <c r="AX2" s="152"/>
+      <c r="AY2" s="152"/>
+      <c r="AZ2" s="152"/>
+      <c r="BA2" s="152"/>
+      <c r="BB2" s="152"/>
+      <c r="BC2" s="152"/>
+      <c r="BD2" s="152"/>
+      <c r="BE2" s="152"/>
+      <c r="BF2" s="152"/>
+      <c r="BG2" s="152"/>
+      <c r="BH2" s="152"/>
+      <c r="BI2" s="152"/>
+      <c r="BJ2" s="152"/>
+      <c r="BK2" s="152"/>
+      <c r="BL2" s="152"/>
+      <c r="BM2" s="152"/>
+      <c r="BN2" s="152"/>
+      <c r="BO2" s="152"/>
+      <c r="BP2" s="152"/>
+      <c r="BQ2" s="152"/>
+      <c r="BR2" s="152"/>
+      <c r="BS2" s="152"/>
+      <c r="BT2" s="152"/>
+      <c r="BU2" s="152"/>
+      <c r="BV2" s="152"/>
+      <c r="BW2" s="153"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -8316,17 +8330,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="152"/>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="148"/>
-      <c r="CG2" s="148"/>
-      <c r="CH2" s="148"/>
-      <c r="CI2" s="148"/>
-      <c r="CJ2" s="148"/>
-      <c r="CK2" s="148"/>
-      <c r="CL2" s="148"/>
-      <c r="CM2" s="148"/>
-      <c r="CN2" s="149"/>
+      <c r="CD2" s="154"/>
+      <c r="CE2" s="150"/>
+      <c r="CF2" s="150"/>
+      <c r="CG2" s="150"/>
+      <c r="CH2" s="150"/>
+      <c r="CI2" s="150"/>
+      <c r="CJ2" s="150"/>
+      <c r="CK2" s="150"/>
+      <c r="CL2" s="150"/>
+      <c r="CM2" s="150"/>
+      <c r="CN2" s="151"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8335,20 +8349,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="136"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="148"/>
-      <c r="DA2" s="148"/>
-      <c r="DB2" s="148"/>
-      <c r="DC2" s="148"/>
-      <c r="DD2" s="148"/>
-      <c r="DE2" s="148"/>
-      <c r="DF2" s="148"/>
-      <c r="DG2" s="148"/>
-      <c r="DH2" s="149"/>
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="150"/>
+      <c r="CW2" s="150"/>
+      <c r="CX2" s="150"/>
+      <c r="CY2" s="150"/>
+      <c r="CZ2" s="150"/>
+      <c r="DA2" s="150"/>
+      <c r="DB2" s="150"/>
+      <c r="DC2" s="150"/>
+      <c r="DD2" s="150"/>
+      <c r="DE2" s="150"/>
+      <c r="DF2" s="150"/>
+      <c r="DG2" s="150"/>
+      <c r="DH2" s="151"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -8551,22 +8565,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="115" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="156" t="s">
@@ -8575,13 +8589,13 @@
       <c r="J6" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="115" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8596,17 +8610,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
       <c r="I7" s="156"/>
       <c r="J7" s="156"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8678,37 +8692,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="128" t="s">
+      <c r="F11" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="128" t="s">
+      <c r="H11" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="154" t="s">
+      <c r="I11" s="157" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="128" t="s">
+      <c r="K11" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="128" t="s">
+      <c r="L11" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="128" t="s">
+      <c r="M11" s="115" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8716,24 +8730,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="154" t="s">
+      <c r="Q11" s="157" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="155"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="158"/>
       <c r="J12" s="156"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8743,7 +8757,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="155"/>
+      <c r="Q12" s="158"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
@@ -8858,22 +8872,22 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="128" t="s">
+      <c r="F18" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="128" t="s">
+      <c r="G18" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="128" t="s">
+      <c r="H18" s="115" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="156" t="s">
@@ -8882,13 +8896,13 @@
       <c r="J18" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="128" t="s">
+      <c r="K18" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="128" t="s">
+      <c r="L18" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="128" t="s">
+      <c r="M18" s="115" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8903,17 +8917,17 @@
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
       <c r="I19" s="156"/>
       <c r="J19" s="156"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -9169,8 +9183,8 @@
       <c r="J25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>34</v>
+      <c r="K25" s="159" t="s">
+        <v>206</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>34</v>
@@ -9218,26 +9232,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -9254,6 +9248,26 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9330,14 +9344,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="143">
+      <c r="AI1" s="145">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
+      <c r="AJ1" s="152"/>
+      <c r="AK1" s="152"/>
+      <c r="AL1" s="152"/>
+      <c r="AM1" s="153"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -9346,16 +9360,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
+      <c r="AU1" s="150"/>
+      <c r="AV1" s="150"/>
+      <c r="AW1" s="150"/>
+      <c r="AX1" s="150"/>
+      <c r="AY1" s="150"/>
+      <c r="AZ1" s="151"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -9383,32 +9397,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="153" t="str">
+      <c r="S2" s="155" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="153"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="151"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -9417,13 +9431,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="148"/>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="149"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="150"/>
+      <c r="AV2" s="150"/>
+      <c r="AW2" s="150"/>
+      <c r="AX2" s="150"/>
+      <c r="AY2" s="150"/>
+      <c r="AZ2" s="151"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -10133,38 +10147,38 @@
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
       <c r="K27" s="72"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="158"/>
-      <c r="AK27" s="158"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="158"/>
-      <c r="AN27" s="158"/>
-      <c r="AO27" s="158"/>
-      <c r="AP27" s="158"/>
-      <c r="AQ27" s="158"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
+      <c r="AE27" s="109"/>
+      <c r="AF27" s="109"/>
+      <c r="AG27" s="109"/>
+      <c r="AH27" s="109"/>
+      <c r="AI27" s="109"/>
+      <c r="AJ27" s="109"/>
+      <c r="AK27" s="109"/>
+      <c r="AL27" s="109"/>
+      <c r="AM27" s="109"/>
+      <c r="AN27" s="109"/>
+      <c r="AO27" s="109"/>
+      <c r="AP27" s="109"/>
+      <c r="AQ27" s="109"/>
       <c r="AV27" s="72"/>
     </row>
     <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -10173,40 +10187,40 @@
       <c r="F28" s="72"/>
       <c r="G28" s="71"/>
       <c r="K28" s="72"/>
-      <c r="L28" s="158" t="s">
+      <c r="L28" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
-      <c r="AK28" s="158"/>
-      <c r="AL28" s="158"/>
-      <c r="AM28" s="158"/>
-      <c r="AN28" s="158"/>
-      <c r="AO28" s="158"/>
-      <c r="AP28" s="158"/>
-      <c r="AQ28" s="158"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="109"/>
+      <c r="AF28" s="109"/>
+      <c r="AG28" s="109"/>
+      <c r="AH28" s="109"/>
+      <c r="AI28" s="109"/>
+      <c r="AJ28" s="109"/>
+      <c r="AK28" s="109"/>
+      <c r="AL28" s="109"/>
+      <c r="AM28" s="109"/>
+      <c r="AN28" s="109"/>
+      <c r="AO28" s="109"/>
+      <c r="AP28" s="109"/>
+      <c r="AQ28" s="109"/>
       <c r="AV28" s="72"/>
     </row>
     <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -11622,14 +11636,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="143">
+      <c r="AI1" s="145">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
+      <c r="AJ1" s="152"/>
+      <c r="AK1" s="152"/>
+      <c r="AL1" s="152"/>
+      <c r="AM1" s="153"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -11638,16 +11652,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
+      <c r="AU1" s="150"/>
+      <c r="AV1" s="150"/>
+      <c r="AW1" s="150"/>
+      <c r="AX1" s="150"/>
+      <c r="AY1" s="150"/>
+      <c r="AZ1" s="151"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -11675,32 +11689,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="153" t="str">
+      <c r="S2" s="155" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="153"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="151"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -11709,13 +11723,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="148"/>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="149"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="150"/>
+      <c r="AV2" s="150"/>
+      <c r="AW2" s="150"/>
+      <c r="AX2" s="150"/>
+      <c r="AY2" s="150"/>
+      <c r="AZ2" s="151"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -12237,14 +12251,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="143">
+      <c r="AI1" s="145">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
+      <c r="AJ1" s="152"/>
+      <c r="AK1" s="152"/>
+      <c r="AL1" s="152"/>
+      <c r="AM1" s="153"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -12253,16 +12267,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
+      <c r="AU1" s="150"/>
+      <c r="AV1" s="150"/>
+      <c r="AW1" s="150"/>
+      <c r="AX1" s="150"/>
+      <c r="AY1" s="150"/>
+      <c r="AZ1" s="151"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -12290,32 +12304,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="153" t="str">
+      <c r="S2" s="155" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="153"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="151"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -12324,13 +12338,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="148"/>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="149"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="150"/>
+      <c r="AV2" s="150"/>
+      <c r="AW2" s="150"/>
+      <c r="AX2" s="150"/>
+      <c r="AY2" s="150"/>
+      <c r="AZ2" s="151"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -12644,6 +12658,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -12801,12 +12821,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12817,6 +12831,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12834,15 +12857,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17924B6-4835-4A53-8285-F051FCAE5A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA9F0C5-C824-487D-A08F-E1FCFE031683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2203,6 +2203,9 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2212,6 +2215,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2242,46 +2286,14 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2295,15 +2307,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2337,17 +2340,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2616,26 +2616,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>全工程で試作の在庫払出可能化の伝票出力</a:t>
+            <a:t>その他出庫参照・取消</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>&amp;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>取消</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2712,13 +2709,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
+      <xdr:colOff>223837</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>223838</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -2737,9 +2734,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5700713" y="2867024"/>
-          <a:ext cx="4763" cy="342901"/>
+        <a:xfrm flipH="1">
+          <a:off x="5700712" y="2867024"/>
+          <a:ext cx="1" cy="342901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2979,13 +2976,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>67526</xdr:rowOff>
     </xdr:to>
@@ -3002,8 +2999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172076" y="3209925"/>
-          <a:ext cx="1066800" cy="553301"/>
+          <a:off x="5067299" y="3209925"/>
+          <a:ext cx="1266825" cy="553301"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3029,12 +3026,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>その他払出メニュー</a:t>
+            <a:t>在庫照会と進捗管理メニュー</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3043,7 +3051,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>223837</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>67526</xdr:rowOff>
     </xdr:from>
@@ -3069,8 +3077,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705476" y="3763226"/>
-          <a:ext cx="3620" cy="342050"/>
+          <a:off x="5700712" y="3763226"/>
+          <a:ext cx="8384" cy="342050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4009,108 +4017,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="110"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
-      <c r="Z32" s="110"/>
-      <c r="AA32" s="110"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="110"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="110"/>
-      <c r="AJ32" s="110"/>
-      <c r="AK32" s="110"/>
-      <c r="AL32" s="110"/>
-      <c r="AM32" s="110"/>
-      <c r="AN32" s="110"/>
-      <c r="AO32" s="110"/>
-      <c r="AP32" s="110"/>
-      <c r="AQ32" s="110"/>
-      <c r="AR32" s="110"/>
-      <c r="AS32" s="110"/>
-      <c r="AT32" s="110"/>
-      <c r="AU32" s="110"/>
-      <c r="AV32" s="110"/>
-      <c r="AW32" s="110"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="111"/>
+      <c r="AH32" s="111"/>
+      <c r="AI32" s="111"/>
+      <c r="AJ32" s="111"/>
+      <c r="AK32" s="111"/>
+      <c r="AL32" s="111"/>
+      <c r="AM32" s="111"/>
+      <c r="AN32" s="111"/>
+      <c r="AO32" s="111"/>
+      <c r="AP32" s="111"/>
+      <c r="AQ32" s="111"/>
+      <c r="AR32" s="111"/>
+      <c r="AS32" s="111"/>
+      <c r="AT32" s="111"/>
+      <c r="AU32" s="111"/>
+      <c r="AV32" s="111"/>
+      <c r="AW32" s="111"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="111"/>
-      <c r="AB33" s="111"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="111"/>
-      <c r="AH33" s="111"/>
-      <c r="AI33" s="111"/>
-      <c r="AJ33" s="111"/>
-      <c r="AK33" s="111"/>
-      <c r="AL33" s="111"/>
-      <c r="AM33" s="111"/>
-      <c r="AN33" s="111"/>
-      <c r="AO33" s="111"/>
-      <c r="AP33" s="111"/>
-      <c r="AQ33" s="111"/>
-      <c r="AR33" s="111"/>
-      <c r="AS33" s="111"/>
-      <c r="AT33" s="111"/>
-      <c r="AU33" s="111"/>
-      <c r="AV33" s="111"/>
-      <c r="AW33" s="111"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="112"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="112"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="112"/>
+      <c r="AB33" s="112"/>
+      <c r="AC33" s="112"/>
+      <c r="AD33" s="112"/>
+      <c r="AE33" s="112"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="112"/>
+      <c r="AH33" s="112"/>
+      <c r="AI33" s="112"/>
+      <c r="AJ33" s="112"/>
+      <c r="AK33" s="112"/>
+      <c r="AL33" s="112"/>
+      <c r="AM33" s="112"/>
+      <c r="AN33" s="112"/>
+      <c r="AO33" s="112"/>
+      <c r="AP33" s="112"/>
+      <c r="AQ33" s="112"/>
+      <c r="AR33" s="112"/>
+      <c r="AS33" s="112"/>
+      <c r="AT33" s="112"/>
+      <c r="AU33" s="112"/>
+      <c r="AV33" s="112"/>
+      <c r="AW33" s="112"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4148,55 +4156,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="112"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="112"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="112"/>
-      <c r="W35" s="112"/>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="112"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="112"/>
-      <c r="AC35" s="112"/>
-      <c r="AD35" s="112"/>
-      <c r="AE35" s="112"/>
-      <c r="AF35" s="112"/>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="112"/>
-      <c r="AI35" s="112"/>
-      <c r="AJ35" s="112"/>
-      <c r="AK35" s="112"/>
-      <c r="AL35" s="112"/>
-      <c r="AM35" s="112"/>
-      <c r="AN35" s="112"/>
-      <c r="AO35" s="112"/>
-      <c r="AP35" s="112"/>
-      <c r="AQ35" s="112"/>
-      <c r="AR35" s="112"/>
-      <c r="AS35" s="112"/>
-      <c r="AT35" s="112"/>
-      <c r="AU35" s="112"/>
-      <c r="AV35" s="112"/>
-      <c r="AW35" s="112"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="113"/>
+      <c r="AF35" s="113"/>
+      <c r="AG35" s="113"/>
+      <c r="AH35" s="113"/>
+      <c r="AI35" s="113"/>
+      <c r="AJ35" s="113"/>
+      <c r="AK35" s="113"/>
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="113"/>
+      <c r="AN35" s="113"/>
+      <c r="AO35" s="113"/>
+      <c r="AP35" s="113"/>
+      <c r="AQ35" s="113"/>
+      <c r="AR35" s="113"/>
+      <c r="AS35" s="113"/>
+      <c r="AT35" s="113"/>
+      <c r="AU35" s="113"/>
+      <c r="AV35" s="113"/>
+      <c r="AW35" s="113"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4231,1770 +4239,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="113"/>
-      <c r="AM1" s="113"/>
-      <c r="AN1" s="113"/>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="113"/>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="113"/>
-      <c r="AW1" s="113"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="129"/>
+      <c r="AR1" s="129"/>
+      <c r="AS1" s="129"/>
+      <c r="AT1" s="129"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
-      <c r="AM2" s="114"/>
-      <c r="AN2" s="114"/>
-      <c r="AO2" s="114"/>
-      <c r="AP2" s="114"/>
-      <c r="AQ2" s="114"/>
-      <c r="AR2" s="114"/>
-      <c r="AS2" s="114"/>
-      <c r="AT2" s="114"/>
-      <c r="AU2" s="114"/>
-      <c r="AV2" s="114"/>
-      <c r="AW2" s="114"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="117" t="s">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="117" t="s">
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="115" t="s">
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115" t="s">
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="115" t="s">
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="115"/>
-      <c r="AP3" s="115"/>
-      <c r="AQ3" s="115"/>
-      <c r="AR3" s="115"/>
-      <c r="AS3" s="115" t="s">
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="131"/>
+      <c r="AS3" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="115"/>
-      <c r="AU3" s="115"/>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="115"/>
+      <c r="AT3" s="131"/>
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="124">
+      <c r="B5" s="115">
         <v>1</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="125">
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116">
         <v>43725</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126" t="s">
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126" t="s">
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="123" t="s">
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="128" t="s">
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="128"/>
-      <c r="AH5" s="128"/>
-      <c r="AI5" s="128"/>
-      <c r="AJ5" s="128"/>
-      <c r="AK5" s="128"/>
-      <c r="AL5" s="128"/>
-      <c r="AM5" s="128"/>
-      <c r="AN5" s="123" t="s">
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="123"/>
-      <c r="AP5" s="123"/>
-      <c r="AQ5" s="123"/>
-      <c r="AR5" s="123"/>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="123"/>
-      <c r="AW5" s="123"/>
+      <c r="AO5" s="114"/>
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="114"/>
+      <c r="AR5" s="114"/>
+      <c r="AS5" s="114"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="114"/>
+      <c r="AV5" s="114"/>
+      <c r="AW5" s="114"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="123"/>
-      <c r="AP6" s="123"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="123"/>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="123"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114"/>
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="128"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="128"/>
-      <c r="AJ7" s="128"/>
-      <c r="AK7" s="128"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="128"/>
-      <c r="AN7" s="123"/>
-      <c r="AO7" s="123"/>
-      <c r="AP7" s="123"/>
-      <c r="AQ7" s="123"/>
-      <c r="AR7" s="123"/>
-      <c r="AS7" s="123"/>
-      <c r="AT7" s="123"/>
-      <c r="AU7" s="123"/>
-      <c r="AV7" s="123"/>
-      <c r="AW7" s="123"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="126"/>
+      <c r="AM7" s="126"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="114"/>
+      <c r="AP7" s="114"/>
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="128"/>
-      <c r="AD8" s="128"/>
-      <c r="AE8" s="128"/>
-      <c r="AF8" s="128"/>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="128"/>
-      <c r="AI8" s="128"/>
-      <c r="AJ8" s="128"/>
-      <c r="AK8" s="128"/>
-      <c r="AL8" s="128"/>
-      <c r="AM8" s="128"/>
-      <c r="AN8" s="123"/>
-      <c r="AO8" s="123"/>
-      <c r="AP8" s="123"/>
-      <c r="AQ8" s="123"/>
-      <c r="AR8" s="123"/>
-      <c r="AS8" s="123"/>
-      <c r="AT8" s="123"/>
-      <c r="AU8" s="123"/>
-      <c r="AV8" s="123"/>
-      <c r="AW8" s="123"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="114"/>
+      <c r="AO8" s="114"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="128"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="128"/>
-      <c r="AM9" s="128"/>
-      <c r="AN9" s="123"/>
-      <c r="AO9" s="123"/>
-      <c r="AP9" s="123"/>
-      <c r="AQ9" s="123"/>
-      <c r="AR9" s="123"/>
-      <c r="AS9" s="123"/>
-      <c r="AT9" s="123"/>
-      <c r="AU9" s="123"/>
-      <c r="AV9" s="123"/>
-      <c r="AW9" s="123"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="126"/>
+      <c r="AK9" s="126"/>
+      <c r="AL9" s="126"/>
+      <c r="AM9" s="126"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="114"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="128"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="128"/>
-      <c r="AK10" s="128"/>
-      <c r="AL10" s="128"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="123"/>
-      <c r="AO10" s="123"/>
-      <c r="AP10" s="123"/>
-      <c r="AQ10" s="123"/>
-      <c r="AR10" s="123"/>
-      <c r="AS10" s="123"/>
-      <c r="AT10" s="123"/>
-      <c r="AU10" s="123"/>
-      <c r="AV10" s="123"/>
-      <c r="AW10" s="123"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="126"/>
+      <c r="AJ10" s="126"/>
+      <c r="AK10" s="126"/>
+      <c r="AL10" s="126"/>
+      <c r="AM10" s="126"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="131"/>
-      <c r="AA11" s="131"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="131"/>
-      <c r="AD11" s="131"/>
-      <c r="AE11" s="131"/>
-      <c r="AF11" s="131"/>
-      <c r="AG11" s="131"/>
-      <c r="AH11" s="131"/>
-      <c r="AI11" s="131"/>
-      <c r="AJ11" s="131"/>
-      <c r="AK11" s="131"/>
-      <c r="AL11" s="131"/>
-      <c r="AM11" s="131"/>
-      <c r="AN11" s="123"/>
-      <c r="AO11" s="123"/>
-      <c r="AP11" s="123"/>
-      <c r="AQ11" s="123"/>
-      <c r="AR11" s="123"/>
-      <c r="AS11" s="123"/>
-      <c r="AT11" s="123"/>
-      <c r="AU11" s="123"/>
-      <c r="AV11" s="123"/>
-      <c r="AW11" s="123"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="127"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="127"/>
+      <c r="AI11" s="127"/>
+      <c r="AJ11" s="127"/>
+      <c r="AK11" s="127"/>
+      <c r="AL11" s="127"/>
+      <c r="AM11" s="127"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="114"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="130"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="130"/>
-      <c r="AG12" s="130"/>
-      <c r="AH12" s="130"/>
-      <c r="AI12" s="130"/>
-      <c r="AJ12" s="130"/>
-      <c r="AK12" s="130"/>
-      <c r="AL12" s="130"/>
-      <c r="AM12" s="130"/>
-      <c r="AN12" s="123"/>
-      <c r="AO12" s="123"/>
-      <c r="AP12" s="123"/>
-      <c r="AQ12" s="123"/>
-      <c r="AR12" s="123"/>
-      <c r="AS12" s="123"/>
-      <c r="AT12" s="123"/>
-      <c r="AU12" s="123"/>
-      <c r="AV12" s="123"/>
-      <c r="AW12" s="123"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
-      <c r="Y13" s="130"/>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="130"/>
-      <c r="AC13" s="130"/>
-      <c r="AD13" s="130"/>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="130"/>
-      <c r="AG13" s="130"/>
-      <c r="AH13" s="130"/>
-      <c r="AI13" s="130"/>
-      <c r="AJ13" s="130"/>
-      <c r="AK13" s="130"/>
-      <c r="AL13" s="130"/>
-      <c r="AM13" s="130"/>
-      <c r="AN13" s="123"/>
-      <c r="AO13" s="123"/>
-      <c r="AP13" s="123"/>
-      <c r="AQ13" s="123"/>
-      <c r="AR13" s="123"/>
-      <c r="AS13" s="123"/>
-      <c r="AT13" s="123"/>
-      <c r="AU13" s="123"/>
-      <c r="AV13" s="123"/>
-      <c r="AW13" s="123"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="120"/>
+      <c r="AC13" s="120"/>
+      <c r="AD13" s="120"/>
+      <c r="AE13" s="120"/>
+      <c r="AF13" s="120"/>
+      <c r="AG13" s="120"/>
+      <c r="AH13" s="120"/>
+      <c r="AI13" s="120"/>
+      <c r="AJ13" s="120"/>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="128"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="128"/>
-      <c r="AH14" s="128"/>
-      <c r="AI14" s="128"/>
-      <c r="AJ14" s="128"/>
-      <c r="AK14" s="128"/>
-      <c r="AL14" s="128"/>
-      <c r="AM14" s="128"/>
-      <c r="AN14" s="123"/>
-      <c r="AO14" s="123"/>
-      <c r="AP14" s="123"/>
-      <c r="AQ14" s="123"/>
-      <c r="AR14" s="123"/>
-      <c r="AS14" s="123"/>
-      <c r="AT14" s="123"/>
-      <c r="AU14" s="123"/>
-      <c r="AV14" s="123"/>
-      <c r="AW14" s="123"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="130"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="130"/>
-      <c r="Z15" s="130"/>
-      <c r="AA15" s="130"/>
-      <c r="AB15" s="130"/>
-      <c r="AC15" s="130"/>
-      <c r="AD15" s="130"/>
-      <c r="AE15" s="130"/>
-      <c r="AF15" s="130"/>
-      <c r="AG15" s="130"/>
-      <c r="AH15" s="130"/>
-      <c r="AI15" s="130"/>
-      <c r="AJ15" s="130"/>
-      <c r="AK15" s="130"/>
-      <c r="AL15" s="130"/>
-      <c r="AM15" s="130"/>
-      <c r="AN15" s="123"/>
-      <c r="AO15" s="123"/>
-      <c r="AP15" s="123"/>
-      <c r="AQ15" s="123"/>
-      <c r="AR15" s="123"/>
-      <c r="AS15" s="123"/>
-      <c r="AT15" s="123"/>
-      <c r="AU15" s="123"/>
-      <c r="AV15" s="123"/>
-      <c r="AW15" s="123"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="120"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="120"/>
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="120"/>
+      <c r="AH15" s="120"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
-      <c r="Z16" s="130"/>
-      <c r="AA16" s="130"/>
-      <c r="AB16" s="130"/>
-      <c r="AC16" s="130"/>
-      <c r="AD16" s="130"/>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="130"/>
-      <c r="AH16" s="130"/>
-      <c r="AI16" s="130"/>
-      <c r="AJ16" s="130"/>
-      <c r="AK16" s="130"/>
-      <c r="AL16" s="130"/>
-      <c r="AM16" s="130"/>
-      <c r="AN16" s="123"/>
-      <c r="AO16" s="123"/>
-      <c r="AP16" s="123"/>
-      <c r="AQ16" s="123"/>
-      <c r="AR16" s="123"/>
-      <c r="AS16" s="123"/>
-      <c r="AT16" s="123"/>
-      <c r="AU16" s="123"/>
-      <c r="AV16" s="123"/>
-      <c r="AW16" s="123"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="120"/>
+      <c r="AC16" s="120"/>
+      <c r="AD16" s="120"/>
+      <c r="AE16" s="120"/>
+      <c r="AF16" s="120"/>
+      <c r="AG16" s="120"/>
+      <c r="AH16" s="120"/>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="120"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="130"/>
-      <c r="AC17" s="130"/>
-      <c r="AD17" s="130"/>
-      <c r="AE17" s="130"/>
-      <c r="AF17" s="130"/>
-      <c r="AG17" s="130"/>
-      <c r="AH17" s="130"/>
-      <c r="AI17" s="130"/>
-      <c r="AJ17" s="130"/>
-      <c r="AK17" s="130"/>
-      <c r="AL17" s="130"/>
-      <c r="AM17" s="130"/>
-      <c r="AN17" s="123"/>
-      <c r="AO17" s="123"/>
-      <c r="AP17" s="123"/>
-      <c r="AQ17" s="123"/>
-      <c r="AR17" s="123"/>
-      <c r="AS17" s="123"/>
-      <c r="AT17" s="123"/>
-      <c r="AU17" s="123"/>
-      <c r="AV17" s="123"/>
-      <c r="AW17" s="123"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="120"/>
+      <c r="AC17" s="120"/>
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="120"/>
+      <c r="AF17" s="120"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="120"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="120"/>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="114"/>
+      <c r="AO17" s="114"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="130"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="130"/>
-      <c r="Y18" s="130"/>
-      <c r="Z18" s="130"/>
-      <c r="AA18" s="130"/>
-      <c r="AB18" s="130"/>
-      <c r="AC18" s="130"/>
-      <c r="AD18" s="130"/>
-      <c r="AE18" s="130"/>
-      <c r="AF18" s="130"/>
-      <c r="AG18" s="130"/>
-      <c r="AH18" s="130"/>
-      <c r="AI18" s="130"/>
-      <c r="AJ18" s="130"/>
-      <c r="AK18" s="130"/>
-      <c r="AL18" s="130"/>
-      <c r="AM18" s="130"/>
-      <c r="AN18" s="123"/>
-      <c r="AO18" s="123"/>
-      <c r="AP18" s="123"/>
-      <c r="AQ18" s="123"/>
-      <c r="AR18" s="123"/>
-      <c r="AS18" s="123"/>
-      <c r="AT18" s="123"/>
-      <c r="AU18" s="123"/>
-      <c r="AV18" s="123"/>
-      <c r="AW18" s="123"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="120"/>
+      <c r="AC18" s="120"/>
+      <c r="AD18" s="120"/>
+      <c r="AE18" s="120"/>
+      <c r="AF18" s="120"/>
+      <c r="AG18" s="120"/>
+      <c r="AH18" s="120"/>
+      <c r="AI18" s="120"/>
+      <c r="AJ18" s="120"/>
+      <c r="AK18" s="120"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="120"/>
+      <c r="AN18" s="114"/>
+      <c r="AO18" s="114"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="130"/>
-      <c r="Z19" s="130"/>
-      <c r="AA19" s="130"/>
-      <c r="AB19" s="130"/>
-      <c r="AC19" s="130"/>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="130"/>
-      <c r="AG19" s="130"/>
-      <c r="AH19" s="130"/>
-      <c r="AI19" s="130"/>
-      <c r="AJ19" s="130"/>
-      <c r="AK19" s="130"/>
-      <c r="AL19" s="130"/>
-      <c r="AM19" s="130"/>
-      <c r="AN19" s="123"/>
-      <c r="AO19" s="123"/>
-      <c r="AP19" s="123"/>
-      <c r="AQ19" s="123"/>
-      <c r="AR19" s="123"/>
-      <c r="AS19" s="123"/>
-      <c r="AT19" s="123"/>
-      <c r="AU19" s="123"/>
-      <c r="AV19" s="123"/>
-      <c r="AW19" s="123"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="120"/>
+      <c r="AC19" s="120"/>
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="120"/>
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="114"/>
+      <c r="AO19" s="114"/>
+      <c r="AP19" s="114"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="130"/>
-      <c r="Y20" s="130"/>
-      <c r="Z20" s="130"/>
-      <c r="AA20" s="130"/>
-      <c r="AB20" s="130"/>
-      <c r="AC20" s="130"/>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="130"/>
-      <c r="AG20" s="130"/>
-      <c r="AH20" s="130"/>
-      <c r="AI20" s="130"/>
-      <c r="AJ20" s="130"/>
-      <c r="AK20" s="130"/>
-      <c r="AL20" s="130"/>
-      <c r="AM20" s="130"/>
-      <c r="AN20" s="123"/>
-      <c r="AO20" s="123"/>
-      <c r="AP20" s="123"/>
-      <c r="AQ20" s="123"/>
-      <c r="AR20" s="123"/>
-      <c r="AS20" s="123"/>
-      <c r="AT20" s="123"/>
-      <c r="AU20" s="123"/>
-      <c r="AV20" s="123"/>
-      <c r="AW20" s="123"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="120"/>
+      <c r="AI20" s="120"/>
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="130"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="130"/>
-      <c r="Y21" s="130"/>
-      <c r="Z21" s="130"/>
-      <c r="AA21" s="130"/>
-      <c r="AB21" s="130"/>
-      <c r="AC21" s="130"/>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="130"/>
-      <c r="AH21" s="130"/>
-      <c r="AI21" s="130"/>
-      <c r="AJ21" s="130"/>
-      <c r="AK21" s="130"/>
-      <c r="AL21" s="130"/>
-      <c r="AM21" s="130"/>
-      <c r="AN21" s="123"/>
-      <c r="AO21" s="123"/>
-      <c r="AP21" s="123"/>
-      <c r="AQ21" s="123"/>
-      <c r="AR21" s="123"/>
-      <c r="AS21" s="123"/>
-      <c r="AT21" s="123"/>
-      <c r="AU21" s="123"/>
-      <c r="AV21" s="123"/>
-      <c r="AW21" s="123"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="120"/>
+      <c r="AH21" s="120"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="130"/>
-      <c r="W22" s="130"/>
-      <c r="X22" s="130"/>
-      <c r="Y22" s="130"/>
-      <c r="Z22" s="130"/>
-      <c r="AA22" s="130"/>
-      <c r="AB22" s="130"/>
-      <c r="AC22" s="130"/>
-      <c r="AD22" s="130"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="130"/>
-      <c r="AG22" s="130"/>
-      <c r="AH22" s="130"/>
-      <c r="AI22" s="130"/>
-      <c r="AJ22" s="130"/>
-      <c r="AK22" s="130"/>
-      <c r="AL22" s="130"/>
-      <c r="AM22" s="130"/>
-      <c r="AN22" s="123"/>
-      <c r="AO22" s="123"/>
-      <c r="AP22" s="123"/>
-      <c r="AQ22" s="123"/>
-      <c r="AR22" s="123"/>
-      <c r="AS22" s="123"/>
-      <c r="AT22" s="123"/>
-      <c r="AU22" s="123"/>
-      <c r="AV22" s="123"/>
-      <c r="AW22" s="123"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="120"/>
+      <c r="AH22" s="120"/>
+      <c r="AI22" s="120"/>
+      <c r="AJ22" s="120"/>
+      <c r="AK22" s="120"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="120"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="130"/>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="130"/>
-      <c r="AA23" s="130"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="130"/>
-      <c r="AH23" s="130"/>
-      <c r="AI23" s="130"/>
-      <c r="AJ23" s="130"/>
-      <c r="AK23" s="130"/>
-      <c r="AL23" s="130"/>
-      <c r="AM23" s="130"/>
-      <c r="AN23" s="123"/>
-      <c r="AO23" s="123"/>
-      <c r="AP23" s="123"/>
-      <c r="AQ23" s="123"/>
-      <c r="AR23" s="123"/>
-      <c r="AS23" s="123"/>
-      <c r="AT23" s="123"/>
-      <c r="AU23" s="123"/>
-      <c r="AV23" s="123"/>
-      <c r="AW23" s="123"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="120"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="120"/>
+      <c r="AH23" s="120"/>
+      <c r="AI23" s="120"/>
+      <c r="AJ23" s="120"/>
+      <c r="AK23" s="120"/>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="120"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="130"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="130"/>
-      <c r="Y24" s="130"/>
-      <c r="Z24" s="130"/>
-      <c r="AA24" s="130"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="130"/>
-      <c r="AD24" s="130"/>
-      <c r="AE24" s="130"/>
-      <c r="AF24" s="130"/>
-      <c r="AG24" s="130"/>
-      <c r="AH24" s="130"/>
-      <c r="AI24" s="130"/>
-      <c r="AJ24" s="130"/>
-      <c r="AK24" s="130"/>
-      <c r="AL24" s="130"/>
-      <c r="AM24" s="130"/>
-      <c r="AN24" s="123"/>
-      <c r="AO24" s="123"/>
-      <c r="AP24" s="123"/>
-      <c r="AQ24" s="123"/>
-      <c r="AR24" s="123"/>
-      <c r="AS24" s="123"/>
-      <c r="AT24" s="123"/>
-      <c r="AU24" s="123"/>
-      <c r="AV24" s="123"/>
-      <c r="AW24" s="123"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="114"/>
+      <c r="AO24" s="114"/>
+      <c r="AP24" s="114"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="114"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="114"/>
+      <c r="AV24" s="114"/>
+      <c r="AW24" s="114"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="130"/>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="130"/>
-      <c r="AE25" s="130"/>
-      <c r="AF25" s="130"/>
-      <c r="AG25" s="130"/>
-      <c r="AH25" s="130"/>
-      <c r="AI25" s="130"/>
-      <c r="AJ25" s="130"/>
-      <c r="AK25" s="130"/>
-      <c r="AL25" s="130"/>
-      <c r="AM25" s="130"/>
-      <c r="AN25" s="123"/>
-      <c r="AO25" s="123"/>
-      <c r="AP25" s="123"/>
-      <c r="AQ25" s="123"/>
-      <c r="AR25" s="123"/>
-      <c r="AS25" s="123"/>
-      <c r="AT25" s="123"/>
-      <c r="AU25" s="123"/>
-      <c r="AV25" s="123"/>
-      <c r="AW25" s="123"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="120"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="120"/>
+      <c r="AH25" s="120"/>
+      <c r="AI25" s="120"/>
+      <c r="AJ25" s="120"/>
+      <c r="AK25" s="120"/>
+      <c r="AL25" s="120"/>
+      <c r="AM25" s="120"/>
+      <c r="AN25" s="114"/>
+      <c r="AO25" s="114"/>
+      <c r="AP25" s="114"/>
+      <c r="AQ25" s="114"/>
+      <c r="AR25" s="114"/>
+      <c r="AS25" s="114"/>
+      <c r="AT25" s="114"/>
+      <c r="AU25" s="114"/>
+      <c r="AV25" s="114"/>
+      <c r="AW25" s="114"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="130"/>
-      <c r="AA26" s="130"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="130"/>
-      <c r="AE26" s="130"/>
-      <c r="AF26" s="130"/>
-      <c r="AG26" s="130"/>
-      <c r="AH26" s="130"/>
-      <c r="AI26" s="130"/>
-      <c r="AJ26" s="130"/>
-      <c r="AK26" s="130"/>
-      <c r="AL26" s="130"/>
-      <c r="AM26" s="130"/>
-      <c r="AN26" s="123"/>
-      <c r="AO26" s="123"/>
-      <c r="AP26" s="123"/>
-      <c r="AQ26" s="123"/>
-      <c r="AR26" s="123"/>
-      <c r="AS26" s="123"/>
-      <c r="AT26" s="123"/>
-      <c r="AU26" s="123"/>
-      <c r="AV26" s="123"/>
-      <c r="AW26" s="123"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="120"/>
+      <c r="AH26" s="120"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="120"/>
+      <c r="AK26" s="120"/>
+      <c r="AL26" s="120"/>
+      <c r="AM26" s="120"/>
+      <c r="AN26" s="114"/>
+      <c r="AO26" s="114"/>
+      <c r="AP26" s="114"/>
+      <c r="AQ26" s="114"/>
+      <c r="AR26" s="114"/>
+      <c r="AS26" s="114"/>
+      <c r="AT26" s="114"/>
+      <c r="AU26" s="114"/>
+      <c r="AV26" s="114"/>
+      <c r="AW26" s="114"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="123"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="130"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="130"/>
-      <c r="AH27" s="130"/>
-      <c r="AI27" s="130"/>
-      <c r="AJ27" s="130"/>
-      <c r="AK27" s="130"/>
-      <c r="AL27" s="130"/>
-      <c r="AM27" s="130"/>
-      <c r="AN27" s="123"/>
-      <c r="AO27" s="123"/>
-      <c r="AP27" s="123"/>
-      <c r="AQ27" s="123"/>
-      <c r="AR27" s="123"/>
-      <c r="AS27" s="123"/>
-      <c r="AT27" s="123"/>
-      <c r="AU27" s="123"/>
-      <c r="AV27" s="123"/>
-      <c r="AW27" s="123"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+      <c r="AC27" s="120"/>
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="120"/>
+      <c r="AH27" s="120"/>
+      <c r="AI27" s="120"/>
+      <c r="AJ27" s="120"/>
+      <c r="AK27" s="120"/>
+      <c r="AL27" s="120"/>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="114"/>
+      <c r="AO27" s="114"/>
+      <c r="AP27" s="114"/>
+      <c r="AQ27" s="114"/>
+      <c r="AR27" s="114"/>
+      <c r="AS27" s="114"/>
+      <c r="AT27" s="114"/>
+      <c r="AU27" s="114"/>
+      <c r="AV27" s="114"/>
+      <c r="AW27" s="114"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="130"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="130"/>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="130"/>
-      <c r="AH28" s="130"/>
-      <c r="AI28" s="130"/>
-      <c r="AJ28" s="130"/>
-      <c r="AK28" s="130"/>
-      <c r="AL28" s="130"/>
-      <c r="AM28" s="130"/>
-      <c r="AN28" s="123"/>
-      <c r="AO28" s="123"/>
-      <c r="AP28" s="123"/>
-      <c r="AQ28" s="123"/>
-      <c r="AR28" s="123"/>
-      <c r="AS28" s="123"/>
-      <c r="AT28" s="123"/>
-      <c r="AU28" s="123"/>
-      <c r="AV28" s="123"/>
-      <c r="AW28" s="123"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="120"/>
+      <c r="AA28" s="120"/>
+      <c r="AB28" s="120"/>
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="120"/>
+      <c r="AH28" s="120"/>
+      <c r="AI28" s="120"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="120"/>
+      <c r="AL28" s="120"/>
+      <c r="AM28" s="120"/>
+      <c r="AN28" s="114"/>
+      <c r="AO28" s="114"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="114"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="114"/>
+      <c r="AT28" s="114"/>
+      <c r="AU28" s="114"/>
+      <c r="AV28" s="114"/>
+      <c r="AW28" s="114"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="130"/>
-      <c r="AF29" s="130"/>
-      <c r="AG29" s="130"/>
-      <c r="AH29" s="130"/>
-      <c r="AI29" s="130"/>
-      <c r="AJ29" s="130"/>
-      <c r="AK29" s="130"/>
-      <c r="AL29" s="130"/>
-      <c r="AM29" s="130"/>
-      <c r="AN29" s="123"/>
-      <c r="AO29" s="123"/>
-      <c r="AP29" s="123"/>
-      <c r="AQ29" s="123"/>
-      <c r="AR29" s="123"/>
-      <c r="AS29" s="123"/>
-      <c r="AT29" s="123"/>
-      <c r="AU29" s="123"/>
-      <c r="AV29" s="123"/>
-      <c r="AW29" s="123"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="120"/>
+      <c r="AC29" s="120"/>
+      <c r="AD29" s="120"/>
+      <c r="AE29" s="120"/>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="120"/>
+      <c r="AH29" s="120"/>
+      <c r="AI29" s="120"/>
+      <c r="AJ29" s="120"/>
+      <c r="AK29" s="120"/>
+      <c r="AL29" s="120"/>
+      <c r="AM29" s="120"/>
+      <c r="AN29" s="114"/>
+      <c r="AO29" s="114"/>
+      <c r="AP29" s="114"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="114"/>
+      <c r="AU29" s="114"/>
+      <c r="AV29" s="114"/>
+      <c r="AW29" s="114"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="130"/>
-      <c r="AI30" s="130"/>
-      <c r="AJ30" s="130"/>
-      <c r="AK30" s="130"/>
-      <c r="AL30" s="130"/>
-      <c r="AM30" s="130"/>
-      <c r="AN30" s="123"/>
-      <c r="AO30" s="123"/>
-      <c r="AP30" s="123"/>
-      <c r="AQ30" s="123"/>
-      <c r="AR30" s="123"/>
-      <c r="AS30" s="123"/>
-      <c r="AT30" s="123"/>
-      <c r="AU30" s="123"/>
-      <c r="AV30" s="123"/>
-      <c r="AW30" s="123"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="120"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="120"/>
+      <c r="AL30" s="120"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="114"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="130"/>
-      <c r="AH31" s="130"/>
-      <c r="AI31" s="130"/>
-      <c r="AJ31" s="130"/>
-      <c r="AK31" s="130"/>
-      <c r="AL31" s="130"/>
-      <c r="AM31" s="130"/>
-      <c r="AN31" s="123"/>
-      <c r="AO31" s="123"/>
-      <c r="AP31" s="123"/>
-      <c r="AQ31" s="123"/>
-      <c r="AR31" s="123"/>
-      <c r="AS31" s="123"/>
-      <c r="AT31" s="123"/>
-      <c r="AU31" s="123"/>
-      <c r="AV31" s="123"/>
-      <c r="AW31" s="123"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="120"/>
+      <c r="Z31" s="120"/>
+      <c r="AA31" s="120"/>
+      <c r="AB31" s="120"/>
+      <c r="AC31" s="120"/>
+      <c r="AD31" s="120"/>
+      <c r="AE31" s="120"/>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="120"/>
+      <c r="AH31" s="120"/>
+      <c r="AI31" s="120"/>
+      <c r="AJ31" s="120"/>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="120"/>
+      <c r="AM31" s="120"/>
+      <c r="AN31" s="114"/>
+      <c r="AO31" s="114"/>
+      <c r="AP31" s="114"/>
+      <c r="AQ31" s="114"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="114"/>
+      <c r="AU31" s="114"/>
+      <c r="AV31" s="114"/>
+      <c r="AW31" s="114"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="129"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="130"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="130"/>
-      <c r="AF32" s="130"/>
-      <c r="AG32" s="130"/>
-      <c r="AH32" s="130"/>
-      <c r="AI32" s="130"/>
-      <c r="AJ32" s="130"/>
-      <c r="AK32" s="130"/>
-      <c r="AL32" s="130"/>
-      <c r="AM32" s="130"/>
-      <c r="AN32" s="123"/>
-      <c r="AO32" s="123"/>
-      <c r="AP32" s="123"/>
-      <c r="AQ32" s="123"/>
-      <c r="AR32" s="123"/>
-      <c r="AS32" s="123"/>
-      <c r="AT32" s="123"/>
-      <c r="AU32" s="123"/>
-      <c r="AV32" s="123"/>
-      <c r="AW32" s="123"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="120"/>
+      <c r="AB32" s="120"/>
+      <c r="AC32" s="120"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="120"/>
+      <c r="AM32" s="120"/>
+      <c r="AN32" s="114"/>
+      <c r="AO32" s="114"/>
+      <c r="AP32" s="114"/>
+      <c r="AQ32" s="114"/>
+      <c r="AR32" s="114"/>
+      <c r="AS32" s="114"/>
+      <c r="AT32" s="114"/>
+      <c r="AU32" s="114"/>
+      <c r="AV32" s="114"/>
+      <c r="AW32" s="114"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="129"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="130"/>
-      <c r="AC33" s="130"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="130"/>
-      <c r="AF33" s="130"/>
-      <c r="AG33" s="130"/>
-      <c r="AH33" s="130"/>
-      <c r="AI33" s="130"/>
-      <c r="AJ33" s="130"/>
-      <c r="AK33" s="130"/>
-      <c r="AL33" s="130"/>
-      <c r="AM33" s="130"/>
-      <c r="AN33" s="123"/>
-      <c r="AO33" s="123"/>
-      <c r="AP33" s="123"/>
-      <c r="AQ33" s="123"/>
-      <c r="AR33" s="123"/>
-      <c r="AS33" s="123"/>
-      <c r="AT33" s="123"/>
-      <c r="AU33" s="123"/>
-      <c r="AV33" s="123"/>
-      <c r="AW33" s="123"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="120"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="120"/>
+      <c r="AB33" s="120"/>
+      <c r="AC33" s="120"/>
+      <c r="AD33" s="120"/>
+      <c r="AE33" s="120"/>
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="120"/>
+      <c r="AH33" s="120"/>
+      <c r="AI33" s="120"/>
+      <c r="AJ33" s="120"/>
+      <c r="AK33" s="120"/>
+      <c r="AL33" s="120"/>
+      <c r="AM33" s="120"/>
+      <c r="AN33" s="114"/>
+      <c r="AO33" s="114"/>
+      <c r="AP33" s="114"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="137"/>
-      <c r="O34" s="137"/>
-      <c r="P34" s="137"/>
-      <c r="Q34" s="137"/>
-      <c r="R34" s="137"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="123"/>
-      <c r="U34" s="123"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="130"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="130"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="130"/>
-      <c r="AF34" s="130"/>
-      <c r="AG34" s="130"/>
-      <c r="AH34" s="130"/>
-      <c r="AI34" s="130"/>
-      <c r="AJ34" s="130"/>
-      <c r="AK34" s="130"/>
-      <c r="AL34" s="130"/>
-      <c r="AM34" s="130"/>
-      <c r="AN34" s="123"/>
-      <c r="AO34" s="123"/>
-      <c r="AP34" s="123"/>
-      <c r="AQ34" s="123"/>
-      <c r="AR34" s="123"/>
-      <c r="AS34" s="123"/>
-      <c r="AT34" s="123"/>
-      <c r="AU34" s="123"/>
-      <c r="AV34" s="123"/>
-      <c r="AW34" s="123"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="120"/>
+      <c r="AD34" s="120"/>
+      <c r="AE34" s="120"/>
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="120"/>
+      <c r="AH34" s="120"/>
+      <c r="AI34" s="120"/>
+      <c r="AJ34" s="120"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="120"/>
+      <c r="AM34" s="120"/>
+      <c r="AN34" s="114"/>
+      <c r="AO34" s="114"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6011,239 +6252,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6324,14 +6332,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="145">
+      <c r="AO1" s="146">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AP1" s="146"/>
-      <c r="AQ1" s="146"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="148"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6340,17 +6348,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="142" t="str">
+      <c r="AZ1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="143"/>
-      <c r="BB1" s="143"/>
-      <c r="BC1" s="143"/>
-      <c r="BD1" s="143"/>
-      <c r="BE1" s="143"/>
-      <c r="BF1" s="143"/>
-      <c r="BG1" s="144"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="140"/>
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="140"/>
+      <c r="BG1" s="141"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6403,11 +6411,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="145"/>
-      <c r="AP2" s="146"/>
-      <c r="AQ2" s="146"/>
-      <c r="AR2" s="146"/>
-      <c r="AS2" s="147"/>
+      <c r="AO2" s="146"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="148"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6416,14 +6424,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="143"/>
-      <c r="BB2" s="143"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="143"/>
-      <c r="BE2" s="143"/>
-      <c r="BF2" s="143"/>
-      <c r="BG2" s="144"/>
+      <c r="AZ2" s="139"/>
+      <c r="BA2" s="140"/>
+      <c r="BB2" s="140"/>
+      <c r="BC2" s="140"/>
+      <c r="BD2" s="140"/>
+      <c r="BE2" s="140"/>
+      <c r="BF2" s="140"/>
+      <c r="BG2" s="141"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7645,10 +7653,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="149"/>
+      <c r="C41" s="150"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7731,10 +7739,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="140">
+      <c r="B42" s="144">
         <v>1</v>
       </c>
-      <c r="C42" s="141"/>
+      <c r="C42" s="145"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7766,16 +7774,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="138" t="s">
+      <c r="AE42" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="139"/>
-      <c r="AG42" s="138"/>
-      <c r="AH42" s="139"/>
-      <c r="AI42" s="138"/>
-      <c r="AJ42" s="139"/>
-      <c r="AK42" s="138"/>
-      <c r="AL42" s="139"/>
+      <c r="AF42" s="143"/>
+      <c r="AG42" s="142"/>
+      <c r="AH42" s="143"/>
+      <c r="AI42" s="142"/>
+      <c r="AJ42" s="143"/>
+      <c r="AK42" s="142"/>
+      <c r="AL42" s="143"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7809,10 +7817,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="140">
+      <c r="B43" s="144">
         <v>2</v>
       </c>
-      <c r="C43" s="141"/>
+      <c r="C43" s="145"/>
       <c r="D43" s="104" t="s">
         <v>94</v>
       </c>
@@ -7844,16 +7852,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="105"/>
-      <c r="AE43" s="138" t="s">
+      <c r="AE43" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="139"/>
-      <c r="AG43" s="138"/>
-      <c r="AH43" s="139"/>
-      <c r="AI43" s="138"/>
-      <c r="AJ43" s="139"/>
-      <c r="AK43" s="138"/>
-      <c r="AL43" s="139"/>
+      <c r="AF43" s="143"/>
+      <c r="AG43" s="142"/>
+      <c r="AH43" s="143"/>
+      <c r="AI43" s="142"/>
+      <c r="AJ43" s="143"/>
+      <c r="AK43" s="142"/>
+      <c r="AL43" s="143"/>
       <c r="AM43" s="83" t="s">
         <v>150</v>
       </c>
@@ -7887,10 +7895,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="140">
+      <c r="B44" s="144">
         <v>3</v>
       </c>
-      <c r="C44" s="141"/>
+      <c r="C44" s="145"/>
       <c r="D44" s="93" t="s">
         <v>94</v>
       </c>
@@ -7922,16 +7930,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="138" t="s">
+      <c r="AE44" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="139"/>
-      <c r="AG44" s="138"/>
-      <c r="AH44" s="139"/>
-      <c r="AI44" s="138"/>
-      <c r="AJ44" s="139"/>
-      <c r="AK44" s="138"/>
-      <c r="AL44" s="139"/>
+      <c r="AF44" s="143"/>
+      <c r="AG44" s="142"/>
+      <c r="AH44" s="143"/>
+      <c r="AI44" s="142"/>
+      <c r="AJ44" s="143"/>
+      <c r="AK44" s="142"/>
+      <c r="AL44" s="143"/>
       <c r="AM44" s="83" t="s">
         <v>128</v>
       </c>
@@ -7965,10 +7973,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="140">
+      <c r="B45" s="144">
         <v>4</v>
       </c>
-      <c r="C45" s="141"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="82" t="s">
         <v>103</v>
       </c>
@@ -8000,16 +8008,16 @@
       <c r="AB45" s="86"/>
       <c r="AC45" s="86"/>
       <c r="AD45" s="87"/>
-      <c r="AE45" s="138" t="s">
+      <c r="AE45" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF45" s="139"/>
-      <c r="AG45" s="138"/>
-      <c r="AH45" s="139"/>
-      <c r="AI45" s="138"/>
-      <c r="AJ45" s="139"/>
-      <c r="AK45" s="138"/>
-      <c r="AL45" s="139"/>
+      <c r="AF45" s="143"/>
+      <c r="AG45" s="142"/>
+      <c r="AH45" s="143"/>
+      <c r="AI45" s="142"/>
+      <c r="AJ45" s="143"/>
+      <c r="AK45" s="142"/>
+      <c r="AL45" s="143"/>
       <c r="AM45" s="83" t="s">
         <v>104</v>
       </c>
@@ -8048,6 +8056,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK45:AL45"/>
@@ -8064,15 +8081,6 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8196,20 +8204,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="145">
+      <c r="CD1" s="146">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="CE1" s="152"/>
-      <c r="CF1" s="152"/>
-      <c r="CG1" s="152"/>
-      <c r="CH1" s="152"/>
-      <c r="CI1" s="152"/>
-      <c r="CJ1" s="152"/>
-      <c r="CK1" s="152"/>
-      <c r="CL1" s="152"/>
-      <c r="CM1" s="152"/>
-      <c r="CN1" s="153"/>
+      <c r="CE1" s="153"/>
+      <c r="CF1" s="153"/>
+      <c r="CG1" s="153"/>
+      <c r="CH1" s="153"/>
+      <c r="CI1" s="153"/>
+      <c r="CJ1" s="153"/>
+      <c r="CK1" s="153"/>
+      <c r="CL1" s="153"/>
+      <c r="CM1" s="153"/>
+      <c r="CN1" s="154"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8218,23 +8226,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="142" t="str">
+      <c r="CU1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="150"/>
-      <c r="CW1" s="150"/>
-      <c r="CX1" s="150"/>
-      <c r="CY1" s="150"/>
-      <c r="CZ1" s="150"/>
-      <c r="DA1" s="150"/>
-      <c r="DB1" s="150"/>
-      <c r="DC1" s="150"/>
-      <c r="DD1" s="150"/>
-      <c r="DE1" s="150"/>
-      <c r="DF1" s="150"/>
-      <c r="DG1" s="150"/>
-      <c r="DH1" s="151"/>
+      <c r="CV1" s="151"/>
+      <c r="CW1" s="151"/>
+      <c r="CX1" s="151"/>
+      <c r="CY1" s="151"/>
+      <c r="CZ1" s="151"/>
+      <c r="DA1" s="151"/>
+      <c r="DB1" s="151"/>
+      <c r="DC1" s="151"/>
+      <c r="DD1" s="151"/>
+      <c r="DE1" s="151"/>
+      <c r="DF1" s="151"/>
+      <c r="DG1" s="151"/>
+      <c r="DH1" s="152"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8289,39 +8297,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="155" t="str">
+      <c r="AT2" s="156" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="AU2" s="152"/>
-      <c r="AV2" s="152"/>
-      <c r="AW2" s="152"/>
-      <c r="AX2" s="152"/>
-      <c r="AY2" s="152"/>
-      <c r="AZ2" s="152"/>
-      <c r="BA2" s="152"/>
-      <c r="BB2" s="152"/>
-      <c r="BC2" s="152"/>
-      <c r="BD2" s="152"/>
-      <c r="BE2" s="152"/>
-      <c r="BF2" s="152"/>
-      <c r="BG2" s="152"/>
-      <c r="BH2" s="152"/>
-      <c r="BI2" s="152"/>
-      <c r="BJ2" s="152"/>
-      <c r="BK2" s="152"/>
-      <c r="BL2" s="152"/>
-      <c r="BM2" s="152"/>
-      <c r="BN2" s="152"/>
-      <c r="BO2" s="152"/>
-      <c r="BP2" s="152"/>
-      <c r="BQ2" s="152"/>
-      <c r="BR2" s="152"/>
-      <c r="BS2" s="152"/>
-      <c r="BT2" s="152"/>
-      <c r="BU2" s="152"/>
-      <c r="BV2" s="152"/>
-      <c r="BW2" s="153"/>
+      <c r="AU2" s="153"/>
+      <c r="AV2" s="153"/>
+      <c r="AW2" s="153"/>
+      <c r="AX2" s="153"/>
+      <c r="AY2" s="153"/>
+      <c r="AZ2" s="153"/>
+      <c r="BA2" s="153"/>
+      <c r="BB2" s="153"/>
+      <c r="BC2" s="153"/>
+      <c r="BD2" s="153"/>
+      <c r="BE2" s="153"/>
+      <c r="BF2" s="153"/>
+      <c r="BG2" s="153"/>
+      <c r="BH2" s="153"/>
+      <c r="BI2" s="153"/>
+      <c r="BJ2" s="153"/>
+      <c r="BK2" s="153"/>
+      <c r="BL2" s="153"/>
+      <c r="BM2" s="153"/>
+      <c r="BN2" s="153"/>
+      <c r="BO2" s="153"/>
+      <c r="BP2" s="153"/>
+      <c r="BQ2" s="153"/>
+      <c r="BR2" s="153"/>
+      <c r="BS2" s="153"/>
+      <c r="BT2" s="153"/>
+      <c r="BU2" s="153"/>
+      <c r="BV2" s="153"/>
+      <c r="BW2" s="154"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -8330,17 +8338,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="154"/>
-      <c r="CE2" s="150"/>
-      <c r="CF2" s="150"/>
-      <c r="CG2" s="150"/>
-      <c r="CH2" s="150"/>
-      <c r="CI2" s="150"/>
-      <c r="CJ2" s="150"/>
-      <c r="CK2" s="150"/>
-      <c r="CL2" s="150"/>
-      <c r="CM2" s="150"/>
-      <c r="CN2" s="151"/>
+      <c r="CD2" s="155"/>
+      <c r="CE2" s="151"/>
+      <c r="CF2" s="151"/>
+      <c r="CG2" s="151"/>
+      <c r="CH2" s="151"/>
+      <c r="CI2" s="151"/>
+      <c r="CJ2" s="151"/>
+      <c r="CK2" s="151"/>
+      <c r="CL2" s="151"/>
+      <c r="CM2" s="151"/>
+      <c r="CN2" s="152"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8349,20 +8357,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="142"/>
-      <c r="CV2" s="150"/>
-      <c r="CW2" s="150"/>
-      <c r="CX2" s="150"/>
-      <c r="CY2" s="150"/>
-      <c r="CZ2" s="150"/>
-      <c r="DA2" s="150"/>
-      <c r="DB2" s="150"/>
-      <c r="DC2" s="150"/>
-      <c r="DD2" s="150"/>
-      <c r="DE2" s="150"/>
-      <c r="DF2" s="150"/>
-      <c r="DG2" s="150"/>
-      <c r="DH2" s="151"/>
+      <c r="CU2" s="139"/>
+      <c r="CV2" s="151"/>
+      <c r="CW2" s="151"/>
+      <c r="CX2" s="151"/>
+      <c r="CY2" s="151"/>
+      <c r="CZ2" s="151"/>
+      <c r="DA2" s="151"/>
+      <c r="DB2" s="151"/>
+      <c r="DC2" s="151"/>
+      <c r="DD2" s="151"/>
+      <c r="DE2" s="151"/>
+      <c r="DF2" s="151"/>
+      <c r="DG2" s="151"/>
+      <c r="DH2" s="152"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -8565,37 +8573,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="115" t="s">
+      <c r="G6" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="115" t="s">
+      <c r="H6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="156" t="s">
+      <c r="I6" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="156" t="s">
+      <c r="J6" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="115" t="s">
+      <c r="K6" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="115" t="s">
+      <c r="L6" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="115" t="s">
+      <c r="M6" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8603,24 +8611,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="156" t="s">
+      <c r="Q6" s="159" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8630,7 +8638,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="156"/>
+      <c r="Q7" s="159"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8692,37 +8700,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="115" t="s">
+      <c r="G11" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="115" t="s">
+      <c r="H11" s="131" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="156" t="s">
+      <c r="J11" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="115" t="s">
+      <c r="K11" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="115" t="s">
+      <c r="L11" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="115" t="s">
+      <c r="M11" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8737,17 +8745,17 @@
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
       <c r="I12" s="158"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8872,37 +8880,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="115" t="s">
+      <c r="F18" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="115" t="s">
+      <c r="G18" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="115" t="s">
+      <c r="H18" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="156" t="s">
+      <c r="I18" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="156" t="s">
+      <c r="J18" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="115" t="s">
+      <c r="K18" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="115" t="s">
+      <c r="L18" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="115" t="s">
+      <c r="M18" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8910,24 +8918,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="156" t="s">
+      <c r="Q18" s="159" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8937,7 +8945,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="156"/>
+      <c r="Q19" s="159"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -9183,7 +9191,7 @@
       <c r="J25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="159" t="s">
+      <c r="K25" s="110" t="s">
         <v>206</v>
       </c>
       <c r="L25" s="7" t="s">
@@ -9232,6 +9240,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -9248,26 +9276,6 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9344,14 +9352,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="145">
+      <c r="AI1" s="146">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="152"/>
-      <c r="AM1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153"/>
+      <c r="AM1" s="154"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -9360,16 +9368,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="142" t="str">
+      <c r="AT1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="150"/>
-      <c r="AW1" s="150"/>
-      <c r="AX1" s="150"/>
-      <c r="AY1" s="150"/>
-      <c r="AZ1" s="151"/>
+      <c r="AU1" s="151"/>
+      <c r="AV1" s="151"/>
+      <c r="AW1" s="151"/>
+      <c r="AX1" s="151"/>
+      <c r="AY1" s="151"/>
+      <c r="AZ1" s="152"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -9397,32 +9405,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="155" t="str">
+      <c r="S2" s="156" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="153"/>
+      <c r="AD2" s="154"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="151"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="151"/>
+      <c r="AL2" s="151"/>
+      <c r="AM2" s="152"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -9431,13 +9439,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="150"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AY2" s="150"/>
-      <c r="AZ2" s="151"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="151"/>
+      <c r="AV2" s="151"/>
+      <c r="AW2" s="151"/>
+      <c r="AX2" s="151"/>
+      <c r="AY2" s="151"/>
+      <c r="AZ2" s="152"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -11636,14 +11644,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="145">
+      <c r="AI1" s="146">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="152"/>
-      <c r="AM1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153"/>
+      <c r="AM1" s="154"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -11652,16 +11660,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="142" t="str">
+      <c r="AT1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="150"/>
-      <c r="AW1" s="150"/>
-      <c r="AX1" s="150"/>
-      <c r="AY1" s="150"/>
-      <c r="AZ1" s="151"/>
+      <c r="AU1" s="151"/>
+      <c r="AV1" s="151"/>
+      <c r="AW1" s="151"/>
+      <c r="AX1" s="151"/>
+      <c r="AY1" s="151"/>
+      <c r="AZ1" s="152"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -11689,32 +11697,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="155" t="str">
+      <c r="S2" s="156" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="153"/>
+      <c r="AD2" s="154"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="151"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="151"/>
+      <c r="AL2" s="151"/>
+      <c r="AM2" s="152"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -11723,13 +11731,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="150"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AY2" s="150"/>
-      <c r="AZ2" s="151"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="151"/>
+      <c r="AV2" s="151"/>
+      <c r="AW2" s="151"/>
+      <c r="AX2" s="151"/>
+      <c r="AY2" s="151"/>
+      <c r="AZ2" s="152"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -12251,14 +12259,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="145">
+      <c r="AI1" s="146">
         <f>変更履歴!E5</f>
         <v>43725</v>
       </c>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="152"/>
-      <c r="AM1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153"/>
+      <c r="AM1" s="154"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -12267,16 +12275,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="142" t="str">
+      <c r="AT1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="150"/>
-      <c r="AW1" s="150"/>
-      <c r="AX1" s="150"/>
-      <c r="AY1" s="150"/>
-      <c r="AZ1" s="151"/>
+      <c r="AU1" s="151"/>
+      <c r="AV1" s="151"/>
+      <c r="AW1" s="151"/>
+      <c r="AX1" s="151"/>
+      <c r="AY1" s="151"/>
+      <c r="AZ1" s="152"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -12304,32 +12312,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="155" t="str">
+      <c r="S2" s="156" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程品種別集計</v>
       </c>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="153"/>
+      <c r="AD2" s="154"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="151"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="151"/>
+      <c r="AL2" s="151"/>
+      <c r="AM2" s="152"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -12338,13 +12346,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="150"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AY2" s="150"/>
-      <c r="AZ2" s="151"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="151"/>
+      <c r="AV2" s="151"/>
+      <c r="AW2" s="151"/>
+      <c r="AX2" s="151"/>
+      <c r="AY2" s="151"/>
+      <c r="AZ2" s="152"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -12658,9 +12666,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12822,19 +12833,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12858,9 +12865,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA9F0C5-C824-487D-A08F-E1FCFE031683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF737596-8C46-4095-B4EF-98E0A6BC9ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1216,9 +1216,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>YYYY/MM/DD</t>
-  </si>
-  <si>
     <t>パラメータ.対象年月</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1396,6 +1393,10 @@
   </si>
   <si>
     <t>###,##0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>YYYY/MM</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2215,6 +2216,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2227,64 +2258,46 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2295,18 +2308,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2340,13 +2341,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4239,1779 +4240,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="129"/>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="129"/>
-      <c r="AL1" s="129"/>
-      <c r="AM1" s="129"/>
-      <c r="AN1" s="129"/>
-      <c r="AO1" s="129"/>
-      <c r="AP1" s="129"/>
-      <c r="AQ1" s="129"/>
-      <c r="AR1" s="129"/>
-      <c r="AS1" s="129"/>
-      <c r="AT1" s="129"/>
-      <c r="AU1" s="129"/>
-      <c r="AV1" s="129"/>
-      <c r="AW1" s="129"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="114"/>
+      <c r="AP1" s="114"/>
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="114"/>
+      <c r="AT1" s="114"/>
+      <c r="AU1" s="114"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="114"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="130"/>
-      <c r="AO2" s="130"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="130"/>
-      <c r="AR2" s="130"/>
-      <c r="AS2" s="130"/>
-      <c r="AT2" s="130"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="130"/>
-      <c r="AW2" s="130"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="115"/>
+      <c r="AU2" s="115"/>
+      <c r="AV2" s="115"/>
+      <c r="AW2" s="115"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="133" t="s">
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="133" t="s">
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="131" t="s">
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131" t="s">
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="131"/>
-      <c r="AJ3" s="131"/>
-      <c r="AK3" s="131"/>
-      <c r="AL3" s="131"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="131" t="s">
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="131"/>
-      <c r="AP3" s="131"/>
-      <c r="AQ3" s="131"/>
-      <c r="AR3" s="131"/>
-      <c r="AS3" s="131" t="s">
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="131"/>
-      <c r="AU3" s="131"/>
-      <c r="AV3" s="131"/>
-      <c r="AW3" s="131"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="132"/>
-      <c r="AK4" s="132"/>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="132"/>
-      <c r="AO4" s="132"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="132"/>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="132"/>
-      <c r="AW4" s="132"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="115">
+      <c r="B5" s="125">
         <v>1</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116">
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126">
         <v>43725</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117" t="s">
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117" t="s">
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="114" t="s">
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="126" t="s">
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="126"/>
-      <c r="AN5" s="114" t="s">
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114"/>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
+      <c r="AO5" s="124"/>
+      <c r="AP5" s="124"/>
+      <c r="AQ5" s="124"/>
+      <c r="AR5" s="124"/>
+      <c r="AS5" s="124"/>
+      <c r="AT5" s="124"/>
+      <c r="AU5" s="124"/>
+      <c r="AV5" s="124"/>
+      <c r="AW5" s="124"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128"/>
       <c r="O6" s="128"/>
       <c r="P6" s="128"/>
       <c r="Q6" s="128"/>
       <c r="R6" s="128"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114"/>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114"/>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="124"/>
+      <c r="AO6" s="124"/>
+      <c r="AP6" s="124"/>
+      <c r="AQ6" s="124"/>
+      <c r="AR6" s="124"/>
+      <c r="AS6" s="124"/>
+      <c r="AT6" s="124"/>
+      <c r="AU6" s="124"/>
+      <c r="AV6" s="124"/>
+      <c r="AW6" s="124"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128"/>
       <c r="O7" s="128"/>
       <c r="P7" s="128"/>
       <c r="Q7" s="128"/>
       <c r="R7" s="128"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="126"/>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="114"/>
-      <c r="AO7" s="114"/>
-      <c r="AP7" s="114"/>
-      <c r="AQ7" s="114"/>
-      <c r="AR7" s="114"/>
-      <c r="AS7" s="114"/>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="114"/>
-      <c r="AV7" s="114"/>
-      <c r="AW7" s="114"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="129"/>
+      <c r="AM7" s="129"/>
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="124"/>
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="124"/>
+      <c r="AR7" s="124"/>
+      <c r="AS7" s="124"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="124"/>
+      <c r="AV7" s="124"/>
+      <c r="AW7" s="124"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128"/>
       <c r="O8" s="128"/>
       <c r="P8" s="128"/>
       <c r="Q8" s="128"/>
       <c r="R8" s="128"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="126"/>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="114"/>
-      <c r="AP8" s="114"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="114"/>
-      <c r="AS8" s="114"/>
-      <c r="AT8" s="114"/>
-      <c r="AU8" s="114"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="114"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="129"/>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="129"/>
+      <c r="AE8" s="129"/>
+      <c r="AF8" s="129"/>
+      <c r="AG8" s="129"/>
+      <c r="AH8" s="129"/>
+      <c r="AI8" s="129"/>
+      <c r="AJ8" s="129"/>
+      <c r="AK8" s="129"/>
+      <c r="AL8" s="129"/>
+      <c r="AM8" s="129"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="124"/>
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="128"/>
       <c r="N9" s="128"/>
       <c r="O9" s="128"/>
       <c r="P9" s="128"/>
       <c r="Q9" s="128"/>
       <c r="R9" s="128"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="126"/>
-      <c r="AM9" s="126"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="114"/>
-      <c r="AU9" s="114"/>
-      <c r="AV9" s="114"/>
-      <c r="AW9" s="114"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="129"/>
+      <c r="AJ9" s="129"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="124"/>
+      <c r="AR9" s="124"/>
+      <c r="AS9" s="124"/>
+      <c r="AT9" s="124"/>
+      <c r="AU9" s="124"/>
+      <c r="AV9" s="124"/>
+      <c r="AW9" s="124"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="128"/>
       <c r="N10" s="128"/>
       <c r="O10" s="128"/>
       <c r="P10" s="128"/>
       <c r="Q10" s="128"/>
       <c r="R10" s="128"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="126"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="114"/>
-      <c r="AR10" s="114"/>
-      <c r="AS10" s="114"/>
-      <c r="AT10" s="114"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="114"/>
-      <c r="AW10" s="114"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="129"/>
+      <c r="AJ10" s="129"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="129"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="124"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="124"/>
+      <c r="AR10" s="124"/>
+      <c r="AS10" s="124"/>
+      <c r="AT10" s="124"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="124"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="127"/>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="127"/>
-      <c r="AH11" s="127"/>
-      <c r="AI11" s="127"/>
-      <c r="AJ11" s="127"/>
-      <c r="AK11" s="127"/>
-      <c r="AL11" s="127"/>
-      <c r="AM11" s="127"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="114"/>
-      <c r="AP11" s="114"/>
-      <c r="AQ11" s="114"/>
-      <c r="AR11" s="114"/>
-      <c r="AS11" s="114"/>
-      <c r="AT11" s="114"/>
-      <c r="AU11" s="114"/>
-      <c r="AV11" s="114"/>
-      <c r="AW11" s="114"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="132"/>
+      <c r="AF11" s="132"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="132"/>
+      <c r="AK11" s="132"/>
+      <c r="AL11" s="132"/>
+      <c r="AM11" s="132"/>
+      <c r="AN11" s="124"/>
+      <c r="AO11" s="124"/>
+      <c r="AP11" s="124"/>
+      <c r="AQ11" s="124"/>
+      <c r="AR11" s="124"/>
+      <c r="AS11" s="124"/>
+      <c r="AT11" s="124"/>
+      <c r="AU11" s="124"/>
+      <c r="AV11" s="124"/>
+      <c r="AW11" s="124"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="120"/>
-      <c r="AJ12" s="120"/>
-      <c r="AK12" s="120"/>
-      <c r="AL12" s="120"/>
-      <c r="AM12" s="120"/>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="114"/>
-      <c r="AP12" s="114"/>
-      <c r="AQ12" s="114"/>
-      <c r="AR12" s="114"/>
-      <c r="AS12" s="114"/>
-      <c r="AT12" s="114"/>
-      <c r="AU12" s="114"/>
-      <c r="AV12" s="114"/>
-      <c r="AW12" s="114"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="131"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="131"/>
+      <c r="AH12" s="131"/>
+      <c r="AI12" s="131"/>
+      <c r="AJ12" s="131"/>
+      <c r="AK12" s="131"/>
+      <c r="AL12" s="131"/>
+      <c r="AM12" s="131"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="124"/>
+      <c r="AT12" s="124"/>
+      <c r="AU12" s="124"/>
+      <c r="AV12" s="124"/>
+      <c r="AW12" s="124"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="120"/>
-      <c r="AC13" s="120"/>
-      <c r="AD13" s="120"/>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="120"/>
-      <c r="AH13" s="120"/>
-      <c r="AI13" s="120"/>
-      <c r="AJ13" s="120"/>
-      <c r="AK13" s="120"/>
-      <c r="AL13" s="120"/>
-      <c r="AM13" s="120"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="114"/>
-      <c r="AT13" s="114"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="114"/>
-      <c r="AW13" s="114"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="131"/>
+      <c r="AE13" s="131"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="131"/>
+      <c r="AH13" s="131"/>
+      <c r="AI13" s="131"/>
+      <c r="AJ13" s="131"/>
+      <c r="AK13" s="131"/>
+      <c r="AL13" s="131"/>
+      <c r="AM13" s="131"/>
+      <c r="AN13" s="124"/>
+      <c r="AO13" s="124"/>
+      <c r="AP13" s="124"/>
+      <c r="AQ13" s="124"/>
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="124"/>
+      <c r="AT13" s="124"/>
+      <c r="AU13" s="124"/>
+      <c r="AV13" s="124"/>
+      <c r="AW13" s="124"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="114"/>
-      <c r="AO14" s="114"/>
-      <c r="AP14" s="114"/>
-      <c r="AQ14" s="114"/>
-      <c r="AR14" s="114"/>
-      <c r="AS14" s="114"/>
-      <c r="AT14" s="114"/>
-      <c r="AU14" s="114"/>
-      <c r="AV14" s="114"/>
-      <c r="AW14" s="114"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="129"/>
+      <c r="AB14" s="129"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="129"/>
+      <c r="AE14" s="129"/>
+      <c r="AF14" s="129"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="129"/>
+      <c r="AI14" s="129"/>
+      <c r="AJ14" s="129"/>
+      <c r="AK14" s="129"/>
+      <c r="AL14" s="129"/>
+      <c r="AM14" s="129"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="124"/>
+      <c r="AP14" s="124"/>
+      <c r="AQ14" s="124"/>
+      <c r="AR14" s="124"/>
+      <c r="AS14" s="124"/>
+      <c r="AT14" s="124"/>
+      <c r="AU14" s="124"/>
+      <c r="AV14" s="124"/>
+      <c r="AW14" s="124"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="120"/>
-      <c r="AD15" s="120"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="120"/>
-      <c r="AH15" s="120"/>
-      <c r="AI15" s="120"/>
-      <c r="AJ15" s="120"/>
-      <c r="AK15" s="120"/>
-      <c r="AL15" s="120"/>
-      <c r="AM15" s="120"/>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="114"/>
-      <c r="AP15" s="114"/>
-      <c r="AQ15" s="114"/>
-      <c r="AR15" s="114"/>
-      <c r="AS15" s="114"/>
-      <c r="AT15" s="114"/>
-      <c r="AU15" s="114"/>
-      <c r="AV15" s="114"/>
-      <c r="AW15" s="114"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
+      <c r="Z15" s="131"/>
+      <c r="AA15" s="131"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="131"/>
+      <c r="AD15" s="131"/>
+      <c r="AE15" s="131"/>
+      <c r="AF15" s="131"/>
+      <c r="AG15" s="131"/>
+      <c r="AH15" s="131"/>
+      <c r="AI15" s="131"/>
+      <c r="AJ15" s="131"/>
+      <c r="AK15" s="131"/>
+      <c r="AL15" s="131"/>
+      <c r="AM15" s="131"/>
+      <c r="AN15" s="124"/>
+      <c r="AO15" s="124"/>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="124"/>
+      <c r="AR15" s="124"/>
+      <c r="AS15" s="124"/>
+      <c r="AT15" s="124"/>
+      <c r="AU15" s="124"/>
+      <c r="AV15" s="124"/>
+      <c r="AW15" s="124"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120"/>
-      <c r="AB16" s="120"/>
-      <c r="AC16" s="120"/>
-      <c r="AD16" s="120"/>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="120"/>
-      <c r="AH16" s="120"/>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="120"/>
-      <c r="AK16" s="120"/>
-      <c r="AL16" s="120"/>
-      <c r="AM16" s="120"/>
-      <c r="AN16" s="114"/>
-      <c r="AO16" s="114"/>
-      <c r="AP16" s="114"/>
-      <c r="AQ16" s="114"/>
-      <c r="AR16" s="114"/>
-      <c r="AS16" s="114"/>
-      <c r="AT16" s="114"/>
-      <c r="AU16" s="114"/>
-      <c r="AV16" s="114"/>
-      <c r="AW16" s="114"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="131"/>
+      <c r="AF16" s="131"/>
+      <c r="AG16" s="131"/>
+      <c r="AH16" s="131"/>
+      <c r="AI16" s="131"/>
+      <c r="AJ16" s="131"/>
+      <c r="AK16" s="131"/>
+      <c r="AL16" s="131"/>
+      <c r="AM16" s="131"/>
+      <c r="AN16" s="124"/>
+      <c r="AO16" s="124"/>
+      <c r="AP16" s="124"/>
+      <c r="AQ16" s="124"/>
+      <c r="AR16" s="124"/>
+      <c r="AS16" s="124"/>
+      <c r="AT16" s="124"/>
+      <c r="AU16" s="124"/>
+      <c r="AV16" s="124"/>
+      <c r="AW16" s="124"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="120"/>
-      <c r="AC17" s="120"/>
-      <c r="AD17" s="120"/>
-      <c r="AE17" s="120"/>
-      <c r="AF17" s="120"/>
-      <c r="AG17" s="120"/>
-      <c r="AH17" s="120"/>
-      <c r="AI17" s="120"/>
-      <c r="AJ17" s="120"/>
-      <c r="AK17" s="120"/>
-      <c r="AL17" s="120"/>
-      <c r="AM17" s="120"/>
-      <c r="AN17" s="114"/>
-      <c r="AO17" s="114"/>
-      <c r="AP17" s="114"/>
-      <c r="AQ17" s="114"/>
-      <c r="AR17" s="114"/>
-      <c r="AS17" s="114"/>
-      <c r="AT17" s="114"/>
-      <c r="AU17" s="114"/>
-      <c r="AV17" s="114"/>
-      <c r="AW17" s="114"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="136"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="131"/>
+      <c r="AF17" s="131"/>
+      <c r="AG17" s="131"/>
+      <c r="AH17" s="131"/>
+      <c r="AI17" s="131"/>
+      <c r="AJ17" s="131"/>
+      <c r="AK17" s="131"/>
+      <c r="AL17" s="131"/>
+      <c r="AM17" s="131"/>
+      <c r="AN17" s="124"/>
+      <c r="AO17" s="124"/>
+      <c r="AP17" s="124"/>
+      <c r="AQ17" s="124"/>
+      <c r="AR17" s="124"/>
+      <c r="AS17" s="124"/>
+      <c r="AT17" s="124"/>
+      <c r="AU17" s="124"/>
+      <c r="AV17" s="124"/>
+      <c r="AW17" s="124"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="120"/>
-      <c r="AC18" s="120"/>
-      <c r="AD18" s="120"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="120"/>
-      <c r="AG18" s="120"/>
-      <c r="AH18" s="120"/>
-      <c r="AI18" s="120"/>
-      <c r="AJ18" s="120"/>
-      <c r="AK18" s="120"/>
-      <c r="AL18" s="120"/>
-      <c r="AM18" s="120"/>
-      <c r="AN18" s="114"/>
-      <c r="AO18" s="114"/>
-      <c r="AP18" s="114"/>
-      <c r="AQ18" s="114"/>
-      <c r="AR18" s="114"/>
-      <c r="AS18" s="114"/>
-      <c r="AT18" s="114"/>
-      <c r="AU18" s="114"/>
-      <c r="AV18" s="114"/>
-      <c r="AW18" s="114"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="131"/>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="131"/>
+      <c r="AH18" s="131"/>
+      <c r="AI18" s="131"/>
+      <c r="AJ18" s="131"/>
+      <c r="AK18" s="131"/>
+      <c r="AL18" s="131"/>
+      <c r="AM18" s="131"/>
+      <c r="AN18" s="124"/>
+      <c r="AO18" s="124"/>
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="124"/>
+      <c r="AS18" s="124"/>
+      <c r="AT18" s="124"/>
+      <c r="AU18" s="124"/>
+      <c r="AV18" s="124"/>
+      <c r="AW18" s="124"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="114"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="120"/>
-      <c r="AC19" s="120"/>
-      <c r="AD19" s="120"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="120"/>
-      <c r="AL19" s="120"/>
-      <c r="AM19" s="120"/>
-      <c r="AN19" s="114"/>
-      <c r="AO19" s="114"/>
-      <c r="AP19" s="114"/>
-      <c r="AQ19" s="114"/>
-      <c r="AR19" s="114"/>
-      <c r="AS19" s="114"/>
-      <c r="AT19" s="114"/>
-      <c r="AU19" s="114"/>
-      <c r="AV19" s="114"/>
-      <c r="AW19" s="114"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="131"/>
+      <c r="W19" s="131"/>
+      <c r="X19" s="131"/>
+      <c r="Y19" s="131"/>
+      <c r="Z19" s="131"/>
+      <c r="AA19" s="131"/>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="131"/>
+      <c r="AD19" s="131"/>
+      <c r="AE19" s="131"/>
+      <c r="AF19" s="131"/>
+      <c r="AG19" s="131"/>
+      <c r="AH19" s="131"/>
+      <c r="AI19" s="131"/>
+      <c r="AJ19" s="131"/>
+      <c r="AK19" s="131"/>
+      <c r="AL19" s="131"/>
+      <c r="AM19" s="131"/>
+      <c r="AN19" s="124"/>
+      <c r="AO19" s="124"/>
+      <c r="AP19" s="124"/>
+      <c r="AQ19" s="124"/>
+      <c r="AR19" s="124"/>
+      <c r="AS19" s="124"/>
+      <c r="AT19" s="124"/>
+      <c r="AU19" s="124"/>
+      <c r="AV19" s="124"/>
+      <c r="AW19" s="124"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="120"/>
-      <c r="AC20" s="120"/>
-      <c r="AD20" s="120"/>
-      <c r="AE20" s="120"/>
-      <c r="AF20" s="120"/>
-      <c r="AG20" s="120"/>
-      <c r="AH20" s="120"/>
-      <c r="AI20" s="120"/>
-      <c r="AJ20" s="120"/>
-      <c r="AK20" s="120"/>
-      <c r="AL20" s="120"/>
-      <c r="AM20" s="120"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="114"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="114"/>
-      <c r="AR20" s="114"/>
-      <c r="AS20" s="114"/>
-      <c r="AT20" s="114"/>
-      <c r="AU20" s="114"/>
-      <c r="AV20" s="114"/>
-      <c r="AW20" s="114"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="131"/>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="131"/>
+      <c r="AA20" s="131"/>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="131"/>
+      <c r="AD20" s="131"/>
+      <c r="AE20" s="131"/>
+      <c r="AF20" s="131"/>
+      <c r="AG20" s="131"/>
+      <c r="AH20" s="131"/>
+      <c r="AI20" s="131"/>
+      <c r="AJ20" s="131"/>
+      <c r="AK20" s="131"/>
+      <c r="AL20" s="131"/>
+      <c r="AM20" s="131"/>
+      <c r="AN20" s="124"/>
+      <c r="AO20" s="124"/>
+      <c r="AP20" s="124"/>
+      <c r="AQ20" s="124"/>
+      <c r="AR20" s="124"/>
+      <c r="AS20" s="124"/>
+      <c r="AT20" s="124"/>
+      <c r="AU20" s="124"/>
+      <c r="AV20" s="124"/>
+      <c r="AW20" s="124"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="120"/>
-      <c r="AC21" s="120"/>
-      <c r="AD21" s="120"/>
-      <c r="AE21" s="120"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="120"/>
-      <c r="AH21" s="120"/>
-      <c r="AI21" s="120"/>
-      <c r="AJ21" s="120"/>
-      <c r="AK21" s="120"/>
-      <c r="AL21" s="120"/>
-      <c r="AM21" s="120"/>
-      <c r="AN21" s="114"/>
-      <c r="AO21" s="114"/>
-      <c r="AP21" s="114"/>
-      <c r="AQ21" s="114"/>
-      <c r="AR21" s="114"/>
-      <c r="AS21" s="114"/>
-      <c r="AT21" s="114"/>
-      <c r="AU21" s="114"/>
-      <c r="AV21" s="114"/>
-      <c r="AW21" s="114"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="131"/>
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="131"/>
+      <c r="AH21" s="131"/>
+      <c r="AI21" s="131"/>
+      <c r="AJ21" s="131"/>
+      <c r="AK21" s="131"/>
+      <c r="AL21" s="131"/>
+      <c r="AM21" s="131"/>
+      <c r="AN21" s="124"/>
+      <c r="AO21" s="124"/>
+      <c r="AP21" s="124"/>
+      <c r="AQ21" s="124"/>
+      <c r="AR21" s="124"/>
+      <c r="AS21" s="124"/>
+      <c r="AT21" s="124"/>
+      <c r="AU21" s="124"/>
+      <c r="AV21" s="124"/>
+      <c r="AW21" s="124"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="120"/>
-      <c r="AC22" s="120"/>
-      <c r="AD22" s="120"/>
-      <c r="AE22" s="120"/>
-      <c r="AF22" s="120"/>
-      <c r="AG22" s="120"/>
-      <c r="AH22" s="120"/>
-      <c r="AI22" s="120"/>
-      <c r="AJ22" s="120"/>
-      <c r="AK22" s="120"/>
-      <c r="AL22" s="120"/>
-      <c r="AM22" s="120"/>
-      <c r="AN22" s="114"/>
-      <c r="AO22" s="114"/>
-      <c r="AP22" s="114"/>
-      <c r="AQ22" s="114"/>
-      <c r="AR22" s="114"/>
-      <c r="AS22" s="114"/>
-      <c r="AT22" s="114"/>
-      <c r="AU22" s="114"/>
-      <c r="AV22" s="114"/>
-      <c r="AW22" s="114"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="131"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="131"/>
+      <c r="AH22" s="131"/>
+      <c r="AI22" s="131"/>
+      <c r="AJ22" s="131"/>
+      <c r="AK22" s="131"/>
+      <c r="AL22" s="131"/>
+      <c r="AM22" s="131"/>
+      <c r="AN22" s="124"/>
+      <c r="AO22" s="124"/>
+      <c r="AP22" s="124"/>
+      <c r="AQ22" s="124"/>
+      <c r="AR22" s="124"/>
+      <c r="AS22" s="124"/>
+      <c r="AT22" s="124"/>
+      <c r="AU22" s="124"/>
+      <c r="AV22" s="124"/>
+      <c r="AW22" s="124"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="120"/>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="120"/>
-      <c r="AB23" s="120"/>
-      <c r="AC23" s="120"/>
-      <c r="AD23" s="120"/>
-      <c r="AE23" s="120"/>
-      <c r="AF23" s="120"/>
-      <c r="AG23" s="120"/>
-      <c r="AH23" s="120"/>
-      <c r="AI23" s="120"/>
-      <c r="AJ23" s="120"/>
-      <c r="AK23" s="120"/>
-      <c r="AL23" s="120"/>
-      <c r="AM23" s="120"/>
-      <c r="AN23" s="114"/>
-      <c r="AO23" s="114"/>
-      <c r="AP23" s="114"/>
-      <c r="AQ23" s="114"/>
-      <c r="AR23" s="114"/>
-      <c r="AS23" s="114"/>
-      <c r="AT23" s="114"/>
-      <c r="AU23" s="114"/>
-      <c r="AV23" s="114"/>
-      <c r="AW23" s="114"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="131"/>
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="131"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="131"/>
+      <c r="AD23" s="131"/>
+      <c r="AE23" s="131"/>
+      <c r="AF23" s="131"/>
+      <c r="AG23" s="131"/>
+      <c r="AH23" s="131"/>
+      <c r="AI23" s="131"/>
+      <c r="AJ23" s="131"/>
+      <c r="AK23" s="131"/>
+      <c r="AL23" s="131"/>
+      <c r="AM23" s="131"/>
+      <c r="AN23" s="124"/>
+      <c r="AO23" s="124"/>
+      <c r="AP23" s="124"/>
+      <c r="AQ23" s="124"/>
+      <c r="AR23" s="124"/>
+      <c r="AS23" s="124"/>
+      <c r="AT23" s="124"/>
+      <c r="AU23" s="124"/>
+      <c r="AV23" s="124"/>
+      <c r="AW23" s="124"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="120"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="120"/>
-      <c r="AK24" s="120"/>
-      <c r="AL24" s="120"/>
-      <c r="AM24" s="120"/>
-      <c r="AN24" s="114"/>
-      <c r="AO24" s="114"/>
-      <c r="AP24" s="114"/>
-      <c r="AQ24" s="114"/>
-      <c r="AR24" s="114"/>
-      <c r="AS24" s="114"/>
-      <c r="AT24" s="114"/>
-      <c r="AU24" s="114"/>
-      <c r="AV24" s="114"/>
-      <c r="AW24" s="114"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="131"/>
+      <c r="AD24" s="131"/>
+      <c r="AE24" s="131"/>
+      <c r="AF24" s="131"/>
+      <c r="AG24" s="131"/>
+      <c r="AH24" s="131"/>
+      <c r="AI24" s="131"/>
+      <c r="AJ24" s="131"/>
+      <c r="AK24" s="131"/>
+      <c r="AL24" s="131"/>
+      <c r="AM24" s="131"/>
+      <c r="AN24" s="124"/>
+      <c r="AO24" s="124"/>
+      <c r="AP24" s="124"/>
+      <c r="AQ24" s="124"/>
+      <c r="AR24" s="124"/>
+      <c r="AS24" s="124"/>
+      <c r="AT24" s="124"/>
+      <c r="AU24" s="124"/>
+      <c r="AV24" s="124"/>
+      <c r="AW24" s="124"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="120"/>
-      <c r="AC25" s="120"/>
-      <c r="AD25" s="120"/>
-      <c r="AE25" s="120"/>
-      <c r="AF25" s="120"/>
-      <c r="AG25" s="120"/>
-      <c r="AH25" s="120"/>
-      <c r="AI25" s="120"/>
-      <c r="AJ25" s="120"/>
-      <c r="AK25" s="120"/>
-      <c r="AL25" s="120"/>
-      <c r="AM25" s="120"/>
-      <c r="AN25" s="114"/>
-      <c r="AO25" s="114"/>
-      <c r="AP25" s="114"/>
-      <c r="AQ25" s="114"/>
-      <c r="AR25" s="114"/>
-      <c r="AS25" s="114"/>
-      <c r="AT25" s="114"/>
-      <c r="AU25" s="114"/>
-      <c r="AV25" s="114"/>
-      <c r="AW25" s="114"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="131"/>
+      <c r="AD25" s="131"/>
+      <c r="AE25" s="131"/>
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="131"/>
+      <c r="AH25" s="131"/>
+      <c r="AI25" s="131"/>
+      <c r="AJ25" s="131"/>
+      <c r="AK25" s="131"/>
+      <c r="AL25" s="131"/>
+      <c r="AM25" s="131"/>
+      <c r="AN25" s="124"/>
+      <c r="AO25" s="124"/>
+      <c r="AP25" s="124"/>
+      <c r="AQ25" s="124"/>
+      <c r="AR25" s="124"/>
+      <c r="AS25" s="124"/>
+      <c r="AT25" s="124"/>
+      <c r="AU25" s="124"/>
+      <c r="AV25" s="124"/>
+      <c r="AW25" s="124"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="120"/>
-      <c r="AC26" s="120"/>
-      <c r="AD26" s="120"/>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="120"/>
-      <c r="AH26" s="120"/>
-      <c r="AI26" s="120"/>
-      <c r="AJ26" s="120"/>
-      <c r="AK26" s="120"/>
-      <c r="AL26" s="120"/>
-      <c r="AM26" s="120"/>
-      <c r="AN26" s="114"/>
-      <c r="AO26" s="114"/>
-      <c r="AP26" s="114"/>
-      <c r="AQ26" s="114"/>
-      <c r="AR26" s="114"/>
-      <c r="AS26" s="114"/>
-      <c r="AT26" s="114"/>
-      <c r="AU26" s="114"/>
-      <c r="AV26" s="114"/>
-      <c r="AW26" s="114"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="124"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="131"/>
+      <c r="AD26" s="131"/>
+      <c r="AE26" s="131"/>
+      <c r="AF26" s="131"/>
+      <c r="AG26" s="131"/>
+      <c r="AH26" s="131"/>
+      <c r="AI26" s="131"/>
+      <c r="AJ26" s="131"/>
+      <c r="AK26" s="131"/>
+      <c r="AL26" s="131"/>
+      <c r="AM26" s="131"/>
+      <c r="AN26" s="124"/>
+      <c r="AO26" s="124"/>
+      <c r="AP26" s="124"/>
+      <c r="AQ26" s="124"/>
+      <c r="AR26" s="124"/>
+      <c r="AS26" s="124"/>
+      <c r="AT26" s="124"/>
+      <c r="AU26" s="124"/>
+      <c r="AV26" s="124"/>
+      <c r="AW26" s="124"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="120"/>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="120"/>
-      <c r="AH27" s="120"/>
-      <c r="AI27" s="120"/>
-      <c r="AJ27" s="120"/>
-      <c r="AK27" s="120"/>
-      <c r="AL27" s="120"/>
-      <c r="AM27" s="120"/>
-      <c r="AN27" s="114"/>
-      <c r="AO27" s="114"/>
-      <c r="AP27" s="114"/>
-      <c r="AQ27" s="114"/>
-      <c r="AR27" s="114"/>
-      <c r="AS27" s="114"/>
-      <c r="AT27" s="114"/>
-      <c r="AU27" s="114"/>
-      <c r="AV27" s="114"/>
-      <c r="AW27" s="114"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="124"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="131"/>
+      <c r="AD27" s="131"/>
+      <c r="AE27" s="131"/>
+      <c r="AF27" s="131"/>
+      <c r="AG27" s="131"/>
+      <c r="AH27" s="131"/>
+      <c r="AI27" s="131"/>
+      <c r="AJ27" s="131"/>
+      <c r="AK27" s="131"/>
+      <c r="AL27" s="131"/>
+      <c r="AM27" s="131"/>
+      <c r="AN27" s="124"/>
+      <c r="AO27" s="124"/>
+      <c r="AP27" s="124"/>
+      <c r="AQ27" s="124"/>
+      <c r="AR27" s="124"/>
+      <c r="AS27" s="124"/>
+      <c r="AT27" s="124"/>
+      <c r="AU27" s="124"/>
+      <c r="AV27" s="124"/>
+      <c r="AW27" s="124"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="120"/>
-      <c r="AB28" s="120"/>
-      <c r="AC28" s="120"/>
-      <c r="AD28" s="120"/>
-      <c r="AE28" s="120"/>
-      <c r="AF28" s="120"/>
-      <c r="AG28" s="120"/>
-      <c r="AH28" s="120"/>
-      <c r="AI28" s="120"/>
-      <c r="AJ28" s="120"/>
-      <c r="AK28" s="120"/>
-      <c r="AL28" s="120"/>
-      <c r="AM28" s="120"/>
-      <c r="AN28" s="114"/>
-      <c r="AO28" s="114"/>
-      <c r="AP28" s="114"/>
-      <c r="AQ28" s="114"/>
-      <c r="AR28" s="114"/>
-      <c r="AS28" s="114"/>
-      <c r="AT28" s="114"/>
-      <c r="AU28" s="114"/>
-      <c r="AV28" s="114"/>
-      <c r="AW28" s="114"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
+      <c r="X28" s="131"/>
+      <c r="Y28" s="131"/>
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131"/>
+      <c r="AB28" s="131"/>
+      <c r="AC28" s="131"/>
+      <c r="AD28" s="131"/>
+      <c r="AE28" s="131"/>
+      <c r="AF28" s="131"/>
+      <c r="AG28" s="131"/>
+      <c r="AH28" s="131"/>
+      <c r="AI28" s="131"/>
+      <c r="AJ28" s="131"/>
+      <c r="AK28" s="131"/>
+      <c r="AL28" s="131"/>
+      <c r="AM28" s="131"/>
+      <c r="AN28" s="124"/>
+      <c r="AO28" s="124"/>
+      <c r="AP28" s="124"/>
+      <c r="AQ28" s="124"/>
+      <c r="AR28" s="124"/>
+      <c r="AS28" s="124"/>
+      <c r="AT28" s="124"/>
+      <c r="AU28" s="124"/>
+      <c r="AV28" s="124"/>
+      <c r="AW28" s="124"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="120"/>
-      <c r="AC29" s="120"/>
-      <c r="AD29" s="120"/>
-      <c r="AE29" s="120"/>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="120"/>
-      <c r="AH29" s="120"/>
-      <c r="AI29" s="120"/>
-      <c r="AJ29" s="120"/>
-      <c r="AK29" s="120"/>
-      <c r="AL29" s="120"/>
-      <c r="AM29" s="120"/>
-      <c r="AN29" s="114"/>
-      <c r="AO29" s="114"/>
-      <c r="AP29" s="114"/>
-      <c r="AQ29" s="114"/>
-      <c r="AR29" s="114"/>
-      <c r="AS29" s="114"/>
-      <c r="AT29" s="114"/>
-      <c r="AU29" s="114"/>
-      <c r="AV29" s="114"/>
-      <c r="AW29" s="114"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="131"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="131"/>
+      <c r="Z29" s="131"/>
+      <c r="AA29" s="131"/>
+      <c r="AB29" s="131"/>
+      <c r="AC29" s="131"/>
+      <c r="AD29" s="131"/>
+      <c r="AE29" s="131"/>
+      <c r="AF29" s="131"/>
+      <c r="AG29" s="131"/>
+      <c r="AH29" s="131"/>
+      <c r="AI29" s="131"/>
+      <c r="AJ29" s="131"/>
+      <c r="AK29" s="131"/>
+      <c r="AL29" s="131"/>
+      <c r="AM29" s="131"/>
+      <c r="AN29" s="124"/>
+      <c r="AO29" s="124"/>
+      <c r="AP29" s="124"/>
+      <c r="AQ29" s="124"/>
+      <c r="AR29" s="124"/>
+      <c r="AS29" s="124"/>
+      <c r="AT29" s="124"/>
+      <c r="AU29" s="124"/>
+      <c r="AV29" s="124"/>
+      <c r="AW29" s="124"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="120"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="120"/>
-      <c r="AH30" s="120"/>
-      <c r="AI30" s="120"/>
-      <c r="AJ30" s="120"/>
-      <c r="AK30" s="120"/>
-      <c r="AL30" s="120"/>
-      <c r="AM30" s="120"/>
-      <c r="AN30" s="114"/>
-      <c r="AO30" s="114"/>
-      <c r="AP30" s="114"/>
-      <c r="AQ30" s="114"/>
-      <c r="AR30" s="114"/>
-      <c r="AS30" s="114"/>
-      <c r="AT30" s="114"/>
-      <c r="AU30" s="114"/>
-      <c r="AV30" s="114"/>
-      <c r="AW30" s="114"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+      <c r="X30" s="131"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="131"/>
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="131"/>
+      <c r="AD30" s="131"/>
+      <c r="AE30" s="131"/>
+      <c r="AF30" s="131"/>
+      <c r="AG30" s="131"/>
+      <c r="AH30" s="131"/>
+      <c r="AI30" s="131"/>
+      <c r="AJ30" s="131"/>
+      <c r="AK30" s="131"/>
+      <c r="AL30" s="131"/>
+      <c r="AM30" s="131"/>
+      <c r="AN30" s="124"/>
+      <c r="AO30" s="124"/>
+      <c r="AP30" s="124"/>
+      <c r="AQ30" s="124"/>
+      <c r="AR30" s="124"/>
+      <c r="AS30" s="124"/>
+      <c r="AT30" s="124"/>
+      <c r="AU30" s="124"/>
+      <c r="AV30" s="124"/>
+      <c r="AW30" s="124"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="120"/>
-      <c r="AC31" s="120"/>
-      <c r="AD31" s="120"/>
-      <c r="AE31" s="120"/>
-      <c r="AF31" s="120"/>
-      <c r="AG31" s="120"/>
-      <c r="AH31" s="120"/>
-      <c r="AI31" s="120"/>
-      <c r="AJ31" s="120"/>
-      <c r="AK31" s="120"/>
-      <c r="AL31" s="120"/>
-      <c r="AM31" s="120"/>
-      <c r="AN31" s="114"/>
-      <c r="AO31" s="114"/>
-      <c r="AP31" s="114"/>
-      <c r="AQ31" s="114"/>
-      <c r="AR31" s="114"/>
-      <c r="AS31" s="114"/>
-      <c r="AT31" s="114"/>
-      <c r="AU31" s="114"/>
-      <c r="AV31" s="114"/>
-      <c r="AW31" s="114"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="124"/>
+      <c r="U31" s="124"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="131"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="131"/>
+      <c r="AD31" s="131"/>
+      <c r="AE31" s="131"/>
+      <c r="AF31" s="131"/>
+      <c r="AG31" s="131"/>
+      <c r="AH31" s="131"/>
+      <c r="AI31" s="131"/>
+      <c r="AJ31" s="131"/>
+      <c r="AK31" s="131"/>
+      <c r="AL31" s="131"/>
+      <c r="AM31" s="131"/>
+      <c r="AN31" s="124"/>
+      <c r="AO31" s="124"/>
+      <c r="AP31" s="124"/>
+      <c r="AQ31" s="124"/>
+      <c r="AR31" s="124"/>
+      <c r="AS31" s="124"/>
+      <c r="AT31" s="124"/>
+      <c r="AU31" s="124"/>
+      <c r="AV31" s="124"/>
+      <c r="AW31" s="124"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="120"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="120"/>
-      <c r="AJ32" s="120"/>
-      <c r="AK32" s="120"/>
-      <c r="AL32" s="120"/>
-      <c r="AM32" s="120"/>
-      <c r="AN32" s="114"/>
-      <c r="AO32" s="114"/>
-      <c r="AP32" s="114"/>
-      <c r="AQ32" s="114"/>
-      <c r="AR32" s="114"/>
-      <c r="AS32" s="114"/>
-      <c r="AT32" s="114"/>
-      <c r="AU32" s="114"/>
-      <c r="AV32" s="114"/>
-      <c r="AW32" s="114"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="131"/>
+      <c r="AD32" s="131"/>
+      <c r="AE32" s="131"/>
+      <c r="AF32" s="131"/>
+      <c r="AG32" s="131"/>
+      <c r="AH32" s="131"/>
+      <c r="AI32" s="131"/>
+      <c r="AJ32" s="131"/>
+      <c r="AK32" s="131"/>
+      <c r="AL32" s="131"/>
+      <c r="AM32" s="131"/>
+      <c r="AN32" s="124"/>
+      <c r="AO32" s="124"/>
+      <c r="AP32" s="124"/>
+      <c r="AQ32" s="124"/>
+      <c r="AR32" s="124"/>
+      <c r="AS32" s="124"/>
+      <c r="AT32" s="124"/>
+      <c r="AU32" s="124"/>
+      <c r="AV32" s="124"/>
+      <c r="AW32" s="124"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="120"/>
-      <c r="AC33" s="120"/>
-      <c r="AD33" s="120"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="120"/>
-      <c r="AH33" s="120"/>
-      <c r="AI33" s="120"/>
-      <c r="AJ33" s="120"/>
-      <c r="AK33" s="120"/>
-      <c r="AL33" s="120"/>
-      <c r="AM33" s="120"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="114"/>
-      <c r="AP33" s="114"/>
-      <c r="AQ33" s="114"/>
-      <c r="AR33" s="114"/>
-      <c r="AS33" s="114"/>
-      <c r="AT33" s="114"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="114"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="130"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
+      <c r="AA33" s="131"/>
+      <c r="AB33" s="131"/>
+      <c r="AC33" s="131"/>
+      <c r="AD33" s="131"/>
+      <c r="AE33" s="131"/>
+      <c r="AF33" s="131"/>
+      <c r="AG33" s="131"/>
+      <c r="AH33" s="131"/>
+      <c r="AI33" s="131"/>
+      <c r="AJ33" s="131"/>
+      <c r="AK33" s="131"/>
+      <c r="AL33" s="131"/>
+      <c r="AM33" s="131"/>
+      <c r="AN33" s="124"/>
+      <c r="AO33" s="124"/>
+      <c r="AP33" s="124"/>
+      <c r="AQ33" s="124"/>
+      <c r="AR33" s="124"/>
+      <c r="AS33" s="124"/>
+      <c r="AT33" s="124"/>
+      <c r="AU33" s="124"/>
+      <c r="AV33" s="124"/>
+      <c r="AW33" s="124"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="120"/>
-      <c r="AH34" s="120"/>
-      <c r="AI34" s="120"/>
-      <c r="AJ34" s="120"/>
-      <c r="AK34" s="120"/>
-      <c r="AL34" s="120"/>
-      <c r="AM34" s="120"/>
-      <c r="AN34" s="114"/>
-      <c r="AO34" s="114"/>
-      <c r="AP34" s="114"/>
-      <c r="AQ34" s="114"/>
-      <c r="AR34" s="114"/>
-      <c r="AS34" s="114"/>
-      <c r="AT34" s="114"/>
-      <c r="AU34" s="114"/>
-      <c r="AV34" s="114"/>
-      <c r="AW34" s="114"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="137"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="138"/>
+      <c r="R34" s="138"/>
+      <c r="S34" s="124"/>
+      <c r="T34" s="124"/>
+      <c r="U34" s="124"/>
+      <c r="V34" s="131"/>
+      <c r="W34" s="131"/>
+      <c r="X34" s="131"/>
+      <c r="Y34" s="131"/>
+      <c r="Z34" s="131"/>
+      <c r="AA34" s="131"/>
+      <c r="AB34" s="131"/>
+      <c r="AC34" s="131"/>
+      <c r="AD34" s="131"/>
+      <c r="AE34" s="131"/>
+      <c r="AF34" s="131"/>
+      <c r="AG34" s="131"/>
+      <c r="AH34" s="131"/>
+      <c r="AI34" s="131"/>
+      <c r="AJ34" s="131"/>
+      <c r="AK34" s="131"/>
+      <c r="AL34" s="131"/>
+      <c r="AM34" s="131"/>
+      <c r="AN34" s="124"/>
+      <c r="AO34" s="124"/>
+      <c r="AP34" s="124"/>
+      <c r="AQ34" s="124"/>
+      <c r="AR34" s="124"/>
+      <c r="AS34" s="124"/>
+      <c r="AT34" s="124"/>
+      <c r="AU34" s="124"/>
+      <c r="AV34" s="124"/>
+      <c r="AW34" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -6028,230 +6244,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6348,17 +6349,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="139" t="str">
+      <c r="AZ1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="140"/>
-      <c r="BB1" s="140"/>
-      <c r="BC1" s="140"/>
-      <c r="BD1" s="140"/>
-      <c r="BE1" s="140"/>
-      <c r="BF1" s="140"/>
-      <c r="BG1" s="141"/>
+      <c r="BA1" s="144"/>
+      <c r="BB1" s="144"/>
+      <c r="BC1" s="144"/>
+      <c r="BD1" s="144"/>
+      <c r="BE1" s="144"/>
+      <c r="BF1" s="144"/>
+      <c r="BG1" s="145"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6424,14 +6425,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="139"/>
-      <c r="BA2" s="140"/>
-      <c r="BB2" s="140"/>
-      <c r="BC2" s="140"/>
-      <c r="BD2" s="140"/>
-      <c r="BE2" s="140"/>
-      <c r="BF2" s="140"/>
-      <c r="BG2" s="141"/>
+      <c r="AZ2" s="143"/>
+      <c r="BA2" s="144"/>
+      <c r="BB2" s="144"/>
+      <c r="BC2" s="144"/>
+      <c r="BD2" s="144"/>
+      <c r="BE2" s="144"/>
+      <c r="BF2" s="144"/>
+      <c r="BG2" s="145"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7739,10 +7740,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="144">
+      <c r="B42" s="141">
         <v>1</v>
       </c>
-      <c r="C42" s="145"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7774,16 +7775,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="142" t="s">
+      <c r="AE42" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="143"/>
-      <c r="AG42" s="142"/>
-      <c r="AH42" s="143"/>
-      <c r="AI42" s="142"/>
-      <c r="AJ42" s="143"/>
-      <c r="AK42" s="142"/>
-      <c r="AL42" s="143"/>
+      <c r="AF42" s="140"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="140"/>
+      <c r="AI42" s="139"/>
+      <c r="AJ42" s="140"/>
+      <c r="AK42" s="139"/>
+      <c r="AL42" s="140"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7817,10 +7818,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="144">
+      <c r="B43" s="141">
         <v>2</v>
       </c>
-      <c r="C43" s="145"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="104" t="s">
         <v>94</v>
       </c>
@@ -7852,16 +7853,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="105"/>
-      <c r="AE43" s="142" t="s">
+      <c r="AE43" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="143"/>
-      <c r="AG43" s="142"/>
-      <c r="AH43" s="143"/>
-      <c r="AI43" s="142"/>
-      <c r="AJ43" s="143"/>
-      <c r="AK43" s="142"/>
-      <c r="AL43" s="143"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="139"/>
+      <c r="AH43" s="140"/>
+      <c r="AI43" s="139"/>
+      <c r="AJ43" s="140"/>
+      <c r="AK43" s="139"/>
+      <c r="AL43" s="140"/>
       <c r="AM43" s="83" t="s">
         <v>150</v>
       </c>
@@ -7895,10 +7896,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="144">
+      <c r="B44" s="141">
         <v>3</v>
       </c>
-      <c r="C44" s="145"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="93" t="s">
         <v>94</v>
       </c>
@@ -7930,16 +7931,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="142" t="s">
+      <c r="AE44" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="143"/>
-      <c r="AG44" s="142"/>
-      <c r="AH44" s="143"/>
-      <c r="AI44" s="142"/>
-      <c r="AJ44" s="143"/>
-      <c r="AK44" s="142"/>
-      <c r="AL44" s="143"/>
+      <c r="AF44" s="140"/>
+      <c r="AG44" s="139"/>
+      <c r="AH44" s="140"/>
+      <c r="AI44" s="139"/>
+      <c r="AJ44" s="140"/>
+      <c r="AK44" s="139"/>
+      <c r="AL44" s="140"/>
       <c r="AM44" s="83" t="s">
         <v>128</v>
       </c>
@@ -7973,10 +7974,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="144">
+      <c r="B45" s="141">
         <v>4</v>
       </c>
-      <c r="C45" s="145"/>
+      <c r="C45" s="142"/>
       <c r="D45" s="82" t="s">
         <v>103</v>
       </c>
@@ -8008,16 +8009,16 @@
       <c r="AB45" s="86"/>
       <c r="AC45" s="86"/>
       <c r="AD45" s="87"/>
-      <c r="AE45" s="142" t="s">
+      <c r="AE45" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF45" s="143"/>
-      <c r="AG45" s="142"/>
-      <c r="AH45" s="143"/>
-      <c r="AI45" s="142"/>
-      <c r="AJ45" s="143"/>
-      <c r="AK45" s="142"/>
-      <c r="AL45" s="143"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="139"/>
+      <c r="AH45" s="140"/>
+      <c r="AI45" s="139"/>
+      <c r="AJ45" s="140"/>
+      <c r="AK45" s="139"/>
+      <c r="AL45" s="140"/>
       <c r="AM45" s="83" t="s">
         <v>104</v>
       </c>
@@ -8056,15 +8057,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK45:AL45"/>
@@ -8081,6 +8073,15 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8226,7 +8227,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="139" t="str">
+      <c r="CU1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8357,7 +8358,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="139"/>
+      <c r="CU2" s="143"/>
       <c r="CV2" s="151"/>
       <c r="CW2" s="151"/>
       <c r="CX2" s="151"/>
@@ -8573,37 +8574,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="131" t="s">
+      <c r="F6" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="159" t="s">
+      <c r="J6" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="131" t="s">
+      <c r="L6" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="131" t="s">
+      <c r="M6" s="116" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8611,24 +8612,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="159" t="s">
+      <c r="Q6" s="157" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8638,7 +8639,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="159"/>
+      <c r="Q7" s="157"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8653,7 +8654,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8700,37 +8701,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F11" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="157" t="s">
+      <c r="I11" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="159" t="s">
+      <c r="J11" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="131" t="s">
+      <c r="K11" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="131" t="s">
+      <c r="L11" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="131" t="s">
+      <c r="M11" s="116" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8738,24 +8739,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="157" t="s">
+      <c r="Q11" s="158" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8765,7 +8766,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="158"/>
+      <c r="Q12" s="159"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
@@ -8792,8 +8793,8 @@
       <c r="J13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>167</v>
+      <c r="K13" s="110" t="s">
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>34</v>
@@ -8808,7 +8809,7 @@
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>33</v>
@@ -8825,7 +8826,7 @@
         <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>165</v>
@@ -8855,7 +8856,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>33</v>
@@ -8880,37 +8881,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="D18" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="131" t="s">
+      <c r="F18" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="131" t="s">
+      <c r="H18" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="159" t="s">
+      <c r="I18" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="159" t="s">
+      <c r="J18" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="131" t="s">
+      <c r="K18" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="131" t="s">
+      <c r="L18" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="131" t="s">
+      <c r="M18" s="116" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8918,24 +8919,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="159" t="s">
+      <c r="Q18" s="157" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8945,7 +8946,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="159"/>
+      <c r="Q19" s="157"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -9177,7 +9178,7 @@
         <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" s="43" t="s">
         <v>42</v>
@@ -9192,7 +9193,7 @@
         <v>34</v>
       </c>
       <c r="K25" s="110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>34</v>
@@ -9240,26 +9241,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -9276,6 +9257,26 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9368,7 +9369,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="139" t="str">
+      <c r="AT1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9439,7 +9440,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="139"/>
+      <c r="AT2" s="143"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -9784,10 +9785,10 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="L11" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="94" t="s">
         <v>173</v>
-      </c>
-      <c r="M11" s="94" t="s">
-        <v>174</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
@@ -9867,7 +9868,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="94"/>
       <c r="N13" s="94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL13" s="94"/>
       <c r="AM13" s="94"/>
@@ -9883,7 +9884,7 @@
       <c r="L14" s="71"/>
       <c r="M14" s="94"/>
       <c r="N14" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL14" s="94"/>
       <c r="AM14" s="94"/>
@@ -9899,7 +9900,7 @@
       <c r="L15" s="71"/>
       <c r="M15" s="94"/>
       <c r="N15" s="94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL15" s="94"/>
       <c r="AM15" s="94"/>
@@ -9915,7 +9916,7 @@
       <c r="L16" s="71"/>
       <c r="M16" s="94"/>
       <c r="N16" s="94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL16" s="94"/>
       <c r="AM16" s="94"/>
@@ -9931,7 +9932,7 @@
       <c r="L17" s="71"/>
       <c r="M17" s="94"/>
       <c r="N17" s="94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL17" s="94"/>
       <c r="AM17" s="94"/>
@@ -9947,7 +9948,7 @@
       <c r="L18" s="71"/>
       <c r="M18" s="94"/>
       <c r="N18" s="94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL18" s="94"/>
       <c r="AM18" s="94"/>
@@ -9963,7 +9964,7 @@
       <c r="L19" s="71"/>
       <c r="M19" s="94"/>
       <c r="N19" s="94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL19" s="94"/>
       <c r="AM19" s="94"/>
@@ -9979,7 +9980,7 @@
       <c r="L20" s="71"/>
       <c r="M20" s="94"/>
       <c r="N20" s="94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL20" s="94"/>
       <c r="AM20" s="94"/>
@@ -9995,7 +9996,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="94"/>
       <c r="N21" s="94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL21" s="94"/>
       <c r="AM21" s="94"/>
@@ -10011,7 +10012,7 @@
       <c r="L22" s="71"/>
       <c r="M22" s="94"/>
       <c r="N22" s="94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL22" s="94"/>
       <c r="AM22" s="94"/>
@@ -10027,7 +10028,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="94"/>
       <c r="N23" s="94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL23" s="94"/>
       <c r="AM23" s="94"/>
@@ -10079,7 +10080,7 @@
       <c r="G25" s="71"/>
       <c r="L25" s="71"/>
       <c r="M25" s="94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N25" s="94"/>
       <c r="O25" s="94"/>
@@ -10118,7 +10119,7 @@
       <c r="G26" s="71"/>
       <c r="L26" s="71"/>
       <c r="N26" s="94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O26" s="94"/>
       <c r="P26" s="94"/>
@@ -10196,7 +10197,7 @@
       <c r="G28" s="71"/>
       <c r="K28" s="72"/>
       <c r="L28" s="109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M28" s="109"/>
       <c r="N28" s="109"/>
@@ -10259,7 +10260,7 @@
       <c r="G30" s="71"/>
       <c r="K30" s="72"/>
       <c r="N30" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O30" s="94"/>
       <c r="P30" s="94"/>
@@ -10319,7 +10320,7 @@
       <c r="G33" s="71"/>
       <c r="K33" s="72"/>
       <c r="N33" s="94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O33" s="94"/>
       <c r="P33" s="94"/>
@@ -10402,7 +10403,7 @@
       <c r="G36" s="71"/>
       <c r="K36" s="72"/>
       <c r="N36" s="94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O36" s="94"/>
       <c r="P36" s="94"/>
@@ -10422,7 +10423,7 @@
       <c r="G37" s="71"/>
       <c r="K37" s="72"/>
       <c r="N37" s="94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O37" s="94"/>
       <c r="P37" s="94"/>
@@ -10443,7 +10444,7 @@
       <c r="K38" s="72"/>
       <c r="N38" s="94"/>
       <c r="O38" s="94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P38" s="94"/>
       <c r="Q38" s="94"/>
@@ -10519,7 +10520,7 @@
       <c r="L40" s="23"/>
       <c r="N40" s="94"/>
       <c r="O40" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P40" s="94"/>
       <c r="Q40" s="94"/>
@@ -10570,7 +10571,7 @@
       <c r="M41" s="94"/>
       <c r="N41" s="94"/>
       <c r="O41" s="94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P41" s="94"/>
       <c r="Q41" s="94"/>
@@ -10625,7 +10626,7 @@
       <c r="M42" s="94"/>
       <c r="N42" s="94"/>
       <c r="O42" s="94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
@@ -10680,7 +10681,7 @@
       <c r="M43" s="94"/>
       <c r="N43" s="94"/>
       <c r="O43" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
@@ -10735,7 +10736,7 @@
       <c r="M44" s="94"/>
       <c r="N44" s="94"/>
       <c r="O44" s="94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P44" s="94"/>
       <c r="Q44" s="94"/>
@@ -10971,7 +10972,7 @@
       <c r="G49" s="71"/>
       <c r="K49" s="72"/>
       <c r="N49" s="94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O49" s="94"/>
       <c r="P49" s="94"/>
@@ -10985,7 +10986,7 @@
         <v>98</v>
       </c>
       <c r="Z49" s="107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA49" s="94"/>
       <c r="AB49" s="94"/>
@@ -10998,7 +10999,7 @@
       <c r="G50" s="71"/>
       <c r="K50" s="72"/>
       <c r="N50" s="94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O50" s="94"/>
       <c r="P50" s="94"/>
@@ -11026,7 +11027,7 @@
       <c r="K51" s="72"/>
       <c r="L51" s="103"/>
       <c r="N51" s="94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O51" s="94"/>
       <c r="P51" s="94"/>
@@ -11059,7 +11060,7 @@
       <c r="G52" s="71"/>
       <c r="K52" s="72"/>
       <c r="N52" s="94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O52" s="94"/>
       <c r="P52" s="94"/>
@@ -11089,7 +11090,7 @@
       <c r="G53" s="71"/>
       <c r="K53" s="72"/>
       <c r="N53" s="94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O53" s="94"/>
       <c r="P53" s="94"/>
@@ -11167,7 +11168,7 @@
       <c r="G56" s="71"/>
       <c r="L56" s="71"/>
       <c r="N56" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM56" s="94"/>
       <c r="AN56" s="94"/>
@@ -11301,7 +11302,7 @@
       <c r="K62" s="72"/>
       <c r="L62" s="23"/>
       <c r="N62" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AD62" s="23"/>
       <c r="AE62" s="23"/>
@@ -11660,7 +11661,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="139" t="str">
+      <c r="AT1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11731,7 +11732,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="139"/>
+      <c r="AT2" s="143"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -12275,7 +12276,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="139" t="str">
+      <c r="AT1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12346,7 +12347,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="139"/>
+      <c r="AT2" s="143"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -12666,12 +12667,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12833,15 +12831,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12865,10 +12867,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF737596-8C46-4095-B4EF-98E0A6BC9ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FEB05A7-64E2-41E5-B747-9D62943BA9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -971,10 +972,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>SC-K21C</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>工程品種別集計</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
@@ -1397,6 +1394,10 @@
   </si>
   <si>
     <t>YYYY/MM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>K-21C</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2216,6 +2217,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2246,46 +2288,14 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2299,15 +2309,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2341,13 +2342,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4240,1770 +4241,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="114"/>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="114"/>
-      <c r="AO1" s="114"/>
-      <c r="AP1" s="114"/>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="114"/>
-      <c r="AT1" s="114"/>
-      <c r="AU1" s="114"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="114"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="129"/>
+      <c r="AR1" s="129"/>
+      <c r="AS1" s="129"/>
+      <c r="AT1" s="129"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="115"/>
-      <c r="AT2" s="115"/>
-      <c r="AU2" s="115"/>
-      <c r="AV2" s="115"/>
-      <c r="AW2" s="115"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="118" t="s">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="119"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="118" t="s">
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="116" t="s">
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116" t="s">
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="116"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116" t="s">
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116" t="s">
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="131"/>
+      <c r="AS3" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="116"/>
-      <c r="AV3" s="116"/>
-      <c r="AW3" s="116"/>
+      <c r="AT3" s="131"/>
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="117"/>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="117"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="117"/>
-      <c r="AP4" s="117"/>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="117"/>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="117"/>
-      <c r="AU4" s="117"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="117"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="125">
+      <c r="B5" s="115">
         <v>1</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126">
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116">
         <v>43725</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127" t="s">
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127" t="s">
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="124" t="s">
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="129" t="s">
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="124" t="s">
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="124"/>
-      <c r="AP5" s="124"/>
-      <c r="AQ5" s="124"/>
-      <c r="AR5" s="124"/>
-      <c r="AS5" s="124"/>
-      <c r="AT5" s="124"/>
-      <c r="AU5" s="124"/>
-      <c r="AV5" s="124"/>
-      <c r="AW5" s="124"/>
+      <c r="AO5" s="114"/>
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="114"/>
+      <c r="AR5" s="114"/>
+      <c r="AS5" s="114"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="114"/>
+      <c r="AV5" s="114"/>
+      <c r="AW5" s="114"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128"/>
       <c r="O6" s="128"/>
       <c r="P6" s="128"/>
       <c r="Q6" s="128"/>
       <c r="R6" s="128"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="124"/>
-      <c r="AP6" s="124"/>
-      <c r="AQ6" s="124"/>
-      <c r="AR6" s="124"/>
-      <c r="AS6" s="124"/>
-      <c r="AT6" s="124"/>
-      <c r="AU6" s="124"/>
-      <c r="AV6" s="124"/>
-      <c r="AW6" s="124"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114"/>
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128"/>
       <c r="O7" s="128"/>
       <c r="P7" s="128"/>
       <c r="Q7" s="128"/>
       <c r="R7" s="128"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="124"/>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AS7" s="124"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="124"/>
-      <c r="AV7" s="124"/>
-      <c r="AW7" s="124"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="126"/>
+      <c r="AM7" s="126"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="114"/>
+      <c r="AP7" s="114"/>
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128"/>
       <c r="O8" s="128"/>
       <c r="P8" s="128"/>
       <c r="Q8" s="128"/>
       <c r="R8" s="128"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="129"/>
-      <c r="W8" s="129"/>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="129"/>
-      <c r="AC8" s="129"/>
-      <c r="AD8" s="129"/>
-      <c r="AE8" s="129"/>
-      <c r="AF8" s="129"/>
-      <c r="AG8" s="129"/>
-      <c r="AH8" s="129"/>
-      <c r="AI8" s="129"/>
-      <c r="AJ8" s="129"/>
-      <c r="AK8" s="129"/>
-      <c r="AL8" s="129"/>
-      <c r="AM8" s="129"/>
-      <c r="AN8" s="124"/>
-      <c r="AO8" s="124"/>
-      <c r="AP8" s="124"/>
-      <c r="AQ8" s="124"/>
-      <c r="AR8" s="124"/>
-      <c r="AS8" s="124"/>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="114"/>
+      <c r="AO8" s="114"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
       <c r="M9" s="128"/>
       <c r="N9" s="128"/>
       <c r="O9" s="128"/>
       <c r="P9" s="128"/>
       <c r="Q9" s="128"/>
       <c r="R9" s="128"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="129"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="129"/>
-      <c r="AJ9" s="129"/>
-      <c r="AK9" s="129"/>
-      <c r="AL9" s="129"/>
-      <c r="AM9" s="129"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="124"/>
-      <c r="AQ9" s="124"/>
-      <c r="AR9" s="124"/>
-      <c r="AS9" s="124"/>
-      <c r="AT9" s="124"/>
-      <c r="AU9" s="124"/>
-      <c r="AV9" s="124"/>
-      <c r="AW9" s="124"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="126"/>
+      <c r="AK9" s="126"/>
+      <c r="AL9" s="126"/>
+      <c r="AM9" s="126"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="114"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="128"/>
       <c r="N10" s="128"/>
       <c r="O10" s="128"/>
       <c r="P10" s="128"/>
       <c r="Q10" s="128"/>
       <c r="R10" s="128"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="129"/>
-      <c r="AJ10" s="129"/>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="129"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="124"/>
-      <c r="AO10" s="124"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="124"/>
-      <c r="AR10" s="124"/>
-      <c r="AS10" s="124"/>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="126"/>
+      <c r="AJ10" s="126"/>
+      <c r="AK10" s="126"/>
+      <c r="AL10" s="126"/>
+      <c r="AM10" s="126"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="132"/>
-      <c r="AJ11" s="132"/>
-      <c r="AK11" s="132"/>
-      <c r="AL11" s="132"/>
-      <c r="AM11" s="132"/>
-      <c r="AN11" s="124"/>
-      <c r="AO11" s="124"/>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="124"/>
-      <c r="AR11" s="124"/>
-      <c r="AS11" s="124"/>
-      <c r="AT11" s="124"/>
-      <c r="AU11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AW11" s="124"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="127"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="127"/>
+      <c r="AI11" s="127"/>
+      <c r="AJ11" s="127"/>
+      <c r="AK11" s="127"/>
+      <c r="AL11" s="127"/>
+      <c r="AM11" s="127"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="114"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="131"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="131"/>
-      <c r="AE12" s="131"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="131"/>
-      <c r="AJ12" s="131"/>
-      <c r="AK12" s="131"/>
-      <c r="AL12" s="131"/>
-      <c r="AM12" s="131"/>
-      <c r="AN12" s="124"/>
-      <c r="AO12" s="124"/>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="124"/>
-      <c r="AR12" s="124"/>
-      <c r="AS12" s="124"/>
-      <c r="AT12" s="124"/>
-      <c r="AU12" s="124"/>
-      <c r="AV12" s="124"/>
-      <c r="AW12" s="124"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="131"/>
-      <c r="AE13" s="131"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="131"/>
-      <c r="AJ13" s="131"/>
-      <c r="AK13" s="131"/>
-      <c r="AL13" s="131"/>
-      <c r="AM13" s="131"/>
-      <c r="AN13" s="124"/>
-      <c r="AO13" s="124"/>
-      <c r="AP13" s="124"/>
-      <c r="AQ13" s="124"/>
-      <c r="AR13" s="124"/>
-      <c r="AS13" s="124"/>
-      <c r="AT13" s="124"/>
-      <c r="AU13" s="124"/>
-      <c r="AV13" s="124"/>
-      <c r="AW13" s="124"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="120"/>
+      <c r="AC13" s="120"/>
+      <c r="AD13" s="120"/>
+      <c r="AE13" s="120"/>
+      <c r="AF13" s="120"/>
+      <c r="AG13" s="120"/>
+      <c r="AH13" s="120"/>
+      <c r="AI13" s="120"/>
+      <c r="AJ13" s="120"/>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="129"/>
-      <c r="Y14" s="129"/>
-      <c r="Z14" s="129"/>
-      <c r="AA14" s="129"/>
-      <c r="AB14" s="129"/>
-      <c r="AC14" s="129"/>
-      <c r="AD14" s="129"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="129"/>
-      <c r="AJ14" s="129"/>
-      <c r="AK14" s="129"/>
-      <c r="AL14" s="129"/>
-      <c r="AM14" s="129"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="124"/>
-      <c r="AP14" s="124"/>
-      <c r="AQ14" s="124"/>
-      <c r="AR14" s="124"/>
-      <c r="AS14" s="124"/>
-      <c r="AT14" s="124"/>
-      <c r="AU14" s="124"/>
-      <c r="AV14" s="124"/>
-      <c r="AW14" s="124"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="131"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="131"/>
-      <c r="AJ15" s="131"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="131"/>
-      <c r="AM15" s="131"/>
-      <c r="AN15" s="124"/>
-      <c r="AO15" s="124"/>
-      <c r="AP15" s="124"/>
-      <c r="AQ15" s="124"/>
-      <c r="AR15" s="124"/>
-      <c r="AS15" s="124"/>
-      <c r="AT15" s="124"/>
-      <c r="AU15" s="124"/>
-      <c r="AV15" s="124"/>
-      <c r="AW15" s="124"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="120"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="120"/>
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="120"/>
+      <c r="AH15" s="120"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="131"/>
-      <c r="AJ16" s="131"/>
-      <c r="AK16" s="131"/>
-      <c r="AL16" s="131"/>
-      <c r="AM16" s="131"/>
-      <c r="AN16" s="124"/>
-      <c r="AO16" s="124"/>
-      <c r="AP16" s="124"/>
-      <c r="AQ16" s="124"/>
-      <c r="AR16" s="124"/>
-      <c r="AS16" s="124"/>
-      <c r="AT16" s="124"/>
-      <c r="AU16" s="124"/>
-      <c r="AV16" s="124"/>
-      <c r="AW16" s="124"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="120"/>
+      <c r="AC16" s="120"/>
+      <c r="AD16" s="120"/>
+      <c r="AE16" s="120"/>
+      <c r="AF16" s="120"/>
+      <c r="AG16" s="120"/>
+      <c r="AH16" s="120"/>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="120"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
-      <c r="U17" s="136"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="131"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="131"/>
-      <c r="AJ17" s="131"/>
-      <c r="AK17" s="131"/>
-      <c r="AL17" s="131"/>
-      <c r="AM17" s="131"/>
-      <c r="AN17" s="124"/>
-      <c r="AO17" s="124"/>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="124"/>
-      <c r="AR17" s="124"/>
-      <c r="AS17" s="124"/>
-      <c r="AT17" s="124"/>
-      <c r="AU17" s="124"/>
-      <c r="AV17" s="124"/>
-      <c r="AW17" s="124"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="120"/>
+      <c r="AC17" s="120"/>
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="120"/>
+      <c r="AF17" s="120"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="120"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="120"/>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="114"/>
+      <c r="AO17" s="114"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="131"/>
-      <c r="AJ18" s="131"/>
-      <c r="AK18" s="131"/>
-      <c r="AL18" s="131"/>
-      <c r="AM18" s="131"/>
-      <c r="AN18" s="124"/>
-      <c r="AO18" s="124"/>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="124"/>
-      <c r="AR18" s="124"/>
-      <c r="AS18" s="124"/>
-      <c r="AT18" s="124"/>
-      <c r="AU18" s="124"/>
-      <c r="AV18" s="124"/>
-      <c r="AW18" s="124"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="120"/>
+      <c r="AC18" s="120"/>
+      <c r="AD18" s="120"/>
+      <c r="AE18" s="120"/>
+      <c r="AF18" s="120"/>
+      <c r="AG18" s="120"/>
+      <c r="AH18" s="120"/>
+      <c r="AI18" s="120"/>
+      <c r="AJ18" s="120"/>
+      <c r="AK18" s="120"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="120"/>
+      <c r="AN18" s="114"/>
+      <c r="AO18" s="114"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="131"/>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="131"/>
-      <c r="AD19" s="131"/>
-      <c r="AE19" s="131"/>
-      <c r="AF19" s="131"/>
-      <c r="AG19" s="131"/>
-      <c r="AH19" s="131"/>
-      <c r="AI19" s="131"/>
-      <c r="AJ19" s="131"/>
-      <c r="AK19" s="131"/>
-      <c r="AL19" s="131"/>
-      <c r="AM19" s="131"/>
-      <c r="AN19" s="124"/>
-      <c r="AO19" s="124"/>
-      <c r="AP19" s="124"/>
-      <c r="AQ19" s="124"/>
-      <c r="AR19" s="124"/>
-      <c r="AS19" s="124"/>
-      <c r="AT19" s="124"/>
-      <c r="AU19" s="124"/>
-      <c r="AV19" s="124"/>
-      <c r="AW19" s="124"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="120"/>
+      <c r="AC19" s="120"/>
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="120"/>
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="114"/>
+      <c r="AO19" s="114"/>
+      <c r="AP19" s="114"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="131"/>
-      <c r="AJ20" s="131"/>
-      <c r="AK20" s="131"/>
-      <c r="AL20" s="131"/>
-      <c r="AM20" s="131"/>
-      <c r="AN20" s="124"/>
-      <c r="AO20" s="124"/>
-      <c r="AP20" s="124"/>
-      <c r="AQ20" s="124"/>
-      <c r="AR20" s="124"/>
-      <c r="AS20" s="124"/>
-      <c r="AT20" s="124"/>
-      <c r="AU20" s="124"/>
-      <c r="AV20" s="124"/>
-      <c r="AW20" s="124"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="120"/>
+      <c r="AI20" s="120"/>
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
-      <c r="AI21" s="131"/>
-      <c r="AJ21" s="131"/>
-      <c r="AK21" s="131"/>
-      <c r="AL21" s="131"/>
-      <c r="AM21" s="131"/>
-      <c r="AN21" s="124"/>
-      <c r="AO21" s="124"/>
-      <c r="AP21" s="124"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="124"/>
-      <c r="AS21" s="124"/>
-      <c r="AT21" s="124"/>
-      <c r="AU21" s="124"/>
-      <c r="AV21" s="124"/>
-      <c r="AW21" s="124"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="120"/>
+      <c r="AH21" s="120"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="131"/>
-      <c r="AB22" s="131"/>
-      <c r="AC22" s="131"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="131"/>
-      <c r="AI22" s="131"/>
-      <c r="AJ22" s="131"/>
-      <c r="AK22" s="131"/>
-      <c r="AL22" s="131"/>
-      <c r="AM22" s="131"/>
-      <c r="AN22" s="124"/>
-      <c r="AO22" s="124"/>
-      <c r="AP22" s="124"/>
-      <c r="AQ22" s="124"/>
-      <c r="AR22" s="124"/>
-      <c r="AS22" s="124"/>
-      <c r="AT22" s="124"/>
-      <c r="AU22" s="124"/>
-      <c r="AV22" s="124"/>
-      <c r="AW22" s="124"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="120"/>
+      <c r="AH22" s="120"/>
+      <c r="AI22" s="120"/>
+      <c r="AJ22" s="120"/>
+      <c r="AK22" s="120"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="120"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="131"/>
-      <c r="AB23" s="131"/>
-      <c r="AC23" s="131"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="131"/>
-      <c r="AF23" s="131"/>
-      <c r="AG23" s="131"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="131"/>
-      <c r="AJ23" s="131"/>
-      <c r="AK23" s="131"/>
-      <c r="AL23" s="131"/>
-      <c r="AM23" s="131"/>
-      <c r="AN23" s="124"/>
-      <c r="AO23" s="124"/>
-      <c r="AP23" s="124"/>
-      <c r="AQ23" s="124"/>
-      <c r="AR23" s="124"/>
-      <c r="AS23" s="124"/>
-      <c r="AT23" s="124"/>
-      <c r="AU23" s="124"/>
-      <c r="AV23" s="124"/>
-      <c r="AW23" s="124"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="120"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="120"/>
+      <c r="AH23" s="120"/>
+      <c r="AI23" s="120"/>
+      <c r="AJ23" s="120"/>
+      <c r="AK23" s="120"/>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="120"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="131"/>
-      <c r="AC24" s="131"/>
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="131"/>
-      <c r="AH24" s="131"/>
-      <c r="AI24" s="131"/>
-      <c r="AJ24" s="131"/>
-      <c r="AK24" s="131"/>
-      <c r="AL24" s="131"/>
-      <c r="AM24" s="131"/>
-      <c r="AN24" s="124"/>
-      <c r="AO24" s="124"/>
-      <c r="AP24" s="124"/>
-      <c r="AQ24" s="124"/>
-      <c r="AR24" s="124"/>
-      <c r="AS24" s="124"/>
-      <c r="AT24" s="124"/>
-      <c r="AU24" s="124"/>
-      <c r="AV24" s="124"/>
-      <c r="AW24" s="124"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="114"/>
+      <c r="AO24" s="114"/>
+      <c r="AP24" s="114"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="114"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="114"/>
+      <c r="AV24" s="114"/>
+      <c r="AW24" s="114"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="131"/>
-      <c r="AC25" s="131"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="131"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="131"/>
-      <c r="AJ25" s="131"/>
-      <c r="AK25" s="131"/>
-      <c r="AL25" s="131"/>
-      <c r="AM25" s="131"/>
-      <c r="AN25" s="124"/>
-      <c r="AO25" s="124"/>
-      <c r="AP25" s="124"/>
-      <c r="AQ25" s="124"/>
-      <c r="AR25" s="124"/>
-      <c r="AS25" s="124"/>
-      <c r="AT25" s="124"/>
-      <c r="AU25" s="124"/>
-      <c r="AV25" s="124"/>
-      <c r="AW25" s="124"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="120"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="120"/>
+      <c r="AH25" s="120"/>
+      <c r="AI25" s="120"/>
+      <c r="AJ25" s="120"/>
+      <c r="AK25" s="120"/>
+      <c r="AL25" s="120"/>
+      <c r="AM25" s="120"/>
+      <c r="AN25" s="114"/>
+      <c r="AO25" s="114"/>
+      <c r="AP25" s="114"/>
+      <c r="AQ25" s="114"/>
+      <c r="AR25" s="114"/>
+      <c r="AS25" s="114"/>
+      <c r="AT25" s="114"/>
+      <c r="AU25" s="114"/>
+      <c r="AV25" s="114"/>
+      <c r="AW25" s="114"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="124"/>
-      <c r="T26" s="124"/>
-      <c r="U26" s="124"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="131"/>
-      <c r="AL26" s="131"/>
-      <c r="AM26" s="131"/>
-      <c r="AN26" s="124"/>
-      <c r="AO26" s="124"/>
-      <c r="AP26" s="124"/>
-      <c r="AQ26" s="124"/>
-      <c r="AR26" s="124"/>
-      <c r="AS26" s="124"/>
-      <c r="AT26" s="124"/>
-      <c r="AU26" s="124"/>
-      <c r="AV26" s="124"/>
-      <c r="AW26" s="124"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="120"/>
+      <c r="AH26" s="120"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="120"/>
+      <c r="AK26" s="120"/>
+      <c r="AL26" s="120"/>
+      <c r="AM26" s="120"/>
+      <c r="AN26" s="114"/>
+      <c r="AO26" s="114"/>
+      <c r="AP26" s="114"/>
+      <c r="AQ26" s="114"/>
+      <c r="AR26" s="114"/>
+      <c r="AS26" s="114"/>
+      <c r="AT26" s="114"/>
+      <c r="AU26" s="114"/>
+      <c r="AV26" s="114"/>
+      <c r="AW26" s="114"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="124"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="131"/>
-      <c r="AC27" s="131"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="131"/>
-      <c r="AF27" s="131"/>
-      <c r="AG27" s="131"/>
-      <c r="AH27" s="131"/>
-      <c r="AI27" s="131"/>
-      <c r="AJ27" s="131"/>
-      <c r="AK27" s="131"/>
-      <c r="AL27" s="131"/>
-      <c r="AM27" s="131"/>
-      <c r="AN27" s="124"/>
-      <c r="AO27" s="124"/>
-      <c r="AP27" s="124"/>
-      <c r="AQ27" s="124"/>
-      <c r="AR27" s="124"/>
-      <c r="AS27" s="124"/>
-      <c r="AT27" s="124"/>
-      <c r="AU27" s="124"/>
-      <c r="AV27" s="124"/>
-      <c r="AW27" s="124"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+      <c r="AC27" s="120"/>
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="120"/>
+      <c r="AH27" s="120"/>
+      <c r="AI27" s="120"/>
+      <c r="AJ27" s="120"/>
+      <c r="AK27" s="120"/>
+      <c r="AL27" s="120"/>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="114"/>
+      <c r="AO27" s="114"/>
+      <c r="AP27" s="114"/>
+      <c r="AQ27" s="114"/>
+      <c r="AR27" s="114"/>
+      <c r="AS27" s="114"/>
+      <c r="AT27" s="114"/>
+      <c r="AU27" s="114"/>
+      <c r="AV27" s="114"/>
+      <c r="AW27" s="114"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="124"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="131"/>
-      <c r="AC28" s="131"/>
-      <c r="AD28" s="131"/>
-      <c r="AE28" s="131"/>
-      <c r="AF28" s="131"/>
-      <c r="AG28" s="131"/>
-      <c r="AH28" s="131"/>
-      <c r="AI28" s="131"/>
-      <c r="AJ28" s="131"/>
-      <c r="AK28" s="131"/>
-      <c r="AL28" s="131"/>
-      <c r="AM28" s="131"/>
-      <c r="AN28" s="124"/>
-      <c r="AO28" s="124"/>
-      <c r="AP28" s="124"/>
-      <c r="AQ28" s="124"/>
-      <c r="AR28" s="124"/>
-      <c r="AS28" s="124"/>
-      <c r="AT28" s="124"/>
-      <c r="AU28" s="124"/>
-      <c r="AV28" s="124"/>
-      <c r="AW28" s="124"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="120"/>
+      <c r="AA28" s="120"/>
+      <c r="AB28" s="120"/>
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="120"/>
+      <c r="AH28" s="120"/>
+      <c r="AI28" s="120"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="120"/>
+      <c r="AL28" s="120"/>
+      <c r="AM28" s="120"/>
+      <c r="AN28" s="114"/>
+      <c r="AO28" s="114"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="114"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="114"/>
+      <c r="AT28" s="114"/>
+      <c r="AU28" s="114"/>
+      <c r="AV28" s="114"/>
+      <c r="AW28" s="114"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="124"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="131"/>
-      <c r="AC29" s="131"/>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="131"/>
-      <c r="AF29" s="131"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="131"/>
-      <c r="AI29" s="131"/>
-      <c r="AJ29" s="131"/>
-      <c r="AK29" s="131"/>
-      <c r="AL29" s="131"/>
-      <c r="AM29" s="131"/>
-      <c r="AN29" s="124"/>
-      <c r="AO29" s="124"/>
-      <c r="AP29" s="124"/>
-      <c r="AQ29" s="124"/>
-      <c r="AR29" s="124"/>
-      <c r="AS29" s="124"/>
-      <c r="AT29" s="124"/>
-      <c r="AU29" s="124"/>
-      <c r="AV29" s="124"/>
-      <c r="AW29" s="124"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="120"/>
+      <c r="AC29" s="120"/>
+      <c r="AD29" s="120"/>
+      <c r="AE29" s="120"/>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="120"/>
+      <c r="AH29" s="120"/>
+      <c r="AI29" s="120"/>
+      <c r="AJ29" s="120"/>
+      <c r="AK29" s="120"/>
+      <c r="AL29" s="120"/>
+      <c r="AM29" s="120"/>
+      <c r="AN29" s="114"/>
+      <c r="AO29" s="114"/>
+      <c r="AP29" s="114"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="114"/>
+      <c r="AU29" s="114"/>
+      <c r="AV29" s="114"/>
+      <c r="AW29" s="114"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="131"/>
-      <c r="AD30" s="131"/>
-      <c r="AE30" s="131"/>
-      <c r="AF30" s="131"/>
-      <c r="AG30" s="131"/>
-      <c r="AH30" s="131"/>
-      <c r="AI30" s="131"/>
-      <c r="AJ30" s="131"/>
-      <c r="AK30" s="131"/>
-      <c r="AL30" s="131"/>
-      <c r="AM30" s="131"/>
-      <c r="AN30" s="124"/>
-      <c r="AO30" s="124"/>
-      <c r="AP30" s="124"/>
-      <c r="AQ30" s="124"/>
-      <c r="AR30" s="124"/>
-      <c r="AS30" s="124"/>
-      <c r="AT30" s="124"/>
-      <c r="AU30" s="124"/>
-      <c r="AV30" s="124"/>
-      <c r="AW30" s="124"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="120"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="120"/>
+      <c r="AL30" s="120"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="114"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="124"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="131"/>
-      <c r="AD31" s="131"/>
-      <c r="AE31" s="131"/>
-      <c r="AF31" s="131"/>
-      <c r="AG31" s="131"/>
-      <c r="AH31" s="131"/>
-      <c r="AI31" s="131"/>
-      <c r="AJ31" s="131"/>
-      <c r="AK31" s="131"/>
-      <c r="AL31" s="131"/>
-      <c r="AM31" s="131"/>
-      <c r="AN31" s="124"/>
-      <c r="AO31" s="124"/>
-      <c r="AP31" s="124"/>
-      <c r="AQ31" s="124"/>
-      <c r="AR31" s="124"/>
-      <c r="AS31" s="124"/>
-      <c r="AT31" s="124"/>
-      <c r="AU31" s="124"/>
-      <c r="AV31" s="124"/>
-      <c r="AW31" s="124"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="120"/>
+      <c r="Z31" s="120"/>
+      <c r="AA31" s="120"/>
+      <c r="AB31" s="120"/>
+      <c r="AC31" s="120"/>
+      <c r="AD31" s="120"/>
+      <c r="AE31" s="120"/>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="120"/>
+      <c r="AH31" s="120"/>
+      <c r="AI31" s="120"/>
+      <c r="AJ31" s="120"/>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="120"/>
+      <c r="AM31" s="120"/>
+      <c r="AN31" s="114"/>
+      <c r="AO31" s="114"/>
+      <c r="AP31" s="114"/>
+      <c r="AQ31" s="114"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="114"/>
+      <c r="AU31" s="114"/>
+      <c r="AV31" s="114"/>
+      <c r="AW31" s="114"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="131"/>
-      <c r="AD32" s="131"/>
-      <c r="AE32" s="131"/>
-      <c r="AF32" s="131"/>
-      <c r="AG32" s="131"/>
-      <c r="AH32" s="131"/>
-      <c r="AI32" s="131"/>
-      <c r="AJ32" s="131"/>
-      <c r="AK32" s="131"/>
-      <c r="AL32" s="131"/>
-      <c r="AM32" s="131"/>
-      <c r="AN32" s="124"/>
-      <c r="AO32" s="124"/>
-      <c r="AP32" s="124"/>
-      <c r="AQ32" s="124"/>
-      <c r="AR32" s="124"/>
-      <c r="AS32" s="124"/>
-      <c r="AT32" s="124"/>
-      <c r="AU32" s="124"/>
-      <c r="AV32" s="124"/>
-      <c r="AW32" s="124"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="120"/>
+      <c r="AB32" s="120"/>
+      <c r="AC32" s="120"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="120"/>
+      <c r="AM32" s="120"/>
+      <c r="AN32" s="114"/>
+      <c r="AO32" s="114"/>
+      <c r="AP32" s="114"/>
+      <c r="AQ32" s="114"/>
+      <c r="AR32" s="114"/>
+      <c r="AS32" s="114"/>
+      <c r="AT32" s="114"/>
+      <c r="AU32" s="114"/>
+      <c r="AV32" s="114"/>
+      <c r="AW32" s="114"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="124"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="131"/>
-      <c r="AB33" s="131"/>
-      <c r="AC33" s="131"/>
-      <c r="AD33" s="131"/>
-      <c r="AE33" s="131"/>
-      <c r="AF33" s="131"/>
-      <c r="AG33" s="131"/>
-      <c r="AH33" s="131"/>
-      <c r="AI33" s="131"/>
-      <c r="AJ33" s="131"/>
-      <c r="AK33" s="131"/>
-      <c r="AL33" s="131"/>
-      <c r="AM33" s="131"/>
-      <c r="AN33" s="124"/>
-      <c r="AO33" s="124"/>
-      <c r="AP33" s="124"/>
-      <c r="AQ33" s="124"/>
-      <c r="AR33" s="124"/>
-      <c r="AS33" s="124"/>
-      <c r="AT33" s="124"/>
-      <c r="AU33" s="124"/>
-      <c r="AV33" s="124"/>
-      <c r="AW33" s="124"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="120"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="120"/>
+      <c r="AB33" s="120"/>
+      <c r="AC33" s="120"/>
+      <c r="AD33" s="120"/>
+      <c r="AE33" s="120"/>
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="120"/>
+      <c r="AH33" s="120"/>
+      <c r="AI33" s="120"/>
+      <c r="AJ33" s="120"/>
+      <c r="AK33" s="120"/>
+      <c r="AL33" s="120"/>
+      <c r="AM33" s="120"/>
+      <c r="AN33" s="114"/>
+      <c r="AO33" s="114"/>
+      <c r="AP33" s="114"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="127"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="137"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
-      <c r="Q34" s="138"/>
-      <c r="R34" s="138"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="124"/>
-      <c r="U34" s="124"/>
-      <c r="V34" s="131"/>
-      <c r="W34" s="131"/>
-      <c r="X34" s="131"/>
-      <c r="Y34" s="131"/>
-      <c r="Z34" s="131"/>
-      <c r="AA34" s="131"/>
-      <c r="AB34" s="131"/>
-      <c r="AC34" s="131"/>
-      <c r="AD34" s="131"/>
-      <c r="AE34" s="131"/>
-      <c r="AF34" s="131"/>
-      <c r="AG34" s="131"/>
-      <c r="AH34" s="131"/>
-      <c r="AI34" s="131"/>
-      <c r="AJ34" s="131"/>
-      <c r="AK34" s="131"/>
-      <c r="AL34" s="131"/>
-      <c r="AM34" s="131"/>
-      <c r="AN34" s="124"/>
-      <c r="AO34" s="124"/>
-      <c r="AP34" s="124"/>
-      <c r="AQ34" s="124"/>
-      <c r="AR34" s="124"/>
-      <c r="AS34" s="124"/>
-      <c r="AT34" s="124"/>
-      <c r="AU34" s="124"/>
-      <c r="AV34" s="124"/>
-      <c r="AW34" s="124"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="120"/>
+      <c r="AD34" s="120"/>
+      <c r="AE34" s="120"/>
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="120"/>
+      <c r="AH34" s="120"/>
+      <c r="AI34" s="120"/>
+      <c r="AJ34" s="120"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="120"/>
+      <c r="AM34" s="120"/>
+      <c r="AN34" s="114"/>
+      <c r="AO34" s="114"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6020,239 +6254,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6349,17 +6350,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="143" t="str">
+      <c r="AZ1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="144"/>
-      <c r="BB1" s="144"/>
-      <c r="BC1" s="144"/>
-      <c r="BD1" s="144"/>
-      <c r="BE1" s="144"/>
-      <c r="BF1" s="144"/>
-      <c r="BG1" s="145"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="140"/>
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="140"/>
+      <c r="BG1" s="141"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6384,14 +6385,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
       <c r="V2" s="38"/>
       <c r="W2" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -6425,14 +6426,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="143"/>
-      <c r="BA2" s="144"/>
-      <c r="BB2" s="144"/>
-      <c r="BC2" s="144"/>
-      <c r="BD2" s="144"/>
-      <c r="BE2" s="144"/>
-      <c r="BF2" s="144"/>
-      <c r="BG2" s="145"/>
+      <c r="AZ2" s="139"/>
+      <c r="BA2" s="140"/>
+      <c r="BB2" s="140"/>
+      <c r="BC2" s="140"/>
+      <c r="BD2" s="140"/>
+      <c r="BE2" s="140"/>
+      <c r="BF2" s="140"/>
+      <c r="BG2" s="141"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -6513,7 +6514,7 @@
     </row>
     <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -7455,12 +7456,12 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="AF36" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
@@ -7477,7 +7478,7 @@
     </row>
     <row r="37" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L37" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -7740,10 +7741,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="141">
+      <c r="B42" s="144">
         <v>1</v>
       </c>
-      <c r="C42" s="142"/>
+      <c r="C42" s="145"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7775,16 +7776,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="139" t="s">
+      <c r="AE42" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="139"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="139"/>
-      <c r="AL42" s="140"/>
+      <c r="AF42" s="143"/>
+      <c r="AG42" s="142"/>
+      <c r="AH42" s="143"/>
+      <c r="AI42" s="142"/>
+      <c r="AJ42" s="143"/>
+      <c r="AK42" s="142"/>
+      <c r="AL42" s="143"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7818,10 +7819,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="141">
+      <c r="B43" s="144">
         <v>2</v>
       </c>
-      <c r="C43" s="142"/>
+      <c r="C43" s="145"/>
       <c r="D43" s="104" t="s">
         <v>94</v>
       </c>
@@ -7832,7 +7833,7 @@
       <c r="I43" s="86"/>
       <c r="J43" s="105"/>
       <c r="K43" s="104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L43" s="86"/>
       <c r="M43" s="86"/>
@@ -7853,18 +7854,18 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="105"/>
-      <c r="AE43" s="139" t="s">
+      <c r="AE43" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="140"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="140"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="140"/>
-      <c r="AK43" s="139"/>
-      <c r="AL43" s="140"/>
+      <c r="AF43" s="143"/>
+      <c r="AG43" s="142"/>
+      <c r="AH43" s="143"/>
+      <c r="AI43" s="142"/>
+      <c r="AJ43" s="143"/>
+      <c r="AK43" s="142"/>
+      <c r="AL43" s="143"/>
       <c r="AM43" s="83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN43" s="84"/>
       <c r="AO43" s="84"/>
@@ -7896,10 +7897,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="141">
+      <c r="B44" s="144">
         <v>3</v>
       </c>
-      <c r="C44" s="142"/>
+      <c r="C44" s="145"/>
       <c r="D44" s="93" t="s">
         <v>94</v>
       </c>
@@ -7910,7 +7911,7 @@
       <c r="I44" s="86"/>
       <c r="J44" s="87"/>
       <c r="K44" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L44" s="86"/>
       <c r="M44" s="86"/>
@@ -7931,18 +7932,18 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="139" t="s">
+      <c r="AE44" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="139"/>
-      <c r="AH44" s="140"/>
-      <c r="AI44" s="139"/>
-      <c r="AJ44" s="140"/>
-      <c r="AK44" s="139"/>
-      <c r="AL44" s="140"/>
+      <c r="AF44" s="143"/>
+      <c r="AG44" s="142"/>
+      <c r="AH44" s="143"/>
+      <c r="AI44" s="142"/>
+      <c r="AJ44" s="143"/>
+      <c r="AK44" s="142"/>
+      <c r="AL44" s="143"/>
       <c r="AM44" s="83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN44" s="84"/>
       <c r="AO44" s="84"/>
@@ -7974,10 +7975,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="141">
+      <c r="B45" s="144">
         <v>4</v>
       </c>
-      <c r="C45" s="142"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="82" t="s">
         <v>103</v>
       </c>
@@ -7988,7 +7989,7 @@
       <c r="I45" s="86"/>
       <c r="J45" s="87"/>
       <c r="K45" s="82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L45" s="86"/>
       <c r="M45" s="86"/>
@@ -8009,16 +8010,16 @@
       <c r="AB45" s="86"/>
       <c r="AC45" s="86"/>
       <c r="AD45" s="87"/>
-      <c r="AE45" s="139" t="s">
+      <c r="AE45" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF45" s="140"/>
-      <c r="AG45" s="139"/>
-      <c r="AH45" s="140"/>
-      <c r="AI45" s="139"/>
-      <c r="AJ45" s="140"/>
-      <c r="AK45" s="139"/>
-      <c r="AL45" s="140"/>
+      <c r="AF45" s="143"/>
+      <c r="AG45" s="142"/>
+      <c r="AH45" s="143"/>
+      <c r="AI45" s="142"/>
+      <c r="AJ45" s="143"/>
+      <c r="AK45" s="142"/>
+      <c r="AL45" s="143"/>
       <c r="AM45" s="83" t="s">
         <v>104</v>
       </c>
@@ -8057,6 +8058,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK45:AL45"/>
@@ -8073,15 +8083,6 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8227,7 +8228,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="143" t="str">
+      <c r="CU1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8285,7 +8286,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21C</v>
+        <v>K-21C</v>
       </c>
       <c r="AI2" s="37"/>
       <c r="AJ2" s="37"/>
@@ -8358,7 +8359,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="143"/>
+      <c r="CU2" s="139"/>
       <c r="CV2" s="151"/>
       <c r="CW2" s="151"/>
       <c r="CX2" s="151"/>
@@ -8532,7 +8533,7 @@
       </c>
       <c r="F2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21C</v>
+        <v>K-21C</v>
       </c>
       <c r="G2" s="36" t="str">
         <f>'１．機能概要'!W2</f>
@@ -8574,37 +8575,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="116" t="s">
+      <c r="G6" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="157" t="s">
+      <c r="I6" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="157" t="s">
+      <c r="J6" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="116" t="s">
+      <c r="L6" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="116" t="s">
+      <c r="M6" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8612,24 +8613,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="157" t="s">
+      <c r="Q6" s="159" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8639,7 +8640,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="157"/>
+      <c r="Q7" s="159"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8654,7 +8655,7 @@
         <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8701,37 +8702,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="116" t="s">
+      <c r="G11" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="H11" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="158" t="s">
+      <c r="I11" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="157" t="s">
+      <c r="J11" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="116" t="s">
+      <c r="K11" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="116" t="s">
+      <c r="L11" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="116" t="s">
+      <c r="M11" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8739,24 +8740,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="158" t="s">
+      <c r="Q11" s="157" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8766,7 +8767,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="159"/>
+      <c r="Q12" s="158"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
@@ -8782,10 +8783,10 @@
         <v>115</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>34</v>
@@ -8794,7 +8795,7 @@
         <v>34</v>
       </c>
       <c r="K13" s="110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>34</v>
@@ -8809,7 +8810,7 @@
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>33</v>
@@ -8826,13 +8827,13 @@
         <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>34</v>
@@ -8856,7 +8857,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>33</v>
@@ -8881,37 +8882,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="E18" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="116" t="s">
+      <c r="F18" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="116" t="s">
+      <c r="H18" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="157" t="s">
+      <c r="I18" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="157" t="s">
+      <c r="J18" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="116" t="s">
+      <c r="K18" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="116" t="s">
+      <c r="L18" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="116" t="s">
+      <c r="M18" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8919,24 +8920,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="157" t="s">
+      <c r="Q18" s="159" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8946,7 +8947,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="157"/>
+      <c r="Q19" s="159"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -9061,7 +9062,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -9126,10 +9127,10 @@
         <v>51</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>42</v>
@@ -9159,7 +9160,7 @@
         <v>33</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
@@ -9172,13 +9173,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G25" s="43" t="s">
         <v>42</v>
@@ -9193,7 +9194,7 @@
         <v>34</v>
       </c>
       <c r="K25" s="110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>34</v>
@@ -9211,7 +9212,7 @@
         <v>34</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -9241,6 +9242,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -9257,26 +9278,6 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9369,7 +9370,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="143" t="str">
+      <c r="AT1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9400,7 +9401,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21C</v>
+        <v>K-21C</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -9440,7 +9441,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="143"/>
+      <c r="AT2" s="139"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -9785,10 +9786,10 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="L11" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" s="94" t="s">
         <v>172</v>
-      </c>
-      <c r="M11" s="94" t="s">
-        <v>173</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
@@ -9828,7 +9829,7 @@
       <c r="G12" s="71"/>
       <c r="L12" s="71"/>
       <c r="M12" s="94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N12" s="94"/>
       <c r="O12" s="94"/>
@@ -9868,7 +9869,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="94"/>
       <c r="N13" s="94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL13" s="94"/>
       <c r="AM13" s="94"/>
@@ -9884,7 +9885,7 @@
       <c r="L14" s="71"/>
       <c r="M14" s="94"/>
       <c r="N14" s="94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL14" s="94"/>
       <c r="AM14" s="94"/>
@@ -9900,7 +9901,7 @@
       <c r="L15" s="71"/>
       <c r="M15" s="94"/>
       <c r="N15" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL15" s="94"/>
       <c r="AM15" s="94"/>
@@ -9916,7 +9917,7 @@
       <c r="L16" s="71"/>
       <c r="M16" s="94"/>
       <c r="N16" s="94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL16" s="94"/>
       <c r="AM16" s="94"/>
@@ -9932,7 +9933,7 @@
       <c r="L17" s="71"/>
       <c r="M17" s="94"/>
       <c r="N17" s="94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL17" s="94"/>
       <c r="AM17" s="94"/>
@@ -9948,7 +9949,7 @@
       <c r="L18" s="71"/>
       <c r="M18" s="94"/>
       <c r="N18" s="94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL18" s="94"/>
       <c r="AM18" s="94"/>
@@ -9964,7 +9965,7 @@
       <c r="L19" s="71"/>
       <c r="M19" s="94"/>
       <c r="N19" s="94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL19" s="94"/>
       <c r="AM19" s="94"/>
@@ -9980,7 +9981,7 @@
       <c r="L20" s="71"/>
       <c r="M20" s="94"/>
       <c r="N20" s="94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL20" s="94"/>
       <c r="AM20" s="94"/>
@@ -9996,7 +9997,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="94"/>
       <c r="N21" s="94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL21" s="94"/>
       <c r="AM21" s="94"/>
@@ -10012,7 +10013,7 @@
       <c r="L22" s="71"/>
       <c r="M22" s="94"/>
       <c r="N22" s="94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL22" s="94"/>
       <c r="AM22" s="94"/>
@@ -10028,7 +10029,7 @@
       <c r="L23" s="71"/>
       <c r="M23" s="94"/>
       <c r="N23" s="94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL23" s="94"/>
       <c r="AM23" s="94"/>
@@ -10080,7 +10081,7 @@
       <c r="G25" s="71"/>
       <c r="L25" s="71"/>
       <c r="M25" s="94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N25" s="94"/>
       <c r="O25" s="94"/>
@@ -10119,7 +10120,7 @@
       <c r="G26" s="71"/>
       <c r="L26" s="71"/>
       <c r="N26" s="94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O26" s="94"/>
       <c r="P26" s="94"/>
@@ -10197,7 +10198,7 @@
       <c r="G28" s="71"/>
       <c r="K28" s="72"/>
       <c r="L28" s="109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M28" s="109"/>
       <c r="N28" s="109"/>
@@ -10239,7 +10240,7 @@
       <c r="G29" s="71"/>
       <c r="K29" s="72"/>
       <c r="M29" s="94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N29" s="94"/>
       <c r="O29" s="94"/>
@@ -10260,7 +10261,7 @@
       <c r="G30" s="71"/>
       <c r="K30" s="72"/>
       <c r="N30" s="94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O30" s="94"/>
       <c r="P30" s="94"/>
@@ -10280,7 +10281,7 @@
       <c r="G31" s="71"/>
       <c r="K31" s="72"/>
       <c r="N31" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O31" s="94"/>
       <c r="P31" s="94"/>
@@ -10300,7 +10301,7 @@
       <c r="G32" s="71"/>
       <c r="K32" s="72"/>
       <c r="N32" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O32" s="94"/>
       <c r="P32" s="94"/>
@@ -10320,7 +10321,7 @@
       <c r="G33" s="71"/>
       <c r="K33" s="72"/>
       <c r="N33" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O33" s="94"/>
       <c r="P33" s="94"/>
@@ -10364,7 +10365,7 @@
       <c r="K35" s="72"/>
       <c r="L35" s="23"/>
       <c r="M35" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N35" s="94"/>
       <c r="O35" s="94"/>
@@ -10403,7 +10404,7 @@
       <c r="G36" s="71"/>
       <c r="K36" s="72"/>
       <c r="N36" s="94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O36" s="94"/>
       <c r="P36" s="94"/>
@@ -10423,7 +10424,7 @@
       <c r="G37" s="71"/>
       <c r="K37" s="72"/>
       <c r="N37" s="94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O37" s="94"/>
       <c r="P37" s="94"/>
@@ -10444,7 +10445,7 @@
       <c r="K38" s="72"/>
       <c r="N38" s="94"/>
       <c r="O38" s="94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P38" s="94"/>
       <c r="Q38" s="94"/>
@@ -10458,7 +10459,7 @@
         <v>98</v>
       </c>
       <c r="Z38" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AV38" s="72"/>
     </row>
@@ -10475,7 +10476,7 @@
       <c r="K39" s="72"/>
       <c r="L39" s="23"/>
       <c r="N39" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O39" s="94"/>
       <c r="P39" s="94"/>
@@ -10520,7 +10521,7 @@
       <c r="L40" s="23"/>
       <c r="N40" s="94"/>
       <c r="O40" s="94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P40" s="94"/>
       <c r="Q40" s="94"/>
@@ -10534,7 +10535,7 @@
         <v>98</v>
       </c>
       <c r="Z40" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD40" s="23"/>
       <c r="AE40" s="23"/>
@@ -10571,7 +10572,7 @@
       <c r="M41" s="94"/>
       <c r="N41" s="94"/>
       <c r="O41" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P41" s="94"/>
       <c r="Q41" s="94"/>
@@ -10586,7 +10587,7 @@
         <v>98</v>
       </c>
       <c r="Z41" s="94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA41" s="94"/>
       <c r="AB41" s="94"/>
@@ -10626,7 +10627,7 @@
       <c r="M42" s="94"/>
       <c r="N42" s="94"/>
       <c r="O42" s="94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
@@ -10641,7 +10642,7 @@
         <v>98</v>
       </c>
       <c r="Z42" s="94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA42" s="94"/>
       <c r="AB42" s="94"/>
@@ -10681,7 +10682,7 @@
       <c r="M43" s="94"/>
       <c r="N43" s="94"/>
       <c r="O43" s="94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
@@ -10696,7 +10697,7 @@
         <v>98</v>
       </c>
       <c r="Z43" s="94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA43" s="94"/>
       <c r="AB43" s="94"/>
@@ -10736,7 +10737,7 @@
       <c r="M44" s="94"/>
       <c r="N44" s="94"/>
       <c r="O44" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P44" s="94"/>
       <c r="Q44" s="94"/>
@@ -10751,7 +10752,7 @@
         <v>98</v>
       </c>
       <c r="Z44" s="94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AA44" s="94"/>
       <c r="AB44" s="94"/>
@@ -10790,7 +10791,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="94"/>
       <c r="N45" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="94"/>
       <c r="P45" s="94"/>
@@ -10842,7 +10843,7 @@
       <c r="M46" s="94"/>
       <c r="N46" s="94"/>
       <c r="O46" s="94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P46" s="94"/>
       <c r="Q46" s="94"/>
@@ -10857,7 +10858,7 @@
         <v>98</v>
       </c>
       <c r="Z46" s="94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA46" s="94"/>
       <c r="AB46" s="94"/>
@@ -10927,7 +10928,7 @@
       <c r="K48" s="72"/>
       <c r="L48" s="23"/>
       <c r="M48" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N48" s="94"/>
       <c r="O48" s="94"/>
@@ -10972,7 +10973,7 @@
       <c r="G49" s="71"/>
       <c r="K49" s="72"/>
       <c r="N49" s="94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O49" s="94"/>
       <c r="P49" s="94"/>
@@ -10986,7 +10987,7 @@
         <v>98</v>
       </c>
       <c r="Z49" s="107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA49" s="94"/>
       <c r="AB49" s="94"/>
@@ -10999,7 +11000,7 @@
       <c r="G50" s="71"/>
       <c r="K50" s="72"/>
       <c r="N50" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O50" s="94"/>
       <c r="P50" s="94"/>
@@ -11013,7 +11014,7 @@
         <v>98</v>
       </c>
       <c r="Z50" s="94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA50" s="94"/>
       <c r="AB50" s="94"/>
@@ -11027,7 +11028,7 @@
       <c r="K51" s="72"/>
       <c r="L51" s="103"/>
       <c r="N51" s="94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O51" s="94"/>
       <c r="P51" s="94"/>
@@ -11042,7 +11043,7 @@
         <v>98</v>
       </c>
       <c r="Z51" s="107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA51" s="94"/>
       <c r="AB51" s="94"/>
@@ -11060,7 +11061,7 @@
       <c r="G52" s="71"/>
       <c r="K52" s="72"/>
       <c r="N52" s="94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O52" s="94"/>
       <c r="P52" s="94"/>
@@ -11074,12 +11075,12 @@
         <v>98</v>
       </c>
       <c r="Z52" s="94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA52" s="94"/>
       <c r="AB52" s="94"/>
       <c r="AI52" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV52" s="72"/>
     </row>
@@ -11090,7 +11091,7 @@
       <c r="G53" s="71"/>
       <c r="K53" s="72"/>
       <c r="N53" s="94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O53" s="94"/>
       <c r="P53" s="94"/>
@@ -11104,12 +11105,12 @@
         <v>98</v>
       </c>
       <c r="Z53" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA53" s="94"/>
       <c r="AB53" s="94"/>
       <c r="AI53" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV53" s="72"/>
     </row>
@@ -11153,7 +11154,7 @@
       <c r="G55" s="71"/>
       <c r="L55" s="71"/>
       <c r="M55" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM55" s="94"/>
       <c r="AN55" s="94"/>
@@ -11168,7 +11169,7 @@
       <c r="G56" s="71"/>
       <c r="L56" s="71"/>
       <c r="N56" s="94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM56" s="94"/>
       <c r="AN56" s="94"/>
@@ -11198,7 +11199,7 @@
       <c r="G58" s="71"/>
       <c r="L58" s="71"/>
       <c r="N58" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM58" s="94"/>
       <c r="AN58" s="94"/>
@@ -11213,7 +11214,7 @@
       <c r="G59" s="71"/>
       <c r="L59" s="71"/>
       <c r="N59" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM59" s="94"/>
       <c r="AN59" s="94"/>
@@ -11302,7 +11303,7 @@
       <c r="K62" s="72"/>
       <c r="L62" s="23"/>
       <c r="N62" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD62" s="23"/>
       <c r="AE62" s="23"/>
@@ -11337,7 +11338,7 @@
       <c r="K63" s="72"/>
       <c r="L63" s="23"/>
       <c r="N63" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AD63" s="23"/>
       <c r="AE63" s="23"/>
@@ -11661,7 +11662,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="143" t="str">
+      <c r="AT1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11692,7 +11693,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21C</v>
+        <v>K-21C</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -11732,7 +11733,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="143"/>
+      <c r="AT2" s="139"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -12276,7 +12277,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="143" t="str">
+      <c r="AT1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12307,7 +12308,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21C</v>
+        <v>K-21C</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -12347,7 +12348,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="143"/>
+      <c r="AT2" s="139"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -12673,6 +12674,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -12830,15 +12840,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -12849,6 +12850,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12864,12 +12873,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FEB05A7-64E2-41E5-B747-9D62943BA9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BC72D2-13BF-4D62-A3FA-BC7A3B6184CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2217,6 +2217,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2229,64 +2259,46 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2297,18 +2309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2342,13 +2342,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4241,1779 +4241,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="129"/>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="129"/>
-      <c r="AL1" s="129"/>
-      <c r="AM1" s="129"/>
-      <c r="AN1" s="129"/>
-      <c r="AO1" s="129"/>
-      <c r="AP1" s="129"/>
-      <c r="AQ1" s="129"/>
-      <c r="AR1" s="129"/>
-      <c r="AS1" s="129"/>
-      <c r="AT1" s="129"/>
-      <c r="AU1" s="129"/>
-      <c r="AV1" s="129"/>
-      <c r="AW1" s="129"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="114"/>
+      <c r="AP1" s="114"/>
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="114"/>
+      <c r="AT1" s="114"/>
+      <c r="AU1" s="114"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="114"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="130"/>
-      <c r="AO2" s="130"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="130"/>
-      <c r="AR2" s="130"/>
-      <c r="AS2" s="130"/>
-      <c r="AT2" s="130"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="130"/>
-      <c r="AW2" s="130"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="115"/>
+      <c r="AU2" s="115"/>
+      <c r="AV2" s="115"/>
+      <c r="AW2" s="115"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="133" t="s">
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="133" t="s">
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="131" t="s">
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131" t="s">
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="131"/>
-      <c r="AJ3" s="131"/>
-      <c r="AK3" s="131"/>
-      <c r="AL3" s="131"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="131" t="s">
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="131"/>
-      <c r="AP3" s="131"/>
-      <c r="AQ3" s="131"/>
-      <c r="AR3" s="131"/>
-      <c r="AS3" s="131" t="s">
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="131"/>
-      <c r="AU3" s="131"/>
-      <c r="AV3" s="131"/>
-      <c r="AW3" s="131"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="132"/>
-      <c r="AK4" s="132"/>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="132"/>
-      <c r="AO4" s="132"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="132"/>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="132"/>
-      <c r="AW4" s="132"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="115">
+      <c r="B5" s="125">
         <v>1</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116">
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126">
         <v>43725</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117" t="s">
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117" t="s">
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="114" t="s">
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="126" t="s">
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="126"/>
-      <c r="AN5" s="114" t="s">
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114"/>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
+      <c r="AO5" s="124"/>
+      <c r="AP5" s="124"/>
+      <c r="AQ5" s="124"/>
+      <c r="AR5" s="124"/>
+      <c r="AS5" s="124"/>
+      <c r="AT5" s="124"/>
+      <c r="AU5" s="124"/>
+      <c r="AV5" s="124"/>
+      <c r="AW5" s="124"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128"/>
       <c r="O6" s="128"/>
       <c r="P6" s="128"/>
       <c r="Q6" s="128"/>
       <c r="R6" s="128"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114"/>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114"/>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="124"/>
+      <c r="AO6" s="124"/>
+      <c r="AP6" s="124"/>
+      <c r="AQ6" s="124"/>
+      <c r="AR6" s="124"/>
+      <c r="AS6" s="124"/>
+      <c r="AT6" s="124"/>
+      <c r="AU6" s="124"/>
+      <c r="AV6" s="124"/>
+      <c r="AW6" s="124"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128"/>
       <c r="O7" s="128"/>
       <c r="P7" s="128"/>
       <c r="Q7" s="128"/>
       <c r="R7" s="128"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="126"/>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="114"/>
-      <c r="AO7" s="114"/>
-      <c r="AP7" s="114"/>
-      <c r="AQ7" s="114"/>
-      <c r="AR7" s="114"/>
-      <c r="AS7" s="114"/>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="114"/>
-      <c r="AV7" s="114"/>
-      <c r="AW7" s="114"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="129"/>
+      <c r="AM7" s="129"/>
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="124"/>
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="124"/>
+      <c r="AR7" s="124"/>
+      <c r="AS7" s="124"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="124"/>
+      <c r="AV7" s="124"/>
+      <c r="AW7" s="124"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128"/>
       <c r="O8" s="128"/>
       <c r="P8" s="128"/>
       <c r="Q8" s="128"/>
       <c r="R8" s="128"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="126"/>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="114"/>
-      <c r="AP8" s="114"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="114"/>
-      <c r="AS8" s="114"/>
-      <c r="AT8" s="114"/>
-      <c r="AU8" s="114"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="114"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="129"/>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="129"/>
+      <c r="AE8" s="129"/>
+      <c r="AF8" s="129"/>
+      <c r="AG8" s="129"/>
+      <c r="AH8" s="129"/>
+      <c r="AI8" s="129"/>
+      <c r="AJ8" s="129"/>
+      <c r="AK8" s="129"/>
+      <c r="AL8" s="129"/>
+      <c r="AM8" s="129"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="124"/>
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="128"/>
       <c r="N9" s="128"/>
       <c r="O9" s="128"/>
       <c r="P9" s="128"/>
       <c r="Q9" s="128"/>
       <c r="R9" s="128"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="126"/>
-      <c r="AM9" s="126"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="114"/>
-      <c r="AU9" s="114"/>
-      <c r="AV9" s="114"/>
-      <c r="AW9" s="114"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="129"/>
+      <c r="AJ9" s="129"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="124"/>
+      <c r="AR9" s="124"/>
+      <c r="AS9" s="124"/>
+      <c r="AT9" s="124"/>
+      <c r="AU9" s="124"/>
+      <c r="AV9" s="124"/>
+      <c r="AW9" s="124"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="128"/>
       <c r="N10" s="128"/>
       <c r="O10" s="128"/>
       <c r="P10" s="128"/>
       <c r="Q10" s="128"/>
       <c r="R10" s="128"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="126"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="114"/>
-      <c r="AR10" s="114"/>
-      <c r="AS10" s="114"/>
-      <c r="AT10" s="114"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="114"/>
-      <c r="AW10" s="114"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="129"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="129"/>
+      <c r="AJ10" s="129"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="129"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="124"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="124"/>
+      <c r="AR10" s="124"/>
+      <c r="AS10" s="124"/>
+      <c r="AT10" s="124"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="124"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="127"/>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="127"/>
-      <c r="AH11" s="127"/>
-      <c r="AI11" s="127"/>
-      <c r="AJ11" s="127"/>
-      <c r="AK11" s="127"/>
-      <c r="AL11" s="127"/>
-      <c r="AM11" s="127"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="114"/>
-      <c r="AP11" s="114"/>
-      <c r="AQ11" s="114"/>
-      <c r="AR11" s="114"/>
-      <c r="AS11" s="114"/>
-      <c r="AT11" s="114"/>
-      <c r="AU11" s="114"/>
-      <c r="AV11" s="114"/>
-      <c r="AW11" s="114"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="132"/>
+      <c r="AF11" s="132"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="132"/>
+      <c r="AK11" s="132"/>
+      <c r="AL11" s="132"/>
+      <c r="AM11" s="132"/>
+      <c r="AN11" s="124"/>
+      <c r="AO11" s="124"/>
+      <c r="AP11" s="124"/>
+      <c r="AQ11" s="124"/>
+      <c r="AR11" s="124"/>
+      <c r="AS11" s="124"/>
+      <c r="AT11" s="124"/>
+      <c r="AU11" s="124"/>
+      <c r="AV11" s="124"/>
+      <c r="AW11" s="124"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="120"/>
-      <c r="AJ12" s="120"/>
-      <c r="AK12" s="120"/>
-      <c r="AL12" s="120"/>
-      <c r="AM12" s="120"/>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="114"/>
-      <c r="AP12" s="114"/>
-      <c r="AQ12" s="114"/>
-      <c r="AR12" s="114"/>
-      <c r="AS12" s="114"/>
-      <c r="AT12" s="114"/>
-      <c r="AU12" s="114"/>
-      <c r="AV12" s="114"/>
-      <c r="AW12" s="114"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="131"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="131"/>
+      <c r="AH12" s="131"/>
+      <c r="AI12" s="131"/>
+      <c r="AJ12" s="131"/>
+      <c r="AK12" s="131"/>
+      <c r="AL12" s="131"/>
+      <c r="AM12" s="131"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="124"/>
+      <c r="AT12" s="124"/>
+      <c r="AU12" s="124"/>
+      <c r="AV12" s="124"/>
+      <c r="AW12" s="124"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="120"/>
-      <c r="AC13" s="120"/>
-      <c r="AD13" s="120"/>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="120"/>
-      <c r="AH13" s="120"/>
-      <c r="AI13" s="120"/>
-      <c r="AJ13" s="120"/>
-      <c r="AK13" s="120"/>
-      <c r="AL13" s="120"/>
-      <c r="AM13" s="120"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="114"/>
-      <c r="AT13" s="114"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="114"/>
-      <c r="AW13" s="114"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="131"/>
+      <c r="AE13" s="131"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="131"/>
+      <c r="AH13" s="131"/>
+      <c r="AI13" s="131"/>
+      <c r="AJ13" s="131"/>
+      <c r="AK13" s="131"/>
+      <c r="AL13" s="131"/>
+      <c r="AM13" s="131"/>
+      <c r="AN13" s="124"/>
+      <c r="AO13" s="124"/>
+      <c r="AP13" s="124"/>
+      <c r="AQ13" s="124"/>
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="124"/>
+      <c r="AT13" s="124"/>
+      <c r="AU13" s="124"/>
+      <c r="AV13" s="124"/>
+      <c r="AW13" s="124"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="114"/>
-      <c r="AO14" s="114"/>
-      <c r="AP14" s="114"/>
-      <c r="AQ14" s="114"/>
-      <c r="AR14" s="114"/>
-      <c r="AS14" s="114"/>
-      <c r="AT14" s="114"/>
-      <c r="AU14" s="114"/>
-      <c r="AV14" s="114"/>
-      <c r="AW14" s="114"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="129"/>
+      <c r="AB14" s="129"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="129"/>
+      <c r="AE14" s="129"/>
+      <c r="AF14" s="129"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="129"/>
+      <c r="AI14" s="129"/>
+      <c r="AJ14" s="129"/>
+      <c r="AK14" s="129"/>
+      <c r="AL14" s="129"/>
+      <c r="AM14" s="129"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="124"/>
+      <c r="AP14" s="124"/>
+      <c r="AQ14" s="124"/>
+      <c r="AR14" s="124"/>
+      <c r="AS14" s="124"/>
+      <c r="AT14" s="124"/>
+      <c r="AU14" s="124"/>
+      <c r="AV14" s="124"/>
+      <c r="AW14" s="124"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="120"/>
-      <c r="AD15" s="120"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="120"/>
-      <c r="AH15" s="120"/>
-      <c r="AI15" s="120"/>
-      <c r="AJ15" s="120"/>
-      <c r="AK15" s="120"/>
-      <c r="AL15" s="120"/>
-      <c r="AM15" s="120"/>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="114"/>
-      <c r="AP15" s="114"/>
-      <c r="AQ15" s="114"/>
-      <c r="AR15" s="114"/>
-      <c r="AS15" s="114"/>
-      <c r="AT15" s="114"/>
-      <c r="AU15" s="114"/>
-      <c r="AV15" s="114"/>
-      <c r="AW15" s="114"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="131"/>
+      <c r="Z15" s="131"/>
+      <c r="AA15" s="131"/>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="131"/>
+      <c r="AD15" s="131"/>
+      <c r="AE15" s="131"/>
+      <c r="AF15" s="131"/>
+      <c r="AG15" s="131"/>
+      <c r="AH15" s="131"/>
+      <c r="AI15" s="131"/>
+      <c r="AJ15" s="131"/>
+      <c r="AK15" s="131"/>
+      <c r="AL15" s="131"/>
+      <c r="AM15" s="131"/>
+      <c r="AN15" s="124"/>
+      <c r="AO15" s="124"/>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="124"/>
+      <c r="AR15" s="124"/>
+      <c r="AS15" s="124"/>
+      <c r="AT15" s="124"/>
+      <c r="AU15" s="124"/>
+      <c r="AV15" s="124"/>
+      <c r="AW15" s="124"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120"/>
-      <c r="AB16" s="120"/>
-      <c r="AC16" s="120"/>
-      <c r="AD16" s="120"/>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="120"/>
-      <c r="AH16" s="120"/>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="120"/>
-      <c r="AK16" s="120"/>
-      <c r="AL16" s="120"/>
-      <c r="AM16" s="120"/>
-      <c r="AN16" s="114"/>
-      <c r="AO16" s="114"/>
-      <c r="AP16" s="114"/>
-      <c r="AQ16" s="114"/>
-      <c r="AR16" s="114"/>
-      <c r="AS16" s="114"/>
-      <c r="AT16" s="114"/>
-      <c r="AU16" s="114"/>
-      <c r="AV16" s="114"/>
-      <c r="AW16" s="114"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="131"/>
+      <c r="Z16" s="131"/>
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="131"/>
+      <c r="AF16" s="131"/>
+      <c r="AG16" s="131"/>
+      <c r="AH16" s="131"/>
+      <c r="AI16" s="131"/>
+      <c r="AJ16" s="131"/>
+      <c r="AK16" s="131"/>
+      <c r="AL16" s="131"/>
+      <c r="AM16" s="131"/>
+      <c r="AN16" s="124"/>
+      <c r="AO16" s="124"/>
+      <c r="AP16" s="124"/>
+      <c r="AQ16" s="124"/>
+      <c r="AR16" s="124"/>
+      <c r="AS16" s="124"/>
+      <c r="AT16" s="124"/>
+      <c r="AU16" s="124"/>
+      <c r="AV16" s="124"/>
+      <c r="AW16" s="124"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="120"/>
-      <c r="AC17" s="120"/>
-      <c r="AD17" s="120"/>
-      <c r="AE17" s="120"/>
-      <c r="AF17" s="120"/>
-      <c r="AG17" s="120"/>
-      <c r="AH17" s="120"/>
-      <c r="AI17" s="120"/>
-      <c r="AJ17" s="120"/>
-      <c r="AK17" s="120"/>
-      <c r="AL17" s="120"/>
-      <c r="AM17" s="120"/>
-      <c r="AN17" s="114"/>
-      <c r="AO17" s="114"/>
-      <c r="AP17" s="114"/>
-      <c r="AQ17" s="114"/>
-      <c r="AR17" s="114"/>
-      <c r="AS17" s="114"/>
-      <c r="AT17" s="114"/>
-      <c r="AU17" s="114"/>
-      <c r="AV17" s="114"/>
-      <c r="AW17" s="114"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="136"/>
+      <c r="V17" s="131"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="131"/>
+      <c r="Y17" s="131"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="131"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="131"/>
+      <c r="AF17" s="131"/>
+      <c r="AG17" s="131"/>
+      <c r="AH17" s="131"/>
+      <c r="AI17" s="131"/>
+      <c r="AJ17" s="131"/>
+      <c r="AK17" s="131"/>
+      <c r="AL17" s="131"/>
+      <c r="AM17" s="131"/>
+      <c r="AN17" s="124"/>
+      <c r="AO17" s="124"/>
+      <c r="AP17" s="124"/>
+      <c r="AQ17" s="124"/>
+      <c r="AR17" s="124"/>
+      <c r="AS17" s="124"/>
+      <c r="AT17" s="124"/>
+      <c r="AU17" s="124"/>
+      <c r="AV17" s="124"/>
+      <c r="AW17" s="124"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="121"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="120"/>
-      <c r="AC18" s="120"/>
-      <c r="AD18" s="120"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="120"/>
-      <c r="AG18" s="120"/>
-      <c r="AH18" s="120"/>
-      <c r="AI18" s="120"/>
-      <c r="AJ18" s="120"/>
-      <c r="AK18" s="120"/>
-      <c r="AL18" s="120"/>
-      <c r="AM18" s="120"/>
-      <c r="AN18" s="114"/>
-      <c r="AO18" s="114"/>
-      <c r="AP18" s="114"/>
-      <c r="AQ18" s="114"/>
-      <c r="AR18" s="114"/>
-      <c r="AS18" s="114"/>
-      <c r="AT18" s="114"/>
-      <c r="AU18" s="114"/>
-      <c r="AV18" s="114"/>
-      <c r="AW18" s="114"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="131"/>
+      <c r="X18" s="131"/>
+      <c r="Y18" s="131"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="131"/>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="131"/>
+      <c r="AD18" s="131"/>
+      <c r="AE18" s="131"/>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="131"/>
+      <c r="AH18" s="131"/>
+      <c r="AI18" s="131"/>
+      <c r="AJ18" s="131"/>
+      <c r="AK18" s="131"/>
+      <c r="AL18" s="131"/>
+      <c r="AM18" s="131"/>
+      <c r="AN18" s="124"/>
+      <c r="AO18" s="124"/>
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="124"/>
+      <c r="AS18" s="124"/>
+      <c r="AT18" s="124"/>
+      <c r="AU18" s="124"/>
+      <c r="AV18" s="124"/>
+      <c r="AW18" s="124"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="114"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="120"/>
-      <c r="AC19" s="120"/>
-      <c r="AD19" s="120"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="120"/>
-      <c r="AL19" s="120"/>
-      <c r="AM19" s="120"/>
-      <c r="AN19" s="114"/>
-      <c r="AO19" s="114"/>
-      <c r="AP19" s="114"/>
-      <c r="AQ19" s="114"/>
-      <c r="AR19" s="114"/>
-      <c r="AS19" s="114"/>
-      <c r="AT19" s="114"/>
-      <c r="AU19" s="114"/>
-      <c r="AV19" s="114"/>
-      <c r="AW19" s="114"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="131"/>
+      <c r="W19" s="131"/>
+      <c r="X19" s="131"/>
+      <c r="Y19" s="131"/>
+      <c r="Z19" s="131"/>
+      <c r="AA19" s="131"/>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="131"/>
+      <c r="AD19" s="131"/>
+      <c r="AE19" s="131"/>
+      <c r="AF19" s="131"/>
+      <c r="AG19" s="131"/>
+      <c r="AH19" s="131"/>
+      <c r="AI19" s="131"/>
+      <c r="AJ19" s="131"/>
+      <c r="AK19" s="131"/>
+      <c r="AL19" s="131"/>
+      <c r="AM19" s="131"/>
+      <c r="AN19" s="124"/>
+      <c r="AO19" s="124"/>
+      <c r="AP19" s="124"/>
+      <c r="AQ19" s="124"/>
+      <c r="AR19" s="124"/>
+      <c r="AS19" s="124"/>
+      <c r="AT19" s="124"/>
+      <c r="AU19" s="124"/>
+      <c r="AV19" s="124"/>
+      <c r="AW19" s="124"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="120"/>
-      <c r="AC20" s="120"/>
-      <c r="AD20" s="120"/>
-      <c r="AE20" s="120"/>
-      <c r="AF20" s="120"/>
-      <c r="AG20" s="120"/>
-      <c r="AH20" s="120"/>
-      <c r="AI20" s="120"/>
-      <c r="AJ20" s="120"/>
-      <c r="AK20" s="120"/>
-      <c r="AL20" s="120"/>
-      <c r="AM20" s="120"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="114"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="114"/>
-      <c r="AR20" s="114"/>
-      <c r="AS20" s="114"/>
-      <c r="AT20" s="114"/>
-      <c r="AU20" s="114"/>
-      <c r="AV20" s="114"/>
-      <c r="AW20" s="114"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="131"/>
+      <c r="X20" s="131"/>
+      <c r="Y20" s="131"/>
+      <c r="Z20" s="131"/>
+      <c r="AA20" s="131"/>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="131"/>
+      <c r="AD20" s="131"/>
+      <c r="AE20" s="131"/>
+      <c r="AF20" s="131"/>
+      <c r="AG20" s="131"/>
+      <c r="AH20" s="131"/>
+      <c r="AI20" s="131"/>
+      <c r="AJ20" s="131"/>
+      <c r="AK20" s="131"/>
+      <c r="AL20" s="131"/>
+      <c r="AM20" s="131"/>
+      <c r="AN20" s="124"/>
+      <c r="AO20" s="124"/>
+      <c r="AP20" s="124"/>
+      <c r="AQ20" s="124"/>
+      <c r="AR20" s="124"/>
+      <c r="AS20" s="124"/>
+      <c r="AT20" s="124"/>
+      <c r="AU20" s="124"/>
+      <c r="AV20" s="124"/>
+      <c r="AW20" s="124"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="120"/>
-      <c r="AC21" s="120"/>
-      <c r="AD21" s="120"/>
-      <c r="AE21" s="120"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="120"/>
-      <c r="AH21" s="120"/>
-      <c r="AI21" s="120"/>
-      <c r="AJ21" s="120"/>
-      <c r="AK21" s="120"/>
-      <c r="AL21" s="120"/>
-      <c r="AM21" s="120"/>
-      <c r="AN21" s="114"/>
-      <c r="AO21" s="114"/>
-      <c r="AP21" s="114"/>
-      <c r="AQ21" s="114"/>
-      <c r="AR21" s="114"/>
-      <c r="AS21" s="114"/>
-      <c r="AT21" s="114"/>
-      <c r="AU21" s="114"/>
-      <c r="AV21" s="114"/>
-      <c r="AW21" s="114"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="131"/>
+      <c r="Y21" s="131"/>
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="131"/>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="131"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="131"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="131"/>
+      <c r="AH21" s="131"/>
+      <c r="AI21" s="131"/>
+      <c r="AJ21" s="131"/>
+      <c r="AK21" s="131"/>
+      <c r="AL21" s="131"/>
+      <c r="AM21" s="131"/>
+      <c r="AN21" s="124"/>
+      <c r="AO21" s="124"/>
+      <c r="AP21" s="124"/>
+      <c r="AQ21" s="124"/>
+      <c r="AR21" s="124"/>
+      <c r="AS21" s="124"/>
+      <c r="AT21" s="124"/>
+      <c r="AU21" s="124"/>
+      <c r="AV21" s="124"/>
+      <c r="AW21" s="124"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="120"/>
-      <c r="AC22" s="120"/>
-      <c r="AD22" s="120"/>
-      <c r="AE22" s="120"/>
-      <c r="AF22" s="120"/>
-      <c r="AG22" s="120"/>
-      <c r="AH22" s="120"/>
-      <c r="AI22" s="120"/>
-      <c r="AJ22" s="120"/>
-      <c r="AK22" s="120"/>
-      <c r="AL22" s="120"/>
-      <c r="AM22" s="120"/>
-      <c r="AN22" s="114"/>
-      <c r="AO22" s="114"/>
-      <c r="AP22" s="114"/>
-      <c r="AQ22" s="114"/>
-      <c r="AR22" s="114"/>
-      <c r="AS22" s="114"/>
-      <c r="AT22" s="114"/>
-      <c r="AU22" s="114"/>
-      <c r="AV22" s="114"/>
-      <c r="AW22" s="114"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="131"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="131"/>
+      <c r="AH22" s="131"/>
+      <c r="AI22" s="131"/>
+      <c r="AJ22" s="131"/>
+      <c r="AK22" s="131"/>
+      <c r="AL22" s="131"/>
+      <c r="AM22" s="131"/>
+      <c r="AN22" s="124"/>
+      <c r="AO22" s="124"/>
+      <c r="AP22" s="124"/>
+      <c r="AQ22" s="124"/>
+      <c r="AR22" s="124"/>
+      <c r="AS22" s="124"/>
+      <c r="AT22" s="124"/>
+      <c r="AU22" s="124"/>
+      <c r="AV22" s="124"/>
+      <c r="AW22" s="124"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="120"/>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="120"/>
-      <c r="AB23" s="120"/>
-      <c r="AC23" s="120"/>
-      <c r="AD23" s="120"/>
-      <c r="AE23" s="120"/>
-      <c r="AF23" s="120"/>
-      <c r="AG23" s="120"/>
-      <c r="AH23" s="120"/>
-      <c r="AI23" s="120"/>
-      <c r="AJ23" s="120"/>
-      <c r="AK23" s="120"/>
-      <c r="AL23" s="120"/>
-      <c r="AM23" s="120"/>
-      <c r="AN23" s="114"/>
-      <c r="AO23" s="114"/>
-      <c r="AP23" s="114"/>
-      <c r="AQ23" s="114"/>
-      <c r="AR23" s="114"/>
-      <c r="AS23" s="114"/>
-      <c r="AT23" s="114"/>
-      <c r="AU23" s="114"/>
-      <c r="AV23" s="114"/>
-      <c r="AW23" s="114"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="131"/>
+      <c r="W23" s="131"/>
+      <c r="X23" s="131"/>
+      <c r="Y23" s="131"/>
+      <c r="Z23" s="131"/>
+      <c r="AA23" s="131"/>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="131"/>
+      <c r="AD23" s="131"/>
+      <c r="AE23" s="131"/>
+      <c r="AF23" s="131"/>
+      <c r="AG23" s="131"/>
+      <c r="AH23" s="131"/>
+      <c r="AI23" s="131"/>
+      <c r="AJ23" s="131"/>
+      <c r="AK23" s="131"/>
+      <c r="AL23" s="131"/>
+      <c r="AM23" s="131"/>
+      <c r="AN23" s="124"/>
+      <c r="AO23" s="124"/>
+      <c r="AP23" s="124"/>
+      <c r="AQ23" s="124"/>
+      <c r="AR23" s="124"/>
+      <c r="AS23" s="124"/>
+      <c r="AT23" s="124"/>
+      <c r="AU23" s="124"/>
+      <c r="AV23" s="124"/>
+      <c r="AW23" s="124"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="120"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="120"/>
-      <c r="AK24" s="120"/>
-      <c r="AL24" s="120"/>
-      <c r="AM24" s="120"/>
-      <c r="AN24" s="114"/>
-      <c r="AO24" s="114"/>
-      <c r="AP24" s="114"/>
-      <c r="AQ24" s="114"/>
-      <c r="AR24" s="114"/>
-      <c r="AS24" s="114"/>
-      <c r="AT24" s="114"/>
-      <c r="AU24" s="114"/>
-      <c r="AV24" s="114"/>
-      <c r="AW24" s="114"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="131"/>
+      <c r="AD24" s="131"/>
+      <c r="AE24" s="131"/>
+      <c r="AF24" s="131"/>
+      <c r="AG24" s="131"/>
+      <c r="AH24" s="131"/>
+      <c r="AI24" s="131"/>
+      <c r="AJ24" s="131"/>
+      <c r="AK24" s="131"/>
+      <c r="AL24" s="131"/>
+      <c r="AM24" s="131"/>
+      <c r="AN24" s="124"/>
+      <c r="AO24" s="124"/>
+      <c r="AP24" s="124"/>
+      <c r="AQ24" s="124"/>
+      <c r="AR24" s="124"/>
+      <c r="AS24" s="124"/>
+      <c r="AT24" s="124"/>
+      <c r="AU24" s="124"/>
+      <c r="AV24" s="124"/>
+      <c r="AW24" s="124"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="120"/>
-      <c r="AC25" s="120"/>
-      <c r="AD25" s="120"/>
-      <c r="AE25" s="120"/>
-      <c r="AF25" s="120"/>
-      <c r="AG25" s="120"/>
-      <c r="AH25" s="120"/>
-      <c r="AI25" s="120"/>
-      <c r="AJ25" s="120"/>
-      <c r="AK25" s="120"/>
-      <c r="AL25" s="120"/>
-      <c r="AM25" s="120"/>
-      <c r="AN25" s="114"/>
-      <c r="AO25" s="114"/>
-      <c r="AP25" s="114"/>
-      <c r="AQ25" s="114"/>
-      <c r="AR25" s="114"/>
-      <c r="AS25" s="114"/>
-      <c r="AT25" s="114"/>
-      <c r="AU25" s="114"/>
-      <c r="AV25" s="114"/>
-      <c r="AW25" s="114"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="131"/>
+      <c r="AD25" s="131"/>
+      <c r="AE25" s="131"/>
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="131"/>
+      <c r="AH25" s="131"/>
+      <c r="AI25" s="131"/>
+      <c r="AJ25" s="131"/>
+      <c r="AK25" s="131"/>
+      <c r="AL25" s="131"/>
+      <c r="AM25" s="131"/>
+      <c r="AN25" s="124"/>
+      <c r="AO25" s="124"/>
+      <c r="AP25" s="124"/>
+      <c r="AQ25" s="124"/>
+      <c r="AR25" s="124"/>
+      <c r="AS25" s="124"/>
+      <c r="AT25" s="124"/>
+      <c r="AU25" s="124"/>
+      <c r="AV25" s="124"/>
+      <c r="AW25" s="124"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="120"/>
-      <c r="AC26" s="120"/>
-      <c r="AD26" s="120"/>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="120"/>
-      <c r="AH26" s="120"/>
-      <c r="AI26" s="120"/>
-      <c r="AJ26" s="120"/>
-      <c r="AK26" s="120"/>
-      <c r="AL26" s="120"/>
-      <c r="AM26" s="120"/>
-      <c r="AN26" s="114"/>
-      <c r="AO26" s="114"/>
-      <c r="AP26" s="114"/>
-      <c r="AQ26" s="114"/>
-      <c r="AR26" s="114"/>
-      <c r="AS26" s="114"/>
-      <c r="AT26" s="114"/>
-      <c r="AU26" s="114"/>
-      <c r="AV26" s="114"/>
-      <c r="AW26" s="114"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="124"/>
+      <c r="U26" s="124"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="131"/>
+      <c r="AD26" s="131"/>
+      <c r="AE26" s="131"/>
+      <c r="AF26" s="131"/>
+      <c r="AG26" s="131"/>
+      <c r="AH26" s="131"/>
+      <c r="AI26" s="131"/>
+      <c r="AJ26" s="131"/>
+      <c r="AK26" s="131"/>
+      <c r="AL26" s="131"/>
+      <c r="AM26" s="131"/>
+      <c r="AN26" s="124"/>
+      <c r="AO26" s="124"/>
+      <c r="AP26" s="124"/>
+      <c r="AQ26" s="124"/>
+      <c r="AR26" s="124"/>
+      <c r="AS26" s="124"/>
+      <c r="AT26" s="124"/>
+      <c r="AU26" s="124"/>
+      <c r="AV26" s="124"/>
+      <c r="AW26" s="124"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="120"/>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="120"/>
-      <c r="AH27" s="120"/>
-      <c r="AI27" s="120"/>
-      <c r="AJ27" s="120"/>
-      <c r="AK27" s="120"/>
-      <c r="AL27" s="120"/>
-      <c r="AM27" s="120"/>
-      <c r="AN27" s="114"/>
-      <c r="AO27" s="114"/>
-      <c r="AP27" s="114"/>
-      <c r="AQ27" s="114"/>
-      <c r="AR27" s="114"/>
-      <c r="AS27" s="114"/>
-      <c r="AT27" s="114"/>
-      <c r="AU27" s="114"/>
-      <c r="AV27" s="114"/>
-      <c r="AW27" s="114"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="124"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="131"/>
+      <c r="AD27" s="131"/>
+      <c r="AE27" s="131"/>
+      <c r="AF27" s="131"/>
+      <c r="AG27" s="131"/>
+      <c r="AH27" s="131"/>
+      <c r="AI27" s="131"/>
+      <c r="AJ27" s="131"/>
+      <c r="AK27" s="131"/>
+      <c r="AL27" s="131"/>
+      <c r="AM27" s="131"/>
+      <c r="AN27" s="124"/>
+      <c r="AO27" s="124"/>
+      <c r="AP27" s="124"/>
+      <c r="AQ27" s="124"/>
+      <c r="AR27" s="124"/>
+      <c r="AS27" s="124"/>
+      <c r="AT27" s="124"/>
+      <c r="AU27" s="124"/>
+      <c r="AV27" s="124"/>
+      <c r="AW27" s="124"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="120"/>
-      <c r="AB28" s="120"/>
-      <c r="AC28" s="120"/>
-      <c r="AD28" s="120"/>
-      <c r="AE28" s="120"/>
-      <c r="AF28" s="120"/>
-      <c r="AG28" s="120"/>
-      <c r="AH28" s="120"/>
-      <c r="AI28" s="120"/>
-      <c r="AJ28" s="120"/>
-      <c r="AK28" s="120"/>
-      <c r="AL28" s="120"/>
-      <c r="AM28" s="120"/>
-      <c r="AN28" s="114"/>
-      <c r="AO28" s="114"/>
-      <c r="AP28" s="114"/>
-      <c r="AQ28" s="114"/>
-      <c r="AR28" s="114"/>
-      <c r="AS28" s="114"/>
-      <c r="AT28" s="114"/>
-      <c r="AU28" s="114"/>
-      <c r="AV28" s="114"/>
-      <c r="AW28" s="114"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="130"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
+      <c r="X28" s="131"/>
+      <c r="Y28" s="131"/>
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131"/>
+      <c r="AB28" s="131"/>
+      <c r="AC28" s="131"/>
+      <c r="AD28" s="131"/>
+      <c r="AE28" s="131"/>
+      <c r="AF28" s="131"/>
+      <c r="AG28" s="131"/>
+      <c r="AH28" s="131"/>
+      <c r="AI28" s="131"/>
+      <c r="AJ28" s="131"/>
+      <c r="AK28" s="131"/>
+      <c r="AL28" s="131"/>
+      <c r="AM28" s="131"/>
+      <c r="AN28" s="124"/>
+      <c r="AO28" s="124"/>
+      <c r="AP28" s="124"/>
+      <c r="AQ28" s="124"/>
+      <c r="AR28" s="124"/>
+      <c r="AS28" s="124"/>
+      <c r="AT28" s="124"/>
+      <c r="AU28" s="124"/>
+      <c r="AV28" s="124"/>
+      <c r="AW28" s="124"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="120"/>
-      <c r="AC29" s="120"/>
-      <c r="AD29" s="120"/>
-      <c r="AE29" s="120"/>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="120"/>
-      <c r="AH29" s="120"/>
-      <c r="AI29" s="120"/>
-      <c r="AJ29" s="120"/>
-      <c r="AK29" s="120"/>
-      <c r="AL29" s="120"/>
-      <c r="AM29" s="120"/>
-      <c r="AN29" s="114"/>
-      <c r="AO29" s="114"/>
-      <c r="AP29" s="114"/>
-      <c r="AQ29" s="114"/>
-      <c r="AR29" s="114"/>
-      <c r="AS29" s="114"/>
-      <c r="AT29" s="114"/>
-      <c r="AU29" s="114"/>
-      <c r="AV29" s="114"/>
-      <c r="AW29" s="114"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="131"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="131"/>
+      <c r="Z29" s="131"/>
+      <c r="AA29" s="131"/>
+      <c r="AB29" s="131"/>
+      <c r="AC29" s="131"/>
+      <c r="AD29" s="131"/>
+      <c r="AE29" s="131"/>
+      <c r="AF29" s="131"/>
+      <c r="AG29" s="131"/>
+      <c r="AH29" s="131"/>
+      <c r="AI29" s="131"/>
+      <c r="AJ29" s="131"/>
+      <c r="AK29" s="131"/>
+      <c r="AL29" s="131"/>
+      <c r="AM29" s="131"/>
+      <c r="AN29" s="124"/>
+      <c r="AO29" s="124"/>
+      <c r="AP29" s="124"/>
+      <c r="AQ29" s="124"/>
+      <c r="AR29" s="124"/>
+      <c r="AS29" s="124"/>
+      <c r="AT29" s="124"/>
+      <c r="AU29" s="124"/>
+      <c r="AV29" s="124"/>
+      <c r="AW29" s="124"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="120"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="120"/>
-      <c r="AH30" s="120"/>
-      <c r="AI30" s="120"/>
-      <c r="AJ30" s="120"/>
-      <c r="AK30" s="120"/>
-      <c r="AL30" s="120"/>
-      <c r="AM30" s="120"/>
-      <c r="AN30" s="114"/>
-      <c r="AO30" s="114"/>
-      <c r="AP30" s="114"/>
-      <c r="AQ30" s="114"/>
-      <c r="AR30" s="114"/>
-      <c r="AS30" s="114"/>
-      <c r="AT30" s="114"/>
-      <c r="AU30" s="114"/>
-      <c r="AV30" s="114"/>
-      <c r="AW30" s="114"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+      <c r="X30" s="131"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="131"/>
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="131"/>
+      <c r="AD30" s="131"/>
+      <c r="AE30" s="131"/>
+      <c r="AF30" s="131"/>
+      <c r="AG30" s="131"/>
+      <c r="AH30" s="131"/>
+      <c r="AI30" s="131"/>
+      <c r="AJ30" s="131"/>
+      <c r="AK30" s="131"/>
+      <c r="AL30" s="131"/>
+      <c r="AM30" s="131"/>
+      <c r="AN30" s="124"/>
+      <c r="AO30" s="124"/>
+      <c r="AP30" s="124"/>
+      <c r="AQ30" s="124"/>
+      <c r="AR30" s="124"/>
+      <c r="AS30" s="124"/>
+      <c r="AT30" s="124"/>
+      <c r="AU30" s="124"/>
+      <c r="AV30" s="124"/>
+      <c r="AW30" s="124"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="120"/>
-      <c r="AC31" s="120"/>
-      <c r="AD31" s="120"/>
-      <c r="AE31" s="120"/>
-      <c r="AF31" s="120"/>
-      <c r="AG31" s="120"/>
-      <c r="AH31" s="120"/>
-      <c r="AI31" s="120"/>
-      <c r="AJ31" s="120"/>
-      <c r="AK31" s="120"/>
-      <c r="AL31" s="120"/>
-      <c r="AM31" s="120"/>
-      <c r="AN31" s="114"/>
-      <c r="AO31" s="114"/>
-      <c r="AP31" s="114"/>
-      <c r="AQ31" s="114"/>
-      <c r="AR31" s="114"/>
-      <c r="AS31" s="114"/>
-      <c r="AT31" s="114"/>
-      <c r="AU31" s="114"/>
-      <c r="AV31" s="114"/>
-      <c r="AW31" s="114"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="124"/>
+      <c r="U31" s="124"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="131"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="131"/>
+      <c r="AD31" s="131"/>
+      <c r="AE31" s="131"/>
+      <c r="AF31" s="131"/>
+      <c r="AG31" s="131"/>
+      <c r="AH31" s="131"/>
+      <c r="AI31" s="131"/>
+      <c r="AJ31" s="131"/>
+      <c r="AK31" s="131"/>
+      <c r="AL31" s="131"/>
+      <c r="AM31" s="131"/>
+      <c r="AN31" s="124"/>
+      <c r="AO31" s="124"/>
+      <c r="AP31" s="124"/>
+      <c r="AQ31" s="124"/>
+      <c r="AR31" s="124"/>
+      <c r="AS31" s="124"/>
+      <c r="AT31" s="124"/>
+      <c r="AU31" s="124"/>
+      <c r="AV31" s="124"/>
+      <c r="AW31" s="124"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="120"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="120"/>
-      <c r="AJ32" s="120"/>
-      <c r="AK32" s="120"/>
-      <c r="AL32" s="120"/>
-      <c r="AM32" s="120"/>
-      <c r="AN32" s="114"/>
-      <c r="AO32" s="114"/>
-      <c r="AP32" s="114"/>
-      <c r="AQ32" s="114"/>
-      <c r="AR32" s="114"/>
-      <c r="AS32" s="114"/>
-      <c r="AT32" s="114"/>
-      <c r="AU32" s="114"/>
-      <c r="AV32" s="114"/>
-      <c r="AW32" s="114"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="131"/>
+      <c r="AD32" s="131"/>
+      <c r="AE32" s="131"/>
+      <c r="AF32" s="131"/>
+      <c r="AG32" s="131"/>
+      <c r="AH32" s="131"/>
+      <c r="AI32" s="131"/>
+      <c r="AJ32" s="131"/>
+      <c r="AK32" s="131"/>
+      <c r="AL32" s="131"/>
+      <c r="AM32" s="131"/>
+      <c r="AN32" s="124"/>
+      <c r="AO32" s="124"/>
+      <c r="AP32" s="124"/>
+      <c r="AQ32" s="124"/>
+      <c r="AR32" s="124"/>
+      <c r="AS32" s="124"/>
+      <c r="AT32" s="124"/>
+      <c r="AU32" s="124"/>
+      <c r="AV32" s="124"/>
+      <c r="AW32" s="124"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="120"/>
-      <c r="AC33" s="120"/>
-      <c r="AD33" s="120"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="120"/>
-      <c r="AH33" s="120"/>
-      <c r="AI33" s="120"/>
-      <c r="AJ33" s="120"/>
-      <c r="AK33" s="120"/>
-      <c r="AL33" s="120"/>
-      <c r="AM33" s="120"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="114"/>
-      <c r="AP33" s="114"/>
-      <c r="AQ33" s="114"/>
-      <c r="AR33" s="114"/>
-      <c r="AS33" s="114"/>
-      <c r="AT33" s="114"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="114"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="130"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
+      <c r="AA33" s="131"/>
+      <c r="AB33" s="131"/>
+      <c r="AC33" s="131"/>
+      <c r="AD33" s="131"/>
+      <c r="AE33" s="131"/>
+      <c r="AF33" s="131"/>
+      <c r="AG33" s="131"/>
+      <c r="AH33" s="131"/>
+      <c r="AI33" s="131"/>
+      <c r="AJ33" s="131"/>
+      <c r="AK33" s="131"/>
+      <c r="AL33" s="131"/>
+      <c r="AM33" s="131"/>
+      <c r="AN33" s="124"/>
+      <c r="AO33" s="124"/>
+      <c r="AP33" s="124"/>
+      <c r="AQ33" s="124"/>
+      <c r="AR33" s="124"/>
+      <c r="AS33" s="124"/>
+      <c r="AT33" s="124"/>
+      <c r="AU33" s="124"/>
+      <c r="AV33" s="124"/>
+      <c r="AW33" s="124"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="120"/>
-      <c r="AH34" s="120"/>
-      <c r="AI34" s="120"/>
-      <c r="AJ34" s="120"/>
-      <c r="AK34" s="120"/>
-      <c r="AL34" s="120"/>
-      <c r="AM34" s="120"/>
-      <c r="AN34" s="114"/>
-      <c r="AO34" s="114"/>
-      <c r="AP34" s="114"/>
-      <c r="AQ34" s="114"/>
-      <c r="AR34" s="114"/>
-      <c r="AS34" s="114"/>
-      <c r="AT34" s="114"/>
-      <c r="AU34" s="114"/>
-      <c r="AV34" s="114"/>
-      <c r="AW34" s="114"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="137"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="138"/>
+      <c r="R34" s="138"/>
+      <c r="S34" s="124"/>
+      <c r="T34" s="124"/>
+      <c r="U34" s="124"/>
+      <c r="V34" s="131"/>
+      <c r="W34" s="131"/>
+      <c r="X34" s="131"/>
+      <c r="Y34" s="131"/>
+      <c r="Z34" s="131"/>
+      <c r="AA34" s="131"/>
+      <c r="AB34" s="131"/>
+      <c r="AC34" s="131"/>
+      <c r="AD34" s="131"/>
+      <c r="AE34" s="131"/>
+      <c r="AF34" s="131"/>
+      <c r="AG34" s="131"/>
+      <c r="AH34" s="131"/>
+      <c r="AI34" s="131"/>
+      <c r="AJ34" s="131"/>
+      <c r="AK34" s="131"/>
+      <c r="AL34" s="131"/>
+      <c r="AM34" s="131"/>
+      <c r="AN34" s="124"/>
+      <c r="AO34" s="124"/>
+      <c r="AP34" s="124"/>
+      <c r="AQ34" s="124"/>
+      <c r="AR34" s="124"/>
+      <c r="AS34" s="124"/>
+      <c r="AT34" s="124"/>
+      <c r="AU34" s="124"/>
+      <c r="AV34" s="124"/>
+      <c r="AW34" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -6030,230 +6245,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6350,17 +6350,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="139" t="str">
+      <c r="AZ1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="140"/>
-      <c r="BB1" s="140"/>
-      <c r="BC1" s="140"/>
-      <c r="BD1" s="140"/>
-      <c r="BE1" s="140"/>
-      <c r="BF1" s="140"/>
-      <c r="BG1" s="141"/>
+      <c r="BA1" s="144"/>
+      <c r="BB1" s="144"/>
+      <c r="BC1" s="144"/>
+      <c r="BD1" s="144"/>
+      <c r="BE1" s="144"/>
+      <c r="BF1" s="144"/>
+      <c r="BG1" s="145"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6426,14 +6426,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="139"/>
-      <c r="BA2" s="140"/>
-      <c r="BB2" s="140"/>
-      <c r="BC2" s="140"/>
-      <c r="BD2" s="140"/>
-      <c r="BE2" s="140"/>
-      <c r="BF2" s="140"/>
-      <c r="BG2" s="141"/>
+      <c r="AZ2" s="143"/>
+      <c r="BA2" s="144"/>
+      <c r="BB2" s="144"/>
+      <c r="BC2" s="144"/>
+      <c r="BD2" s="144"/>
+      <c r="BE2" s="144"/>
+      <c r="BF2" s="144"/>
+      <c r="BG2" s="145"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7741,10 +7741,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="144">
+      <c r="B42" s="141">
         <v>1</v>
       </c>
-      <c r="C42" s="145"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7776,16 +7776,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="142" t="s">
+      <c r="AE42" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="143"/>
-      <c r="AG42" s="142"/>
-      <c r="AH42" s="143"/>
-      <c r="AI42" s="142"/>
-      <c r="AJ42" s="143"/>
-      <c r="AK42" s="142"/>
-      <c r="AL42" s="143"/>
+      <c r="AF42" s="140"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="140"/>
+      <c r="AI42" s="139"/>
+      <c r="AJ42" s="140"/>
+      <c r="AK42" s="139"/>
+      <c r="AL42" s="140"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7819,10 +7819,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="144">
+      <c r="B43" s="141">
         <v>2</v>
       </c>
-      <c r="C43" s="145"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="104" t="s">
         <v>94</v>
       </c>
@@ -7854,16 +7854,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="105"/>
-      <c r="AE43" s="142" t="s">
+      <c r="AE43" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="143"/>
-      <c r="AG43" s="142"/>
-      <c r="AH43" s="143"/>
-      <c r="AI43" s="142"/>
-      <c r="AJ43" s="143"/>
-      <c r="AK43" s="142"/>
-      <c r="AL43" s="143"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="139"/>
+      <c r="AH43" s="140"/>
+      <c r="AI43" s="139"/>
+      <c r="AJ43" s="140"/>
+      <c r="AK43" s="139"/>
+      <c r="AL43" s="140"/>
       <c r="AM43" s="83" t="s">
         <v>149</v>
       </c>
@@ -7897,10 +7897,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="144">
+      <c r="B44" s="141">
         <v>3</v>
       </c>
-      <c r="C44" s="145"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="93" t="s">
         <v>94</v>
       </c>
@@ -7932,16 +7932,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="142" t="s">
+      <c r="AE44" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="143"/>
-      <c r="AG44" s="142"/>
-      <c r="AH44" s="143"/>
-      <c r="AI44" s="142"/>
-      <c r="AJ44" s="143"/>
-      <c r="AK44" s="142"/>
-      <c r="AL44" s="143"/>
+      <c r="AF44" s="140"/>
+      <c r="AG44" s="139"/>
+      <c r="AH44" s="140"/>
+      <c r="AI44" s="139"/>
+      <c r="AJ44" s="140"/>
+      <c r="AK44" s="139"/>
+      <c r="AL44" s="140"/>
       <c r="AM44" s="83" t="s">
         <v>127</v>
       </c>
@@ -7975,10 +7975,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="144">
+      <c r="B45" s="141">
         <v>4</v>
       </c>
-      <c r="C45" s="145"/>
+      <c r="C45" s="142"/>
       <c r="D45" s="82" t="s">
         <v>103</v>
       </c>
@@ -8010,16 +8010,16 @@
       <c r="AB45" s="86"/>
       <c r="AC45" s="86"/>
       <c r="AD45" s="87"/>
-      <c r="AE45" s="142" t="s">
+      <c r="AE45" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF45" s="143"/>
-      <c r="AG45" s="142"/>
-      <c r="AH45" s="143"/>
-      <c r="AI45" s="142"/>
-      <c r="AJ45" s="143"/>
-      <c r="AK45" s="142"/>
-      <c r="AL45" s="143"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="139"/>
+      <c r="AH45" s="140"/>
+      <c r="AI45" s="139"/>
+      <c r="AJ45" s="140"/>
+      <c r="AK45" s="139"/>
+      <c r="AL45" s="140"/>
       <c r="AM45" s="83" t="s">
         <v>104</v>
       </c>
@@ -8058,15 +8058,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK45:AL45"/>
@@ -8083,6 +8074,15 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8228,7 +8228,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="139" t="str">
+      <c r="CU1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8359,7 +8359,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="139"/>
+      <c r="CU2" s="143"/>
       <c r="CV2" s="151"/>
       <c r="CW2" s="151"/>
       <c r="CX2" s="151"/>
@@ -8575,37 +8575,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="131" t="s">
+      <c r="F6" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="159" t="s">
+      <c r="J6" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="131" t="s">
+      <c r="L6" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="131" t="s">
+      <c r="M6" s="116" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8613,24 +8613,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="159" t="s">
+      <c r="Q6" s="157" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="159"/>
+      <c r="Q7" s="157"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8702,37 +8702,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F11" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="157" t="s">
+      <c r="I11" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="159" t="s">
+      <c r="J11" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="131" t="s">
+      <c r="K11" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="131" t="s">
+      <c r="L11" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="131" t="s">
+      <c r="M11" s="116" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8740,24 +8740,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="157" t="s">
+      <c r="Q11" s="158" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8767,7 +8767,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="158"/>
+      <c r="Q12" s="159"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
@@ -8882,37 +8882,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="D18" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="131" t="s">
+      <c r="F18" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="131" t="s">
+      <c r="H18" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="159" t="s">
+      <c r="I18" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="159" t="s">
+      <c r="J18" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="131" t="s">
+      <c r="K18" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="131" t="s">
+      <c r="L18" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="131" t="s">
+      <c r="M18" s="116" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8920,24 +8920,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="159" t="s">
+      <c r="Q18" s="157" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8947,7 +8947,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="159"/>
+      <c r="Q19" s="157"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -9242,26 +9242,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -9278,6 +9258,26 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9370,7 +9370,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="139" t="str">
+      <c r="AT1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="139"/>
+      <c r="AT2" s="143"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -11662,7 +11662,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="139" t="str">
+      <c r="AT1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11733,7 +11733,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="139"/>
+      <c r="AT2" s="143"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -12277,7 +12277,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="139" t="str">
+      <c r="AT1" s="143" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12348,7 +12348,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="139"/>
+      <c r="AT2" s="143"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -12668,21 +12668,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -12840,24 +12825,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12873,4 +12856,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21C_工程品種別集計.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201912\Backdoor\設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BC72D2-13BF-4D62-A3FA-BC7A3B6184CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7ABBF9-DC8E-4523-919C-A7E3202F1E19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,10 @@
     <sheet name="４．イベント仕様" sheetId="17" r:id="rId6"/>
     <sheet name="５．メッセージ仕様" sheetId="18" r:id="rId7"/>
     <sheet name="６．補足事項" sheetId="16" r:id="rId8"/>
+    <sheet name="参照用レイアウト" sheetId="19" state="hidden" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="___PQ420" localSheetId="4" hidden="1">{"'フローチャート'!$A$1:$AO$191"}</definedName>
@@ -121,22 +122,12 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021" concurrentManualCount="2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="250">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1400,6 +1391,192 @@
     <t>K-21C</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Login user(ログイン者)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ＸＸＸ　ＸＸＸ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Connection environment(接続環境)</t>
+    <rPh sb="23" eb="27">
+      <t>セツゾクカンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 本番環境</t>
+    <rPh sb="1" eb="3">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2019/05/28</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>15:10</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>2019/09</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>Search results</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(検索結果)</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Search time</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd hh:mm</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(検索時間)</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Process code</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>Process abbreviation</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>(工程コード)</t>
+    <rPh sb="1" eb="3">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>(工程略称)</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Target date(対象年月)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Issues division(払出区分)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3：開発</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>Issues quantity total
+(払出数量合計)</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>[K-21C]Total by process variety(工程品種別集計) Ver.1.0.0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Total by process variety(工程品種別集計)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Variety
+(品種)</t>
+    <rPh sb="9" eb="11">
+      <t>ヒンシュ</t>
+    </rPh>
+    <phoneticPr fontId="45"/>
+  </si>
 </sst>
 </file>
 
@@ -1409,7 +1586,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1647,8 +1824,120 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1691,8 +1980,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1858,8 +2165,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1893,8 +2240,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2217,6 +2567,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2247,46 +2638,14 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2300,15 +2659,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2342,17 +2692,351 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="8" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="8" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="9" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="9" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="9" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="4" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="4" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="4" borderId="10" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="4" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="9" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="10" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="40% - アクセント 1" xfId="6" builtinId="31"/>
     <cellStyle name="60% - アクセント 1" xfId="1" builtinId="32"/>
     <cellStyle name="通貨 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2361,6 +3045,7 @@
     <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="標準 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="標準 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2 2 4" xfId="15" xr:uid="{ED576594-0307-4732-B836-CE8EF5D82D19}"/>
     <cellStyle name="標準 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="標準 2 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="標準 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -3288,48 +3973,171 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>82</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="図 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC223FE0-DD79-439B-864F-ECFCA2CA90E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CB$34" spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="371475" y="1095375"/>
+              <a:ext cx="9867900" cy="5981700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>20108</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>103632</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>199350</xdr:rowOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="角丸四角形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F516F98D-4256-4CA7-9385-239861D423AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF224D3-7808-492A-8342-88D01F6F50B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="1095375"/>
-          <a:ext cx="9142857" cy="5400000"/>
+          <a:off x="8764058" y="28287133"/>
+          <a:ext cx="1104900" cy="542925"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Return</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4241,1770 +5049,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="114"/>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="114"/>
-      <c r="AO1" s="114"/>
-      <c r="AP1" s="114"/>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="114"/>
-      <c r="AT1" s="114"/>
-      <c r="AU1" s="114"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="114"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="129"/>
+      <c r="AR1" s="129"/>
+      <c r="AS1" s="129"/>
+      <c r="AT1" s="129"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="115"/>
-      <c r="AT2" s="115"/>
-      <c r="AU2" s="115"/>
-      <c r="AV2" s="115"/>
-      <c r="AW2" s="115"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="118" t="s">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="119"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="118" t="s">
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="116" t="s">
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116" t="s">
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="116"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116" t="s">
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116" t="s">
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="131"/>
+      <c r="AS3" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="116"/>
-      <c r="AV3" s="116"/>
-      <c r="AW3" s="116"/>
+      <c r="AT3" s="131"/>
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="117"/>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="117"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="117"/>
-      <c r="AP4" s="117"/>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="117"/>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="117"/>
-      <c r="AU4" s="117"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="117"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="125">
+      <c r="B5" s="115">
         <v>1</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126">
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116">
         <v>43725</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127" t="s">
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127" t="s">
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="124" t="s">
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="129" t="s">
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="129"/>
-      <c r="AJ5" s="129"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="124" t="s">
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="AO5" s="124"/>
-      <c r="AP5" s="124"/>
-      <c r="AQ5" s="124"/>
-      <c r="AR5" s="124"/>
-      <c r="AS5" s="124"/>
-      <c r="AT5" s="124"/>
-      <c r="AU5" s="124"/>
-      <c r="AV5" s="124"/>
-      <c r="AW5" s="124"/>
+      <c r="AO5" s="114"/>
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="114"/>
+      <c r="AR5" s="114"/>
+      <c r="AS5" s="114"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="114"/>
+      <c r="AV5" s="114"/>
+      <c r="AW5" s="114"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128"/>
       <c r="O6" s="128"/>
       <c r="P6" s="128"/>
       <c r="Q6" s="128"/>
       <c r="R6" s="128"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="124"/>
-      <c r="AP6" s="124"/>
-      <c r="AQ6" s="124"/>
-      <c r="AR6" s="124"/>
-      <c r="AS6" s="124"/>
-      <c r="AT6" s="124"/>
-      <c r="AU6" s="124"/>
-      <c r="AV6" s="124"/>
-      <c r="AW6" s="124"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114"/>
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="128"/>
       <c r="N7" s="128"/>
       <c r="O7" s="128"/>
       <c r="P7" s="128"/>
       <c r="Q7" s="128"/>
       <c r="R7" s="128"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="124"/>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AS7" s="124"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="124"/>
-      <c r="AV7" s="124"/>
-      <c r="AW7" s="124"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="126"/>
+      <c r="AM7" s="126"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="114"/>
+      <c r="AP7" s="114"/>
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128"/>
       <c r="O8" s="128"/>
       <c r="P8" s="128"/>
       <c r="Q8" s="128"/>
       <c r="R8" s="128"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="129"/>
-      <c r="W8" s="129"/>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="129"/>
-      <c r="AC8" s="129"/>
-      <c r="AD8" s="129"/>
-      <c r="AE8" s="129"/>
-      <c r="AF8" s="129"/>
-      <c r="AG8" s="129"/>
-      <c r="AH8" s="129"/>
-      <c r="AI8" s="129"/>
-      <c r="AJ8" s="129"/>
-      <c r="AK8" s="129"/>
-      <c r="AL8" s="129"/>
-      <c r="AM8" s="129"/>
-      <c r="AN8" s="124"/>
-      <c r="AO8" s="124"/>
-      <c r="AP8" s="124"/>
-      <c r="AQ8" s="124"/>
-      <c r="AR8" s="124"/>
-      <c r="AS8" s="124"/>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="114"/>
+      <c r="AO8" s="114"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
       <c r="M9" s="128"/>
       <c r="N9" s="128"/>
       <c r="O9" s="128"/>
       <c r="P9" s="128"/>
       <c r="Q9" s="128"/>
       <c r="R9" s="128"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="129"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="129"/>
-      <c r="AJ9" s="129"/>
-      <c r="AK9" s="129"/>
-      <c r="AL9" s="129"/>
-      <c r="AM9" s="129"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="124"/>
-      <c r="AQ9" s="124"/>
-      <c r="AR9" s="124"/>
-      <c r="AS9" s="124"/>
-      <c r="AT9" s="124"/>
-      <c r="AU9" s="124"/>
-      <c r="AV9" s="124"/>
-      <c r="AW9" s="124"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="126"/>
+      <c r="AK9" s="126"/>
+      <c r="AL9" s="126"/>
+      <c r="AM9" s="126"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="114"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="128"/>
       <c r="N10" s="128"/>
       <c r="O10" s="128"/>
       <c r="P10" s="128"/>
       <c r="Q10" s="128"/>
       <c r="R10" s="128"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="129"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="129"/>
-      <c r="AJ10" s="129"/>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="129"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="124"/>
-      <c r="AO10" s="124"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="124"/>
-      <c r="AR10" s="124"/>
-      <c r="AS10" s="124"/>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="126"/>
+      <c r="AJ10" s="126"/>
+      <c r="AK10" s="126"/>
+      <c r="AL10" s="126"/>
+      <c r="AM10" s="126"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="132"/>
-      <c r="AJ11" s="132"/>
-      <c r="AK11" s="132"/>
-      <c r="AL11" s="132"/>
-      <c r="AM11" s="132"/>
-      <c r="AN11" s="124"/>
-      <c r="AO11" s="124"/>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="124"/>
-      <c r="AR11" s="124"/>
-      <c r="AS11" s="124"/>
-      <c r="AT11" s="124"/>
-      <c r="AU11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AW11" s="124"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="127"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="127"/>
+      <c r="AI11" s="127"/>
+      <c r="AJ11" s="127"/>
+      <c r="AK11" s="127"/>
+      <c r="AL11" s="127"/>
+      <c r="AM11" s="127"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="114"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="131"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="131"/>
-      <c r="AE12" s="131"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="131"/>
-      <c r="AJ12" s="131"/>
-      <c r="AK12" s="131"/>
-      <c r="AL12" s="131"/>
-      <c r="AM12" s="131"/>
-      <c r="AN12" s="124"/>
-      <c r="AO12" s="124"/>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="124"/>
-      <c r="AR12" s="124"/>
-      <c r="AS12" s="124"/>
-      <c r="AT12" s="124"/>
-      <c r="AU12" s="124"/>
-      <c r="AV12" s="124"/>
-      <c r="AW12" s="124"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="131"/>
-      <c r="AE13" s="131"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="131"/>
-      <c r="AJ13" s="131"/>
-      <c r="AK13" s="131"/>
-      <c r="AL13" s="131"/>
-      <c r="AM13" s="131"/>
-      <c r="AN13" s="124"/>
-      <c r="AO13" s="124"/>
-      <c r="AP13" s="124"/>
-      <c r="AQ13" s="124"/>
-      <c r="AR13" s="124"/>
-      <c r="AS13" s="124"/>
-      <c r="AT13" s="124"/>
-      <c r="AU13" s="124"/>
-      <c r="AV13" s="124"/>
-      <c r="AW13" s="124"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="120"/>
+      <c r="AC13" s="120"/>
+      <c r="AD13" s="120"/>
+      <c r="AE13" s="120"/>
+      <c r="AF13" s="120"/>
+      <c r="AG13" s="120"/>
+      <c r="AH13" s="120"/>
+      <c r="AI13" s="120"/>
+      <c r="AJ13" s="120"/>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="129"/>
-      <c r="X14" s="129"/>
-      <c r="Y14" s="129"/>
-      <c r="Z14" s="129"/>
-      <c r="AA14" s="129"/>
-      <c r="AB14" s="129"/>
-      <c r="AC14" s="129"/>
-      <c r="AD14" s="129"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="129"/>
-      <c r="AJ14" s="129"/>
-      <c r="AK14" s="129"/>
-      <c r="AL14" s="129"/>
-      <c r="AM14" s="129"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="124"/>
-      <c r="AP14" s="124"/>
-      <c r="AQ14" s="124"/>
-      <c r="AR14" s="124"/>
-      <c r="AS14" s="124"/>
-      <c r="AT14" s="124"/>
-      <c r="AU14" s="124"/>
-      <c r="AV14" s="124"/>
-      <c r="AW14" s="124"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="131"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="131"/>
-      <c r="AJ15" s="131"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="131"/>
-      <c r="AM15" s="131"/>
-      <c r="AN15" s="124"/>
-      <c r="AO15" s="124"/>
-      <c r="AP15" s="124"/>
-      <c r="AQ15" s="124"/>
-      <c r="AR15" s="124"/>
-      <c r="AS15" s="124"/>
-      <c r="AT15" s="124"/>
-      <c r="AU15" s="124"/>
-      <c r="AV15" s="124"/>
-      <c r="AW15" s="124"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="120"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="120"/>
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="120"/>
+      <c r="AH15" s="120"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="131"/>
-      <c r="AJ16" s="131"/>
-      <c r="AK16" s="131"/>
-      <c r="AL16" s="131"/>
-      <c r="AM16" s="131"/>
-      <c r="AN16" s="124"/>
-      <c r="AO16" s="124"/>
-      <c r="AP16" s="124"/>
-      <c r="AQ16" s="124"/>
-      <c r="AR16" s="124"/>
-      <c r="AS16" s="124"/>
-      <c r="AT16" s="124"/>
-      <c r="AU16" s="124"/>
-      <c r="AV16" s="124"/>
-      <c r="AW16" s="124"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="120"/>
+      <c r="AC16" s="120"/>
+      <c r="AD16" s="120"/>
+      <c r="AE16" s="120"/>
+      <c r="AF16" s="120"/>
+      <c r="AG16" s="120"/>
+      <c r="AH16" s="120"/>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="120"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
-      <c r="U17" s="136"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="131"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="131"/>
-      <c r="AJ17" s="131"/>
-      <c r="AK17" s="131"/>
-      <c r="AL17" s="131"/>
-      <c r="AM17" s="131"/>
-      <c r="AN17" s="124"/>
-      <c r="AO17" s="124"/>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="124"/>
-      <c r="AR17" s="124"/>
-      <c r="AS17" s="124"/>
-      <c r="AT17" s="124"/>
-      <c r="AU17" s="124"/>
-      <c r="AV17" s="124"/>
-      <c r="AW17" s="124"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="120"/>
+      <c r="AC17" s="120"/>
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="120"/>
+      <c r="AF17" s="120"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="120"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="120"/>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="114"/>
+      <c r="AO17" s="114"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="131"/>
-      <c r="AJ18" s="131"/>
-      <c r="AK18" s="131"/>
-      <c r="AL18" s="131"/>
-      <c r="AM18" s="131"/>
-      <c r="AN18" s="124"/>
-      <c r="AO18" s="124"/>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="124"/>
-      <c r="AR18" s="124"/>
-      <c r="AS18" s="124"/>
-      <c r="AT18" s="124"/>
-      <c r="AU18" s="124"/>
-      <c r="AV18" s="124"/>
-      <c r="AW18" s="124"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="120"/>
+      <c r="AC18" s="120"/>
+      <c r="AD18" s="120"/>
+      <c r="AE18" s="120"/>
+      <c r="AF18" s="120"/>
+      <c r="AG18" s="120"/>
+      <c r="AH18" s="120"/>
+      <c r="AI18" s="120"/>
+      <c r="AJ18" s="120"/>
+      <c r="AK18" s="120"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="120"/>
+      <c r="AN18" s="114"/>
+      <c r="AO18" s="114"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="131"/>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="131"/>
-      <c r="AD19" s="131"/>
-      <c r="AE19" s="131"/>
-      <c r="AF19" s="131"/>
-      <c r="AG19" s="131"/>
-      <c r="AH19" s="131"/>
-      <c r="AI19" s="131"/>
-      <c r="AJ19" s="131"/>
-      <c r="AK19" s="131"/>
-      <c r="AL19" s="131"/>
-      <c r="AM19" s="131"/>
-      <c r="AN19" s="124"/>
-      <c r="AO19" s="124"/>
-      <c r="AP19" s="124"/>
-      <c r="AQ19" s="124"/>
-      <c r="AR19" s="124"/>
-      <c r="AS19" s="124"/>
-      <c r="AT19" s="124"/>
-      <c r="AU19" s="124"/>
-      <c r="AV19" s="124"/>
-      <c r="AW19" s="124"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="120"/>
+      <c r="AC19" s="120"/>
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="120"/>
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="120"/>
+      <c r="AN19" s="114"/>
+      <c r="AO19" s="114"/>
+      <c r="AP19" s="114"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="130"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="131"/>
-      <c r="AJ20" s="131"/>
-      <c r="AK20" s="131"/>
-      <c r="AL20" s="131"/>
-      <c r="AM20" s="131"/>
-      <c r="AN20" s="124"/>
-      <c r="AO20" s="124"/>
-      <c r="AP20" s="124"/>
-      <c r="AQ20" s="124"/>
-      <c r="AR20" s="124"/>
-      <c r="AS20" s="124"/>
-      <c r="AT20" s="124"/>
-      <c r="AU20" s="124"/>
-      <c r="AV20" s="124"/>
-      <c r="AW20" s="124"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="120"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="120"/>
+      <c r="AI20" s="120"/>
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
-      <c r="AI21" s="131"/>
-      <c r="AJ21" s="131"/>
-      <c r="AK21" s="131"/>
-      <c r="AL21" s="131"/>
-      <c r="AM21" s="131"/>
-      <c r="AN21" s="124"/>
-      <c r="AO21" s="124"/>
-      <c r="AP21" s="124"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="124"/>
-      <c r="AS21" s="124"/>
-      <c r="AT21" s="124"/>
-      <c r="AU21" s="124"/>
-      <c r="AV21" s="124"/>
-      <c r="AW21" s="124"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="120"/>
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="120"/>
+      <c r="AH21" s="120"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="131"/>
-      <c r="AB22" s="131"/>
-      <c r="AC22" s="131"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="131"/>
-      <c r="AI22" s="131"/>
-      <c r="AJ22" s="131"/>
-      <c r="AK22" s="131"/>
-      <c r="AL22" s="131"/>
-      <c r="AM22" s="131"/>
-      <c r="AN22" s="124"/>
-      <c r="AO22" s="124"/>
-      <c r="AP22" s="124"/>
-      <c r="AQ22" s="124"/>
-      <c r="AR22" s="124"/>
-      <c r="AS22" s="124"/>
-      <c r="AT22" s="124"/>
-      <c r="AU22" s="124"/>
-      <c r="AV22" s="124"/>
-      <c r="AW22" s="124"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="120"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="120"/>
+      <c r="AH22" s="120"/>
+      <c r="AI22" s="120"/>
+      <c r="AJ22" s="120"/>
+      <c r="AK22" s="120"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="120"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="131"/>
-      <c r="AB23" s="131"/>
-      <c r="AC23" s="131"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="131"/>
-      <c r="AF23" s="131"/>
-      <c r="AG23" s="131"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="131"/>
-      <c r="AJ23" s="131"/>
-      <c r="AK23" s="131"/>
-      <c r="AL23" s="131"/>
-      <c r="AM23" s="131"/>
-      <c r="AN23" s="124"/>
-      <c r="AO23" s="124"/>
-      <c r="AP23" s="124"/>
-      <c r="AQ23" s="124"/>
-      <c r="AR23" s="124"/>
-      <c r="AS23" s="124"/>
-      <c r="AT23" s="124"/>
-      <c r="AU23" s="124"/>
-      <c r="AV23" s="124"/>
-      <c r="AW23" s="124"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="120"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="120"/>
+      <c r="AH23" s="120"/>
+      <c r="AI23" s="120"/>
+      <c r="AJ23" s="120"/>
+      <c r="AK23" s="120"/>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="120"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="131"/>
-      <c r="AC24" s="131"/>
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="131"/>
-      <c r="AH24" s="131"/>
-      <c r="AI24" s="131"/>
-      <c r="AJ24" s="131"/>
-      <c r="AK24" s="131"/>
-      <c r="AL24" s="131"/>
-      <c r="AM24" s="131"/>
-      <c r="AN24" s="124"/>
-      <c r="AO24" s="124"/>
-      <c r="AP24" s="124"/>
-      <c r="AQ24" s="124"/>
-      <c r="AR24" s="124"/>
-      <c r="AS24" s="124"/>
-      <c r="AT24" s="124"/>
-      <c r="AU24" s="124"/>
-      <c r="AV24" s="124"/>
-      <c r="AW24" s="124"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="120"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="120"/>
+      <c r="AA24" s="120"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="120"/>
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="120"/>
+      <c r="AH24" s="120"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="120"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="114"/>
+      <c r="AO24" s="114"/>
+      <c r="AP24" s="114"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="114"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="114"/>
+      <c r="AV24" s="114"/>
+      <c r="AW24" s="114"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="131"/>
-      <c r="AC25" s="131"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="131"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="131"/>
-      <c r="AJ25" s="131"/>
-      <c r="AK25" s="131"/>
-      <c r="AL25" s="131"/>
-      <c r="AM25" s="131"/>
-      <c r="AN25" s="124"/>
-      <c r="AO25" s="124"/>
-      <c r="AP25" s="124"/>
-      <c r="AQ25" s="124"/>
-      <c r="AR25" s="124"/>
-      <c r="AS25" s="124"/>
-      <c r="AT25" s="124"/>
-      <c r="AU25" s="124"/>
-      <c r="AV25" s="124"/>
-      <c r="AW25" s="124"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="120"/>
+      <c r="X25" s="120"/>
+      <c r="Y25" s="120"/>
+      <c r="Z25" s="120"/>
+      <c r="AA25" s="120"/>
+      <c r="AB25" s="120"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="120"/>
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="120"/>
+      <c r="AH25" s="120"/>
+      <c r="AI25" s="120"/>
+      <c r="AJ25" s="120"/>
+      <c r="AK25" s="120"/>
+      <c r="AL25" s="120"/>
+      <c r="AM25" s="120"/>
+      <c r="AN25" s="114"/>
+      <c r="AO25" s="114"/>
+      <c r="AP25" s="114"/>
+      <c r="AQ25" s="114"/>
+      <c r="AR25" s="114"/>
+      <c r="AS25" s="114"/>
+      <c r="AT25" s="114"/>
+      <c r="AU25" s="114"/>
+      <c r="AV25" s="114"/>
+      <c r="AW25" s="114"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="124"/>
-      <c r="T26" s="124"/>
-      <c r="U26" s="124"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="131"/>
-      <c r="AL26" s="131"/>
-      <c r="AM26" s="131"/>
-      <c r="AN26" s="124"/>
-      <c r="AO26" s="124"/>
-      <c r="AP26" s="124"/>
-      <c r="AQ26" s="124"/>
-      <c r="AR26" s="124"/>
-      <c r="AS26" s="124"/>
-      <c r="AT26" s="124"/>
-      <c r="AU26" s="124"/>
-      <c r="AV26" s="124"/>
-      <c r="AW26" s="124"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="120"/>
+      <c r="AH26" s="120"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="120"/>
+      <c r="AK26" s="120"/>
+      <c r="AL26" s="120"/>
+      <c r="AM26" s="120"/>
+      <c r="AN26" s="114"/>
+      <c r="AO26" s="114"/>
+      <c r="AP26" s="114"/>
+      <c r="AQ26" s="114"/>
+      <c r="AR26" s="114"/>
+      <c r="AS26" s="114"/>
+      <c r="AT26" s="114"/>
+      <c r="AU26" s="114"/>
+      <c r="AV26" s="114"/>
+      <c r="AW26" s="114"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="124"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="131"/>
-      <c r="AC27" s="131"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="131"/>
-      <c r="AF27" s="131"/>
-      <c r="AG27" s="131"/>
-      <c r="AH27" s="131"/>
-      <c r="AI27" s="131"/>
-      <c r="AJ27" s="131"/>
-      <c r="AK27" s="131"/>
-      <c r="AL27" s="131"/>
-      <c r="AM27" s="131"/>
-      <c r="AN27" s="124"/>
-      <c r="AO27" s="124"/>
-      <c r="AP27" s="124"/>
-      <c r="AQ27" s="124"/>
-      <c r="AR27" s="124"/>
-      <c r="AS27" s="124"/>
-      <c r="AT27" s="124"/>
-      <c r="AU27" s="124"/>
-      <c r="AV27" s="124"/>
-      <c r="AW27" s="124"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
+      <c r="AB27" s="120"/>
+      <c r="AC27" s="120"/>
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="120"/>
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="120"/>
+      <c r="AH27" s="120"/>
+      <c r="AI27" s="120"/>
+      <c r="AJ27" s="120"/>
+      <c r="AK27" s="120"/>
+      <c r="AL27" s="120"/>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="114"/>
+      <c r="AO27" s="114"/>
+      <c r="AP27" s="114"/>
+      <c r="AQ27" s="114"/>
+      <c r="AR27" s="114"/>
+      <c r="AS27" s="114"/>
+      <c r="AT27" s="114"/>
+      <c r="AU27" s="114"/>
+      <c r="AV27" s="114"/>
+      <c r="AW27" s="114"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="130"/>
-      <c r="R28" s="130"/>
-      <c r="S28" s="124"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="131"/>
-      <c r="AC28" s="131"/>
-      <c r="AD28" s="131"/>
-      <c r="AE28" s="131"/>
-      <c r="AF28" s="131"/>
-      <c r="AG28" s="131"/>
-      <c r="AH28" s="131"/>
-      <c r="AI28" s="131"/>
-      <c r="AJ28" s="131"/>
-      <c r="AK28" s="131"/>
-      <c r="AL28" s="131"/>
-      <c r="AM28" s="131"/>
-      <c r="AN28" s="124"/>
-      <c r="AO28" s="124"/>
-      <c r="AP28" s="124"/>
-      <c r="AQ28" s="124"/>
-      <c r="AR28" s="124"/>
-      <c r="AS28" s="124"/>
-      <c r="AT28" s="124"/>
-      <c r="AU28" s="124"/>
-      <c r="AV28" s="124"/>
-      <c r="AW28" s="124"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="120"/>
+      <c r="AA28" s="120"/>
+      <c r="AB28" s="120"/>
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="120"/>
+      <c r="AH28" s="120"/>
+      <c r="AI28" s="120"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="120"/>
+      <c r="AL28" s="120"/>
+      <c r="AM28" s="120"/>
+      <c r="AN28" s="114"/>
+      <c r="AO28" s="114"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="114"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="114"/>
+      <c r="AT28" s="114"/>
+      <c r="AU28" s="114"/>
+      <c r="AV28" s="114"/>
+      <c r="AW28" s="114"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="124"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="131"/>
-      <c r="AC29" s="131"/>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="131"/>
-      <c r="AF29" s="131"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="131"/>
-      <c r="AI29" s="131"/>
-      <c r="AJ29" s="131"/>
-      <c r="AK29" s="131"/>
-      <c r="AL29" s="131"/>
-      <c r="AM29" s="131"/>
-      <c r="AN29" s="124"/>
-      <c r="AO29" s="124"/>
-      <c r="AP29" s="124"/>
-      <c r="AQ29" s="124"/>
-      <c r="AR29" s="124"/>
-      <c r="AS29" s="124"/>
-      <c r="AT29" s="124"/>
-      <c r="AU29" s="124"/>
-      <c r="AV29" s="124"/>
-      <c r="AW29" s="124"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="120"/>
+      <c r="AB29" s="120"/>
+      <c r="AC29" s="120"/>
+      <c r="AD29" s="120"/>
+      <c r="AE29" s="120"/>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="120"/>
+      <c r="AH29" s="120"/>
+      <c r="AI29" s="120"/>
+      <c r="AJ29" s="120"/>
+      <c r="AK29" s="120"/>
+      <c r="AL29" s="120"/>
+      <c r="AM29" s="120"/>
+      <c r="AN29" s="114"/>
+      <c r="AO29" s="114"/>
+      <c r="AP29" s="114"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="114"/>
+      <c r="AU29" s="114"/>
+      <c r="AV29" s="114"/>
+      <c r="AW29" s="114"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="131"/>
-      <c r="AD30" s="131"/>
-      <c r="AE30" s="131"/>
-      <c r="AF30" s="131"/>
-      <c r="AG30" s="131"/>
-      <c r="AH30" s="131"/>
-      <c r="AI30" s="131"/>
-      <c r="AJ30" s="131"/>
-      <c r="AK30" s="131"/>
-      <c r="AL30" s="131"/>
-      <c r="AM30" s="131"/>
-      <c r="AN30" s="124"/>
-      <c r="AO30" s="124"/>
-      <c r="AP30" s="124"/>
-      <c r="AQ30" s="124"/>
-      <c r="AR30" s="124"/>
-      <c r="AS30" s="124"/>
-      <c r="AT30" s="124"/>
-      <c r="AU30" s="124"/>
-      <c r="AV30" s="124"/>
-      <c r="AW30" s="124"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="120"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="120"/>
+      <c r="AL30" s="120"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="114"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="124"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="131"/>
-      <c r="AD31" s="131"/>
-      <c r="AE31" s="131"/>
-      <c r="AF31" s="131"/>
-      <c r="AG31" s="131"/>
-      <c r="AH31" s="131"/>
-      <c r="AI31" s="131"/>
-      <c r="AJ31" s="131"/>
-      <c r="AK31" s="131"/>
-      <c r="AL31" s="131"/>
-      <c r="AM31" s="131"/>
-      <c r="AN31" s="124"/>
-      <c r="AO31" s="124"/>
-      <c r="AP31" s="124"/>
-      <c r="AQ31" s="124"/>
-      <c r="AR31" s="124"/>
-      <c r="AS31" s="124"/>
-      <c r="AT31" s="124"/>
-      <c r="AU31" s="124"/>
-      <c r="AV31" s="124"/>
-      <c r="AW31" s="124"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="120"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="120"/>
+      <c r="Z31" s="120"/>
+      <c r="AA31" s="120"/>
+      <c r="AB31" s="120"/>
+      <c r="AC31" s="120"/>
+      <c r="AD31" s="120"/>
+      <c r="AE31" s="120"/>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="120"/>
+      <c r="AH31" s="120"/>
+      <c r="AI31" s="120"/>
+      <c r="AJ31" s="120"/>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="120"/>
+      <c r="AM31" s="120"/>
+      <c r="AN31" s="114"/>
+      <c r="AO31" s="114"/>
+      <c r="AP31" s="114"/>
+      <c r="AQ31" s="114"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="114"/>
+      <c r="AU31" s="114"/>
+      <c r="AV31" s="114"/>
+      <c r="AW31" s="114"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="131"/>
-      <c r="AD32" s="131"/>
-      <c r="AE32" s="131"/>
-      <c r="AF32" s="131"/>
-      <c r="AG32" s="131"/>
-      <c r="AH32" s="131"/>
-      <c r="AI32" s="131"/>
-      <c r="AJ32" s="131"/>
-      <c r="AK32" s="131"/>
-      <c r="AL32" s="131"/>
-      <c r="AM32" s="131"/>
-      <c r="AN32" s="124"/>
-      <c r="AO32" s="124"/>
-      <c r="AP32" s="124"/>
-      <c r="AQ32" s="124"/>
-      <c r="AR32" s="124"/>
-      <c r="AS32" s="124"/>
-      <c r="AT32" s="124"/>
-      <c r="AU32" s="124"/>
-      <c r="AV32" s="124"/>
-      <c r="AW32" s="124"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="120"/>
+      <c r="AB32" s="120"/>
+      <c r="AC32" s="120"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="120"/>
+      <c r="AM32" s="120"/>
+      <c r="AN32" s="114"/>
+      <c r="AO32" s="114"/>
+      <c r="AP32" s="114"/>
+      <c r="AQ32" s="114"/>
+      <c r="AR32" s="114"/>
+      <c r="AS32" s="114"/>
+      <c r="AT32" s="114"/>
+      <c r="AU32" s="114"/>
+      <c r="AV32" s="114"/>
+      <c r="AW32" s="114"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="124"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="131"/>
-      <c r="AB33" s="131"/>
-      <c r="AC33" s="131"/>
-      <c r="AD33" s="131"/>
-      <c r="AE33" s="131"/>
-      <c r="AF33" s="131"/>
-      <c r="AG33" s="131"/>
-      <c r="AH33" s="131"/>
-      <c r="AI33" s="131"/>
-      <c r="AJ33" s="131"/>
-      <c r="AK33" s="131"/>
-      <c r="AL33" s="131"/>
-      <c r="AM33" s="131"/>
-      <c r="AN33" s="124"/>
-      <c r="AO33" s="124"/>
-      <c r="AP33" s="124"/>
-      <c r="AQ33" s="124"/>
-      <c r="AR33" s="124"/>
-      <c r="AS33" s="124"/>
-      <c r="AT33" s="124"/>
-      <c r="AU33" s="124"/>
-      <c r="AV33" s="124"/>
-      <c r="AW33" s="124"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="120"/>
+      <c r="X33" s="120"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="120"/>
+      <c r="AB33" s="120"/>
+      <c r="AC33" s="120"/>
+      <c r="AD33" s="120"/>
+      <c r="AE33" s="120"/>
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="120"/>
+      <c r="AH33" s="120"/>
+      <c r="AI33" s="120"/>
+      <c r="AJ33" s="120"/>
+      <c r="AK33" s="120"/>
+      <c r="AL33" s="120"/>
+      <c r="AM33" s="120"/>
+      <c r="AN33" s="114"/>
+      <c r="AO33" s="114"/>
+      <c r="AP33" s="114"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="127"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="137"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
-      <c r="Q34" s="138"/>
-      <c r="R34" s="138"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="124"/>
-      <c r="U34" s="124"/>
-      <c r="V34" s="131"/>
-      <c r="W34" s="131"/>
-      <c r="X34" s="131"/>
-      <c r="Y34" s="131"/>
-      <c r="Z34" s="131"/>
-      <c r="AA34" s="131"/>
-      <c r="AB34" s="131"/>
-      <c r="AC34" s="131"/>
-      <c r="AD34" s="131"/>
-      <c r="AE34" s="131"/>
-      <c r="AF34" s="131"/>
-      <c r="AG34" s="131"/>
-      <c r="AH34" s="131"/>
-      <c r="AI34" s="131"/>
-      <c r="AJ34" s="131"/>
-      <c r="AK34" s="131"/>
-      <c r="AL34" s="131"/>
-      <c r="AM34" s="131"/>
-      <c r="AN34" s="124"/>
-      <c r="AO34" s="124"/>
-      <c r="AP34" s="124"/>
-      <c r="AQ34" s="124"/>
-      <c r="AR34" s="124"/>
-      <c r="AS34" s="124"/>
-      <c r="AT34" s="124"/>
-      <c r="AU34" s="124"/>
-      <c r="AV34" s="124"/>
-      <c r="AW34" s="124"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="120"/>
+      <c r="X34" s="120"/>
+      <c r="Y34" s="120"/>
+      <c r="Z34" s="120"/>
+      <c r="AA34" s="120"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="120"/>
+      <c r="AD34" s="120"/>
+      <c r="AE34" s="120"/>
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="120"/>
+      <c r="AH34" s="120"/>
+      <c r="AI34" s="120"/>
+      <c r="AJ34" s="120"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="120"/>
+      <c r="AM34" s="120"/>
+      <c r="AN34" s="114"/>
+      <c r="AO34" s="114"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6021,239 +7062,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6350,17 +7158,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="143" t="str">
+      <c r="AZ1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="144"/>
-      <c r="BB1" s="144"/>
-      <c r="BC1" s="144"/>
-      <c r="BD1" s="144"/>
-      <c r="BE1" s="144"/>
-      <c r="BF1" s="144"/>
-      <c r="BG1" s="145"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="140"/>
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="140"/>
+      <c r="BG1" s="141"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6426,14 +7234,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="143"/>
-      <c r="BA2" s="144"/>
-      <c r="BB2" s="144"/>
-      <c r="BC2" s="144"/>
-      <c r="BD2" s="144"/>
-      <c r="BE2" s="144"/>
-      <c r="BF2" s="144"/>
-      <c r="BG2" s="145"/>
+      <c r="AZ2" s="139"/>
+      <c r="BA2" s="140"/>
+      <c r="BB2" s="140"/>
+      <c r="BC2" s="140"/>
+      <c r="BD2" s="140"/>
+      <c r="BE2" s="140"/>
+      <c r="BF2" s="140"/>
+      <c r="BG2" s="141"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7741,10 +8549,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="141">
+      <c r="B42" s="144">
         <v>1</v>
       </c>
-      <c r="C42" s="142"/>
+      <c r="C42" s="145"/>
       <c r="D42" s="101" t="s">
         <v>94</v>
       </c>
@@ -7776,16 +8584,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="102"/>
-      <c r="AE42" s="139" t="s">
+      <c r="AE42" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="139"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="139"/>
-      <c r="AL42" s="140"/>
+      <c r="AF42" s="143"/>
+      <c r="AG42" s="142"/>
+      <c r="AH42" s="143"/>
+      <c r="AI42" s="142"/>
+      <c r="AJ42" s="143"/>
+      <c r="AK42" s="142"/>
+      <c r="AL42" s="143"/>
       <c r="AM42" s="83" t="s">
         <v>105</v>
       </c>
@@ -7819,10 +8627,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="141">
+      <c r="B43" s="144">
         <v>2</v>
       </c>
-      <c r="C43" s="142"/>
+      <c r="C43" s="145"/>
       <c r="D43" s="104" t="s">
         <v>94</v>
       </c>
@@ -7854,16 +8662,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="105"/>
-      <c r="AE43" s="139" t="s">
+      <c r="AE43" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="140"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="140"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="140"/>
-      <c r="AK43" s="139"/>
-      <c r="AL43" s="140"/>
+      <c r="AF43" s="143"/>
+      <c r="AG43" s="142"/>
+      <c r="AH43" s="143"/>
+      <c r="AI43" s="142"/>
+      <c r="AJ43" s="143"/>
+      <c r="AK43" s="142"/>
+      <c r="AL43" s="143"/>
       <c r="AM43" s="83" t="s">
         <v>149</v>
       </c>
@@ -7897,10 +8705,10 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
-      <c r="B44" s="141">
+      <c r="B44" s="144">
         <v>3</v>
       </c>
-      <c r="C44" s="142"/>
+      <c r="C44" s="145"/>
       <c r="D44" s="93" t="s">
         <v>94</v>
       </c>
@@ -7932,16 +8740,16 @@
       <c r="AB44" s="86"/>
       <c r="AC44" s="86"/>
       <c r="AD44" s="87"/>
-      <c r="AE44" s="139" t="s">
+      <c r="AE44" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="139"/>
-      <c r="AH44" s="140"/>
-      <c r="AI44" s="139"/>
-      <c r="AJ44" s="140"/>
-      <c r="AK44" s="139"/>
-      <c r="AL44" s="140"/>
+      <c r="AF44" s="143"/>
+      <c r="AG44" s="142"/>
+      <c r="AH44" s="143"/>
+      <c r="AI44" s="142"/>
+      <c r="AJ44" s="143"/>
+      <c r="AK44" s="142"/>
+      <c r="AL44" s="143"/>
       <c r="AM44" s="83" t="s">
         <v>127</v>
       </c>
@@ -7975,10 +8783,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="141">
+      <c r="B45" s="144">
         <v>4</v>
       </c>
-      <c r="C45" s="142"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="82" t="s">
         <v>103</v>
       </c>
@@ -8010,16 +8818,16 @@
       <c r="AB45" s="86"/>
       <c r="AC45" s="86"/>
       <c r="AD45" s="87"/>
-      <c r="AE45" s="139" t="s">
+      <c r="AE45" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AF45" s="140"/>
-      <c r="AG45" s="139"/>
-      <c r="AH45" s="140"/>
-      <c r="AI45" s="139"/>
-      <c r="AJ45" s="140"/>
-      <c r="AK45" s="139"/>
-      <c r="AL45" s="140"/>
+      <c r="AF45" s="143"/>
+      <c r="AG45" s="142"/>
+      <c r="AH45" s="143"/>
+      <c r="AI45" s="142"/>
+      <c r="AJ45" s="143"/>
+      <c r="AK45" s="142"/>
+      <c r="AL45" s="143"/>
       <c r="AM45" s="83" t="s">
         <v>104</v>
       </c>
@@ -8058,6 +8866,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK45:AL45"/>
@@ -8074,20 +8891,11 @@
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -8099,7 +8907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DI5"/>
   <sheetViews>
@@ -8228,7 +9036,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="143" t="str">
+      <c r="CU1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8359,7 +9167,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="143"/>
+      <c r="CU2" s="139"/>
       <c r="CV2" s="151"/>
       <c r="CW2" s="151"/>
       <c r="CX2" s="151"/>
@@ -8444,6 +9252,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8575,37 +9384,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="116" t="s">
+      <c r="G6" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="157" t="s">
+      <c r="I6" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="157" t="s">
+      <c r="J6" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="116" t="s">
+      <c r="L6" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="116" t="s">
+      <c r="M6" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8613,24 +9422,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="157" t="s">
+      <c r="Q6" s="159" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8640,7 +9449,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="157"/>
+      <c r="Q7" s="159"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8702,37 +9511,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="116" t="s">
+      <c r="G11" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="H11" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="158" t="s">
+      <c r="I11" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="157" t="s">
+      <c r="J11" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="116" t="s">
+      <c r="K11" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="116" t="s">
+      <c r="L11" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="116" t="s">
+      <c r="M11" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8740,24 +9549,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="158" t="s">
+      <c r="Q11" s="157" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8767,7 +9576,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="159"/>
+      <c r="Q12" s="158"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
@@ -8882,37 +9691,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="E18" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="116" t="s">
+      <c r="F18" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="116" t="s">
+      <c r="G18" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="116" t="s">
+      <c r="H18" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="157" t="s">
+      <c r="I18" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="157" t="s">
+      <c r="J18" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="116" t="s">
+      <c r="K18" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="116" t="s">
+      <c r="L18" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="116" t="s">
+      <c r="M18" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8920,24 +9729,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="157" t="s">
+      <c r="Q18" s="159" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8947,7 +9756,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="157"/>
+      <c r="Q19" s="159"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -9242,6 +10051,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -9258,26 +10087,6 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9370,7 +10179,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="143" t="str">
+      <c r="AT1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9441,7 +10250,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="143"/>
+      <c r="AT2" s="139"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -11662,7 +12471,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="143" t="str">
+      <c r="AT1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11733,7 +12542,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="143"/>
+      <c r="AT2" s="139"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -12277,7 +13086,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="143" t="str">
+      <c r="AT1" s="139" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12348,7 +13157,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="143"/>
+      <c r="AT2" s="139"/>
       <c r="AU2" s="151"/>
       <c r="AV2" s="151"/>
       <c r="AW2" s="151"/>
@@ -12664,6 +13473,2795 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;F&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC6DE8-AC33-477C-9B0C-37ED8D6DF600}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:CD34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="160"/>
+    <col min="2" max="2" width="1.625" style="160" customWidth="1"/>
+    <col min="3" max="35" width="1.625" style="160"/>
+    <col min="36" max="36" width="2.625" style="160" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="1.625" style="160"/>
+    <col min="45" max="45" width="1.625" style="160" customWidth="1"/>
+    <col min="46" max="62" width="1.625" style="160"/>
+    <col min="63" max="63" width="1.625" style="160" customWidth="1"/>
+    <col min="64" max="95" width="1.625" style="160"/>
+    <col min="96" max="97" width="1.625" style="160" customWidth="1"/>
+    <col min="98" max="100" width="1.625" style="160"/>
+    <col min="101" max="101" width="1.625" style="160" customWidth="1"/>
+    <col min="102" max="129" width="1.625" style="160"/>
+    <col min="130" max="131" width="1.625" style="160" customWidth="1"/>
+    <col min="132" max="16384" width="1.625" style="160"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="161" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="162"/>
+      <c r="AR2" s="162"/>
+      <c r="AS2" s="162"/>
+      <c r="AT2" s="162"/>
+      <c r="AU2" s="162"/>
+      <c r="AV2" s="162"/>
+      <c r="AW2" s="162"/>
+      <c r="AX2" s="162"/>
+      <c r="AY2" s="163"/>
+      <c r="AZ2" s="163"/>
+      <c r="BA2" s="163"/>
+      <c r="BB2" s="163"/>
+      <c r="BC2" s="163"/>
+      <c r="BD2" s="163"/>
+      <c r="BE2" s="163"/>
+      <c r="BF2" s="163"/>
+      <c r="BG2" s="163"/>
+      <c r="BH2" s="163"/>
+      <c r="BI2" s="163"/>
+      <c r="BJ2" s="163"/>
+      <c r="BK2" s="163"/>
+      <c r="BL2" s="163"/>
+      <c r="BM2" s="163"/>
+      <c r="BN2" s="163"/>
+      <c r="BO2" s="163"/>
+      <c r="BP2" s="163"/>
+      <c r="BQ2" s="163"/>
+      <c r="BR2" s="163"/>
+      <c r="BS2" s="162"/>
+      <c r="BT2" s="162"/>
+      <c r="BU2" s="162"/>
+      <c r="BV2" s="162"/>
+      <c r="BW2" s="164" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX2" s="165"/>
+      <c r="BY2" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ2" s="165"/>
+      <c r="CA2" s="167" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB2" s="168"/>
+    </row>
+    <row r="3" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="169" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="170"/>
+      <c r="AT3" s="170"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="171"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="172"/>
+      <c r="BA3" s="173"/>
+      <c r="BB3" s="172"/>
+      <c r="BC3" s="172"/>
+      <c r="BD3" s="172"/>
+      <c r="BE3" s="172"/>
+      <c r="BF3" s="172"/>
+      <c r="BG3" s="172"/>
+      <c r="BH3" s="172"/>
+      <c r="BI3" s="173"/>
+      <c r="BJ3" s="174"/>
+      <c r="BK3" s="174"/>
+      <c r="BL3" s="174"/>
+      <c r="BM3" s="174"/>
+      <c r="BN3" s="174"/>
+      <c r="BO3" s="174"/>
+      <c r="BP3" s="174"/>
+      <c r="BQ3" s="174"/>
+      <c r="BR3" s="175" t="s">
+        <v>209</v>
+      </c>
+      <c r="BS3" s="176" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT3" s="177"/>
+      <c r="BU3" s="177"/>
+      <c r="BV3" s="177"/>
+      <c r="BW3" s="177"/>
+      <c r="BX3" s="177"/>
+      <c r="BY3" s="177"/>
+      <c r="BZ3" s="177"/>
+      <c r="CA3" s="177"/>
+      <c r="CB3" s="178"/>
+    </row>
+    <row r="4" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="180"/>
+      <c r="Y4" s="180"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="180"/>
+      <c r="AD4" s="180"/>
+      <c r="AE4" s="180"/>
+      <c r="AF4" s="180"/>
+      <c r="AG4" s="180"/>
+      <c r="AH4" s="180"/>
+      <c r="AI4" s="180"/>
+      <c r="AJ4" s="180"/>
+      <c r="AK4" s="180"/>
+      <c r="AL4" s="180"/>
+      <c r="AM4" s="180"/>
+      <c r="AN4" s="180"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="180"/>
+      <c r="AR4" s="180"/>
+      <c r="AS4" s="180"/>
+      <c r="AT4" s="180"/>
+      <c r="AU4" s="180"/>
+      <c r="AV4" s="180"/>
+      <c r="AW4" s="180"/>
+      <c r="AX4" s="181"/>
+      <c r="AY4" s="182"/>
+      <c r="AZ4" s="182"/>
+      <c r="BA4" s="183"/>
+      <c r="BB4" s="182"/>
+      <c r="BC4" s="182"/>
+      <c r="BD4" s="182"/>
+      <c r="BE4" s="182"/>
+      <c r="BF4" s="182"/>
+      <c r="BG4" s="182"/>
+      <c r="BH4" s="182"/>
+      <c r="BI4" s="183"/>
+      <c r="BJ4" s="184"/>
+      <c r="BK4" s="184"/>
+      <c r="BL4" s="184"/>
+      <c r="BM4" s="184"/>
+      <c r="BN4" s="184"/>
+      <c r="BO4" s="184"/>
+      <c r="BP4" s="184"/>
+      <c r="BQ4" s="184"/>
+      <c r="BR4" s="185" t="s">
+        <v>211</v>
+      </c>
+      <c r="BS4" s="176" t="s">
+        <v>212</v>
+      </c>
+      <c r="BT4" s="177"/>
+      <c r="BU4" s="177"/>
+      <c r="BV4" s="177"/>
+      <c r="BW4" s="177"/>
+      <c r="BX4" s="177"/>
+      <c r="BY4" s="177"/>
+      <c r="BZ4" s="177"/>
+      <c r="CA4" s="177"/>
+      <c r="CB4" s="178"/>
+    </row>
+    <row r="5" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="253"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="197"/>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="197"/>
+      <c r="AT5" s="197"/>
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="197"/>
+      <c r="AW5" s="197"/>
+      <c r="AX5" s="197"/>
+      <c r="AY5" s="197"/>
+      <c r="AZ5" s="197"/>
+      <c r="BA5" s="197"/>
+      <c r="BB5" s="197"/>
+      <c r="BC5" s="197"/>
+      <c r="BD5" s="197"/>
+      <c r="BE5" s="197"/>
+      <c r="BF5" s="197"/>
+      <c r="BG5" s="197"/>
+      <c r="BH5" s="197"/>
+      <c r="BI5" s="197"/>
+      <c r="BJ5" s="197"/>
+      <c r="BK5" s="197"/>
+      <c r="BP5" s="197"/>
+      <c r="BQ5" s="197"/>
+      <c r="BR5" s="197"/>
+      <c r="BS5" s="197"/>
+      <c r="BT5" s="197"/>
+      <c r="BU5" s="197"/>
+      <c r="BV5" s="197"/>
+      <c r="BW5" s="197"/>
+      <c r="BX5" s="197"/>
+      <c r="BY5" s="197"/>
+      <c r="BZ5" s="197"/>
+      <c r="CA5" s="197"/>
+      <c r="CB5" s="254"/>
+    </row>
+    <row r="6" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="255"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="193"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="193"/>
+      <c r="AI6" s="193"/>
+      <c r="AJ6" s="193"/>
+      <c r="AK6" s="193"/>
+      <c r="AL6" s="193"/>
+      <c r="AM6" s="193"/>
+      <c r="AN6" s="193"/>
+      <c r="AO6" s="193"/>
+      <c r="AP6" s="193"/>
+      <c r="AQ6" s="193"/>
+      <c r="AR6" s="193"/>
+      <c r="AS6" s="193"/>
+      <c r="AT6" s="193"/>
+      <c r="AU6" s="193"/>
+      <c r="AV6" s="193"/>
+      <c r="AW6" s="193"/>
+      <c r="AX6" s="193"/>
+      <c r="AY6" s="193"/>
+      <c r="AZ6" s="193"/>
+      <c r="BA6" s="193"/>
+      <c r="BB6" s="193"/>
+      <c r="BC6" s="193"/>
+      <c r="BD6" s="193"/>
+      <c r="BE6" s="193"/>
+      <c r="BF6" s="193"/>
+      <c r="BG6" s="193"/>
+      <c r="BH6" s="193"/>
+      <c r="BI6" s="193"/>
+      <c r="BJ6" s="193"/>
+      <c r="BK6" s="193"/>
+      <c r="BL6" s="256"/>
+      <c r="BM6" s="256"/>
+      <c r="BN6" s="256"/>
+      <c r="BO6" s="256"/>
+      <c r="BP6" s="193"/>
+      <c r="BQ6" s="193"/>
+      <c r="BR6" s="193"/>
+      <c r="BS6" s="193"/>
+      <c r="BT6" s="193"/>
+      <c r="BU6" s="193"/>
+      <c r="BV6" s="193"/>
+      <c r="BW6" s="193"/>
+      <c r="BX6" s="193"/>
+      <c r="BY6" s="193"/>
+      <c r="BZ6" s="193"/>
+      <c r="CA6" s="193"/>
+      <c r="CB6" s="257"/>
+      <c r="CC6" s="256"/>
+      <c r="CD6" s="256"/>
+    </row>
+    <row r="7" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="255"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="193"/>
+      <c r="AF7" s="193"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="193"/>
+      <c r="AJ7" s="193"/>
+      <c r="AK7" s="193"/>
+      <c r="AL7" s="193"/>
+      <c r="AM7" s="193"/>
+      <c r="AN7" s="193"/>
+      <c r="AO7" s="193"/>
+      <c r="AP7" s="193"/>
+      <c r="AQ7" s="193"/>
+      <c r="AR7" s="193"/>
+      <c r="AS7" s="193"/>
+      <c r="AT7" s="193"/>
+      <c r="AU7" s="193"/>
+      <c r="AV7" s="193"/>
+      <c r="AW7" s="193"/>
+      <c r="AX7" s="193"/>
+      <c r="AY7" s="193"/>
+      <c r="AZ7" s="193"/>
+      <c r="BA7" s="193"/>
+      <c r="BB7" s="193"/>
+      <c r="BC7" s="193"/>
+      <c r="BD7" s="193"/>
+      <c r="BE7" s="193"/>
+      <c r="BF7" s="193"/>
+      <c r="BG7" s="193"/>
+      <c r="BH7" s="193"/>
+      <c r="BI7" s="193"/>
+      <c r="BJ7" s="193"/>
+      <c r="BK7" s="193"/>
+      <c r="BL7" s="256"/>
+      <c r="BM7" s="256"/>
+      <c r="BN7" s="256"/>
+      <c r="BO7" s="256"/>
+      <c r="BP7" s="193"/>
+      <c r="BQ7" s="193"/>
+      <c r="BR7" s="193"/>
+      <c r="BS7" s="193"/>
+      <c r="BT7" s="193"/>
+      <c r="BU7" s="193"/>
+      <c r="BV7" s="193"/>
+      <c r="BW7" s="193"/>
+      <c r="BX7" s="193"/>
+      <c r="BY7" s="193"/>
+      <c r="BZ7" s="193"/>
+      <c r="CA7" s="193"/>
+      <c r="CB7" s="257"/>
+      <c r="CC7" s="256"/>
+      <c r="CD7" s="256"/>
+    </row>
+    <row r="8" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="186"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="187"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187"/>
+      <c r="S8" s="187"/>
+      <c r="T8" s="187"/>
+      <c r="U8" s="187"/>
+      <c r="V8" s="187"/>
+      <c r="W8" s="187"/>
+      <c r="X8" s="187"/>
+      <c r="Y8" s="187"/>
+      <c r="Z8" s="187"/>
+      <c r="AA8" s="187"/>
+      <c r="AB8" s="187"/>
+      <c r="AC8" s="187"/>
+      <c r="AD8" s="187"/>
+      <c r="AE8" s="187"/>
+      <c r="AF8" s="187"/>
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="187"/>
+      <c r="AI8" s="187"/>
+      <c r="AJ8" s="187"/>
+      <c r="AK8" s="187"/>
+      <c r="AL8" s="187"/>
+      <c r="AM8" s="187"/>
+      <c r="AN8" s="187"/>
+      <c r="AO8" s="187"/>
+      <c r="AP8" s="187"/>
+      <c r="AQ8" s="187"/>
+      <c r="AR8" s="187"/>
+      <c r="AS8" s="187"/>
+      <c r="AT8" s="187"/>
+      <c r="AU8" s="187"/>
+      <c r="AV8" s="187"/>
+      <c r="AW8" s="187"/>
+      <c r="AX8" s="187"/>
+      <c r="AY8" s="187"/>
+      <c r="AZ8" s="187"/>
+      <c r="BA8" s="187"/>
+      <c r="BB8" s="187"/>
+      <c r="BC8" s="187"/>
+      <c r="BD8" s="187"/>
+      <c r="BE8" s="187"/>
+      <c r="BF8" s="187"/>
+      <c r="BG8" s="187"/>
+      <c r="BH8" s="187"/>
+      <c r="BI8" s="187"/>
+      <c r="BJ8" s="187"/>
+      <c r="BK8" s="187"/>
+      <c r="BL8" s="187"/>
+      <c r="BM8" s="187"/>
+      <c r="BN8" s="187"/>
+      <c r="BO8" s="187"/>
+      <c r="BP8" s="187"/>
+      <c r="BQ8" s="187"/>
+      <c r="BR8" s="187"/>
+      <c r="BS8" s="187"/>
+      <c r="BT8" s="187"/>
+      <c r="BU8" s="187"/>
+      <c r="BV8" s="187"/>
+      <c r="BW8" s="187"/>
+      <c r="BX8" s="187"/>
+      <c r="BY8" s="187"/>
+      <c r="BZ8" s="187"/>
+      <c r="CA8" s="187"/>
+      <c r="CB8" s="188"/>
+    </row>
+    <row r="9" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="189"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="190"/>
+      <c r="X9" s="190"/>
+      <c r="Y9" s="190"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="190"/>
+      <c r="AD9" s="190"/>
+      <c r="AE9" s="190"/>
+      <c r="AF9" s="190"/>
+      <c r="AG9" s="190"/>
+      <c r="AH9" s="190"/>
+      <c r="AI9" s="190"/>
+      <c r="AJ9" s="190"/>
+      <c r="AK9" s="190"/>
+      <c r="AL9" s="190"/>
+      <c r="AM9" s="190"/>
+      <c r="AN9" s="190"/>
+      <c r="AO9" s="190"/>
+      <c r="AP9" s="190"/>
+      <c r="AQ9" s="190"/>
+      <c r="AR9" s="190"/>
+      <c r="AS9" s="190"/>
+      <c r="AT9" s="190"/>
+      <c r="AU9" s="190"/>
+      <c r="AV9" s="190"/>
+      <c r="AW9" s="190"/>
+      <c r="AX9" s="190"/>
+      <c r="AY9" s="190"/>
+      <c r="AZ9" s="190"/>
+      <c r="BA9" s="190"/>
+      <c r="BB9" s="190"/>
+      <c r="BC9" s="190"/>
+      <c r="BD9" s="190"/>
+      <c r="BE9" s="190"/>
+      <c r="BF9" s="190"/>
+      <c r="BG9" s="190"/>
+      <c r="BH9" s="190"/>
+      <c r="BI9" s="190"/>
+      <c r="BJ9" s="190"/>
+      <c r="BK9" s="190"/>
+      <c r="BL9" s="190"/>
+      <c r="BM9" s="190"/>
+      <c r="BN9" s="190"/>
+      <c r="BO9" s="190"/>
+      <c r="BP9" s="190"/>
+      <c r="BQ9" s="190"/>
+      <c r="BR9" s="190"/>
+      <c r="BS9" s="190"/>
+      <c r="BT9" s="190"/>
+      <c r="BU9" s="190"/>
+      <c r="BV9" s="190"/>
+      <c r="BW9" s="190"/>
+      <c r="BX9" s="190"/>
+      <c r="BY9" s="190"/>
+      <c r="BZ9" s="190"/>
+      <c r="CA9" s="190"/>
+      <c r="CB9" s="191"/>
+    </row>
+    <row r="10" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="189"/>
+      <c r="C10" s="192" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="237" t="s">
+        <v>216</v>
+      </c>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="238"/>
+      <c r="U10" s="238"/>
+      <c r="V10" s="239"/>
+      <c r="Z10" s="192" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA10" s="258"/>
+      <c r="AB10" s="258"/>
+      <c r="AC10" s="258"/>
+      <c r="AD10" s="258"/>
+      <c r="AE10" s="258"/>
+      <c r="AF10" s="258"/>
+      <c r="AG10" s="258"/>
+      <c r="AH10" s="258"/>
+      <c r="AI10" s="258"/>
+      <c r="AJ10" s="258"/>
+      <c r="AK10" s="258"/>
+      <c r="AO10" s="240" t="s">
+        <v>245</v>
+      </c>
+      <c r="AP10" s="259"/>
+      <c r="AQ10" s="260"/>
+      <c r="AR10" s="260"/>
+      <c r="AS10" s="260"/>
+      <c r="AT10" s="260"/>
+      <c r="AU10" s="260"/>
+      <c r="AV10" s="261"/>
+      <c r="AX10" s="262"/>
+      <c r="AY10" s="194"/>
+      <c r="AZ10" s="195"/>
+      <c r="BA10" s="192"/>
+      <c r="BB10" s="193"/>
+      <c r="BC10" s="193"/>
+      <c r="BD10" s="193"/>
+      <c r="BE10" s="193"/>
+      <c r="BF10" s="193"/>
+      <c r="BG10" s="193"/>
+      <c r="BH10" s="193"/>
+      <c r="BI10" s="193"/>
+      <c r="BJ10" s="193"/>
+      <c r="BK10" s="196"/>
+      <c r="BL10" s="196"/>
+      <c r="BM10" s="197"/>
+      <c r="BN10" s="197"/>
+      <c r="BO10" s="197"/>
+      <c r="BP10" s="197"/>
+      <c r="BQ10" s="197"/>
+      <c r="BR10" s="190"/>
+      <c r="BS10" s="190"/>
+      <c r="BT10" s="190"/>
+      <c r="BU10" s="190"/>
+      <c r="BV10" s="190"/>
+      <c r="BW10" s="190"/>
+      <c r="BX10" s="190"/>
+      <c r="BY10" s="190"/>
+      <c r="BZ10" s="190"/>
+      <c r="CA10" s="190"/>
+      <c r="CB10" s="191"/>
+    </row>
+    <row r="11" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="198"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="199"/>
+      <c r="O11" s="199"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="199"/>
+      <c r="R11" s="199"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="199"/>
+      <c r="U11" s="199"/>
+      <c r="V11" s="199"/>
+      <c r="W11" s="199"/>
+      <c r="X11" s="199"/>
+      <c r="Y11" s="199"/>
+      <c r="Z11" s="199"/>
+      <c r="AA11" s="199"/>
+      <c r="AB11" s="199"/>
+      <c r="AC11" s="199"/>
+      <c r="AD11" s="199"/>
+      <c r="AE11" s="199"/>
+      <c r="AF11" s="199"/>
+      <c r="AG11" s="199"/>
+      <c r="AH11" s="199"/>
+      <c r="AI11" s="199"/>
+      <c r="AJ11" s="199"/>
+      <c r="AK11" s="199"/>
+      <c r="AL11" s="199"/>
+      <c r="AM11" s="199"/>
+      <c r="AN11" s="199"/>
+      <c r="AO11" s="199"/>
+      <c r="AP11" s="199"/>
+      <c r="AQ11" s="199"/>
+      <c r="AR11" s="199"/>
+      <c r="AS11" s="199"/>
+      <c r="AT11" s="199"/>
+      <c r="AU11" s="199"/>
+      <c r="AV11" s="199"/>
+      <c r="AW11" s="199"/>
+      <c r="AX11" s="199"/>
+      <c r="AY11" s="199"/>
+      <c r="AZ11" s="199"/>
+      <c r="BA11" s="199"/>
+      <c r="BB11" s="199"/>
+      <c r="BC11" s="199"/>
+      <c r="BD11" s="199"/>
+      <c r="BE11" s="199"/>
+      <c r="BF11" s="199"/>
+      <c r="BG11" s="199"/>
+      <c r="BH11" s="199"/>
+      <c r="BI11" s="199"/>
+      <c r="BJ11" s="199"/>
+      <c r="BK11" s="199"/>
+      <c r="BL11" s="199"/>
+      <c r="BM11" s="199"/>
+      <c r="BN11" s="199"/>
+      <c r="BO11" s="199"/>
+      <c r="BP11" s="199"/>
+      <c r="BQ11" s="199"/>
+      <c r="BR11" s="199"/>
+      <c r="BS11" s="199"/>
+      <c r="BT11" s="199"/>
+      <c r="BU11" s="199"/>
+      <c r="BV11" s="199"/>
+      <c r="BW11" s="199"/>
+      <c r="BX11" s="199"/>
+      <c r="BY11" s="199"/>
+      <c r="BZ11" s="199"/>
+      <c r="CA11" s="199"/>
+      <c r="CB11" s="200"/>
+    </row>
+    <row r="12" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="211" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="212"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="213"/>
+      <c r="S12" s="212"/>
+      <c r="T12" s="212"/>
+      <c r="U12" s="212"/>
+      <c r="V12" s="212"/>
+      <c r="W12" s="212"/>
+      <c r="X12" s="212"/>
+      <c r="Y12" s="212"/>
+      <c r="Z12" s="212"/>
+      <c r="AA12" s="212"/>
+      <c r="AB12" s="212"/>
+      <c r="AC12" s="212"/>
+      <c r="AD12" s="212"/>
+      <c r="AE12" s="212"/>
+      <c r="AF12" s="212"/>
+      <c r="AG12" s="212"/>
+      <c r="AH12" s="212"/>
+      <c r="AI12" s="212"/>
+      <c r="AJ12" s="212"/>
+      <c r="AK12" s="212"/>
+      <c r="AL12" s="212"/>
+      <c r="AM12" s="212"/>
+      <c r="AN12" s="212"/>
+      <c r="AO12" s="212"/>
+      <c r="AP12" s="212"/>
+      <c r="AQ12" s="212"/>
+      <c r="AR12" s="212"/>
+      <c r="AS12" s="212"/>
+      <c r="AT12" s="212"/>
+      <c r="AU12" s="212"/>
+      <c r="AV12" s="212"/>
+      <c r="AW12" s="212"/>
+      <c r="AX12" s="212"/>
+      <c r="AY12" s="212"/>
+      <c r="AZ12" s="212"/>
+      <c r="BA12" s="212"/>
+      <c r="BB12" s="212"/>
+      <c r="BC12" s="212"/>
+      <c r="BD12" s="212"/>
+      <c r="BE12" s="212"/>
+      <c r="BF12" s="212"/>
+      <c r="BG12" s="212"/>
+      <c r="BH12" s="212"/>
+      <c r="BI12" s="212"/>
+      <c r="BJ12" s="212"/>
+      <c r="BK12" s="212"/>
+      <c r="BL12" s="212"/>
+      <c r="BM12" s="212"/>
+      <c r="BN12" s="212"/>
+      <c r="BO12" s="212"/>
+      <c r="BP12" s="212"/>
+      <c r="BQ12" s="212"/>
+      <c r="BR12" s="263"/>
+      <c r="BS12" s="212"/>
+      <c r="BT12" s="212"/>
+      <c r="BU12" s="212"/>
+      <c r="BV12" s="212"/>
+      <c r="BW12" s="212"/>
+      <c r="BX12" s="212"/>
+      <c r="BY12" s="212"/>
+      <c r="BZ12" s="212"/>
+      <c r="CA12" s="212"/>
+      <c r="CB12" s="214"/>
+      <c r="CC12" s="264"/>
+      <c r="CD12" s="264"/>
+    </row>
+    <row r="13" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="216"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="212"/>
+      <c r="N13" s="212"/>
+      <c r="O13" s="212"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="212"/>
+      <c r="R13" s="212"/>
+      <c r="S13" s="212"/>
+      <c r="T13" s="212"/>
+      <c r="U13" s="212"/>
+      <c r="V13" s="212"/>
+      <c r="AQ13" s="216" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR13" s="263"/>
+      <c r="AS13" s="264"/>
+      <c r="AT13" s="264"/>
+      <c r="AU13" s="264"/>
+      <c r="AV13" s="264"/>
+      <c r="AW13" s="264"/>
+      <c r="AX13" s="264"/>
+      <c r="AY13" s="263"/>
+      <c r="AZ13" s="263" t="s">
+        <v>220</v>
+      </c>
+      <c r="BA13" s="263"/>
+      <c r="BB13" s="212" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC13" s="263"/>
+      <c r="BD13" s="263"/>
+      <c r="BE13" s="212"/>
+      <c r="BF13" s="263"/>
+      <c r="BG13" s="263"/>
+      <c r="BH13" s="212"/>
+      <c r="BI13" s="212"/>
+      <c r="BJ13" s="212"/>
+      <c r="BK13" s="212"/>
+      <c r="BV13" s="212"/>
+      <c r="BW13" s="212"/>
+      <c r="BX13" s="212"/>
+      <c r="BY13" s="212"/>
+      <c r="BZ13" s="212"/>
+      <c r="CA13" s="212"/>
+      <c r="CB13" s="214"/>
+      <c r="CC13" s="264"/>
+      <c r="CD13" s="264"/>
+    </row>
+    <row r="14" spans="2:82" s="252" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="217"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="212"/>
+      <c r="L14" s="212"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="212"/>
+      <c r="O14" s="212"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="212"/>
+      <c r="S14" s="212"/>
+      <c r="T14" s="212"/>
+      <c r="U14" s="212"/>
+      <c r="V14" s="212"/>
+      <c r="AQ14" s="218" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR14" s="212"/>
+      <c r="AS14" s="264"/>
+      <c r="AT14" s="264"/>
+      <c r="AU14" s="264"/>
+      <c r="AV14" s="264"/>
+      <c r="AW14" s="264"/>
+      <c r="AX14" s="264"/>
+      <c r="AY14" s="212"/>
+      <c r="AZ14" s="212"/>
+      <c r="BA14" s="212"/>
+      <c r="BB14" s="212"/>
+      <c r="BC14" s="212"/>
+      <c r="BD14" s="212"/>
+      <c r="BE14" s="212"/>
+      <c r="BF14" s="212"/>
+      <c r="BG14" s="212"/>
+      <c r="BH14" s="212"/>
+      <c r="BI14" s="212"/>
+      <c r="BJ14" s="212"/>
+      <c r="BK14" s="212"/>
+      <c r="BV14" s="212"/>
+      <c r="BW14" s="212"/>
+      <c r="BX14" s="212"/>
+      <c r="BY14" s="212"/>
+      <c r="BZ14" s="212"/>
+      <c r="CA14" s="212"/>
+      <c r="CB14" s="214"/>
+      <c r="CC14" s="264"/>
+      <c r="CD14" s="264"/>
+    </row>
+    <row r="15" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="217"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="219" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="220"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="222" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="222" t="s">
+        <v>224</v>
+      </c>
+      <c r="P15" s="223"/>
+      <c r="Q15" s="223"/>
+      <c r="R15" s="223"/>
+      <c r="S15" s="223"/>
+      <c r="T15" s="223"/>
+      <c r="U15" s="223"/>
+      <c r="V15" s="223"/>
+      <c r="W15" s="223"/>
+      <c r="X15" s="223"/>
+      <c r="Y15" s="223"/>
+      <c r="Z15" s="223"/>
+      <c r="AA15" s="223"/>
+      <c r="AB15" s="223"/>
+      <c r="AC15" s="223"/>
+      <c r="AD15" s="223"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="224"/>
+      <c r="AG15" s="241" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH15" s="223"/>
+      <c r="AI15" s="223"/>
+      <c r="AJ15" s="223"/>
+      <c r="AK15" s="223"/>
+      <c r="AL15" s="223"/>
+      <c r="AM15" s="223"/>
+      <c r="AN15" s="223"/>
+      <c r="AO15" s="223"/>
+      <c r="AP15" s="223"/>
+      <c r="AQ15" s="223"/>
+      <c r="AR15" s="223"/>
+      <c r="AS15" s="223"/>
+      <c r="AT15" s="223"/>
+      <c r="AU15" s="223"/>
+      <c r="AV15" s="223"/>
+      <c r="AW15" s="223"/>
+      <c r="AX15" s="224"/>
+      <c r="AY15" s="241" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ15" s="247"/>
+      <c r="BA15" s="247"/>
+      <c r="BB15" s="247"/>
+      <c r="BC15" s="247"/>
+      <c r="BD15" s="247"/>
+      <c r="BE15" s="247"/>
+      <c r="BF15" s="247"/>
+      <c r="BG15" s="247"/>
+      <c r="BH15" s="247"/>
+      <c r="BI15" s="247"/>
+      <c r="BJ15" s="247"/>
+      <c r="BK15" s="248"/>
+      <c r="BL15" s="212"/>
+      <c r="BM15" s="212"/>
+      <c r="BN15" s="265"/>
+      <c r="BO15" s="265"/>
+      <c r="BP15" s="265"/>
+      <c r="BQ15" s="265"/>
+      <c r="BR15" s="265"/>
+      <c r="BS15" s="265"/>
+      <c r="BT15" s="265"/>
+      <c r="BU15" s="265"/>
+      <c r="BV15" s="265"/>
+      <c r="BW15" s="265"/>
+      <c r="BX15" s="265"/>
+      <c r="BY15" s="212"/>
+      <c r="BZ15" s="212"/>
+      <c r="CA15" s="212"/>
+      <c r="CB15" s="214"/>
+      <c r="CC15" s="92"/>
+      <c r="CD15" s="92"/>
+    </row>
+    <row r="16" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="217"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="225"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="228" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="229"/>
+      <c r="I16" s="229"/>
+      <c r="J16" s="229"/>
+      <c r="K16" s="229"/>
+      <c r="L16" s="229"/>
+      <c r="M16" s="229"/>
+      <c r="N16" s="230"/>
+      <c r="O16" s="228" t="s">
+        <v>226</v>
+      </c>
+      <c r="P16" s="229"/>
+      <c r="Q16" s="229"/>
+      <c r="R16" s="229"/>
+      <c r="S16" s="229"/>
+      <c r="T16" s="229"/>
+      <c r="U16" s="229"/>
+      <c r="V16" s="229"/>
+      <c r="W16" s="229"/>
+      <c r="X16" s="229"/>
+      <c r="Y16" s="229"/>
+      <c r="Z16" s="229"/>
+      <c r="AA16" s="229"/>
+      <c r="AB16" s="229"/>
+      <c r="AC16" s="229"/>
+      <c r="AD16" s="229"/>
+      <c r="AE16" s="229"/>
+      <c r="AF16" s="230"/>
+      <c r="AG16" s="242"/>
+      <c r="AH16" s="243"/>
+      <c r="AI16" s="243"/>
+      <c r="AJ16" s="243"/>
+      <c r="AK16" s="243"/>
+      <c r="AL16" s="243"/>
+      <c r="AM16" s="243"/>
+      <c r="AN16" s="243"/>
+      <c r="AO16" s="243"/>
+      <c r="AP16" s="243"/>
+      <c r="AQ16" s="243"/>
+      <c r="AR16" s="243"/>
+      <c r="AS16" s="243"/>
+      <c r="AT16" s="243"/>
+      <c r="AU16" s="243"/>
+      <c r="AV16" s="243"/>
+      <c r="AW16" s="243"/>
+      <c r="AX16" s="244"/>
+      <c r="AY16" s="249"/>
+      <c r="AZ16" s="250"/>
+      <c r="BA16" s="250"/>
+      <c r="BB16" s="250"/>
+      <c r="BC16" s="250"/>
+      <c r="BD16" s="250"/>
+      <c r="BE16" s="250"/>
+      <c r="BF16" s="250"/>
+      <c r="BG16" s="250"/>
+      <c r="BH16" s="250"/>
+      <c r="BI16" s="250"/>
+      <c r="BJ16" s="250"/>
+      <c r="BK16" s="251"/>
+      <c r="BL16" s="212"/>
+      <c r="BM16" s="212"/>
+      <c r="BN16" s="266"/>
+      <c r="BO16" s="266"/>
+      <c r="BP16" s="266"/>
+      <c r="BQ16" s="266"/>
+      <c r="BR16" s="266"/>
+      <c r="BS16" s="266"/>
+      <c r="BT16" s="266"/>
+      <c r="BU16" s="266"/>
+      <c r="BV16" s="266"/>
+      <c r="BW16" s="266"/>
+      <c r="BX16" s="266"/>
+      <c r="BY16" s="212"/>
+      <c r="BZ16" s="212"/>
+      <c r="CA16" s="212"/>
+      <c r="CB16" s="214"/>
+      <c r="CC16" s="92"/>
+      <c r="CD16" s="92"/>
+    </row>
+    <row r="17" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="217"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="233" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="231"/>
+      <c r="H17" s="232"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="269"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="232"/>
+      <c r="Q17" s="232"/>
+      <c r="R17" s="232"/>
+      <c r="S17" s="232"/>
+      <c r="T17" s="232"/>
+      <c r="U17" s="232"/>
+      <c r="V17" s="232"/>
+      <c r="W17" s="232"/>
+      <c r="X17" s="232"/>
+      <c r="Y17" s="232"/>
+      <c r="Z17" s="232"/>
+      <c r="AA17" s="232"/>
+      <c r="AB17" s="232"/>
+      <c r="AC17" s="232"/>
+      <c r="AD17" s="232"/>
+      <c r="AE17" s="232"/>
+      <c r="AF17" s="270"/>
+      <c r="AG17" s="271"/>
+      <c r="AH17" s="232"/>
+      <c r="AI17" s="232"/>
+      <c r="AJ17" s="233"/>
+      <c r="AK17" s="233"/>
+      <c r="AL17" s="233"/>
+      <c r="AM17" s="233"/>
+      <c r="AN17" s="234"/>
+      <c r="AO17" s="233"/>
+      <c r="AP17" s="232"/>
+      <c r="AQ17" s="233"/>
+      <c r="AR17" s="233"/>
+      <c r="AS17" s="233"/>
+      <c r="AT17" s="234"/>
+      <c r="AU17" s="233"/>
+      <c r="AV17" s="232"/>
+      <c r="AW17" s="232"/>
+      <c r="AX17" s="270"/>
+      <c r="AY17" s="271"/>
+      <c r="AZ17" s="232"/>
+      <c r="BA17" s="232"/>
+      <c r="BB17" s="233"/>
+      <c r="BC17" s="233"/>
+      <c r="BD17" s="233"/>
+      <c r="BE17" s="233"/>
+      <c r="BF17" s="233"/>
+      <c r="BG17" s="234"/>
+      <c r="BH17" s="233"/>
+      <c r="BI17" s="232"/>
+      <c r="BJ17" s="232"/>
+      <c r="BK17" s="270"/>
+      <c r="BL17" s="245" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM17" s="235"/>
+      <c r="BN17" s="267"/>
+      <c r="BO17" s="268"/>
+      <c r="BP17" s="267"/>
+      <c r="BQ17" s="268"/>
+      <c r="BR17" s="267"/>
+      <c r="BS17" s="268"/>
+      <c r="BT17" s="267"/>
+      <c r="BU17" s="268"/>
+      <c r="BV17" s="267"/>
+      <c r="BW17" s="267"/>
+      <c r="BX17" s="268"/>
+      <c r="BY17" s="212"/>
+      <c r="BZ17" s="212"/>
+      <c r="CA17" s="212"/>
+      <c r="CB17" s="214"/>
+      <c r="CC17" s="92"/>
+      <c r="CD17" s="92"/>
+    </row>
+    <row r="18" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="217"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="232"/>
+      <c r="F18" s="233" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="231"/>
+      <c r="H18" s="232"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="269"/>
+      <c r="O18" s="231"/>
+      <c r="P18" s="232"/>
+      <c r="Q18" s="232"/>
+      <c r="R18" s="232"/>
+      <c r="S18" s="232"/>
+      <c r="T18" s="232"/>
+      <c r="U18" s="232"/>
+      <c r="V18" s="232"/>
+      <c r="W18" s="232"/>
+      <c r="X18" s="232"/>
+      <c r="Y18" s="232"/>
+      <c r="Z18" s="232"/>
+      <c r="AA18" s="232"/>
+      <c r="AB18" s="232"/>
+      <c r="AC18" s="232"/>
+      <c r="AD18" s="232"/>
+      <c r="AE18" s="232"/>
+      <c r="AF18" s="270"/>
+      <c r="AG18" s="271"/>
+      <c r="AH18" s="232"/>
+      <c r="AI18" s="232"/>
+      <c r="AJ18" s="233"/>
+      <c r="AK18" s="233"/>
+      <c r="AL18" s="233"/>
+      <c r="AM18" s="233"/>
+      <c r="AN18" s="234"/>
+      <c r="AO18" s="233"/>
+      <c r="AP18" s="232"/>
+      <c r="AQ18" s="233"/>
+      <c r="AR18" s="233"/>
+      <c r="AS18" s="233"/>
+      <c r="AT18" s="234"/>
+      <c r="AU18" s="233"/>
+      <c r="AV18" s="232"/>
+      <c r="AW18" s="232"/>
+      <c r="AX18" s="270"/>
+      <c r="AY18" s="271"/>
+      <c r="AZ18" s="232"/>
+      <c r="BA18" s="232"/>
+      <c r="BB18" s="233"/>
+      <c r="BC18" s="233"/>
+      <c r="BD18" s="233"/>
+      <c r="BE18" s="233"/>
+      <c r="BF18" s="233"/>
+      <c r="BG18" s="234"/>
+      <c r="BH18" s="233"/>
+      <c r="BI18" s="232"/>
+      <c r="BJ18" s="232"/>
+      <c r="BK18" s="270"/>
+      <c r="BL18" s="246"/>
+      <c r="BM18" s="236"/>
+      <c r="BN18" s="267"/>
+      <c r="BO18" s="268"/>
+      <c r="BP18" s="267"/>
+      <c r="BQ18" s="268"/>
+      <c r="BR18" s="267"/>
+      <c r="BS18" s="268"/>
+      <c r="BT18" s="267"/>
+      <c r="BU18" s="268"/>
+      <c r="BV18" s="267"/>
+      <c r="BW18" s="267"/>
+      <c r="BX18" s="268"/>
+      <c r="BY18" s="212"/>
+      <c r="BZ18" s="212"/>
+      <c r="CA18" s="212"/>
+      <c r="CB18" s="214"/>
+      <c r="CC18" s="92"/>
+      <c r="CD18" s="92"/>
+    </row>
+    <row r="19" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="217"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="233" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="231"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="269"/>
+      <c r="O19" s="231"/>
+      <c r="P19" s="232"/>
+      <c r="Q19" s="232"/>
+      <c r="R19" s="232"/>
+      <c r="S19" s="232"/>
+      <c r="T19" s="232"/>
+      <c r="U19" s="232"/>
+      <c r="V19" s="232"/>
+      <c r="W19" s="232"/>
+      <c r="X19" s="232"/>
+      <c r="Y19" s="232"/>
+      <c r="Z19" s="232"/>
+      <c r="AA19" s="232"/>
+      <c r="AB19" s="232"/>
+      <c r="AC19" s="232"/>
+      <c r="AD19" s="232"/>
+      <c r="AE19" s="232"/>
+      <c r="AF19" s="270"/>
+      <c r="AG19" s="271"/>
+      <c r="AH19" s="232"/>
+      <c r="AI19" s="232"/>
+      <c r="AJ19" s="233"/>
+      <c r="AK19" s="233"/>
+      <c r="AL19" s="233"/>
+      <c r="AM19" s="233"/>
+      <c r="AN19" s="234"/>
+      <c r="AO19" s="233"/>
+      <c r="AP19" s="232"/>
+      <c r="AQ19" s="233"/>
+      <c r="AR19" s="233"/>
+      <c r="AS19" s="233"/>
+      <c r="AT19" s="234"/>
+      <c r="AU19" s="233"/>
+      <c r="AV19" s="232"/>
+      <c r="AW19" s="232"/>
+      <c r="AX19" s="270"/>
+      <c r="AY19" s="271"/>
+      <c r="AZ19" s="232"/>
+      <c r="BA19" s="232"/>
+      <c r="BB19" s="233"/>
+      <c r="BC19" s="233"/>
+      <c r="BD19" s="233"/>
+      <c r="BE19" s="233"/>
+      <c r="BF19" s="233"/>
+      <c r="BG19" s="234"/>
+      <c r="BH19" s="233"/>
+      <c r="BI19" s="232"/>
+      <c r="BJ19" s="232"/>
+      <c r="BK19" s="270"/>
+      <c r="BL19" s="246"/>
+      <c r="BM19" s="236"/>
+      <c r="BN19" s="267"/>
+      <c r="BO19" s="268"/>
+      <c r="BP19" s="267"/>
+      <c r="BQ19" s="268"/>
+      <c r="BR19" s="267"/>
+      <c r="BS19" s="268"/>
+      <c r="BT19" s="267"/>
+      <c r="BU19" s="268"/>
+      <c r="BV19" s="267"/>
+      <c r="BW19" s="267"/>
+      <c r="BX19" s="268"/>
+      <c r="BY19" s="212"/>
+      <c r="BZ19" s="212"/>
+      <c r="CA19" s="212"/>
+      <c r="CB19" s="214"/>
+      <c r="CC19" s="92"/>
+      <c r="CD19" s="92"/>
+    </row>
+    <row r="20" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="217"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="233" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="231"/>
+      <c r="H20" s="232"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="232"/>
+      <c r="L20" s="232"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="269"/>
+      <c r="O20" s="231"/>
+      <c r="P20" s="232"/>
+      <c r="Q20" s="232"/>
+      <c r="R20" s="232"/>
+      <c r="S20" s="232"/>
+      <c r="T20" s="232"/>
+      <c r="U20" s="232"/>
+      <c r="V20" s="232"/>
+      <c r="W20" s="232"/>
+      <c r="X20" s="232"/>
+      <c r="Y20" s="232"/>
+      <c r="Z20" s="232"/>
+      <c r="AA20" s="232"/>
+      <c r="AB20" s="232"/>
+      <c r="AC20" s="232"/>
+      <c r="AD20" s="232"/>
+      <c r="AE20" s="232"/>
+      <c r="AF20" s="270"/>
+      <c r="AG20" s="271"/>
+      <c r="AH20" s="232"/>
+      <c r="AI20" s="232"/>
+      <c r="AJ20" s="233"/>
+      <c r="AK20" s="233"/>
+      <c r="AL20" s="233"/>
+      <c r="AM20" s="233"/>
+      <c r="AN20" s="234"/>
+      <c r="AO20" s="233"/>
+      <c r="AP20" s="232"/>
+      <c r="AQ20" s="233"/>
+      <c r="AR20" s="233"/>
+      <c r="AS20" s="233"/>
+      <c r="AT20" s="234"/>
+      <c r="AU20" s="233"/>
+      <c r="AV20" s="232"/>
+      <c r="AW20" s="232"/>
+      <c r="AX20" s="270"/>
+      <c r="AY20" s="271"/>
+      <c r="AZ20" s="232"/>
+      <c r="BA20" s="232"/>
+      <c r="BB20" s="233"/>
+      <c r="BC20" s="233"/>
+      <c r="BD20" s="233"/>
+      <c r="BE20" s="233"/>
+      <c r="BF20" s="233"/>
+      <c r="BG20" s="234"/>
+      <c r="BH20" s="233"/>
+      <c r="BI20" s="232"/>
+      <c r="BJ20" s="232"/>
+      <c r="BK20" s="270"/>
+      <c r="BL20" s="246"/>
+      <c r="BM20" s="236"/>
+      <c r="BN20" s="267"/>
+      <c r="BO20" s="268"/>
+      <c r="BP20" s="267"/>
+      <c r="BQ20" s="268"/>
+      <c r="BR20" s="267"/>
+      <c r="BS20" s="268"/>
+      <c r="BT20" s="267"/>
+      <c r="BU20" s="268"/>
+      <c r="BV20" s="267"/>
+      <c r="BW20" s="267"/>
+      <c r="BX20" s="268"/>
+      <c r="BY20" s="212"/>
+      <c r="BZ20" s="212"/>
+      <c r="CA20" s="212"/>
+      <c r="CB20" s="214"/>
+      <c r="CC20" s="92"/>
+      <c r="CD20" s="92"/>
+    </row>
+    <row r="21" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="217"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="233" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="231"/>
+      <c r="H21" s="232"/>
+      <c r="I21" s="232"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="232"/>
+      <c r="L21" s="232"/>
+      <c r="M21" s="232"/>
+      <c r="N21" s="269"/>
+      <c r="O21" s="231"/>
+      <c r="P21" s="232"/>
+      <c r="Q21" s="232"/>
+      <c r="R21" s="232"/>
+      <c r="S21" s="232"/>
+      <c r="T21" s="232"/>
+      <c r="U21" s="232"/>
+      <c r="V21" s="232"/>
+      <c r="W21" s="232"/>
+      <c r="X21" s="232"/>
+      <c r="Y21" s="232"/>
+      <c r="Z21" s="232"/>
+      <c r="AA21" s="232"/>
+      <c r="AB21" s="232"/>
+      <c r="AC21" s="232"/>
+      <c r="AD21" s="232"/>
+      <c r="AE21" s="232"/>
+      <c r="AF21" s="270"/>
+      <c r="AG21" s="271"/>
+      <c r="AH21" s="232"/>
+      <c r="AI21" s="232"/>
+      <c r="AJ21" s="233"/>
+      <c r="AK21" s="233"/>
+      <c r="AL21" s="233"/>
+      <c r="AM21" s="233"/>
+      <c r="AN21" s="234"/>
+      <c r="AO21" s="233"/>
+      <c r="AP21" s="232"/>
+      <c r="AQ21" s="233"/>
+      <c r="AR21" s="233"/>
+      <c r="AS21" s="233"/>
+      <c r="AT21" s="234"/>
+      <c r="AU21" s="233"/>
+      <c r="AV21" s="232"/>
+      <c r="AW21" s="232"/>
+      <c r="AX21" s="270"/>
+      <c r="AY21" s="271"/>
+      <c r="AZ21" s="232"/>
+      <c r="BA21" s="232"/>
+      <c r="BB21" s="233"/>
+      <c r="BC21" s="233"/>
+      <c r="BD21" s="233"/>
+      <c r="BE21" s="233"/>
+      <c r="BF21" s="233"/>
+      <c r="BG21" s="234"/>
+      <c r="BH21" s="233"/>
+      <c r="BI21" s="232"/>
+      <c r="BJ21" s="232"/>
+      <c r="BK21" s="270"/>
+      <c r="BL21" s="217"/>
+      <c r="BM21" s="214"/>
+      <c r="BN21" s="267"/>
+      <c r="BO21" s="268"/>
+      <c r="BP21" s="267"/>
+      <c r="BQ21" s="268"/>
+      <c r="BR21" s="267"/>
+      <c r="BS21" s="268"/>
+      <c r="BT21" s="267"/>
+      <c r="BU21" s="268"/>
+      <c r="BV21" s="267"/>
+      <c r="BW21" s="267"/>
+      <c r="BX21" s="268"/>
+      <c r="BY21" s="212"/>
+      <c r="BZ21" s="212"/>
+      <c r="CA21" s="212"/>
+      <c r="CB21" s="214"/>
+      <c r="CC21" s="92"/>
+      <c r="CD21" s="92"/>
+    </row>
+    <row r="22" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="217"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="233" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="231"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="269"/>
+      <c r="O22" s="231"/>
+      <c r="P22" s="232"/>
+      <c r="Q22" s="232"/>
+      <c r="R22" s="232"/>
+      <c r="S22" s="232"/>
+      <c r="T22" s="232"/>
+      <c r="U22" s="232"/>
+      <c r="V22" s="232"/>
+      <c r="W22" s="232"/>
+      <c r="X22" s="232"/>
+      <c r="Y22" s="232"/>
+      <c r="Z22" s="232"/>
+      <c r="AA22" s="232"/>
+      <c r="AB22" s="232"/>
+      <c r="AC22" s="232"/>
+      <c r="AD22" s="232"/>
+      <c r="AE22" s="232"/>
+      <c r="AF22" s="270"/>
+      <c r="AG22" s="271"/>
+      <c r="AH22" s="232"/>
+      <c r="AI22" s="232"/>
+      <c r="AJ22" s="233"/>
+      <c r="AK22" s="233"/>
+      <c r="AL22" s="233"/>
+      <c r="AM22" s="233"/>
+      <c r="AN22" s="234"/>
+      <c r="AO22" s="233"/>
+      <c r="AP22" s="232"/>
+      <c r="AQ22" s="233"/>
+      <c r="AR22" s="233"/>
+      <c r="AS22" s="233"/>
+      <c r="AT22" s="234"/>
+      <c r="AU22" s="233"/>
+      <c r="AV22" s="232"/>
+      <c r="AW22" s="232"/>
+      <c r="AX22" s="270"/>
+      <c r="AY22" s="271"/>
+      <c r="AZ22" s="232"/>
+      <c r="BA22" s="232"/>
+      <c r="BB22" s="233"/>
+      <c r="BC22" s="233"/>
+      <c r="BD22" s="233"/>
+      <c r="BE22" s="233"/>
+      <c r="BF22" s="233"/>
+      <c r="BG22" s="234"/>
+      <c r="BH22" s="233"/>
+      <c r="BI22" s="232"/>
+      <c r="BJ22" s="232"/>
+      <c r="BK22" s="270"/>
+      <c r="BL22" s="217"/>
+      <c r="BM22" s="214"/>
+      <c r="BN22" s="267"/>
+      <c r="BO22" s="268"/>
+      <c r="BP22" s="267"/>
+      <c r="BQ22" s="268"/>
+      <c r="BR22" s="267"/>
+      <c r="BS22" s="268"/>
+      <c r="BT22" s="267"/>
+      <c r="BU22" s="268"/>
+      <c r="BV22" s="267"/>
+      <c r="BW22" s="267"/>
+      <c r="BX22" s="268"/>
+      <c r="BY22" s="212"/>
+      <c r="BZ22" s="212"/>
+      <c r="CA22" s="212"/>
+      <c r="CB22" s="214"/>
+      <c r="CC22" s="92"/>
+      <c r="CD22" s="92"/>
+    </row>
+    <row r="23" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="217"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="233" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="231"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="269"/>
+      <c r="O23" s="231"/>
+      <c r="P23" s="232"/>
+      <c r="Q23" s="232"/>
+      <c r="R23" s="232"/>
+      <c r="S23" s="232"/>
+      <c r="T23" s="232"/>
+      <c r="U23" s="232"/>
+      <c r="V23" s="232"/>
+      <c r="W23" s="232"/>
+      <c r="X23" s="232"/>
+      <c r="Y23" s="232"/>
+      <c r="Z23" s="232"/>
+      <c r="AA23" s="232"/>
+      <c r="AB23" s="232"/>
+      <c r="AC23" s="232"/>
+      <c r="AD23" s="232"/>
+      <c r="AE23" s="232"/>
+      <c r="AF23" s="270"/>
+      <c r="AG23" s="271"/>
+      <c r="AH23" s="232"/>
+      <c r="AI23" s="232"/>
+      <c r="AJ23" s="233"/>
+      <c r="AK23" s="233"/>
+      <c r="AL23" s="233"/>
+      <c r="AM23" s="233"/>
+      <c r="AN23" s="234"/>
+      <c r="AO23" s="233"/>
+      <c r="AP23" s="232"/>
+      <c r="AQ23" s="233"/>
+      <c r="AR23" s="233"/>
+      <c r="AS23" s="233"/>
+      <c r="AT23" s="234"/>
+      <c r="AU23" s="233"/>
+      <c r="AV23" s="232"/>
+      <c r="AW23" s="232"/>
+      <c r="AX23" s="270"/>
+      <c r="AY23" s="271"/>
+      <c r="AZ23" s="232"/>
+      <c r="BA23" s="232"/>
+      <c r="BB23" s="233"/>
+      <c r="BC23" s="233"/>
+      <c r="BD23" s="233"/>
+      <c r="BE23" s="233"/>
+      <c r="BF23" s="233"/>
+      <c r="BG23" s="234"/>
+      <c r="BH23" s="233"/>
+      <c r="BI23" s="232"/>
+      <c r="BJ23" s="232"/>
+      <c r="BK23" s="270"/>
+      <c r="BL23" s="217"/>
+      <c r="BM23" s="214"/>
+      <c r="BN23" s="267"/>
+      <c r="BO23" s="268"/>
+      <c r="BP23" s="267"/>
+      <c r="BQ23" s="268"/>
+      <c r="BR23" s="267"/>
+      <c r="BS23" s="268"/>
+      <c r="BT23" s="267"/>
+      <c r="BU23" s="268"/>
+      <c r="BV23" s="267"/>
+      <c r="BW23" s="267"/>
+      <c r="BX23" s="268"/>
+      <c r="BY23" s="212"/>
+      <c r="BZ23" s="212"/>
+      <c r="CA23" s="212"/>
+      <c r="CB23" s="214"/>
+      <c r="CC23" s="92"/>
+      <c r="CD23" s="92"/>
+    </row>
+    <row r="24" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="217"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="231"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="231"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="232"/>
+      <c r="L24" s="232"/>
+      <c r="M24" s="232"/>
+      <c r="N24" s="269"/>
+      <c r="O24" s="231"/>
+      <c r="P24" s="232"/>
+      <c r="Q24" s="232"/>
+      <c r="R24" s="232"/>
+      <c r="S24" s="232"/>
+      <c r="T24" s="232"/>
+      <c r="U24" s="232"/>
+      <c r="V24" s="232"/>
+      <c r="W24" s="232"/>
+      <c r="X24" s="232"/>
+      <c r="Y24" s="232"/>
+      <c r="Z24" s="232"/>
+      <c r="AA24" s="232"/>
+      <c r="AB24" s="232"/>
+      <c r="AC24" s="232"/>
+      <c r="AD24" s="232"/>
+      <c r="AE24" s="232"/>
+      <c r="AF24" s="270"/>
+      <c r="AG24" s="271"/>
+      <c r="AH24" s="232"/>
+      <c r="AI24" s="232"/>
+      <c r="AJ24" s="233"/>
+      <c r="AK24" s="233"/>
+      <c r="AL24" s="233"/>
+      <c r="AM24" s="233"/>
+      <c r="AN24" s="234"/>
+      <c r="AO24" s="233"/>
+      <c r="AP24" s="232"/>
+      <c r="AQ24" s="233"/>
+      <c r="AR24" s="233"/>
+      <c r="AS24" s="233"/>
+      <c r="AT24" s="234"/>
+      <c r="AU24" s="233"/>
+      <c r="AV24" s="232"/>
+      <c r="AW24" s="232"/>
+      <c r="AX24" s="270"/>
+      <c r="AY24" s="271"/>
+      <c r="AZ24" s="232"/>
+      <c r="BA24" s="232"/>
+      <c r="BB24" s="233"/>
+      <c r="BC24" s="233"/>
+      <c r="BD24" s="233"/>
+      <c r="BE24" s="233"/>
+      <c r="BF24" s="233"/>
+      <c r="BG24" s="234"/>
+      <c r="BH24" s="233"/>
+      <c r="BI24" s="232"/>
+      <c r="BJ24" s="232"/>
+      <c r="BK24" s="270"/>
+      <c r="BL24" s="217"/>
+      <c r="BM24" s="214"/>
+      <c r="BN24" s="267"/>
+      <c r="BO24" s="268"/>
+      <c r="BP24" s="267"/>
+      <c r="BQ24" s="268"/>
+      <c r="BR24" s="267"/>
+      <c r="BS24" s="268"/>
+      <c r="BT24" s="267"/>
+      <c r="BU24" s="268"/>
+      <c r="BV24" s="267"/>
+      <c r="BW24" s="267"/>
+      <c r="BX24" s="268"/>
+      <c r="BY24" s="212"/>
+      <c r="BZ24" s="212"/>
+      <c r="CA24" s="212"/>
+      <c r="CB24" s="214"/>
+      <c r="CC24" s="92"/>
+      <c r="CD24" s="92"/>
+    </row>
+    <row r="25" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="217"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="231"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="233" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="231"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="232"/>
+      <c r="N25" s="269"/>
+      <c r="O25" s="231"/>
+      <c r="P25" s="232"/>
+      <c r="Q25" s="232"/>
+      <c r="R25" s="232"/>
+      <c r="S25" s="232"/>
+      <c r="T25" s="232"/>
+      <c r="U25" s="232"/>
+      <c r="V25" s="232"/>
+      <c r="W25" s="232"/>
+      <c r="X25" s="232"/>
+      <c r="Y25" s="232"/>
+      <c r="Z25" s="232"/>
+      <c r="AA25" s="232"/>
+      <c r="AB25" s="232"/>
+      <c r="AC25" s="232"/>
+      <c r="AD25" s="232"/>
+      <c r="AE25" s="232"/>
+      <c r="AF25" s="270"/>
+      <c r="AG25" s="271"/>
+      <c r="AH25" s="232"/>
+      <c r="AI25" s="232"/>
+      <c r="AJ25" s="233"/>
+      <c r="AK25" s="233"/>
+      <c r="AL25" s="233"/>
+      <c r="AM25" s="233"/>
+      <c r="AN25" s="234"/>
+      <c r="AO25" s="233"/>
+      <c r="AP25" s="232"/>
+      <c r="AQ25" s="233"/>
+      <c r="AR25" s="233"/>
+      <c r="AS25" s="233"/>
+      <c r="AT25" s="234"/>
+      <c r="AU25" s="233"/>
+      <c r="AV25" s="232"/>
+      <c r="AW25" s="232"/>
+      <c r="AX25" s="270"/>
+      <c r="AY25" s="271"/>
+      <c r="AZ25" s="232"/>
+      <c r="BA25" s="232"/>
+      <c r="BB25" s="233"/>
+      <c r="BC25" s="233"/>
+      <c r="BD25" s="233"/>
+      <c r="BE25" s="233"/>
+      <c r="BF25" s="233"/>
+      <c r="BG25" s="234"/>
+      <c r="BH25" s="233"/>
+      <c r="BI25" s="232"/>
+      <c r="BJ25" s="232"/>
+      <c r="BK25" s="270"/>
+      <c r="BL25" s="217"/>
+      <c r="BM25" s="214"/>
+      <c r="BN25" s="267"/>
+      <c r="BO25" s="268"/>
+      <c r="BP25" s="267"/>
+      <c r="BQ25" s="268"/>
+      <c r="BR25" s="267"/>
+      <c r="BS25" s="268"/>
+      <c r="BT25" s="267"/>
+      <c r="BU25" s="268"/>
+      <c r="BV25" s="267"/>
+      <c r="BW25" s="267"/>
+      <c r="BX25" s="268"/>
+      <c r="BY25" s="212"/>
+      <c r="BZ25" s="212"/>
+      <c r="CA25" s="212"/>
+      <c r="CB25" s="214"/>
+      <c r="CC25" s="92"/>
+      <c r="CD25" s="92"/>
+    </row>
+    <row r="26" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="217"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="233" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="231"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="232"/>
+      <c r="N26" s="269"/>
+      <c r="O26" s="231"/>
+      <c r="P26" s="232"/>
+      <c r="Q26" s="232"/>
+      <c r="R26" s="232"/>
+      <c r="S26" s="232"/>
+      <c r="T26" s="232"/>
+      <c r="U26" s="232"/>
+      <c r="V26" s="232"/>
+      <c r="W26" s="232"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="232"/>
+      <c r="Z26" s="232"/>
+      <c r="AA26" s="232"/>
+      <c r="AB26" s="232"/>
+      <c r="AC26" s="232"/>
+      <c r="AD26" s="232"/>
+      <c r="AE26" s="232"/>
+      <c r="AF26" s="270"/>
+      <c r="AG26" s="271"/>
+      <c r="AH26" s="232"/>
+      <c r="AI26" s="232"/>
+      <c r="AJ26" s="233"/>
+      <c r="AK26" s="233"/>
+      <c r="AL26" s="233"/>
+      <c r="AM26" s="233"/>
+      <c r="AN26" s="234"/>
+      <c r="AO26" s="233"/>
+      <c r="AP26" s="232"/>
+      <c r="AQ26" s="233"/>
+      <c r="AR26" s="233"/>
+      <c r="AS26" s="233"/>
+      <c r="AT26" s="234"/>
+      <c r="AU26" s="233"/>
+      <c r="AV26" s="232"/>
+      <c r="AW26" s="232"/>
+      <c r="AX26" s="270"/>
+      <c r="AY26" s="271"/>
+      <c r="AZ26" s="232"/>
+      <c r="BA26" s="232"/>
+      <c r="BB26" s="233"/>
+      <c r="BC26" s="233"/>
+      <c r="BD26" s="233"/>
+      <c r="BE26" s="233"/>
+      <c r="BF26" s="233"/>
+      <c r="BG26" s="234"/>
+      <c r="BH26" s="233"/>
+      <c r="BI26" s="232"/>
+      <c r="BJ26" s="232"/>
+      <c r="BK26" s="270"/>
+      <c r="BL26" s="217"/>
+      <c r="BM26" s="214"/>
+      <c r="BN26" s="267"/>
+      <c r="BO26" s="268"/>
+      <c r="BP26" s="267"/>
+      <c r="BQ26" s="268"/>
+      <c r="BR26" s="267"/>
+      <c r="BS26" s="268"/>
+      <c r="BT26" s="267"/>
+      <c r="BU26" s="268"/>
+      <c r="BV26" s="267"/>
+      <c r="BW26" s="267"/>
+      <c r="BX26" s="268"/>
+      <c r="BY26" s="212"/>
+      <c r="BZ26" s="212"/>
+      <c r="CA26" s="212"/>
+      <c r="CB26" s="214"/>
+      <c r="CC26" s="92"/>
+      <c r="CD26" s="92"/>
+    </row>
+    <row r="27" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="217"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="233" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" s="231"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="269"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="232"/>
+      <c r="Q27" s="232"/>
+      <c r="R27" s="232"/>
+      <c r="S27" s="232"/>
+      <c r="T27" s="232"/>
+      <c r="U27" s="232"/>
+      <c r="V27" s="232"/>
+      <c r="W27" s="232"/>
+      <c r="X27" s="232"/>
+      <c r="Y27" s="232"/>
+      <c r="Z27" s="232"/>
+      <c r="AA27" s="232"/>
+      <c r="AB27" s="232"/>
+      <c r="AC27" s="232"/>
+      <c r="AD27" s="232"/>
+      <c r="AE27" s="232"/>
+      <c r="AF27" s="270"/>
+      <c r="AG27" s="271"/>
+      <c r="AH27" s="232"/>
+      <c r="AI27" s="232"/>
+      <c r="AJ27" s="233"/>
+      <c r="AK27" s="233"/>
+      <c r="AL27" s="233"/>
+      <c r="AM27" s="233"/>
+      <c r="AN27" s="234"/>
+      <c r="AO27" s="233"/>
+      <c r="AP27" s="232"/>
+      <c r="AQ27" s="233"/>
+      <c r="AR27" s="233"/>
+      <c r="AS27" s="233"/>
+      <c r="AT27" s="234"/>
+      <c r="AU27" s="233"/>
+      <c r="AV27" s="232"/>
+      <c r="AW27" s="232"/>
+      <c r="AX27" s="270"/>
+      <c r="AY27" s="271"/>
+      <c r="AZ27" s="232"/>
+      <c r="BA27" s="232"/>
+      <c r="BB27" s="233"/>
+      <c r="BC27" s="233"/>
+      <c r="BD27" s="233"/>
+      <c r="BE27" s="233"/>
+      <c r="BF27" s="233"/>
+      <c r="BG27" s="234"/>
+      <c r="BH27" s="233"/>
+      <c r="BI27" s="232"/>
+      <c r="BJ27" s="232"/>
+      <c r="BK27" s="270"/>
+      <c r="BL27" s="217"/>
+      <c r="BM27" s="214"/>
+      <c r="BN27" s="267"/>
+      <c r="BO27" s="268"/>
+      <c r="BP27" s="267"/>
+      <c r="BQ27" s="268"/>
+      <c r="BR27" s="267"/>
+      <c r="BS27" s="268"/>
+      <c r="BT27" s="267"/>
+      <c r="BU27" s="268"/>
+      <c r="BV27" s="267"/>
+      <c r="BW27" s="267"/>
+      <c r="BX27" s="268"/>
+      <c r="BY27" s="212"/>
+      <c r="BZ27" s="212"/>
+      <c r="CA27" s="212"/>
+      <c r="CB27" s="214"/>
+      <c r="CC27" s="92"/>
+      <c r="CD27" s="92"/>
+    </row>
+    <row r="28" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="217"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="233" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" s="231"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="232"/>
+      <c r="L28" s="232"/>
+      <c r="M28" s="232"/>
+      <c r="N28" s="269"/>
+      <c r="O28" s="231"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="232"/>
+      <c r="U28" s="232"/>
+      <c r="V28" s="232"/>
+      <c r="W28" s="232"/>
+      <c r="X28" s="232"/>
+      <c r="Y28" s="232"/>
+      <c r="Z28" s="232"/>
+      <c r="AA28" s="232"/>
+      <c r="AB28" s="232"/>
+      <c r="AC28" s="232"/>
+      <c r="AD28" s="232"/>
+      <c r="AE28" s="232"/>
+      <c r="AF28" s="270"/>
+      <c r="AG28" s="271"/>
+      <c r="AH28" s="232"/>
+      <c r="AI28" s="232"/>
+      <c r="AJ28" s="233"/>
+      <c r="AK28" s="233"/>
+      <c r="AL28" s="233"/>
+      <c r="AM28" s="233"/>
+      <c r="AN28" s="234"/>
+      <c r="AO28" s="233"/>
+      <c r="AP28" s="232"/>
+      <c r="AQ28" s="233"/>
+      <c r="AR28" s="233"/>
+      <c r="AS28" s="233"/>
+      <c r="AT28" s="234"/>
+      <c r="AU28" s="233"/>
+      <c r="AV28" s="232"/>
+      <c r="AW28" s="232"/>
+      <c r="AX28" s="270"/>
+      <c r="AY28" s="271"/>
+      <c r="AZ28" s="232"/>
+      <c r="BA28" s="232"/>
+      <c r="BB28" s="233"/>
+      <c r="BC28" s="233"/>
+      <c r="BD28" s="233"/>
+      <c r="BE28" s="233"/>
+      <c r="BF28" s="233"/>
+      <c r="BG28" s="234"/>
+      <c r="BH28" s="233"/>
+      <c r="BI28" s="232"/>
+      <c r="BJ28" s="232"/>
+      <c r="BK28" s="270"/>
+      <c r="BL28" s="217"/>
+      <c r="BM28" s="214"/>
+      <c r="BN28" s="267"/>
+      <c r="BO28" s="268"/>
+      <c r="BP28" s="267"/>
+      <c r="BQ28" s="268"/>
+      <c r="BR28" s="267"/>
+      <c r="BS28" s="268"/>
+      <c r="BT28" s="267"/>
+      <c r="BU28" s="268"/>
+      <c r="BV28" s="267"/>
+      <c r="BW28" s="267"/>
+      <c r="BX28" s="268"/>
+      <c r="BY28" s="212"/>
+      <c r="BZ28" s="212"/>
+      <c r="CA28" s="212"/>
+      <c r="CB28" s="214"/>
+      <c r="CC28" s="92"/>
+      <c r="CD28" s="92"/>
+    </row>
+    <row r="29" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="217"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="233" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" s="231"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="269"/>
+      <c r="O29" s="231"/>
+      <c r="P29" s="232"/>
+      <c r="Q29" s="232"/>
+      <c r="R29" s="232"/>
+      <c r="S29" s="232"/>
+      <c r="T29" s="232"/>
+      <c r="U29" s="232"/>
+      <c r="V29" s="232"/>
+      <c r="W29" s="232"/>
+      <c r="X29" s="232"/>
+      <c r="Y29" s="232"/>
+      <c r="Z29" s="232"/>
+      <c r="AA29" s="232"/>
+      <c r="AB29" s="232"/>
+      <c r="AC29" s="232"/>
+      <c r="AD29" s="232"/>
+      <c r="AE29" s="232"/>
+      <c r="AF29" s="270"/>
+      <c r="AG29" s="271"/>
+      <c r="AH29" s="232"/>
+      <c r="AI29" s="232"/>
+      <c r="AJ29" s="233"/>
+      <c r="AK29" s="233"/>
+      <c r="AL29" s="233"/>
+      <c r="AM29" s="233"/>
+      <c r="AN29" s="234"/>
+      <c r="AO29" s="233"/>
+      <c r="AP29" s="232"/>
+      <c r="AQ29" s="233"/>
+      <c r="AR29" s="233"/>
+      <c r="AS29" s="233"/>
+      <c r="AT29" s="234"/>
+      <c r="AU29" s="233"/>
+      <c r="AV29" s="232"/>
+      <c r="AW29" s="232"/>
+      <c r="AX29" s="270"/>
+      <c r="AY29" s="271"/>
+      <c r="AZ29" s="232"/>
+      <c r="BA29" s="232"/>
+      <c r="BB29" s="233"/>
+      <c r="BC29" s="233"/>
+      <c r="BD29" s="233"/>
+      <c r="BE29" s="233"/>
+      <c r="BF29" s="233"/>
+      <c r="BG29" s="234"/>
+      <c r="BH29" s="233"/>
+      <c r="BI29" s="232"/>
+      <c r="BJ29" s="232"/>
+      <c r="BK29" s="270"/>
+      <c r="BL29" s="217"/>
+      <c r="BM29" s="214"/>
+      <c r="BN29" s="267"/>
+      <c r="BO29" s="268"/>
+      <c r="BP29" s="267"/>
+      <c r="BQ29" s="268"/>
+      <c r="BR29" s="267"/>
+      <c r="BS29" s="268"/>
+      <c r="BT29" s="267"/>
+      <c r="BU29" s="268"/>
+      <c r="BV29" s="267"/>
+      <c r="BW29" s="267"/>
+      <c r="BX29" s="268"/>
+      <c r="BY29" s="212"/>
+      <c r="BZ29" s="212"/>
+      <c r="CA29" s="212"/>
+      <c r="CB29" s="214"/>
+      <c r="CC29" s="92"/>
+      <c r="CD29" s="92"/>
+    </row>
+    <row r="30" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="217"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="231"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="233" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="231"/>
+      <c r="H30" s="232"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="232"/>
+      <c r="L30" s="232"/>
+      <c r="M30" s="232"/>
+      <c r="N30" s="269"/>
+      <c r="O30" s="231"/>
+      <c r="P30" s="232"/>
+      <c r="Q30" s="232"/>
+      <c r="R30" s="232"/>
+      <c r="S30" s="232"/>
+      <c r="T30" s="232"/>
+      <c r="U30" s="232"/>
+      <c r="V30" s="232"/>
+      <c r="W30" s="232"/>
+      <c r="X30" s="232"/>
+      <c r="Y30" s="232"/>
+      <c r="Z30" s="232"/>
+      <c r="AA30" s="232"/>
+      <c r="AB30" s="232"/>
+      <c r="AC30" s="232"/>
+      <c r="AD30" s="232"/>
+      <c r="AE30" s="232"/>
+      <c r="AF30" s="270"/>
+      <c r="AG30" s="271"/>
+      <c r="AH30" s="232"/>
+      <c r="AI30" s="232"/>
+      <c r="AJ30" s="233"/>
+      <c r="AK30" s="233"/>
+      <c r="AL30" s="233"/>
+      <c r="AM30" s="233"/>
+      <c r="AN30" s="234"/>
+      <c r="AO30" s="233"/>
+      <c r="AP30" s="232"/>
+      <c r="AQ30" s="233"/>
+      <c r="AR30" s="233"/>
+      <c r="AS30" s="233"/>
+      <c r="AT30" s="234"/>
+      <c r="AU30" s="233"/>
+      <c r="AV30" s="232"/>
+      <c r="AW30" s="232"/>
+      <c r="AX30" s="270"/>
+      <c r="AY30" s="271"/>
+      <c r="AZ30" s="232"/>
+      <c r="BA30" s="232"/>
+      <c r="BB30" s="233"/>
+      <c r="BC30" s="233"/>
+      <c r="BD30" s="233"/>
+      <c r="BE30" s="233"/>
+      <c r="BF30" s="233"/>
+      <c r="BG30" s="234"/>
+      <c r="BH30" s="233"/>
+      <c r="BI30" s="232"/>
+      <c r="BJ30" s="232"/>
+      <c r="BK30" s="270"/>
+      <c r="BL30" s="217"/>
+      <c r="BM30" s="214"/>
+      <c r="BN30" s="267"/>
+      <c r="BO30" s="268"/>
+      <c r="BP30" s="267"/>
+      <c r="BQ30" s="268"/>
+      <c r="BR30" s="267"/>
+      <c r="BS30" s="268"/>
+      <c r="BT30" s="267"/>
+      <c r="BU30" s="268"/>
+      <c r="BV30" s="267"/>
+      <c r="BW30" s="267"/>
+      <c r="BX30" s="268"/>
+      <c r="BY30" s="212"/>
+      <c r="BZ30" s="212"/>
+      <c r="CA30" s="212"/>
+      <c r="CB30" s="214"/>
+      <c r="CC30" s="92"/>
+      <c r="CD30" s="92"/>
+    </row>
+    <row r="31" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="217"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="233" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="231"/>
+      <c r="H31" s="232"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="269"/>
+      <c r="O31" s="231"/>
+      <c r="P31" s="232"/>
+      <c r="Q31" s="232"/>
+      <c r="R31" s="232"/>
+      <c r="S31" s="232"/>
+      <c r="T31" s="232"/>
+      <c r="U31" s="232"/>
+      <c r="V31" s="232"/>
+      <c r="W31" s="232"/>
+      <c r="X31" s="232"/>
+      <c r="Y31" s="232"/>
+      <c r="Z31" s="232"/>
+      <c r="AA31" s="232"/>
+      <c r="AB31" s="232"/>
+      <c r="AC31" s="232"/>
+      <c r="AD31" s="232"/>
+      <c r="AE31" s="232"/>
+      <c r="AF31" s="270"/>
+      <c r="AG31" s="271"/>
+      <c r="AH31" s="232"/>
+      <c r="AI31" s="232"/>
+      <c r="AJ31" s="233"/>
+      <c r="AK31" s="233"/>
+      <c r="AL31" s="233"/>
+      <c r="AM31" s="233"/>
+      <c r="AN31" s="234"/>
+      <c r="AO31" s="233"/>
+      <c r="AP31" s="232"/>
+      <c r="AQ31" s="233"/>
+      <c r="AR31" s="233"/>
+      <c r="AS31" s="233"/>
+      <c r="AT31" s="234"/>
+      <c r="AU31" s="233"/>
+      <c r="AV31" s="232"/>
+      <c r="AW31" s="232"/>
+      <c r="AX31" s="270"/>
+      <c r="AY31" s="271"/>
+      <c r="AZ31" s="232"/>
+      <c r="BA31" s="232"/>
+      <c r="BB31" s="233"/>
+      <c r="BC31" s="233"/>
+      <c r="BD31" s="233"/>
+      <c r="BE31" s="233"/>
+      <c r="BF31" s="233"/>
+      <c r="BG31" s="234"/>
+      <c r="BH31" s="233"/>
+      <c r="BI31" s="232"/>
+      <c r="BJ31" s="232"/>
+      <c r="BK31" s="270"/>
+      <c r="BL31" s="217"/>
+      <c r="BM31" s="214"/>
+      <c r="BN31" s="267"/>
+      <c r="BO31" s="268"/>
+      <c r="BP31" s="267"/>
+      <c r="BQ31" s="268"/>
+      <c r="BR31" s="267"/>
+      <c r="BS31" s="268"/>
+      <c r="BT31" s="267"/>
+      <c r="BU31" s="268"/>
+      <c r="BV31" s="267"/>
+      <c r="BW31" s="267"/>
+      <c r="BX31" s="268"/>
+      <c r="BY31" s="212"/>
+      <c r="BZ31" s="212"/>
+      <c r="CA31" s="212"/>
+      <c r="CB31" s="214"/>
+      <c r="CC31" s="92"/>
+      <c r="CD31" s="92"/>
+    </row>
+    <row r="32" spans="2:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="217"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="231"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="233" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="231"/>
+      <c r="H32" s="232"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="269"/>
+      <c r="O32" s="231"/>
+      <c r="P32" s="232"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="232"/>
+      <c r="S32" s="232"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="232"/>
+      <c r="AD32" s="232"/>
+      <c r="AE32" s="232"/>
+      <c r="AF32" s="270"/>
+      <c r="AG32" s="271"/>
+      <c r="AH32" s="232"/>
+      <c r="AI32" s="232"/>
+      <c r="AJ32" s="233"/>
+      <c r="AK32" s="233"/>
+      <c r="AL32" s="233"/>
+      <c r="AM32" s="233"/>
+      <c r="AN32" s="234"/>
+      <c r="AO32" s="233"/>
+      <c r="AP32" s="232"/>
+      <c r="AQ32" s="233"/>
+      <c r="AR32" s="233"/>
+      <c r="AS32" s="233"/>
+      <c r="AT32" s="234"/>
+      <c r="AU32" s="233"/>
+      <c r="AV32" s="232"/>
+      <c r="AW32" s="232"/>
+      <c r="AX32" s="270"/>
+      <c r="AY32" s="271"/>
+      <c r="AZ32" s="232"/>
+      <c r="BA32" s="232"/>
+      <c r="BB32" s="233"/>
+      <c r="BC32" s="233"/>
+      <c r="BD32" s="233"/>
+      <c r="BE32" s="233"/>
+      <c r="BF32" s="233"/>
+      <c r="BG32" s="234"/>
+      <c r="BH32" s="233"/>
+      <c r="BI32" s="232"/>
+      <c r="BJ32" s="232"/>
+      <c r="BK32" s="270"/>
+      <c r="BL32" s="245" t="s">
+        <v>213</v>
+      </c>
+      <c r="BM32" s="235"/>
+      <c r="BN32" s="267"/>
+      <c r="BO32" s="268"/>
+      <c r="BP32" s="267"/>
+      <c r="BQ32" s="268"/>
+      <c r="BR32" s="267"/>
+      <c r="BS32" s="268"/>
+      <c r="BT32" s="267"/>
+      <c r="BU32" s="268"/>
+      <c r="BV32" s="267"/>
+      <c r="BW32" s="267"/>
+      <c r="BX32" s="268"/>
+      <c r="BY32" s="212"/>
+      <c r="BZ32" s="212"/>
+      <c r="CA32" s="212"/>
+      <c r="CB32" s="214"/>
+      <c r="CC32" s="92"/>
+      <c r="CD32" s="92"/>
+    </row>
+    <row r="33" spans="2:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="201"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="202"/>
+      <c r="M33" s="202"/>
+      <c r="N33" s="202"/>
+      <c r="O33" s="202"/>
+      <c r="P33" s="202"/>
+      <c r="Q33" s="202"/>
+      <c r="R33" s="202"/>
+      <c r="S33" s="202"/>
+      <c r="T33" s="202"/>
+      <c r="U33" s="202"/>
+      <c r="V33" s="202"/>
+      <c r="W33" s="202"/>
+      <c r="X33" s="202"/>
+      <c r="Y33" s="202"/>
+      <c r="Z33" s="202"/>
+      <c r="AA33" s="202"/>
+      <c r="AB33" s="202"/>
+      <c r="AC33" s="202"/>
+      <c r="AD33" s="202"/>
+      <c r="AE33" s="202"/>
+      <c r="AF33" s="202"/>
+      <c r="AG33" s="202"/>
+      <c r="AH33" s="202"/>
+      <c r="AI33" s="202"/>
+      <c r="AJ33" s="202"/>
+      <c r="AK33" s="202"/>
+      <c r="AL33" s="202"/>
+      <c r="AM33" s="202"/>
+      <c r="AN33" s="202"/>
+      <c r="AO33" s="202"/>
+      <c r="AP33" s="202"/>
+      <c r="AQ33" s="202"/>
+      <c r="AR33" s="202"/>
+      <c r="AS33" s="202"/>
+      <c r="AT33" s="202"/>
+      <c r="AU33" s="202"/>
+      <c r="AV33" s="202"/>
+      <c r="AW33" s="202"/>
+      <c r="AX33" s="202"/>
+      <c r="AY33" s="202"/>
+      <c r="AZ33" s="202"/>
+      <c r="BA33" s="202"/>
+      <c r="BB33" s="202"/>
+      <c r="BC33" s="202"/>
+      <c r="BD33" s="202"/>
+      <c r="BE33" s="202"/>
+      <c r="BF33" s="202"/>
+      <c r="BG33" s="202"/>
+      <c r="BH33" s="202"/>
+      <c r="BI33" s="202"/>
+      <c r="BJ33" s="202"/>
+      <c r="BK33" s="202"/>
+      <c r="BL33" s="252"/>
+      <c r="BM33" s="202"/>
+      <c r="BN33" s="202"/>
+      <c r="BO33" s="202"/>
+      <c r="BP33" s="202"/>
+      <c r="BQ33" s="202"/>
+      <c r="BR33" s="202"/>
+      <c r="BS33" s="202"/>
+      <c r="BT33" s="202"/>
+      <c r="BU33" s="202"/>
+      <c r="BV33" s="202"/>
+      <c r="BW33" s="202"/>
+      <c r="BX33" s="202"/>
+      <c r="BY33" s="202"/>
+      <c r="BZ33" s="202"/>
+      <c r="CA33" s="202"/>
+      <c r="CB33" s="203"/>
+    </row>
+    <row r="34" spans="2:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="204"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="205"/>
+      <c r="L34" s="205"/>
+      <c r="M34" s="205"/>
+      <c r="N34" s="205"/>
+      <c r="O34" s="205"/>
+      <c r="P34" s="205"/>
+      <c r="Q34" s="205"/>
+      <c r="R34" s="205"/>
+      <c r="S34" s="205"/>
+      <c r="T34" s="205"/>
+      <c r="U34" s="205"/>
+      <c r="V34" s="206"/>
+      <c r="W34" s="205"/>
+      <c r="X34" s="205"/>
+      <c r="Y34" s="205"/>
+      <c r="Z34" s="205"/>
+      <c r="AA34" s="205"/>
+      <c r="AB34" s="205"/>
+      <c r="AC34" s="205"/>
+      <c r="AD34" s="205"/>
+      <c r="AE34" s="206"/>
+      <c r="AF34" s="205"/>
+      <c r="AG34" s="205"/>
+      <c r="AH34" s="205"/>
+      <c r="AI34" s="206"/>
+      <c r="AJ34" s="205"/>
+      <c r="AK34" s="206"/>
+      <c r="AL34" s="205"/>
+      <c r="AM34" s="205"/>
+      <c r="AN34" s="205"/>
+      <c r="AO34" s="206"/>
+      <c r="AP34" s="206"/>
+      <c r="AQ34" s="205"/>
+      <c r="AR34" s="205"/>
+      <c r="AS34" s="205"/>
+      <c r="AT34" s="206"/>
+      <c r="AU34" s="205"/>
+      <c r="AV34" s="205"/>
+      <c r="AW34" s="205"/>
+      <c r="AX34" s="206"/>
+      <c r="AY34" s="205"/>
+      <c r="AZ34" s="205"/>
+      <c r="BA34" s="206"/>
+      <c r="BB34" s="205"/>
+      <c r="BC34" s="205"/>
+      <c r="BD34" s="205"/>
+      <c r="BE34" s="205"/>
+      <c r="BF34" s="205"/>
+      <c r="BG34" s="205"/>
+      <c r="BH34" s="205"/>
+      <c r="BI34" s="205"/>
+      <c r="BJ34" s="205"/>
+      <c r="BK34" s="205"/>
+      <c r="BL34" s="206"/>
+      <c r="BM34" s="205"/>
+      <c r="BN34" s="205"/>
+      <c r="BO34" s="205"/>
+      <c r="BP34" s="205"/>
+      <c r="BQ34" s="205"/>
+      <c r="BR34" s="205"/>
+      <c r="BS34" s="207"/>
+      <c r="BT34" s="208"/>
+      <c r="BU34" s="208"/>
+      <c r="BV34" s="208"/>
+      <c r="BW34" s="208"/>
+      <c r="BX34" s="209" t="s">
+        <v>214</v>
+      </c>
+      <c r="BY34" s="207" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ34" s="208"/>
+      <c r="CA34" s="208"/>
+      <c r="CB34" s="210"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="O16:AF16"/>
+    <mergeCell ref="B3:AX4"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:AF15"/>
+    <mergeCell ref="AG15:AX16"/>
+    <mergeCell ref="AY15:BK16"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12826,18 +16424,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12859,18 +16457,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>